--- a/bin/conf/buff.xlsx
+++ b/bin/conf/buff.xlsx
@@ -264,6 +264,21 @@
             <family val="3"/>
             <charset val="134"/>
           </rPr>
+          <t>//隐身 1:是 2:否  可以躲避攻击弹道 并且从显示屏上消失</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
           <t>作者:</t>
         </r>
         <r>
@@ -279,7 +294,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -305,7 +320,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -331,7 +346,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -357,7 +372,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -383,7 +398,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -409,7 +424,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -435,7 +450,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="T1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -461,7 +476,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0">
+    <comment ref="U1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -487,7 +502,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0">
+    <comment ref="V1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -513,7 +528,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0">
+    <comment ref="W1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -539,7 +554,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0">
+    <comment ref="X1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -565,7 +580,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0">
+    <comment ref="Y1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -591,7 +606,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0">
+    <comment ref="Z1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -617,7 +632,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0">
+    <comment ref="AA1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -643,7 +658,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0">
+    <comment ref="AB1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -669,7 +684,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0" shapeId="0">
+    <comment ref="AC1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -695,7 +710,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0">
+    <comment ref="AD1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -721,7 +736,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0">
+    <comment ref="AE1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -747,7 +762,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0" shapeId="0">
+    <comment ref="AF1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -773,7 +788,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0" shapeId="0">
+    <comment ref="AG1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -799,7 +814,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG1" authorId="0" shapeId="0">
+    <comment ref="AH1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -825,7 +840,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH1" authorId="0" shapeId="0">
+    <comment ref="AI1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -851,7 +866,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI1" authorId="0" shapeId="0">
+    <comment ref="AJ1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -877,7 +892,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ1" authorId="0" shapeId="0">
+    <comment ref="AK1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -903,7 +918,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK1" authorId="0" shapeId="0">
+    <comment ref="AL1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -929,7 +944,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL1" authorId="0" shapeId="0">
+    <comment ref="AM1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -952,6 +967,84 @@
           </rPr>
           <t xml:space="preserve">
 //攻击指定目标攻击速度变化值 -10表示降低10点攻击速度</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AN1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//开始生效的时间 1.2表示 1.2秒后生效</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AO1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//攻击后失效 1:是 2:否</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AP1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//使用技能后失效 1:是 2:否</t>
         </r>
       </text>
     </comment>
@@ -960,7 +1053,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1095,6 +1188,55 @@
   </si>
   <si>
     <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA的闪避</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2,,0.3,0.4,0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PA的消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ActiveTime</t>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invisible</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackedInvalid</t>
+  </si>
+  <si>
+    <t>DoSkilledInvalid</t>
+  </si>
+  <si>
+    <t>8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1470,18 +1612,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM9"/>
+  <dimension ref="A1:AP9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="18" max="18" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:42" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1516,88 +1658,100 @@
         <v>11</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="AN1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>54</v>
+      </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1631,18 +1785,18 @@
       <c r="K2" s="4">
         <v>2</v>
       </c>
-      <c r="L2" s="4">
-        <v>2</v>
+      <c r="L2" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="M2" s="4">
-        <v>0</v>
-      </c>
-      <c r="N2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N2" s="4">
+        <v>0</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="O2" s="4">
-        <v>0</v>
-      </c>
       <c r="P2" s="4">
         <v>0</v>
       </c>
@@ -1662,11 +1816,11 @@
         <v>0</v>
       </c>
       <c r="V2" s="4">
+        <v>0</v>
+      </c>
+      <c r="W2" s="4">
         <v>-0.5</v>
       </c>
-      <c r="W2" s="4">
-        <v>0</v>
-      </c>
       <c r="X2" s="4">
         <v>0</v>
       </c>
@@ -1712,9 +1866,20 @@
       <c r="AL2" s="4">
         <v>0</v>
       </c>
-      <c r="AM2" s="4"/>
+      <c r="AM2" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO2" s="4">
+        <v>2</v>
+      </c>
+      <c r="AP2" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:42" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1748,30 +1913,30 @@
       <c r="K3" s="4">
         <v>2</v>
       </c>
-      <c r="L3" s="4">
-        <v>2</v>
+      <c r="L3" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="M3" s="4">
-        <v>0</v>
-      </c>
-      <c r="N3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="O3" s="4">
-        <v>0</v>
-      </c>
       <c r="P3" s="4">
         <v>0</v>
       </c>
       <c r="Q3" s="4">
         <v>0</v>
       </c>
-      <c r="R3" s="4" t="s">
+      <c r="R3" s="4">
+        <v>0</v>
+      </c>
+      <c r="S3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="S3" s="4">
-        <v>0</v>
-      </c>
       <c r="T3" s="4">
         <v>0</v>
       </c>
@@ -1829,13 +1994,280 @@
       <c r="AL3" s="4">
         <v>0</v>
       </c>
-      <c r="AM3" s="4"/>
+      <c r="AM3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO3" s="4">
+        <v>2</v>
+      </c>
+      <c r="AP3" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.15">
-      <c r="P8" s="2"/>
+    <row r="4" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="4">
+        <v>4</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3</v>
+      </c>
+      <c r="G4" s="4">
+        <v>2</v>
+      </c>
+      <c r="H4" s="4">
+        <v>2</v>
+      </c>
+      <c r="I4" s="4">
+        <v>2</v>
+      </c>
+      <c r="J4" s="4">
+        <v>2</v>
+      </c>
+      <c r="K4" s="4">
+        <v>2</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M4" s="4">
+        <v>2</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4">
+        <v>0</v>
+      </c>
+      <c r="S4" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T4" s="4">
+        <v>0</v>
+      </c>
+      <c r="U4" s="4">
+        <v>0</v>
+      </c>
+      <c r="V4" s="4">
+        <v>0</v>
+      </c>
+      <c r="W4" s="4">
+        <v>0</v>
+      </c>
+      <c r="X4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="AG4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="4">
+        <v>2</v>
+      </c>
+      <c r="AP4" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.15">
-      <c r="N9" s="3"/>
+    <row r="5" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="4">
+        <v>4</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4">
+        <v>3</v>
+      </c>
+      <c r="G5" s="4">
+        <v>2</v>
+      </c>
+      <c r="H5" s="4">
+        <v>2</v>
+      </c>
+      <c r="I5" s="4">
+        <v>2</v>
+      </c>
+      <c r="J5" s="4">
+        <v>2</v>
+      </c>
+      <c r="K5" s="4">
+        <v>2</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" s="4">
+        <v>2</v>
+      </c>
+      <c r="N5" s="4">
+        <v>0</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="P5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>0</v>
+      </c>
+      <c r="R5" s="4">
+        <v>0</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T5" s="4">
+        <v>0</v>
+      </c>
+      <c r="U5" s="4">
+        <v>0</v>
+      </c>
+      <c r="V5" s="4">
+        <v>0</v>
+      </c>
+      <c r="W5" s="4">
+        <v>0</v>
+      </c>
+      <c r="X5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO5" s="4">
+        <v>1</v>
+      </c>
+      <c r="AP5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" spans="1:42" x14ac:dyDescent="0.15">
+      <c r="O9" s="3"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/bin/conf/buff.xlsx
+++ b/bin/conf/buff.xlsx
@@ -1048,12 +1048,90 @@
         </r>
       </text>
     </comment>
+    <comment ref="AQ1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//驱散等级 1 表示需要驱散等级大于等于1的 驱散效果才能驱散此buff</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AR1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//buff类型 1:表示良性 2:表示恶性  队友只能驱散我的恶性buff 敌人只能驱散我的良性buff</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AS1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//添加此buff时 是否无视单位魔法免疫 1:是 2:非</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1207,6 +1285,9 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>PA的消失</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1237,6 +1318,23 @@
   </si>
   <si>
     <t>8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ClearLevel</t>
+  </si>
+  <si>
+    <t>BuffType</t>
+  </si>
+  <si>
+    <t>NoCareMagicImmune</t>
+  </si>
+  <si>
+    <t>剑圣风暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1612,10 +1710,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AP9"/>
+  <dimension ref="A1:AS9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <selection activeCell="AS11" sqref="AS11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1623,7 +1721,7 @@
     <col min="19" max="19" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:42" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:45" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1658,7 +1756,7 @@
         <v>11</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>12</v>
@@ -1742,16 +1840,25 @@
         <v>40</v>
       </c>
       <c r="AN1" s="1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AO1" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AP1" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1786,7 +1893,7 @@
         <v>2</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" s="4">
         <v>2</v>
@@ -1878,8 +1985,17 @@
       <c r="AP2" s="4">
         <v>2</v>
       </c>
+      <c r="AQ2" s="4">
+        <v>1</v>
+      </c>
+      <c r="AR2" s="4">
+        <v>2</v>
+      </c>
+      <c r="AS2" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="3" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1914,7 +2030,7 @@
         <v>2</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M3" s="4">
         <v>2</v>
@@ -2006,8 +2122,17 @@
       <c r="AP3" s="4">
         <v>2</v>
       </c>
+      <c r="AQ3" s="4">
+        <v>1</v>
+      </c>
+      <c r="AR3" s="4">
+        <v>1</v>
+      </c>
+      <c r="AS3" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="4" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2042,7 +2167,7 @@
         <v>2</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M4" s="4">
         <v>2</v>
@@ -2134,13 +2259,22 @@
       <c r="AP4" s="4">
         <v>2</v>
       </c>
+      <c r="AQ4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AR4" s="4">
+        <v>1</v>
+      </c>
+      <c r="AS4" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="5" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C5" s="4">
         <v>4</v>
@@ -2179,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P5" s="4">
         <v>0</v>
@@ -2230,7 +2364,7 @@
         <v>0</v>
       </c>
       <c r="AF5" s="4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AG5" s="4">
         <v>0</v>
@@ -2262,11 +2396,157 @@
       <c r="AP5" s="4">
         <v>1</v>
       </c>
+      <c r="AQ5" s="4">
+        <v>2</v>
+      </c>
+      <c r="AR5" s="4">
+        <v>1</v>
+      </c>
+      <c r="AS5" s="4">
+        <v>2</v>
+      </c>
     </row>
-    <row r="8" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="4">
+        <v>4</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4">
+        <v>3</v>
+      </c>
+      <c r="G6" s="4">
+        <v>2</v>
+      </c>
+      <c r="H6" s="4">
+        <v>2</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="K6" s="4">
+        <v>2</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="4">
+        <v>0</v>
+      </c>
+      <c r="O6" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="P6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>0</v>
+      </c>
+      <c r="R6" s="4">
+        <v>0</v>
+      </c>
+      <c r="S6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T6" s="4">
+        <v>0</v>
+      </c>
+      <c r="U6" s="4">
+        <v>0</v>
+      </c>
+      <c r="V6" s="4">
+        <v>0</v>
+      </c>
+      <c r="W6" s="4">
+        <v>0</v>
+      </c>
+      <c r="X6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="4">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="AO6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AP6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ6" s="4">
+        <v>2</v>
+      </c>
+      <c r="AR6" s="4">
+        <v>1</v>
+      </c>
+      <c r="AS6" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:45" x14ac:dyDescent="0.15">
       <c r="Q8" s="2"/>
     </row>
-    <row r="9" spans="1:42" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:45" x14ac:dyDescent="0.15">
       <c r="O9" s="3"/>
     </row>
   </sheetData>

--- a/bin/conf/buff.xlsx
+++ b/bin/conf/buff.xlsx
@@ -862,11 +862,37 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
+//生命恢复变化量以最大生命值为基础 0.2表示增加20%最大生命值每秒的生命恢复</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AJ1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 //无视闪避变化量 0.2就是增加20%的无视闪避</t>
         </r>
       </text>
     </comment>
-    <comment ref="AJ1" authorId="0" shapeId="0">
+    <comment ref="AK1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -892,7 +918,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK1" authorId="0" shapeId="0">
+    <comment ref="AL1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -918,7 +944,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL1" authorId="0" shapeId="0">
+    <comment ref="AM1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -944,7 +970,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM1" authorId="0" shapeId="0">
+    <comment ref="AN1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -970,7 +996,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN1" authorId="0" shapeId="0">
+    <comment ref="AO1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -996,7 +1022,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO1" authorId="0" shapeId="0">
+    <comment ref="AP1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1022,7 +1048,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP1" authorId="0" shapeId="0">
+    <comment ref="AQ1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1048,7 +1074,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ1" authorId="0" shapeId="0">
+    <comment ref="AR1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1074,7 +1100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR1" authorId="0" shapeId="0">
+    <comment ref="AS1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1100,7 +1126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS1" authorId="0" shapeId="0">
+    <comment ref="AT1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1123,6 +1149,84 @@
           </rPr>
           <t xml:space="preserve">
 //添加此buff时 是否无视单位魔法免疫 1:是 2:非</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AU1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//伤害类型(1:物理伤害 2:魔法伤害 3:纯粹伤害 4:不造成伤害)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AV1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//伤害时间间隔</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AW1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//伤害值</t>
         </r>
       </text>
     </comment>
@@ -1131,7 +1235,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="84">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1334,7 +1438,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗棒的魔免</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HPRegainCVOfMaxHP</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗棒的治疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.02,0.03,0.04,0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HurtType</t>
+  </si>
+  <si>
+    <t>HurtTimeInterval</t>
+  </si>
+  <si>
+    <t>HurtValue</t>
+  </si>
+  <si>
+    <t>治疗棒的自动死亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1400,11 +1588,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1710,18 +1896,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS9"/>
+  <dimension ref="A1:AW9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AS11" sqref="AS11"/>
+      <selection activeCell="AP12" sqref="AP12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
+    <col min="2" max="2" width="13.625" customWidth="1"/>
     <col min="19" max="19" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1825,729 +2012,1242 @@
         <v>33</v>
       </c>
       <c r="AI1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>59</v>
       </c>
+      <c r="AU1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>74</v>
+      </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <v>4</v>
       </c>
-      <c r="D2" s="4">
-        <v>1</v>
-      </c>
-      <c r="E2" s="4">
-        <v>2</v>
-      </c>
-      <c r="F2" s="4">
+      <c r="D2" s="2">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2">
         <v>3</v>
       </c>
-      <c r="G2" s="4">
-        <v>2</v>
-      </c>
-      <c r="H2" s="4">
-        <v>2</v>
-      </c>
-      <c r="I2" s="4">
-        <v>2</v>
-      </c>
-      <c r="J2" s="4">
-        <v>2</v>
-      </c>
-      <c r="K2" s="4">
-        <v>2</v>
-      </c>
-      <c r="L2" s="4" t="s">
+      <c r="G2" s="2">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2">
+        <v>2</v>
+      </c>
+      <c r="I2" s="2">
+        <v>2</v>
+      </c>
+      <c r="J2" s="2">
+        <v>2</v>
+      </c>
+      <c r="K2" s="2">
+        <v>2</v>
+      </c>
+      <c r="L2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="4">
-        <v>2</v>
-      </c>
-      <c r="N2" s="4">
-        <v>0</v>
-      </c>
-      <c r="O2" s="4" t="s">
+      <c r="M2" s="2">
+        <v>2</v>
+      </c>
+      <c r="N2" s="2">
+        <v>0</v>
+      </c>
+      <c r="O2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>0</v>
-      </c>
-      <c r="R2" s="4">
-        <v>0</v>
-      </c>
-      <c r="S2" s="4">
-        <v>0</v>
-      </c>
-      <c r="T2" s="4">
-        <v>0</v>
-      </c>
-      <c r="U2" s="4">
-        <v>0</v>
-      </c>
-      <c r="V2" s="4">
-        <v>0</v>
-      </c>
-      <c r="W2" s="4">
+      <c r="P2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="2">
+        <v>0</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2">
+        <v>0</v>
+      </c>
+      <c r="T2" s="2">
+        <v>0</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2">
+        <v>0</v>
+      </c>
+      <c r="W2" s="2">
         <v>-0.5</v>
       </c>
-      <c r="X2" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM2" s="4">
-        <v>0</v>
-      </c>
-      <c r="AN2" s="4" t="s">
+      <c r="X2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AO2" s="4">
-        <v>2</v>
-      </c>
-      <c r="AP2" s="4">
-        <v>2</v>
-      </c>
-      <c r="AQ2" s="4">
-        <v>1</v>
-      </c>
-      <c r="AR2" s="4">
-        <v>2</v>
-      </c>
-      <c r="AS2" s="4">
-        <v>2</v>
+      <c r="AJ2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP2" s="2">
+        <v>2</v>
+      </c>
+      <c r="AQ2" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS2" s="2">
+        <v>2</v>
+      </c>
+      <c r="AT2" s="2">
+        <v>2</v>
+      </c>
+      <c r="AU2" s="2">
+        <v>4</v>
+      </c>
+      <c r="AV2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW2" s="2">
+        <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="2">
         <v>4</v>
       </c>
-      <c r="D3" s="4">
-        <v>1</v>
-      </c>
-      <c r="E3" s="4">
-        <v>2</v>
-      </c>
-      <c r="F3" s="4">
+      <c r="D3" s="2">
+        <v>1</v>
+      </c>
+      <c r="E3" s="2">
+        <v>2</v>
+      </c>
+      <c r="F3" s="2">
         <v>3</v>
       </c>
-      <c r="G3" s="4">
-        <v>2</v>
-      </c>
-      <c r="H3" s="4">
-        <v>2</v>
-      </c>
-      <c r="I3" s="4">
-        <v>2</v>
-      </c>
-      <c r="J3" s="4">
-        <v>2</v>
-      </c>
-      <c r="K3" s="4">
-        <v>2</v>
-      </c>
-      <c r="L3" s="4" t="s">
+      <c r="G3" s="2">
+        <v>2</v>
+      </c>
+      <c r="H3" s="2">
+        <v>2</v>
+      </c>
+      <c r="I3" s="2">
+        <v>2</v>
+      </c>
+      <c r="J3" s="2">
+        <v>2</v>
+      </c>
+      <c r="K3" s="2">
+        <v>2</v>
+      </c>
+      <c r="L3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M3" s="4">
-        <v>2</v>
-      </c>
-      <c r="N3" s="4">
-        <v>0</v>
-      </c>
-      <c r="O3" s="4" t="s">
+      <c r="M3" s="2">
+        <v>2</v>
+      </c>
+      <c r="N3" s="2">
+        <v>0</v>
+      </c>
+      <c r="O3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="P3" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>0</v>
-      </c>
-      <c r="R3" s="4">
-        <v>0</v>
-      </c>
-      <c r="S3" s="4" t="s">
+      <c r="P3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="2">
+        <v>0</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="T3" s="4">
-        <v>0</v>
-      </c>
-      <c r="U3" s="4">
-        <v>0</v>
-      </c>
-      <c r="V3" s="4">
-        <v>0</v>
-      </c>
-      <c r="W3" s="4">
-        <v>0</v>
-      </c>
-      <c r="X3" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AG3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="4">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="4" t="s">
+      <c r="T3" s="2">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2">
+        <v>0</v>
+      </c>
+      <c r="X3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AO3" s="4">
-        <v>2</v>
-      </c>
-      <c r="AP3" s="4">
-        <v>2</v>
-      </c>
-      <c r="AQ3" s="4">
-        <v>1</v>
-      </c>
-      <c r="AR3" s="4">
-        <v>1</v>
-      </c>
-      <c r="AS3" s="4">
-        <v>2</v>
+      <c r="AJ3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP3" s="2">
+        <v>2</v>
+      </c>
+      <c r="AQ3" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT3" s="2">
+        <v>2</v>
+      </c>
+      <c r="AU3" s="2">
+        <v>4</v>
+      </c>
+      <c r="AV3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW3" s="2">
+        <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>43</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="2">
         <v>4</v>
       </c>
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="4">
-        <v>2</v>
-      </c>
-      <c r="F4" s="4">
+      <c r="D4" s="2">
+        <v>1</v>
+      </c>
+      <c r="E4" s="2">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
         <v>3</v>
       </c>
-      <c r="G4" s="4">
-        <v>2</v>
-      </c>
-      <c r="H4" s="4">
-        <v>2</v>
-      </c>
-      <c r="I4" s="4">
-        <v>2</v>
-      </c>
-      <c r="J4" s="4">
-        <v>2</v>
-      </c>
-      <c r="K4" s="4">
-        <v>2</v>
-      </c>
-      <c r="L4" s="4" t="s">
+      <c r="G4" s="2">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2">
+        <v>2</v>
+      </c>
+      <c r="I4" s="2">
+        <v>2</v>
+      </c>
+      <c r="J4" s="2">
+        <v>2</v>
+      </c>
+      <c r="K4" s="2">
+        <v>2</v>
+      </c>
+      <c r="L4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M4" s="4">
-        <v>2</v>
-      </c>
-      <c r="N4" s="4">
-        <v>0</v>
-      </c>
-      <c r="O4" s="4" t="s">
+      <c r="M4" s="2">
+        <v>2</v>
+      </c>
+      <c r="N4" s="2">
+        <v>0</v>
+      </c>
+      <c r="O4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="P4" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>0</v>
-      </c>
-      <c r="R4" s="4">
-        <v>0</v>
-      </c>
-      <c r="S4" s="4" t="s">
+      <c r="P4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="2">
+        <v>0</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="T4" s="4">
-        <v>0</v>
-      </c>
-      <c r="U4" s="4">
-        <v>0</v>
-      </c>
-      <c r="V4" s="4">
-        <v>0</v>
-      </c>
-      <c r="W4" s="4">
-        <v>0</v>
-      </c>
-      <c r="X4" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF4" s="4" t="s">
+      <c r="T4" s="2">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0</v>
+      </c>
+      <c r="W4" s="2">
+        <v>0</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AG4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="4">
-        <v>0</v>
-      </c>
-      <c r="AO4" s="4">
-        <v>2</v>
-      </c>
-      <c r="AP4" s="4">
-        <v>2</v>
-      </c>
-      <c r="AQ4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AR4" s="4">
-        <v>1</v>
-      </c>
-      <c r="AS4" s="4">
-        <v>2</v>
+      <c r="AG4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="2">
+        <v>2</v>
+      </c>
+      <c r="AQ4" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AS4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT4" s="2">
+        <v>2</v>
+      </c>
+      <c r="AU4" s="2">
+        <v>4</v>
+      </c>
+      <c r="AV4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW4" s="2">
+        <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="2">
         <v>4</v>
       </c>
-      <c r="D5" s="4">
-        <v>1</v>
-      </c>
-      <c r="E5" s="4">
-        <v>2</v>
-      </c>
-      <c r="F5" s="4">
+      <c r="D5" s="2">
+        <v>1</v>
+      </c>
+      <c r="E5" s="2">
+        <v>2</v>
+      </c>
+      <c r="F5" s="2">
         <v>3</v>
       </c>
-      <c r="G5" s="4">
-        <v>2</v>
-      </c>
-      <c r="H5" s="4">
-        <v>2</v>
-      </c>
-      <c r="I5" s="4">
-        <v>2</v>
-      </c>
-      <c r="J5" s="4">
-        <v>2</v>
-      </c>
-      <c r="K5" s="4">
-        <v>2</v>
-      </c>
-      <c r="L5" s="4" t="s">
+      <c r="G5" s="2">
+        <v>2</v>
+      </c>
+      <c r="H5" s="2">
+        <v>2</v>
+      </c>
+      <c r="I5" s="2">
+        <v>2</v>
+      </c>
+      <c r="J5" s="2">
+        <v>2</v>
+      </c>
+      <c r="K5" s="2">
+        <v>2</v>
+      </c>
+      <c r="L5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="4">
-        <v>2</v>
-      </c>
-      <c r="N5" s="4">
-        <v>0</v>
-      </c>
-      <c r="O5" s="4" t="s">
+      <c r="M5" s="2">
+        <v>2</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="P5" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="4">
-        <v>0</v>
-      </c>
-      <c r="R5" s="4">
-        <v>0</v>
-      </c>
-      <c r="S5" s="4" t="s">
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="T5" s="4">
-        <v>0</v>
-      </c>
-      <c r="U5" s="4">
-        <v>0</v>
-      </c>
-      <c r="V5" s="4">
-        <v>0</v>
-      </c>
-      <c r="W5" s="4">
-        <v>0</v>
-      </c>
-      <c r="X5" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF5" s="4" t="s">
+      <c r="T5" s="2">
+        <v>0</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0</v>
+      </c>
+      <c r="W5" s="2">
+        <v>0</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AG5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="4">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="4" t="s">
+      <c r="AG5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AO5" s="4">
-        <v>1</v>
-      </c>
-      <c r="AP5" s="4">
-        <v>1</v>
-      </c>
-      <c r="AQ5" s="4">
-        <v>2</v>
-      </c>
-      <c r="AR5" s="4">
-        <v>1</v>
-      </c>
-      <c r="AS5" s="4">
-        <v>2</v>
+      <c r="AJ5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AP5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AQ5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AR5" s="2">
+        <v>2</v>
+      </c>
+      <c r="AS5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT5" s="2">
+        <v>2</v>
+      </c>
+      <c r="AU5" s="2">
+        <v>4</v>
+      </c>
+      <c r="AV5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="2">
+        <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:49" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="2">
         <v>4</v>
       </c>
-      <c r="D6" s="4">
-        <v>1</v>
-      </c>
-      <c r="E6" s="4">
-        <v>2</v>
-      </c>
-      <c r="F6" s="4">
+      <c r="D6" s="2">
+        <v>1</v>
+      </c>
+      <c r="E6" s="2">
+        <v>2</v>
+      </c>
+      <c r="F6" s="2">
         <v>3</v>
       </c>
-      <c r="G6" s="4">
-        <v>2</v>
-      </c>
-      <c r="H6" s="4">
-        <v>2</v>
-      </c>
-      <c r="I6" s="4" t="s">
+      <c r="G6" s="2">
+        <v>2</v>
+      </c>
+      <c r="H6" s="2">
+        <v>2</v>
+      </c>
+      <c r="I6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="K6" s="4">
-        <v>2</v>
-      </c>
-      <c r="L6" s="4" t="s">
+      <c r="K6" s="2">
+        <v>2</v>
+      </c>
+      <c r="L6" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N6" s="4">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4" t="s">
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="P6" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="4">
-        <v>0</v>
-      </c>
-      <c r="R6" s="4">
-        <v>0</v>
-      </c>
-      <c r="S6" s="4" t="s">
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="T6" s="4">
-        <v>0</v>
-      </c>
-      <c r="U6" s="4">
-        <v>0</v>
-      </c>
-      <c r="V6" s="4">
-        <v>0</v>
-      </c>
-      <c r="W6" s="4">
-        <v>0</v>
-      </c>
-      <c r="X6" s="4">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="4">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AD6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AE6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="4" t="s">
+      <c r="T6" s="2">
+        <v>0</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0</v>
+      </c>
+      <c r="W6" s="2">
+        <v>0</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AG6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AH6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="4">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="4" t="s">
+      <c r="AG6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="AP6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR6" s="2">
+        <v>2</v>
+      </c>
+      <c r="AS6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT6" s="2">
+        <v>2</v>
+      </c>
+      <c r="AU6" s="2">
+        <v>4</v>
+      </c>
+      <c r="AV6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW6" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D7" s="2">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2">
+        <v>2</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1</v>
+      </c>
+      <c r="I7" s="2">
+        <v>1</v>
+      </c>
+      <c r="J7" s="2">
+        <v>1</v>
+      </c>
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2">
+        <v>2</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2">
+        <v>0</v>
+      </c>
+      <c r="T7" s="2">
+        <v>0</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2">
+        <v>0</v>
+      </c>
+      <c r="W7" s="2">
+        <v>0</v>
+      </c>
+      <c r="X7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI7" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AQ7" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU7" s="2">
+        <v>4</v>
+      </c>
+      <c r="AV7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1</v>
+      </c>
+      <c r="E8" s="2">
+        <v>2</v>
+      </c>
+      <c r="F8" s="2">
+        <v>3</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AO6" s="4" t="s">
+      <c r="J8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AP6" s="4" t="s">
+      <c r="K8" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L8" s="2">
+        <v>2</v>
+      </c>
+      <c r="M8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AQ6" s="4">
-        <v>2</v>
-      </c>
-      <c r="AR6" s="4">
-        <v>1</v>
-      </c>
-      <c r="AS6" s="4">
-        <v>2</v>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>1</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="2">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2">
+        <v>0</v>
+      </c>
+      <c r="T8" s="2">
+        <v>0</v>
+      </c>
+      <c r="U8" s="2">
+        <v>0</v>
+      </c>
+      <c r="V8" s="2">
+        <v>0</v>
+      </c>
+      <c r="W8" s="2">
+        <v>0</v>
+      </c>
+      <c r="X8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD8" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AJ8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AQ8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU8" s="2">
+        <v>4</v>
+      </c>
+      <c r="AV8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW8" s="2">
+        <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="Q8" s="2"/>
-    </row>
-    <row r="9" spans="1:45" x14ac:dyDescent="0.15">
-      <c r="O9" s="3"/>
+    <row r="9" spans="1:49" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D9" s="2">
+        <v>1</v>
+      </c>
+      <c r="E9" s="2">
+        <v>2</v>
+      </c>
+      <c r="F9" s="2">
+        <v>3</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="L9" s="2">
+        <v>2</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>1</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="2">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2">
+        <v>0</v>
+      </c>
+      <c r="T9" s="2">
+        <v>0</v>
+      </c>
+      <c r="U9" s="2">
+        <v>0</v>
+      </c>
+      <c r="V9" s="2">
+        <v>0</v>
+      </c>
+      <c r="W9" s="2">
+        <v>0</v>
+      </c>
+      <c r="X9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AE9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="AP9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="AQ9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR9" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AS9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AV9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW9" s="2" t="s">
+        <v>81</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/bin/conf/buff.xlsx
+++ b/bin/conf/buff.xlsx
@@ -316,11 +316,37 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
+//物理攻击免疫 1:是 2:非</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 //buff范围 小于等于0表示单体</t>
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -346,7 +372,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -372,7 +398,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="R1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -398,7 +424,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -424,7 +450,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="T1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -450,7 +476,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0">
+    <comment ref="U1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -476,7 +502,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0">
+    <comment ref="V1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -502,7 +528,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0">
+    <comment ref="W1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -528,7 +554,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0">
+    <comment ref="X1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -554,7 +580,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0">
+    <comment ref="Y1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -580,7 +606,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0">
+    <comment ref="Z1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -606,7 +632,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0">
+    <comment ref="AA1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -632,7 +658,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0">
+    <comment ref="AB1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -658,7 +684,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="0" shapeId="0">
+    <comment ref="AC1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -684,7 +710,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0">
+    <comment ref="AD1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -710,7 +736,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0">
+    <comment ref="AE1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -736,7 +762,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0" shapeId="0">
+    <comment ref="AF1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -762,7 +788,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0" shapeId="0">
+    <comment ref="AG1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -788,7 +814,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AG1" authorId="0" shapeId="0">
+    <comment ref="AH1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -814,7 +840,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AH1" authorId="0" shapeId="0">
+    <comment ref="AI1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -840,7 +866,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AI1" authorId="0" shapeId="0">
+    <comment ref="AJ1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -866,7 +892,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AJ1" authorId="0" shapeId="0">
+    <comment ref="AK1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -892,7 +918,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AK1" authorId="0" shapeId="0">
+    <comment ref="AL1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -918,7 +944,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AL1" authorId="0" shapeId="0">
+    <comment ref="AM1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -944,7 +970,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AM1" authorId="0" shapeId="0">
+    <comment ref="AN1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -970,7 +996,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AN1" authorId="0" shapeId="0">
+    <comment ref="AO1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -996,7 +1022,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AO1" authorId="0" shapeId="0">
+    <comment ref="AP1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1022,7 +1048,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AP1" authorId="0" shapeId="0">
+    <comment ref="AQ1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1048,7 +1074,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AQ1" authorId="0" shapeId="0">
+    <comment ref="AR1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1074,7 +1100,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AR1" authorId="0" shapeId="0">
+    <comment ref="AS1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1100,7 +1126,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AS1" authorId="0" shapeId="0">
+    <comment ref="AT1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1126,7 +1152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AT1" authorId="0" shapeId="0">
+    <comment ref="AU1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1152,7 +1178,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AU1" authorId="0" shapeId="0">
+    <comment ref="AV1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1178,7 +1204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AV1" authorId="0" shapeId="0">
+    <comment ref="AW1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1204,7 +1230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AW1" authorId="0" shapeId="0">
+    <comment ref="AX1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1235,7 +1261,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="93">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1431,9 +1457,6 @@
     <t>BuffType</t>
   </si>
   <si>
-    <t>NoCareMagicImmune</t>
-  </si>
-  <si>
     <t>剑圣风暴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1523,6 +1546,44 @@
   </si>
   <si>
     <t>25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhisicImmune</t>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑圣无敌斩的无敌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3.25,3.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoCareMagicImmuneAddBuff</t>
+  </si>
+  <si>
+    <t>30,40,50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1896,19 +1957,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AW9"/>
+  <dimension ref="A1:AX10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <selection activeCell="AP12" sqref="AP12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T16" sqref="T16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="13.625" customWidth="1"/>
-    <col min="19" max="19" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:49" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:50" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1949,115 +2010,118 @@
         <v>12</v>
       </c>
       <c r="N1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="AJ1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="AK1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AT1" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="AU1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="AW1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="AW1" s="1" t="s">
-        <v>74</v>
-      </c>
     </row>
-    <row r="2" spans="1:49" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2097,15 +2161,15 @@
       <c r="M2" s="2">
         <v>2</v>
       </c>
-      <c r="N2" s="2">
-        <v>0</v>
-      </c>
-      <c r="O2" s="2" t="s">
+      <c r="N2" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O2" s="2">
+        <v>0</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P2" s="2">
-        <v>0</v>
-      </c>
       <c r="Q2" s="2">
         <v>0</v>
       </c>
@@ -2125,11 +2189,11 @@
         <v>0</v>
       </c>
       <c r="W2" s="2">
+        <v>0</v>
+      </c>
+      <c r="X2" s="2">
         <v>-0.5</v>
       </c>
-      <c r="X2" s="2">
-        <v>0</v>
-      </c>
       <c r="Y2" s="2">
         <v>0</v>
       </c>
@@ -2160,12 +2224,12 @@
       <c r="AH2" s="2">
         <v>0</v>
       </c>
-      <c r="AI2" s="2" t="s">
+      <c r="AI2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AJ2" s="2">
-        <v>0</v>
-      </c>
       <c r="AK2" s="2">
         <v>0</v>
       </c>
@@ -2178,35 +2242,38 @@
       <c r="AN2" s="2">
         <v>0</v>
       </c>
-      <c r="AO2" s="2" t="s">
+      <c r="AO2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AP2" s="2">
-        <v>2</v>
-      </c>
       <c r="AQ2" s="2">
         <v>2</v>
       </c>
       <c r="AR2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AT2" s="2">
         <v>2</v>
       </c>
       <c r="AU2" s="2">
+        <v>2</v>
+      </c>
+      <c r="AV2" s="2">
         <v>4</v>
       </c>
-      <c r="AV2" s="2">
-        <v>1</v>
-      </c>
       <c r="AW2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX2" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:49" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2246,27 +2313,27 @@
       <c r="M3" s="2">
         <v>2</v>
       </c>
-      <c r="N3" s="2">
-        <v>0</v>
-      </c>
-      <c r="O3" s="2" t="s">
+      <c r="N3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O3" s="2">
+        <v>0</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="P3" s="2">
-        <v>0</v>
-      </c>
       <c r="Q3" s="2">
         <v>0</v>
       </c>
       <c r="R3" s="2">
         <v>0</v>
       </c>
-      <c r="S3" s="2" t="s">
+      <c r="S3" s="2">
+        <v>0</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="T3" s="2">
-        <v>0</v>
-      </c>
       <c r="U3" s="2">
         <v>0</v>
       </c>
@@ -2309,12 +2376,12 @@
       <c r="AH3" s="2">
         <v>0</v>
       </c>
-      <c r="AI3" s="2" t="s">
+      <c r="AI3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AJ3" s="2">
-        <v>0</v>
-      </c>
       <c r="AK3" s="2">
         <v>0</v>
       </c>
@@ -2327,35 +2394,38 @@
       <c r="AN3" s="2">
         <v>0</v>
       </c>
-      <c r="AO3" s="2" t="s">
+      <c r="AO3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AP3" s="2">
-        <v>2</v>
-      </c>
       <c r="AQ3" s="2">
         <v>2</v>
       </c>
       <c r="AR3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS3" s="2">
         <v>1</v>
       </c>
       <c r="AT3" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU3" s="2">
+        <v>2</v>
+      </c>
+      <c r="AV3" s="2">
         <v>4</v>
       </c>
-      <c r="AV3" s="2">
-        <v>1</v>
-      </c>
       <c r="AW3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:49" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2395,27 +2465,27 @@
       <c r="M4" s="2">
         <v>2</v>
       </c>
-      <c r="N4" s="2">
-        <v>0</v>
-      </c>
-      <c r="O4" s="2" t="s">
+      <c r="N4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O4" s="2">
+        <v>0</v>
+      </c>
+      <c r="P4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="P4" s="2">
-        <v>0</v>
-      </c>
       <c r="Q4" s="2">
         <v>0</v>
       </c>
       <c r="R4" s="2">
         <v>0</v>
       </c>
-      <c r="S4" s="2" t="s">
+      <c r="S4" s="2">
+        <v>0</v>
+      </c>
+      <c r="T4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="T4" s="2">
-        <v>0</v>
-      </c>
       <c r="U4" s="2">
         <v>0</v>
       </c>
@@ -2449,20 +2519,20 @@
       <c r="AE4" s="2">
         <v>0</v>
       </c>
-      <c r="AF4" s="2" t="s">
+      <c r="AF4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AG4" s="2">
-        <v>0</v>
-      </c>
       <c r="AH4" s="2">
         <v>0</v>
       </c>
-      <c r="AI4" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ4" s="2">
-        <v>0</v>
+      <c r="AI4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>64</v>
       </c>
       <c r="AK4" s="2">
         <v>0</v>
@@ -2480,31 +2550,34 @@
         <v>0</v>
       </c>
       <c r="AP4" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AQ4" s="2">
         <v>2</v>
       </c>
       <c r="AR4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AS4" s="2">
         <v>1</v>
       </c>
       <c r="AT4" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU4" s="2">
+        <v>2</v>
+      </c>
+      <c r="AV4" s="2">
         <v>4</v>
       </c>
-      <c r="AV4" s="2">
-        <v>1</v>
-      </c>
       <c r="AW4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX4" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:49" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2544,27 +2617,27 @@
       <c r="M5" s="2">
         <v>2</v>
       </c>
-      <c r="N5" s="2">
-        <v>0</v>
-      </c>
-      <c r="O5" s="2" t="s">
+      <c r="N5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="P5" s="2">
-        <v>0</v>
-      </c>
       <c r="Q5" s="2">
         <v>0</v>
       </c>
       <c r="R5" s="2">
         <v>0</v>
       </c>
-      <c r="S5" s="2" t="s">
+      <c r="S5" s="2">
+        <v>0</v>
+      </c>
+      <c r="T5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="T5" s="2">
-        <v>0</v>
-      </c>
       <c r="U5" s="2">
         <v>0</v>
       </c>
@@ -2598,21 +2671,21 @@
       <c r="AE5" s="2">
         <v>0</v>
       </c>
-      <c r="AF5" s="2" t="s">
+      <c r="AF5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AG5" s="2">
-        <v>0</v>
-      </c>
       <c r="AH5" s="2">
         <v>0</v>
       </c>
-      <c r="AI5" s="2" t="s">
+      <c r="AI5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AJ5" s="2">
-        <v>0</v>
-      </c>
       <c r="AK5" s="2">
         <v>0</v>
       </c>
@@ -2625,40 +2698,43 @@
       <c r="AN5" s="2">
         <v>0</v>
       </c>
-      <c r="AO5" s="2" t="s">
+      <c r="AO5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AP5" s="2">
-        <v>1</v>
-      </c>
       <c r="AQ5" s="2">
         <v>1</v>
       </c>
       <c r="AR5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AS5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU5" s="2">
+        <v>2</v>
+      </c>
+      <c r="AV5" s="2">
         <v>4</v>
       </c>
-      <c r="AV5" s="2">
-        <v>1</v>
-      </c>
       <c r="AW5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX5" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:49" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C6" s="2">
         <v>4</v>
@@ -2693,34 +2769,34 @@
       <c r="M6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N6" s="2">
-        <v>0</v>
-      </c>
-      <c r="O6" s="2" t="s">
+      <c r="N6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="P6" s="2">
-        <v>0</v>
-      </c>
       <c r="Q6" s="2">
         <v>0</v>
       </c>
       <c r="R6" s="2">
         <v>0</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="S6" s="2">
+        <v>0</v>
+      </c>
+      <c r="T6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="T6" s="2">
-        <v>0</v>
-      </c>
       <c r="U6" s="2">
         <v>0</v>
       </c>
       <c r="V6" s="2">
         <v>0</v>
       </c>
-      <c r="W6" s="2">
+      <c r="W6">
         <v>0</v>
       </c>
       <c r="X6" s="2">
@@ -2741,26 +2817,26 @@
       <c r="AC6" s="2">
         <v>0</v>
       </c>
-      <c r="AD6" s="2" t="s">
+      <c r="AD6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AE6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF6" s="2" t="s">
+      <c r="AF6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AG6" s="2">
-        <v>0</v>
-      </c>
       <c r="AH6" s="2">
         <v>0</v>
       </c>
-      <c r="AI6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="AJ6" s="2">
-        <v>0</v>
+      <c r="AI6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="2" t="s">
+        <v>65</v>
       </c>
       <c r="AK6" s="2">
         <v>0</v>
@@ -2774,43 +2850,46 @@
       <c r="AN6" s="2">
         <v>0</v>
       </c>
-      <c r="AO6" s="2" t="s">
-        <v>62</v>
+      <c r="AO6" s="2">
+        <v>0</v>
       </c>
       <c r="AP6" s="2" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="AQ6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AR6" s="2">
-        <v>2</v>
+      <c r="AR6" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="AS6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT6" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AU6" s="2">
+        <v>2</v>
+      </c>
+      <c r="AV6" s="2">
         <v>4</v>
       </c>
-      <c r="AV6" s="2">
-        <v>1</v>
-      </c>
       <c r="AW6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX6" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:49" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D7" s="2">
         <v>1</v>
@@ -2842,14 +2921,14 @@
       <c r="M7" s="2">
         <v>1</v>
       </c>
-      <c r="N7" s="2">
-        <v>0</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="P7" s="2">
-        <v>0</v>
+      <c r="N7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="Q7" s="2">
         <v>0</v>
@@ -2891,10 +2970,10 @@
         <v>0</v>
       </c>
       <c r="AD7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AF7" s="2">
         <v>0</v>
@@ -2905,12 +2984,12 @@
       <c r="AH7" s="2">
         <v>0</v>
       </c>
-      <c r="AI7" s="2" t="s">
+      <c r="AI7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AJ7" s="2">
-        <v>0</v>
-      </c>
       <c r="AK7" s="2">
         <v>0</v>
       </c>
@@ -2926,40 +3005,43 @@
       <c r="AO7" s="2">
         <v>0</v>
       </c>
-      <c r="AP7" s="2" t="s">
-        <v>77</v>
+      <c r="AP7" s="2">
+        <v>0</v>
       </c>
       <c r="AQ7" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="AR7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AR7" s="2">
-        <v>0</v>
-      </c>
       <c r="AS7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="2">
         <v>1</v>
       </c>
       <c r="AU7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV7" s="2">
         <v>4</v>
       </c>
-      <c r="AV7" s="2">
-        <v>1</v>
-      </c>
       <c r="AW7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX7" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:49" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="D8" s="2">
         <v>1</v>
@@ -2977,13 +3059,13 @@
         <v>51</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J8" s="2" t="s">
         <v>51</v>
       </c>
       <c r="K8" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L8" s="2">
         <v>2</v>
@@ -2991,14 +3073,14 @@
       <c r="M8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N8" s="2">
-        <v>0</v>
+      <c r="N8" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="O8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q8" s="2">
         <v>0</v>
@@ -3039,12 +3121,12 @@
       <c r="AC8" s="2">
         <v>0</v>
       </c>
-      <c r="AD8" s="2" t="s">
+      <c r="AD8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AE8" s="2">
-        <v>0</v>
-      </c>
       <c r="AF8" s="2">
         <v>0</v>
       </c>
@@ -3054,11 +3136,11 @@
       <c r="AH8" s="2">
         <v>0</v>
       </c>
-      <c r="AI8" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="AJ8" s="2">
-        <v>0</v>
+      <c r="AI8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="2" t="s">
+        <v>68</v>
       </c>
       <c r="AK8" s="2">
         <v>0</v>
@@ -3075,40 +3157,43 @@
       <c r="AO8" s="2">
         <v>0</v>
       </c>
-      <c r="AP8" s="2" t="s">
-        <v>79</v>
+      <c r="AP8" s="2">
+        <v>0</v>
       </c>
       <c r="AQ8" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="AR8" s="2">
-        <v>0</v>
+        <v>78</v>
+      </c>
+      <c r="AR8" s="2" t="s">
+        <v>75</v>
       </c>
       <c r="AS8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="2">
         <v>1</v>
       </c>
       <c r="AU8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV8" s="2">
         <v>4</v>
       </c>
-      <c r="AV8" s="2">
-        <v>1</v>
-      </c>
       <c r="AW8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX8" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:49" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:50" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D9" s="2">
         <v>1</v>
@@ -3126,13 +3211,13 @@
         <v>51</v>
       </c>
       <c r="I9" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="J9" s="2" t="s">
         <v>51</v>
       </c>
       <c r="K9" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="L9" s="2">
         <v>2</v>
@@ -3140,14 +3225,14 @@
       <c r="M9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N9" s="2">
-        <v>0</v>
+      <c r="N9" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="O9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="2">
         <v>0</v>
@@ -3188,12 +3273,12 @@
       <c r="AC9" s="2">
         <v>0</v>
       </c>
-      <c r="AD9" s="2" t="s">
+      <c r="AD9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AE9" s="2">
-        <v>0</v>
-      </c>
       <c r="AF9" s="2">
         <v>0</v>
       </c>
@@ -3203,12 +3288,12 @@
       <c r="AH9" s="2">
         <v>0</v>
       </c>
-      <c r="AI9" s="2" t="s">
+      <c r="AI9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AJ9" s="2">
-        <v>0</v>
-      </c>
       <c r="AK9" s="2">
         <v>0</v>
       </c>
@@ -3221,32 +3306,187 @@
       <c r="AN9" s="2">
         <v>0</v>
       </c>
-      <c r="AO9" s="2" t="s">
-        <v>83</v>
+      <c r="AO9" s="2">
+        <v>0</v>
       </c>
       <c r="AP9" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="AQ9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="AR9" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="AT9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AV9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AW9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX9" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AQ9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>87</v>
+      </c>
+      <c r="C10" s="2">
+        <v>4</v>
+      </c>
+      <c r="D10" s="2">
+        <v>1</v>
+      </c>
+      <c r="E10" s="2">
+        <v>2</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K10" s="2">
+        <v>2</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0</v>
+      </c>
+      <c r="S10" s="2">
+        <v>0</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="U10" s="2">
+        <v>0</v>
+      </c>
+      <c r="V10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="AQ10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AR9" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AS9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AT9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU9" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AV9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AW9" s="2" t="s">
-        <v>81</v>
+      <c r="AR10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS10" s="2">
+        <v>2</v>
+      </c>
+      <c r="AT10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU10" s="2">
+        <v>2</v>
+      </c>
+      <c r="AV10" s="2">
+        <v>4</v>
+      </c>
+      <c r="AW10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX10" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/bin/conf/buff.xlsx
+++ b/bin/conf/buff.xlsx
@@ -1261,7 +1261,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="96">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1584,6 +1584,18 @@
   </si>
   <si>
     <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小黑的冰箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.76,-0.32,-0.48,-0.64</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1957,10 +1969,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX10"/>
+  <dimension ref="A1:AX11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="AA16" sqref="AA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3489,6 +3501,158 @@
         <v>0</v>
       </c>
     </row>
+    <row r="11" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="2">
+        <v>4</v>
+      </c>
+      <c r="D11" s="2">
+        <v>1</v>
+      </c>
+      <c r="E11" s="2">
+        <v>2</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3</v>
+      </c>
+      <c r="G11" s="2">
+        <v>2</v>
+      </c>
+      <c r="H11" s="2">
+        <v>2</v>
+      </c>
+      <c r="I11" s="2">
+        <v>2</v>
+      </c>
+      <c r="J11" s="2">
+        <v>2</v>
+      </c>
+      <c r="K11" s="2">
+        <v>2</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M11" s="2">
+        <v>2</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0</v>
+      </c>
+      <c r="S11" s="2">
+        <v>0</v>
+      </c>
+      <c r="T11" s="2">
+        <v>0</v>
+      </c>
+      <c r="U11" s="2">
+        <v>0</v>
+      </c>
+      <c r="V11" s="2">
+        <v>0</v>
+      </c>
+      <c r="W11" s="2">
+        <v>0</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ11" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR11" s="2">
+        <v>2</v>
+      </c>
+      <c r="AS11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT11" s="2">
+        <v>2</v>
+      </c>
+      <c r="AU11" s="2">
+        <v>2</v>
+      </c>
+      <c r="AV11" s="2">
+        <v>4</v>
+      </c>
+      <c r="AW11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX11" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/conf/buff.xlsx
+++ b/bin/conf/buff.xlsx
@@ -1261,7 +1261,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="100">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1595,7 +1595,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-0.76,-0.32,-0.48,-0.64</t>
+    <t>-0.16,-0.32,-0.48,-0.64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小黑的沉默</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1969,10 +1985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX11"/>
+  <dimension ref="A1:AX12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AA16" sqref="AA16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3653,6 +3669,158 @@
         <v>0</v>
       </c>
     </row>
+    <row r="12" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" s="2">
+        <v>4</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1</v>
+      </c>
+      <c r="E12" s="2">
+        <v>2</v>
+      </c>
+      <c r="F12" s="2">
+        <v>3</v>
+      </c>
+      <c r="G12" s="2">
+        <v>2</v>
+      </c>
+      <c r="H12" s="2">
+        <v>2</v>
+      </c>
+      <c r="I12" s="2">
+        <v>2</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="K12" s="2">
+        <v>2</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M12" s="2">
+        <v>2</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="2">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2">
+        <v>0</v>
+      </c>
+      <c r="T12" s="2">
+        <v>0</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0</v>
+      </c>
+      <c r="V12" s="2">
+        <v>0</v>
+      </c>
+      <c r="W12" s="2">
+        <v>0</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ12" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR12" s="2">
+        <v>2</v>
+      </c>
+      <c r="AS12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT12" s="2">
+        <v>2</v>
+      </c>
+      <c r="AU12" s="2">
+        <v>2</v>
+      </c>
+      <c r="AV12" s="2">
+        <v>4</v>
+      </c>
+      <c r="AW12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX12" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/conf/buff.xlsx
+++ b/bin/conf/buff.xlsx
@@ -1261,7 +1261,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="103">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1612,6 +1612,18 @@
   </si>
   <si>
     <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小黑光环攻击速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,125,150,175</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1985,15 +1997,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX12"/>
+  <dimension ref="A1:AX13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="13.625" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
     <col min="20" max="20" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3818,6 +3830,158 @@
         <v>1</v>
       </c>
       <c r="AX12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>100</v>
+      </c>
+      <c r="C13" s="2">
+        <v>4</v>
+      </c>
+      <c r="D13" s="2">
+        <v>1</v>
+      </c>
+      <c r="E13" s="2">
+        <v>2</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="G13" s="2">
+        <v>2</v>
+      </c>
+      <c r="H13" s="2">
+        <v>2</v>
+      </c>
+      <c r="I13" s="2">
+        <v>2</v>
+      </c>
+      <c r="J13" s="2">
+        <v>2</v>
+      </c>
+      <c r="K13" s="2">
+        <v>2</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M13" s="2">
+        <v>2</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
+      <c r="R13" s="2">
+        <v>0</v>
+      </c>
+      <c r="S13" s="2">
+        <v>0</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="U13" s="2">
+        <v>0</v>
+      </c>
+      <c r="V13" s="2">
+        <v>0</v>
+      </c>
+      <c r="W13" s="2">
+        <v>0</v>
+      </c>
+      <c r="X13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ13" s="2">
+        <v>2</v>
+      </c>
+      <c r="AR13" s="2">
+        <v>2</v>
+      </c>
+      <c r="AS13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AT13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU13" s="2">
+        <v>2</v>
+      </c>
+      <c r="AV13" s="2">
+        <v>4</v>
+      </c>
+      <c r="AW13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX13" s="2">
         <v>0</v>
       </c>
     </row>

--- a/bin/conf/buff.xlsx
+++ b/bin/conf/buff.xlsx
@@ -1261,7 +1261,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="104">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1624,6 +1624,10 @@
   </si>
   <si>
     <t>100,125,150,175</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚空跳的无敌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1997,10 +2001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX13"/>
+  <dimension ref="A1:AX14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+      <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3985,6 +3989,158 @@
         <v>0</v>
       </c>
     </row>
+    <row r="14" spans="1:50" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14" s="2">
+        <v>4</v>
+      </c>
+      <c r="D14" s="2">
+        <v>1</v>
+      </c>
+      <c r="E14" s="2">
+        <v>2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>3</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K14" s="2">
+        <v>2</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0</v>
+      </c>
+      <c r="R14" s="2">
+        <v>0</v>
+      </c>
+      <c r="S14" s="2">
+        <v>0</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U14" s="2">
+        <v>0</v>
+      </c>
+      <c r="V14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE14" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AH14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AK14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP14" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AQ14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR14" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS14" s="2">
+        <v>2</v>
+      </c>
+      <c r="AT14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AU14" s="2">
+        <v>2</v>
+      </c>
+      <c r="AV14" s="2">
+        <v>4</v>
+      </c>
+      <c r="AW14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX14" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/conf/buff.xlsx
+++ b/bin/conf/buff.xlsx
@@ -342,7 +342,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//buff范围 小于等于0表示单体</t>
+//技能冷却停止 1:是 2:非</t>
         </r>
       </text>
     </comment>
@@ -368,7 +368,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//持续时间</t>
+//是否暂停动画 1:是 2:非</t>
         </r>
       </text>
     </comment>
@@ -394,7 +394,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//力量变化值 20表示增加20点力量</t>
+//是否碰撞检测 1:是 2:非</t>
         </r>
       </text>
     </comment>
@@ -420,7 +420,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//智力变化值 20表示增加20点智力</t>
+//buff范围 小于等于0表示单体</t>
         </r>
       </text>
     </comment>
@@ -446,7 +446,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//敏捷变化值 20表示增加20点敏捷</t>
+//持续时间</t>
         </r>
       </text>
     </comment>
@@ -472,7 +472,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//攻击速度变化值 -10表示降低10点攻击速度</t>
+//力量变化值 20表示增加20点力量</t>
         </r>
       </text>
     </comment>
@@ -498,7 +498,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//攻击力变化比率 0.2就是增加20%</t>
+//智力变化值 20表示增加20点智力</t>
         </r>
       </text>
     </comment>
@@ -524,7 +524,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//攻击力变化量 -20就是减少20点攻击力</t>
+//敏捷变化值 20表示增加20点敏捷</t>
         </r>
       </text>
     </comment>
@@ -550,7 +550,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//攻击距离变化量 1.2就是增加1.2的攻击距离</t>
+//攻击速度变化比率 0.2就是增加20%</t>
         </r>
       </text>
     </comment>
@@ -576,7 +576,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//移动速度变化率 1.0就是增加100%的移动速度</t>
+//攻击速度变化值 -10表示降低10点攻击速度</t>
         </r>
       </text>
     </comment>
@@ -602,7 +602,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//移动速度变化量 0.5就是增加0.5米每秒的移动速度</t>
+//攻击力变化比率 0.2就是增加20%</t>
         </r>
       </text>
     </comment>
@@ -628,7 +628,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//技能增强变化量 0.02表示技能增强增加2%</t>
+//攻击力变化量 -20就是减少20点攻击力</t>
         </r>
       </text>
     </comment>
@@ -654,7 +654,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//魔法恢复变化率 0.5表示增加50%的魔法恢复</t>
+//攻击距离变化量 1.2就是增加1.2的攻击距离</t>
         </r>
       </text>
     </comment>
@@ -680,7 +680,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//魔法恢复变化量 1.5表示增加1.5mp每秒的魔法恢复速度</t>
+//移动速度变化率 1.0就是增加100%的移动速度</t>
         </r>
       </text>
     </comment>
@@ -706,7 +706,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//护甲变化比率 0.2就是增加20%</t>
+//移动速度变化量 0.5就是增加0.5米每秒的移动速度</t>
         </r>
       </text>
     </comment>
@@ -732,7 +732,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//护甲变化量 20就是增加20点护甲</t>
+//技能增强变化量 0.02表示技能增强增加2%</t>
         </r>
       </text>
     </comment>
@@ -758,7 +758,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//魔法抗性变化量 0.1表示增加10%的魔抗</t>
+//魔法恢复变化率 0.5表示增加50%的魔法恢复</t>
         </r>
       </text>
     </comment>
@@ -784,7 +784,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//状态抗性变化量 0.1表示增加10%的状态抗性</t>
+//魔法恢复变化量 1.5表示增加1.5mp每秒的魔法恢复速度</t>
         </r>
       </text>
     </comment>
@@ -810,7 +810,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//闪避变化量 0.2就是增加20%的闪避</t>
+//护甲变化比率 0.2就是增加20%</t>
         </r>
       </text>
     </comment>
@@ -836,7 +836,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//生命恢复变化率 0.5表示增加50%的生命恢复</t>
+//护甲变化量 20就是增加20点护甲</t>
         </r>
       </text>
     </comment>
@@ -862,7 +862,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//生命恢复变化量 1.2表示增加1.2hp每秒的生命恢复</t>
+//魔法抗性变化量 0.1表示增加10%的魔抗</t>
         </r>
       </text>
     </comment>
@@ -888,7 +888,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//生命恢复变化量以最大生命值为基础 0.2表示增加20%最大生命值每秒的生命恢复</t>
+//状态抗性变化量 0.1表示增加10%的状态抗性</t>
         </r>
       </text>
     </comment>
@@ -914,7 +914,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//无视闪避变化量 0.2就是增加20%的无视闪避</t>
+//闪避变化量 0.2就是增加20%的闪避</t>
         </r>
       </text>
     </comment>
@@ -940,7 +940,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//额外施法距离变化量 2.3表示增加施法距离2.3米</t>
+//生命恢复变化率 0.5表示增加50%的生命恢复</t>
         </r>
       </text>
     </comment>
@@ -966,7 +966,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//魔法消耗变化量 -0.1表示降低10%的魔法消耗</t>
+//生命恢复变化量 1.2表示增加1.2hp每秒的生命恢复</t>
         </r>
       </text>
     </comment>
@@ -992,7 +992,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//技能CD变化量 -0.2表示降低20%的技能cd</t>
+//生命恢复变化量以最大生命值为基础 0.2表示增加20%最大生命值每秒的生命恢复</t>
         </r>
       </text>
     </comment>
@@ -1018,7 +1018,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//攻击指定目标攻击速度变化值 -10表示降低10点攻击速度</t>
+//无视闪避变化量 0.2就是增加20%的无视闪避</t>
         </r>
       </text>
     </comment>
@@ -1044,7 +1044,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//开始生效的时间 1.2表示 1.2秒后生效</t>
+//额外施法距离变化量 2.3表示增加施法距离2.3米</t>
         </r>
       </text>
     </comment>
@@ -1070,7 +1070,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//攻击后失效 1:是 2:否</t>
+//魔法消耗变化量 -0.1表示降低10%的魔法消耗</t>
         </r>
       </text>
     </comment>
@@ -1096,7 +1096,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//使用技能后失效 1:是 2:否</t>
+//技能CD变化量 -0.2表示降低20%的技能cd</t>
         </r>
       </text>
     </comment>
@@ -1122,7 +1122,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//驱散等级 1 表示需要驱散等级大于等于1的 驱散效果才能驱散此buff</t>
+//攻击指定目标攻击速度变化值 -10表示降低10点攻击速度</t>
         </r>
       </text>
     </comment>
@@ -1148,7 +1148,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//buff类型 1:表示良性 2:表示恶性  队友只能驱散我的恶性buff 敌人只能驱散我的良性buff</t>
+//开始生效的时间 1.2表示 1.2秒后生效</t>
         </r>
       </text>
     </comment>
@@ -1174,7 +1174,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//添加此buff时 是否无视单位魔法免疫 1:是 2:非</t>
+//攻击后失效 1:是 2:否</t>
         </r>
       </text>
     </comment>
@@ -1200,7 +1200,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//伤害类型(1:物理伤害 2:魔法伤害 3:纯粹伤害 4:不造成伤害)</t>
+//使用技能后失效 1:是 2:否</t>
         </r>
       </text>
     </comment>
@@ -1226,11 +1226,115 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//伤害时间间隔</t>
+//驱散等级 1 表示需要驱散等级大于等于1的 驱散效果才能驱散此buff</t>
         </r>
       </text>
     </comment>
     <comment ref="AX1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//buff类型 1:表示良性 2:表示恶性  队友只能驱散我的恶性buff 敌人只能驱散我的良性buff 3:中性</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AY1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//添加此buff时 是否无视单位魔法免疫 1:是 2:非</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AZ1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//伤害类型(1:物理伤害 2:魔法伤害 3:纯粹伤害 4:不造成伤害)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BA1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//伤害时间间隔</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BB1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1261,7 +1365,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="132">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1595,6 +1699,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>-0.16,-0.32,-0.48,-0.64</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1628,6 +1739,105 @@
   </si>
   <si>
     <t>虚空跳的无敌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicCDStop</t>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚空的技能CD锁定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,8,10,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.14,-0.20,-0.24,-0.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackSpeedCR</t>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚空的时间锁定眩晕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnimotorPause</t>
+  </si>
+  <si>
+    <t>虚空大招的眩晕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚空大招的本体加速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsCollisoin</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2001,19 +2211,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AX14"/>
+  <dimension ref="A1:BB18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X16" sqref="X16"/>
+      <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="20" max="20" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.25" customWidth="1"/>
+    <col min="24" max="24" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:50" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:54" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2057,115 +2267,127 @@
         <v>83</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="R1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="X1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2208,21 +2430,21 @@
       <c r="N2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O2" s="2">
-        <v>0</v>
+      <c r="O2" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="P2" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="R2" s="2">
+        <v>0</v>
+      </c>
+      <c r="S2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="2">
-        <v>0</v>
-      </c>
-      <c r="R2" s="2">
-        <v>0</v>
-      </c>
-      <c r="S2" s="2">
-        <v>0</v>
-      </c>
       <c r="T2" s="2">
         <v>0</v>
       </c>
@@ -2232,24 +2454,24 @@
       <c r="V2" s="2">
         <v>0</v>
       </c>
-      <c r="W2" s="2">
-        <v>0</v>
+      <c r="W2" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="X2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="2">
         <v>-0.5</v>
       </c>
-      <c r="Y2" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="2">
-        <v>0</v>
-      </c>
       <c r="AC2" s="2">
         <v>0</v>
       </c>
@@ -2271,53 +2493,65 @@
       <c r="AI2" s="2">
         <v>0</v>
       </c>
-      <c r="AJ2" s="2" t="s">
+      <c r="AJ2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AK2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN2" s="2">
-        <v>0</v>
-      </c>
       <c r="AO2" s="2">
         <v>0</v>
       </c>
-      <c r="AP2" s="2" t="s">
+      <c r="AP2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AQ2" s="2">
-        <v>2</v>
-      </c>
-      <c r="AR2" s="2">
-        <v>2</v>
-      </c>
-      <c r="AS2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AT2" s="2">
-        <v>2</v>
-      </c>
       <c r="AU2" s="2">
         <v>2</v>
       </c>
       <c r="AV2" s="2">
+        <v>2</v>
+      </c>
+      <c r="AW2" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX2" s="2">
+        <v>2</v>
+      </c>
+      <c r="AY2" s="2">
+        <v>2</v>
+      </c>
+      <c r="AZ2" s="2">
         <v>4</v>
       </c>
-      <c r="AW2" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX2" s="2">
+      <c r="BA2" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB2" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2360,36 +2594,36 @@
       <c r="N3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O3" s="2">
-        <v>0</v>
+      <c r="O3" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="P3" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q3" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="R3" s="2">
+        <v>0</v>
+      </c>
+      <c r="S3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Q3" s="2">
-        <v>0</v>
-      </c>
-      <c r="R3" s="2">
-        <v>0</v>
-      </c>
-      <c r="S3" s="2">
-        <v>0</v>
-      </c>
-      <c r="T3" s="2" t="s">
+      <c r="T3" s="2">
+        <v>0</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2">
+        <v>0</v>
+      </c>
+      <c r="W3" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="X3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="U3" s="2">
-        <v>0</v>
-      </c>
-      <c r="V3" s="2">
-        <v>0</v>
-      </c>
-      <c r="W3" s="2">
-        <v>0</v>
-      </c>
-      <c r="X3" s="2">
-        <v>0</v>
-      </c>
       <c r="Y3" s="2">
         <v>0</v>
       </c>
@@ -2423,53 +2657,65 @@
       <c r="AI3" s="2">
         <v>0</v>
       </c>
-      <c r="AJ3" s="2" t="s">
+      <c r="AJ3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AK3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN3" s="2">
-        <v>0</v>
-      </c>
       <c r="AO3" s="2">
         <v>0</v>
       </c>
-      <c r="AP3" s="2" t="s">
+      <c r="AP3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AQ3" s="2">
-        <v>2</v>
-      </c>
-      <c r="AR3" s="2">
-        <v>2</v>
-      </c>
-      <c r="AS3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AT3" s="2">
-        <v>1</v>
-      </c>
       <c r="AU3" s="2">
         <v>2</v>
       </c>
       <c r="AV3" s="2">
+        <v>2</v>
+      </c>
+      <c r="AW3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY3" s="2">
+        <v>2</v>
+      </c>
+      <c r="AZ3" s="2">
         <v>4</v>
       </c>
-      <c r="AW3" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX3" s="2">
+      <c r="BA3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2512,36 +2758,36 @@
       <c r="N4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O4" s="2">
-        <v>0</v>
+      <c r="O4" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="P4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q4" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="R4" s="2">
+        <v>0</v>
+      </c>
+      <c r="S4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Q4" s="2">
-        <v>0</v>
-      </c>
-      <c r="R4" s="2">
-        <v>0</v>
-      </c>
-      <c r="S4" s="2">
-        <v>0</v>
-      </c>
-      <c r="T4" s="2" t="s">
+      <c r="T4" s="2">
+        <v>0</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0</v>
+      </c>
+      <c r="V4" s="2">
+        <v>0</v>
+      </c>
+      <c r="W4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="X4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="U4" s="2">
-        <v>0</v>
-      </c>
-      <c r="V4" s="2">
-        <v>0</v>
-      </c>
-      <c r="W4" s="2">
-        <v>0</v>
-      </c>
-      <c r="X4" s="2">
-        <v>0</v>
-      </c>
       <c r="Y4" s="2">
         <v>0</v>
       </c>
@@ -2566,30 +2812,30 @@
       <c r="AF4" s="2">
         <v>0</v>
       </c>
-      <c r="AG4" s="2" t="s">
+      <c r="AG4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AH4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ4" s="2" t="s">
+      <c r="AL4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AK4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="2">
-        <v>0</v>
-      </c>
       <c r="AO4" s="2">
         <v>0</v>
       </c>
@@ -2597,31 +2843,43 @@
         <v>0</v>
       </c>
       <c r="AQ4" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AR4" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AS4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AU4" s="2">
         <v>2</v>
       </c>
       <c r="AV4" s="2">
+        <v>2</v>
+      </c>
+      <c r="AW4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX4" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY4" s="2">
+        <v>2</v>
+      </c>
+      <c r="AZ4" s="2">
         <v>4</v>
       </c>
-      <c r="AW4" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX4" s="2">
+      <c r="BA4" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB4" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2664,36 +2922,36 @@
       <c r="N5" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="O5" s="2">
-        <v>0</v>
+      <c r="O5" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="P5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q5" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="R5" s="2">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="Q5" s="2">
-        <v>0</v>
-      </c>
-      <c r="R5" s="2">
-        <v>0</v>
-      </c>
-      <c r="S5" s="2">
-        <v>0</v>
-      </c>
-      <c r="T5" s="2" t="s">
+      <c r="T5" s="2">
+        <v>0</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0</v>
+      </c>
+      <c r="V5" s="2">
+        <v>0</v>
+      </c>
+      <c r="W5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="X5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="U5" s="2">
-        <v>0</v>
-      </c>
-      <c r="V5" s="2">
-        <v>0</v>
-      </c>
-      <c r="W5" s="2">
-        <v>0</v>
-      </c>
-      <c r="X5" s="2">
-        <v>0</v>
-      </c>
       <c r="Y5" s="2">
         <v>0</v>
       </c>
@@ -2718,62 +2976,74 @@
       <c r="AF5" s="2">
         <v>0</v>
       </c>
-      <c r="AG5" s="2" t="s">
+      <c r="AG5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AH5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ5" s="2" t="s">
+      <c r="AL5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AK5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="2">
-        <v>0</v>
-      </c>
       <c r="AO5" s="2">
         <v>0</v>
       </c>
-      <c r="AP5" s="2" t="s">
+      <c r="AP5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AQ5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AR5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AS5" s="2">
-        <v>2</v>
-      </c>
-      <c r="AT5" s="2">
-        <v>1</v>
-      </c>
       <c r="AU5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AV5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AW5" s="2">
+        <v>2</v>
+      </c>
+      <c r="AX5" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY5" s="2">
+        <v>2</v>
+      </c>
+      <c r="AZ5" s="2">
         <v>4</v>
       </c>
-      <c r="AW5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX5" s="2">
+      <c r="BA5" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB5" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2816,43 +3086,43 @@
       <c r="N6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O6" s="2">
-        <v>0</v>
+      <c r="O6" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="P6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q6" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="R6" s="2">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="Q6" s="2">
-        <v>0</v>
-      </c>
-      <c r="R6" s="2">
-        <v>0</v>
-      </c>
-      <c r="S6" s="2">
-        <v>0</v>
-      </c>
-      <c r="T6" s="2" t="s">
+      <c r="T6" s="2">
+        <v>0</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2">
+        <v>0</v>
+      </c>
+      <c r="W6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="X6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="U6" s="2">
-        <v>0</v>
-      </c>
-      <c r="V6" s="2">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6" s="2">
-        <v>0</v>
-      </c>
       <c r="Y6" s="2">
         <v>0</v>
       </c>
       <c r="Z6" s="2">
         <v>0</v>
       </c>
-      <c r="AA6" s="2">
+      <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6" s="2">
@@ -2864,68 +3134,80 @@
       <c r="AD6" s="2">
         <v>0</v>
       </c>
-      <c r="AE6" s="2" t="s">
+      <c r="AE6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AF6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="2" t="s">
+      <c r="AJ6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ6" s="2" t="s">
+      <c r="AL6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AK6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="2">
-        <v>0</v>
-      </c>
       <c r="AO6" s="2">
         <v>0</v>
       </c>
-      <c r="AP6" s="2" t="s">
+      <c r="AP6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AQ6" s="2" t="s">
+      <c r="AU6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AR6" s="2" t="s">
+      <c r="AV6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AS6" s="2">
-        <v>2</v>
-      </c>
-      <c r="AT6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU6" s="2">
-        <v>2</v>
-      </c>
-      <c r="AV6" s="2">
+      <c r="AW6" s="2">
+        <v>2</v>
+      </c>
+      <c r="AX6" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY6" s="2">
+        <v>2</v>
+      </c>
+      <c r="AZ6" s="2">
         <v>4</v>
       </c>
-      <c r="AW6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX6" s="2">
+      <c r="BA6" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB6" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2968,21 +3250,21 @@
       <c r="N7" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="O7" s="2">
-        <v>0</v>
+      <c r="O7" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="P7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q7" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="R7" s="2">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="Q7" s="2">
-        <v>0</v>
-      </c>
-      <c r="R7" s="2">
-        <v>0</v>
-      </c>
-      <c r="S7" s="2">
-        <v>0</v>
-      </c>
       <c r="T7" s="2">
         <v>0</v>
       </c>
@@ -2992,8 +3274,8 @@
       <c r="V7" s="2">
         <v>0</v>
       </c>
-      <c r="W7" s="2">
-        <v>0</v>
+      <c r="W7" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="X7" s="2">
         <v>0</v>
@@ -3017,7 +3299,7 @@
         <v>0</v>
       </c>
       <c r="AE7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF7" s="2">
         <v>0</v>
@@ -3029,55 +3311,67 @@
         <v>0</v>
       </c>
       <c r="AI7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AK7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="2">
-        <v>0</v>
-      </c>
       <c r="AO7" s="2">
         <v>0</v>
       </c>
       <c r="AP7" s="2">
         <v>0</v>
       </c>
-      <c r="AQ7" s="2" t="s">
+      <c r="AQ7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU7" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AR7" s="2" t="s">
+      <c r="AV7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AS7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AV7" s="2">
+      <c r="AW7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY7" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ7" s="2">
         <v>4</v>
       </c>
-      <c r="AW7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX7" s="2">
+      <c r="BA7" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB7" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3120,20 +3414,20 @@
       <c r="N8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O8" s="2">
-        <v>0</v>
-      </c>
-      <c r="P8" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>0</v>
+      <c r="O8" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="P8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q8" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="R8" s="2">
         <v>0</v>
       </c>
       <c r="S8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8" s="2">
         <v>0</v>
@@ -3144,8 +3438,8 @@
       <c r="V8" s="2">
         <v>0</v>
       </c>
-      <c r="W8" s="2">
-        <v>0</v>
+      <c r="W8" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="X8" s="2">
         <v>0</v>
@@ -3168,68 +3462,80 @@
       <c r="AD8" s="2">
         <v>0</v>
       </c>
-      <c r="AE8" s="2" t="s">
+      <c r="AE8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AF8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ8" s="2" t="s">
+      <c r="AJ8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN8" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AK8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN8" s="2">
-        <v>0</v>
-      </c>
       <c r="AO8" s="2">
         <v>0</v>
       </c>
       <c r="AP8" s="2">
         <v>0</v>
       </c>
-      <c r="AQ8" s="2" t="s">
+      <c r="AQ8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AR8" s="2" t="s">
+      <c r="AV8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AS8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AV8" s="2">
+      <c r="AW8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY8" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ8" s="2">
         <v>4</v>
       </c>
-      <c r="AW8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX8" s="2">
+      <c r="BA8" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB8" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3272,20 +3578,20 @@
       <c r="N9" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="O9" s="2">
-        <v>0</v>
-      </c>
-      <c r="P9" s="2">
-        <v>1</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>0</v>
+      <c r="O9" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="P9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q9" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="R9" s="2">
         <v>0</v>
       </c>
       <c r="S9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T9" s="2">
         <v>0</v>
@@ -3296,8 +3602,8 @@
       <c r="V9" s="2">
         <v>0</v>
       </c>
-      <c r="W9" s="2">
-        <v>0</v>
+      <c r="W9" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="X9" s="2">
         <v>0</v>
@@ -3320,68 +3626,80 @@
       <c r="AD9" s="2">
         <v>0</v>
       </c>
-      <c r="AE9" s="2" t="s">
+      <c r="AE9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AF9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ9" s="2" t="s">
+      <c r="AJ9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AK9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN9" s="2">
-        <v>0</v>
-      </c>
       <c r="AO9" s="2">
         <v>0</v>
       </c>
-      <c r="AP9" s="2" t="s">
+      <c r="AP9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AQ9" s="2" t="s">
+      <c r="AU9" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AR9" s="2" t="s">
+      <c r="AV9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AS9" s="2" t="s">
+      <c r="AW9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AT9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AV9" s="2" t="s">
+      <c r="AX9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY9" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ9" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AW9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX9" s="2" t="s">
+      <c r="BA9" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB9" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3424,43 +3742,43 @@
       <c r="N10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O10" s="2">
-        <v>0</v>
+      <c r="O10" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="P10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q10" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="R10" s="2">
+        <v>0</v>
+      </c>
+      <c r="S10" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="Q10" s="2">
-        <v>0</v>
-      </c>
-      <c r="R10" s="2">
-        <v>0</v>
-      </c>
-      <c r="S10" s="2">
-        <v>0</v>
-      </c>
-      <c r="T10" s="2" t="s">
+      <c r="T10" s="2">
+        <v>0</v>
+      </c>
+      <c r="U10" s="2">
+        <v>0</v>
+      </c>
+      <c r="V10" s="2">
+        <v>0</v>
+      </c>
+      <c r="W10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="X10" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="U10" s="2">
-        <v>0</v>
-      </c>
-      <c r="V10" s="2" t="s">
+      <c r="Y10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z10" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="2">
+      <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10" s="2">
@@ -3472,68 +3790,80 @@
       <c r="AD10" s="2">
         <v>0</v>
       </c>
-      <c r="AE10" s="2" t="s">
+      <c r="AE10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AF10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="2" t="s">
+      <c r="AJ10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ10" s="2" t="s">
+      <c r="AL10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AK10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="2">
-        <v>0</v>
-      </c>
       <c r="AO10" s="2">
         <v>0</v>
       </c>
-      <c r="AP10" s="2" t="s">
+      <c r="AP10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AQ10" s="2" t="s">
+      <c r="AU10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AR10" s="2" t="s">
+      <c r="AV10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AS10" s="2">
-        <v>2</v>
-      </c>
-      <c r="AT10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU10" s="2">
-        <v>2</v>
-      </c>
-      <c r="AV10" s="2">
+      <c r="AW10" s="2">
+        <v>2</v>
+      </c>
+      <c r="AX10" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY10" s="2">
+        <v>2</v>
+      </c>
+      <c r="AZ10" s="2">
         <v>4</v>
       </c>
-      <c r="AW10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX10" s="2">
+      <c r="BA10" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB10" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3576,21 +3906,21 @@
       <c r="N11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O11" s="2">
-        <v>0</v>
+      <c r="O11" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="P11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q11" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="R11" s="2">
+        <v>0</v>
+      </c>
+      <c r="S11" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="Q11" s="2">
-        <v>0</v>
-      </c>
-      <c r="R11" s="2">
-        <v>0</v>
-      </c>
-      <c r="S11" s="2">
-        <v>0</v>
-      </c>
       <c r="T11" s="2">
         <v>0</v>
       </c>
@@ -3600,12 +3930,12 @@
       <c r="V11" s="2">
         <v>0</v>
       </c>
-      <c r="W11" s="2">
-        <v>0</v>
-      </c>
-      <c r="X11" s="2" t="s">
+      <c r="W11" s="2" t="s">
         <v>95</v>
       </c>
+      <c r="X11" s="2">
+        <v>0</v>
+      </c>
       <c r="Y11" s="2">
         <v>0</v>
       </c>
@@ -3615,8 +3945,8 @@
       <c r="AA11" s="2">
         <v>0</v>
       </c>
-      <c r="AB11" s="2">
-        <v>0</v>
+      <c r="AB11" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="AC11" s="2">
         <v>0</v>
@@ -3639,58 +3969,70 @@
       <c r="AI11" s="2">
         <v>0</v>
       </c>
-      <c r="AJ11" s="2" t="s">
+      <c r="AJ11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AK11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN11" s="2">
-        <v>0</v>
-      </c>
       <c r="AO11" s="2">
         <v>0</v>
       </c>
-      <c r="AP11" s="2" t="s">
+      <c r="AP11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AQ11" s="2">
-        <v>2</v>
-      </c>
-      <c r="AR11" s="2">
-        <v>2</v>
-      </c>
-      <c r="AS11" s="2">
-        <v>1</v>
-      </c>
-      <c r="AT11" s="2">
-        <v>2</v>
-      </c>
       <c r="AU11" s="2">
         <v>2</v>
       </c>
       <c r="AV11" s="2">
+        <v>2</v>
+      </c>
+      <c r="AW11" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX11" s="2">
+        <v>2</v>
+      </c>
+      <c r="AY11" s="2">
+        <v>2</v>
+      </c>
+      <c r="AZ11" s="2">
         <v>4</v>
       </c>
-      <c r="AW11" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX11" s="2">
+      <c r="BA11" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB11" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C12" s="2">
         <v>4</v>
@@ -3714,7 +4056,7 @@
         <v>2</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="K12" s="2">
         <v>2</v>
@@ -3728,20 +4070,20 @@
       <c r="N12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O12" s="2">
-        <v>0</v>
+      <c r="O12" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="P12" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="Q12" s="2" t="s">
+        <v>130</v>
       </c>
       <c r="R12" s="2">
         <v>0</v>
       </c>
-      <c r="S12" s="2">
-        <v>0</v>
+      <c r="S12" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="T12" s="2">
         <v>0</v>
@@ -3752,11 +4094,11 @@
       <c r="V12" s="2">
         <v>0</v>
       </c>
-      <c r="W12" s="2">
-        <v>0</v>
-      </c>
-      <c r="X12" s="2" t="s">
-        <v>99</v>
+      <c r="W12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="X12" s="2">
+        <v>0</v>
       </c>
       <c r="Y12" s="2">
         <v>0</v>
@@ -3767,8 +4109,8 @@
       <c r="AA12" s="2">
         <v>0</v>
       </c>
-      <c r="AB12" s="2">
-        <v>0</v>
+      <c r="AB12" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="AC12" s="2">
         <v>0</v>
@@ -3791,58 +4133,70 @@
       <c r="AI12" s="2">
         <v>0</v>
       </c>
-      <c r="AJ12" s="2" t="s">
+      <c r="AJ12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AK12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN12" s="2">
-        <v>0</v>
-      </c>
       <c r="AO12" s="2">
         <v>0</v>
       </c>
-      <c r="AP12" s="2" t="s">
+      <c r="AP12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AQ12" s="2">
-        <v>2</v>
-      </c>
-      <c r="AR12" s="2">
-        <v>2</v>
-      </c>
-      <c r="AS12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AT12" s="2">
-        <v>2</v>
-      </c>
       <c r="AU12" s="2">
         <v>2</v>
       </c>
       <c r="AV12" s="2">
+        <v>2</v>
+      </c>
+      <c r="AW12" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX12" s="2">
+        <v>2</v>
+      </c>
+      <c r="AY12" s="2">
+        <v>2</v>
+      </c>
+      <c r="AZ12" s="2">
         <v>4</v>
       </c>
-      <c r="AW12" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX12" s="2">
+      <c r="BA12" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB12" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C13" s="2">
         <v>4</v>
@@ -3854,7 +4208,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G13" s="2">
         <v>2</v>
@@ -3880,23 +4234,23 @@
       <c r="N13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O13" s="2">
-        <v>0</v>
+      <c r="O13" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="P13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q13" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="R13" s="2">
+        <v>0</v>
+      </c>
+      <c r="S13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Q13" s="2">
-        <v>0</v>
-      </c>
-      <c r="R13" s="2">
-        <v>0</v>
-      </c>
-      <c r="S13" s="2">
-        <v>0</v>
-      </c>
-      <c r="T13" s="2" t="s">
-        <v>102</v>
+      <c r="T13" s="2">
+        <v>0</v>
       </c>
       <c r="U13" s="2">
         <v>0</v>
@@ -3904,11 +4258,11 @@
       <c r="V13" s="2">
         <v>0</v>
       </c>
-      <c r="W13" s="2">
-        <v>0</v>
-      </c>
-      <c r="X13" s="2">
-        <v>0</v>
+      <c r="W13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="Y13" s="2">
         <v>0</v>
@@ -3943,58 +4297,70 @@
       <c r="AI13" s="2">
         <v>0</v>
       </c>
-      <c r="AJ13" s="2" t="s">
+      <c r="AJ13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AK13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN13" s="2">
-        <v>0</v>
-      </c>
       <c r="AO13" s="2">
         <v>0</v>
       </c>
-      <c r="AP13" s="2" t="s">
+      <c r="AP13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AQ13" s="2">
-        <v>2</v>
-      </c>
-      <c r="AR13" s="2">
-        <v>2</v>
-      </c>
-      <c r="AS13" s="2">
-        <v>1</v>
-      </c>
-      <c r="AT13" s="2">
-        <v>1</v>
-      </c>
       <c r="AU13" s="2">
         <v>2</v>
       </c>
       <c r="AV13" s="2">
+        <v>2</v>
+      </c>
+      <c r="AW13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX13" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY13" s="2">
+        <v>2</v>
+      </c>
+      <c r="AZ13" s="2">
         <v>4</v>
       </c>
-      <c r="AW13" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX13" s="2">
+      <c r="BA13" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB13" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:50" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:54" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C14" s="2">
         <v>4</v>
@@ -4032,43 +4398,43 @@
       <c r="N14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O14" s="2">
-        <v>0</v>
+      <c r="O14" s="2" t="s">
+        <v>108</v>
       </c>
       <c r="P14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q14" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="R14" s="2">
+        <v>0</v>
+      </c>
+      <c r="S14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="Q14" s="2">
-        <v>0</v>
-      </c>
-      <c r="R14" s="2">
-        <v>0</v>
-      </c>
-      <c r="S14" s="2">
-        <v>0</v>
-      </c>
-      <c r="T14" s="2" t="s">
+      <c r="T14" s="2">
+        <v>0</v>
+      </c>
+      <c r="U14" s="2">
+        <v>0</v>
+      </c>
+      <c r="V14" s="2">
+        <v>0</v>
+      </c>
+      <c r="W14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="X14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="U14" s="2">
-        <v>0</v>
-      </c>
-      <c r="V14" s="2" t="s">
+      <c r="Y14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA14" s="2">
+      <c r="AA14">
         <v>0</v>
       </c>
       <c r="AB14" s="2">
@@ -4080,64 +4446,732 @@
       <c r="AD14" s="2">
         <v>0</v>
       </c>
-      <c r="AE14" s="2" t="s">
+      <c r="AE14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AF14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="2" t="s">
+      <c r="AJ14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AH14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="2" t="s">
+      <c r="AL14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AK14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN14" s="2">
-        <v>0</v>
-      </c>
       <c r="AO14" s="2">
         <v>0</v>
       </c>
-      <c r="AP14" s="2" t="s">
+      <c r="AP14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AQ14" s="2" t="s">
+      <c r="AU14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AR14" s="2" t="s">
+      <c r="AV14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AS14" s="2">
-        <v>2</v>
-      </c>
-      <c r="AT14" s="2">
-        <v>1</v>
-      </c>
-      <c r="AU14" s="2">
-        <v>2</v>
-      </c>
-      <c r="AV14" s="2">
+      <c r="AW14" s="2">
+        <v>2</v>
+      </c>
+      <c r="AX14" s="2">
+        <v>1</v>
+      </c>
+      <c r="AY14" s="2">
+        <v>2</v>
+      </c>
+      <c r="AZ14" s="2">
         <v>4</v>
       </c>
-      <c r="AW14" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX14" s="2">
+      <c r="BA14" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:54" x14ac:dyDescent="0.15">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>109</v>
+      </c>
+      <c r="C15" s="2">
+        <v>4</v>
+      </c>
+      <c r="D15" s="2">
+        <v>1</v>
+      </c>
+      <c r="E15" s="2">
+        <v>2</v>
+      </c>
+      <c r="F15" s="2">
+        <v>3</v>
+      </c>
+      <c r="G15" s="2">
+        <v>2</v>
+      </c>
+      <c r="H15" s="2">
+        <v>2</v>
+      </c>
+      <c r="I15" s="2">
+        <v>2</v>
+      </c>
+      <c r="J15" s="2">
+        <v>2</v>
+      </c>
+      <c r="K15" s="2">
+        <v>2</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M15" s="2">
+        <v>2</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="P15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q15" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="R15" s="2">
+        <v>0</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="T15" s="2">
+        <v>0</v>
+      </c>
+      <c r="U15" s="2">
+        <v>0</v>
+      </c>
+      <c r="V15" s="2">
+        <v>0</v>
+      </c>
+      <c r="W15" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="X15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="AC15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU15" s="2">
+        <v>2</v>
+      </c>
+      <c r="AV15" s="2">
+        <v>2</v>
+      </c>
+      <c r="AW15" s="2">
+        <v>1</v>
+      </c>
+      <c r="AX15" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="AY15" s="2">
+        <v>2</v>
+      </c>
+      <c r="AZ15" s="2">
+        <v>4</v>
+      </c>
+      <c r="BA15" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB15" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:54" x14ac:dyDescent="0.15">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>115</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="2">
+        <v>1</v>
+      </c>
+      <c r="E16" s="2">
+        <v>2</v>
+      </c>
+      <c r="F16" s="2">
+        <v>3</v>
+      </c>
+      <c r="G16" s="2">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1</v>
+      </c>
+      <c r="I16" s="2">
+        <v>1</v>
+      </c>
+      <c r="J16" s="2">
+        <v>1</v>
+      </c>
+      <c r="K16" s="2">
+        <v>1</v>
+      </c>
+      <c r="L16" s="2">
+        <v>2</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q16" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="R16" s="2">
+        <v>0</v>
+      </c>
+      <c r="S16" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="T16" s="2">
+        <v>0</v>
+      </c>
+      <c r="U16" s="2">
+        <v>0</v>
+      </c>
+      <c r="V16" s="2">
+        <v>0</v>
+      </c>
+      <c r="W16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="X16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV16" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AX16" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AY16" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ16" s="2">
+        <v>4</v>
+      </c>
+      <c r="BA16" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:54" x14ac:dyDescent="0.15">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D17" s="2">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2">
+        <v>2</v>
+      </c>
+      <c r="F17" s="2">
+        <v>3</v>
+      </c>
+      <c r="G17" s="2">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2">
+        <v>1</v>
+      </c>
+      <c r="K17" s="2">
+        <v>1</v>
+      </c>
+      <c r="L17" s="2">
+        <v>2</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q17" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="R17" s="2">
+        <v>0</v>
+      </c>
+      <c r="S17" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="T17" s="2">
+        <v>0</v>
+      </c>
+      <c r="U17" s="2">
+        <v>0</v>
+      </c>
+      <c r="V17" s="2">
+        <v>0</v>
+      </c>
+      <c r="W17" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="X17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="AJ17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW17" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="AX17" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AY17" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ17" s="2">
+        <v>4</v>
+      </c>
+      <c r="BA17" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB17" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:54" x14ac:dyDescent="0.15">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>122</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="2">
+        <v>1</v>
+      </c>
+      <c r="E18" s="2">
+        <v>2</v>
+      </c>
+      <c r="F18" s="2">
+        <v>3</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="L18" s="2">
+        <v>2</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="R18" s="2">
+        <v>0</v>
+      </c>
+      <c r="S18" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="T18" s="2">
+        <v>0</v>
+      </c>
+      <c r="U18" s="2">
+        <v>0</v>
+      </c>
+      <c r="V18" s="2">
+        <v>0</v>
+      </c>
+      <c r="W18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="X18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX18" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="AY18" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ18" s="2">
+        <v>4</v>
+      </c>
+      <c r="BA18" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB18" s="2">
         <v>0</v>
       </c>
     </row>

--- a/bin/conf/buff.xlsx
+++ b/bin/conf/buff.xlsx
@@ -1365,7 +1365,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="141">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1838,6 +1838,42 @@
   </si>
   <si>
     <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌之箭眩晕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.75,2.15,2.55,2.95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌裂隙的减速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.1,-0.2,-0.3,-0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-130,-50,-70,-90</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2211,10 +2247,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB18"/>
+  <dimension ref="A1:BB20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S23" sqref="S23"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="Z24" sqref="Z24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5175,6 +5211,334 @@
         <v>0</v>
       </c>
     </row>
+    <row r="19" spans="1:54" x14ac:dyDescent="0.15">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>132</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D19" s="2">
+        <v>1</v>
+      </c>
+      <c r="E19" s="2">
+        <v>2</v>
+      </c>
+      <c r="F19" s="2">
+        <v>3</v>
+      </c>
+      <c r="G19" s="2">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2">
+        <v>1</v>
+      </c>
+      <c r="I19" s="2">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2">
+        <v>1</v>
+      </c>
+      <c r="K19" s="2">
+        <v>1</v>
+      </c>
+      <c r="L19" s="2">
+        <v>2</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P19" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q19" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="R19" s="2">
+        <v>0</v>
+      </c>
+      <c r="S19" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="T19" s="2">
+        <v>0</v>
+      </c>
+      <c r="U19" s="2">
+        <v>0</v>
+      </c>
+      <c r="V19" s="2">
+        <v>0</v>
+      </c>
+      <c r="W19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="X19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX19" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AY19" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ19" s="2">
+        <v>4</v>
+      </c>
+      <c r="BA19" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB19" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:54" x14ac:dyDescent="0.15">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>135</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="2">
+        <v>1</v>
+      </c>
+      <c r="E20" s="2">
+        <v>2</v>
+      </c>
+      <c r="F20" s="2">
+        <v>3</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="L20" s="2">
+        <v>2</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="R20" s="2">
+        <v>0</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="T20" s="2">
+        <v>0</v>
+      </c>
+      <c r="U20" s="2">
+        <v>0</v>
+      </c>
+      <c r="V20" s="2">
+        <v>0</v>
+      </c>
+      <c r="W20" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="X20" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AC20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AJ20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AV20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AY20" s="2">
+        <v>1</v>
+      </c>
+      <c r="AZ20" s="2">
+        <v>4</v>
+      </c>
+      <c r="BA20" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB20" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/conf/buff.xlsx
+++ b/bin/conf/buff.xlsx
@@ -1304,7 +1304,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//伤害类型(1:物理伤害 2:魔法伤害 3:纯粹伤害 4:不造成伤害)</t>
+//物理伤害吸血 0.1表示 增加攻击造成伤害的10%的HP</t>
         </r>
       </text>
     </comment>
@@ -1330,11 +1330,63 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//伤害时间间隔</t>
+//魔法伤害吸血 0.1表示 增加攻击造成伤害的10%的HP</t>
         </r>
       </text>
     </comment>
     <comment ref="BB1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//伤害类型(1:物理伤害 2:魔法伤害 3:纯粹伤害 4:不造成伤害)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BC1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//伤害时间间隔</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BD1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1365,7 +1417,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="144">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1875,6 +1927,16 @@
   <si>
     <t>-130,-50,-70,-90</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhysicalHurtAddHP</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicHurtAddHP</t>
   </si>
 </sst>
 </file>
@@ -2247,10 +2309,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BB20"/>
+  <dimension ref="A1:BD20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="Z24" sqref="Z24"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="BC28" sqref="BC28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2259,7 +2321,7 @@
     <col min="24" max="24" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:54" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:56" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2414,16 +2476,22 @@
         <v>90</v>
       </c>
       <c r="AZ1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="BB1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:54" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2577,17 +2645,23 @@
       <c r="AY2" s="2">
         <v>2</v>
       </c>
-      <c r="AZ2" s="2">
+      <c r="AZ2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="BA2" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="BB2" s="2">
         <v>4</v>
       </c>
-      <c r="BA2" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB2" s="2">
+      <c r="BC2" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD2" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:54" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2741,17 +2815,23 @@
       <c r="AY3" s="2">
         <v>2</v>
       </c>
-      <c r="AZ3" s="2">
+      <c r="AZ3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="BA3" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="BB3" s="2">
         <v>4</v>
       </c>
-      <c r="BA3" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB3" s="2">
+      <c r="BC3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:54" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2905,17 +2985,23 @@
       <c r="AY4" s="2">
         <v>2</v>
       </c>
-      <c r="AZ4" s="2">
+      <c r="AZ4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BA4" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB4" s="2">
         <v>4</v>
       </c>
-      <c r="BA4" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB4" s="2">
+      <c r="BC4" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD4" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:54" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3069,17 +3155,23 @@
       <c r="AY5" s="2">
         <v>2</v>
       </c>
-      <c r="AZ5" s="2">
+      <c r="AZ5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BA5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB5" s="2">
         <v>4</v>
       </c>
-      <c r="BA5" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB5" s="2">
+      <c r="BC5" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD5" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:54" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3233,17 +3325,23 @@
       <c r="AY6" s="2">
         <v>2</v>
       </c>
-      <c r="AZ6" s="2">
+      <c r="AZ6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BA6" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB6" s="2">
         <v>4</v>
       </c>
-      <c r="BA6" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB6" s="2">
+      <c r="BC6" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD6" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:54" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3397,17 +3495,23 @@
       <c r="AY7" s="2">
         <v>1</v>
       </c>
-      <c r="AZ7" s="2">
+      <c r="AZ7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BA7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB7" s="2">
         <v>4</v>
       </c>
-      <c r="BA7" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB7" s="2">
+      <c r="BC7" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD7" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:54" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3561,17 +3665,23 @@
       <c r="AY8" s="2">
         <v>1</v>
       </c>
-      <c r="AZ8" s="2">
+      <c r="AZ8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BA8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB8" s="2">
         <v>4</v>
       </c>
-      <c r="BA8" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB8" s="2">
+      <c r="BC8" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD8" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:54" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3726,16 +3836,22 @@
         <v>1</v>
       </c>
       <c r="AZ9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BA9" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB9" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="BA9" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB9" s="2" t="s">
+      <c r="BC9" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD9" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="10" spans="1:54" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3889,17 +4005,23 @@
       <c r="AY10" s="2">
         <v>2</v>
       </c>
-      <c r="AZ10" s="2">
+      <c r="AZ10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BA10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB10" s="2">
         <v>4</v>
       </c>
-      <c r="BA10" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB10" s="2">
+      <c r="BC10" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD10" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:54" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4053,17 +4175,23 @@
       <c r="AY11" s="2">
         <v>2</v>
       </c>
-      <c r="AZ11" s="2">
+      <c r="AZ11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BA11" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB11" s="2">
         <v>4</v>
       </c>
-      <c r="BA11" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB11" s="2">
+      <c r="BC11" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD11" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:54" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4217,17 +4345,23 @@
       <c r="AY12" s="2">
         <v>2</v>
       </c>
-      <c r="AZ12" s="2">
+      <c r="AZ12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BA12" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB12" s="2">
         <v>4</v>
       </c>
-      <c r="BA12" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB12" s="2">
+      <c r="BC12" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD12" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:54" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -4381,17 +4515,23 @@
       <c r="AY13" s="2">
         <v>2</v>
       </c>
-      <c r="AZ13" s="2">
+      <c r="AZ13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BA13" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB13" s="2">
         <v>4</v>
       </c>
-      <c r="BA13" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB13" s="2">
+      <c r="BC13" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD13" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:54" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -4545,17 +4685,23 @@
       <c r="AY14" s="2">
         <v>2</v>
       </c>
-      <c r="AZ14" s="2">
+      <c r="AZ14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BA14" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB14" s="2">
         <v>4</v>
       </c>
-      <c r="BA14" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB14" s="2">
+      <c r="BC14" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD14" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:54" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -4709,17 +4855,23 @@
       <c r="AY15" s="2">
         <v>2</v>
       </c>
-      <c r="AZ15" s="2">
+      <c r="AZ15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BA15" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB15" s="2">
         <v>4</v>
       </c>
-      <c r="BA15" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB15" s="2">
+      <c r="BC15" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD15" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:54" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -4873,17 +5025,23 @@
       <c r="AY16" s="2">
         <v>1</v>
       </c>
-      <c r="AZ16" s="2">
+      <c r="AZ16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BA16" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB16" s="2">
         <v>4</v>
       </c>
-      <c r="BA16" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB16" s="2">
+      <c r="BC16" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD16" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:54" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5037,17 +5195,23 @@
       <c r="AY17" s="2">
         <v>1</v>
       </c>
-      <c r="AZ17" s="2">
+      <c r="AZ17" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BA17" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB17" s="2">
         <v>4</v>
       </c>
-      <c r="BA17" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB17" s="2">
+      <c r="BC17" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD17" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:54" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -5201,17 +5365,23 @@
       <c r="AY18" s="2">
         <v>1</v>
       </c>
-      <c r="AZ18" s="2">
+      <c r="AZ18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BA18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB18" s="2">
         <v>4</v>
       </c>
-      <c r="BA18" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB18" s="2">
+      <c r="BC18" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD18" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:54" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -5365,17 +5535,23 @@
       <c r="AY19" s="2">
         <v>1</v>
       </c>
-      <c r="AZ19" s="2">
+      <c r="AZ19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BA19" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB19" s="2">
         <v>4</v>
       </c>
-      <c r="BA19" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB19" s="2">
+      <c r="BC19" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD19" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:54" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:56" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -5529,13 +5705,19 @@
       <c r="AY20" s="2">
         <v>1</v>
       </c>
-      <c r="AZ20" s="2">
+      <c r="AZ20" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BA20" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BB20" s="2">
         <v>4</v>
       </c>
-      <c r="BA20" s="2">
-        <v>1</v>
-      </c>
-      <c r="BB20" s="2">
+      <c r="BC20" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD20" s="2">
         <v>0</v>
       </c>
     </row>

--- a/bin/conf/buff.xlsx
+++ b/bin/conf/buff.xlsx
@@ -290,7 +290,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//是否魔法免疫 1:是 2:非</t>
+//隐身可以被看见 1:是 2:否</t>
         </r>
       </text>
     </comment>
@@ -316,7 +316,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//物理攻击免疫 1:是 2:非</t>
+//可以看见隐身 1:是 2:否</t>
         </r>
       </text>
     </comment>
@@ -342,7 +342,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//技能冷却停止 1:是 2:非</t>
+//大师级隐身 不会被看见 (分身的无敌和其他的blink躲弹道)1:是 2:否</t>
         </r>
       </text>
     </comment>
@@ -368,7 +368,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//是否暂停动画 1:是 2:非</t>
+//是否魔法免疫 1:是 2:非</t>
         </r>
       </text>
     </comment>
@@ -394,7 +394,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//是否碰撞检测 1:是 2:非</t>
+//物理攻击免疫 1:是 2:非</t>
         </r>
       </text>
     </comment>
@@ -420,7 +420,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//buff范围 小于等于0表示单体</t>
+//技能冷却停止 1:是 2:非</t>
         </r>
       </text>
     </comment>
@@ -446,7 +446,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//持续时间</t>
+//是否暂停动画 1:是 2:非</t>
         </r>
       </text>
     </comment>
@@ -472,7 +472,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//力量变化值 20表示增加20点力量</t>
+//是否碰撞检测 1:是 2:非</t>
         </r>
       </text>
     </comment>
@@ -498,7 +498,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//智力变化值 20表示增加20点智力</t>
+//buff范围 小于等于0表示单体</t>
         </r>
       </text>
     </comment>
@@ -524,7 +524,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//敏捷变化值 20表示增加20点敏捷</t>
+//持续时间</t>
         </r>
       </text>
     </comment>
@@ -550,7 +550,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//攻击速度变化比率 0.2就是增加20%</t>
+//力量变化值 20表示增加20点力量</t>
         </r>
       </text>
     </comment>
@@ -576,7 +576,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//攻击速度变化值 -10表示降低10点攻击速度</t>
+//智力变化值 20表示增加20点智力</t>
         </r>
       </text>
     </comment>
@@ -602,7 +602,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//攻击力变化比率 0.2就是增加20%</t>
+//敏捷变化值 20表示增加20点敏捷</t>
         </r>
       </text>
     </comment>
@@ -628,7 +628,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//攻击力变化量 -20就是减少20点攻击力</t>
+//攻击速度变化比率 0.2就是增加20%</t>
         </r>
       </text>
     </comment>
@@ -654,7 +654,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//攻击距离变化量 1.2就是增加1.2的攻击距离</t>
+//攻击速度变化值 -10表示降低10点攻击速度</t>
         </r>
       </text>
     </comment>
@@ -680,7 +680,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//移动速度变化率 1.0就是增加100%的移动速度</t>
+//攻击力变化比率 0.2就是增加20%</t>
         </r>
       </text>
     </comment>
@@ -706,7 +706,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//移动速度变化量 0.5就是增加0.5米每秒的移动速度</t>
+//攻击力变化量 -20就是减少20点攻击力</t>
         </r>
       </text>
     </comment>
@@ -732,7 +732,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//技能增强变化量 0.02表示技能增强增加2%</t>
+//攻击距离变化量 1.2就是增加1.2的攻击距离</t>
         </r>
       </text>
     </comment>
@@ -758,7 +758,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//魔法恢复变化率 0.5表示增加50%的魔法恢复</t>
+//移动速度变化率 1.0就是增加100%的移动速度</t>
         </r>
       </text>
     </comment>
@@ -784,7 +784,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//魔法恢复变化量 1.5表示增加1.5mp每秒的魔法恢复速度</t>
+//移动速度变化量 0.5就是增加0.5米每秒的移动速度</t>
         </r>
       </text>
     </comment>
@@ -810,7 +810,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//护甲变化比率 0.2就是增加20%</t>
+//技能增强变化量 0.02表示技能增强增加2%</t>
         </r>
       </text>
     </comment>
@@ -836,7 +836,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//护甲变化量 20就是增加20点护甲</t>
+//魔法恢复变化率 0.5表示增加50%的魔法恢复</t>
         </r>
       </text>
     </comment>
@@ -862,7 +862,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//魔法抗性变化量 0.1表示增加10%的魔抗</t>
+//魔法恢复变化量 1.5表示增加1.5mp每秒的魔法恢复速度</t>
         </r>
       </text>
     </comment>
@@ -888,7 +888,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//状态抗性变化量 0.1表示增加10%的状态抗性</t>
+//护甲变化比率 0.2就是增加20%</t>
         </r>
       </text>
     </comment>
@@ -914,7 +914,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//闪避变化量 0.2就是增加20%的闪避</t>
+//护甲变化量 20就是增加20点护甲</t>
         </r>
       </text>
     </comment>
@@ -940,7 +940,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//生命恢复变化率 0.5表示增加50%的生命恢复</t>
+//魔法抗性变化量 0.1表示增加10%的魔抗</t>
         </r>
       </text>
     </comment>
@@ -966,7 +966,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//生命恢复变化量 1.2表示增加1.2hp每秒的生命恢复</t>
+//状态抗性变化量 0.1表示增加10%的状态抗性</t>
         </r>
       </text>
     </comment>
@@ -992,7 +992,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//生命恢复变化量以最大生命值为基础 0.2表示增加20%最大生命值每秒的生命恢复</t>
+//闪避变化量 0.2就是增加20%的闪避</t>
         </r>
       </text>
     </comment>
@@ -1018,7 +1018,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//无视闪避变化量 0.2就是增加20%的无视闪避</t>
+//生命恢复变化率 0.5表示增加50%的生命恢复</t>
         </r>
       </text>
     </comment>
@@ -1044,7 +1044,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//额外施法距离变化量 2.3表示增加施法距离2.3米</t>
+//生命恢复变化量 1.2表示增加1.2hp每秒的生命恢复</t>
         </r>
       </text>
     </comment>
@@ -1070,7 +1070,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//魔法消耗变化量 -0.1表示降低10%的魔法消耗</t>
+//生命恢复变化量以最大生命值为基础 0.2表示增加20%最大生命值每秒的生命恢复</t>
         </r>
       </text>
     </comment>
@@ -1096,7 +1096,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//技能CD变化量 -0.2表示降低20%的技能cd</t>
+//无视闪避变化量 0.2就是增加20%的无视闪避</t>
         </r>
       </text>
     </comment>
@@ -1122,7 +1122,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//攻击指定目标攻击速度变化值 -10表示降低10点攻击速度</t>
+//额外施法距离变化量 2.3表示增加施法距离2.3米</t>
         </r>
       </text>
     </comment>
@@ -1148,7 +1148,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//开始生效的时间 1.2表示 1.2秒后生效</t>
+//魔法消耗变化量 -0.1表示降低10%的魔法消耗</t>
         </r>
       </text>
     </comment>
@@ -1174,7 +1174,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//攻击后失效 1:是 2:否</t>
+//技能CD变化量 -0.2表示降低20%的技能cd</t>
         </r>
       </text>
     </comment>
@@ -1200,7 +1200,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//使用技能后失效 1:是 2:否</t>
+//攻击指定目标攻击速度变化值 -10表示降低10点攻击速度</t>
         </r>
       </text>
     </comment>
@@ -1226,7 +1226,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//驱散等级 1 表示需要驱散等级大于等于1的 驱散效果才能驱散此buff</t>
+//开始生效的时间 1.2表示 1.2秒后生效</t>
         </r>
       </text>
     </comment>
@@ -1252,7 +1252,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//buff类型 1:表示良性 2:表示恶性  队友只能驱散我的恶性buff 敌人只能驱散我的良性buff 3:中性</t>
+//攻击后失效 1:是 2:否</t>
         </r>
       </text>
     </comment>
@@ -1278,7 +1278,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//添加此buff时 是否无视单位魔法免疫 1:是 2:非</t>
+//使用技能后失效 1:是 2:否</t>
         </r>
       </text>
     </comment>
@@ -1304,7 +1304,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//物理伤害吸血 0.1表示 增加攻击造成伤害的10%的HP</t>
+//驱散等级 1 表示需要驱散等级大于等于1的 驱散效果才能驱散此buff</t>
         </r>
       </text>
     </comment>
@@ -1330,7 +1330,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//魔法伤害吸血 0.1表示 增加攻击造成伤害的10%的HP</t>
+//buff类型 1:表示良性 2:表示恶性  队友只能驱散我的恶性buff 敌人只能驱散我的良性buff 3:中性</t>
         </r>
       </text>
     </comment>
@@ -1356,7 +1356,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//伤害类型(1:物理伤害 2:魔法伤害 3:纯粹伤害 4:不造成伤害)</t>
+//添加此buff时 是否无视单位魔法免疫 1:是 2:非</t>
         </r>
       </text>
     </comment>
@@ -1382,11 +1382,115 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//伤害时间间隔</t>
+//物理伤害吸血 0.1表示 增加攻击造成伤害的10%的HP</t>
         </r>
       </text>
     </comment>
     <comment ref="BD1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//魔法伤害吸血 0.1表示 增加攻击造成伤害的10%的HP</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BE1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//总伤害变化率 0.1表示 增加10%的总伤害 -0.1表示减少10%总伤害</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BF1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//伤害类型(1:物理伤害 2:魔法伤害 3:纯粹伤害 4:不造成伤害)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BG1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//伤害时间间隔</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BH1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1417,7 +1521,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="165">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1693,10 +1797,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>10000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1937,6 +2037,90 @@
   </si>
   <si>
     <t>MagicHurtAddHP</t>
+  </si>
+  <si>
+    <t>InvisibleBeSee</t>
+  </si>
+  <si>
+    <t>CanSeeInvisible</t>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MasterInvisible</t>
+  </si>
+  <si>
+    <t>混沌之军的无敌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌之军幻象伤害加深</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌之军自动死亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllHurtCV</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2309,19 +2493,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BD20"/>
+  <dimension ref="A1:BH23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
-      <selection activeCell="BC28" sqref="BC28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="20.25" customWidth="1"/>
-    <col min="24" max="24" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:56" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:60" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2359,139 +2543,151 @@
         <v>53</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>129</v>
+        <v>82</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="W1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="X1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="AY1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="BB1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="BF1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2528,38 +2724,38 @@
       <c r="L2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="2">
-        <v>2</v>
+      <c r="M2" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="N2" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="P2" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="P2" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q2" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="R2" s="2">
-        <v>0</v>
+      <c r="R2" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="S2" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="T2" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="U2" s="2">
+        <v>0</v>
+      </c>
+      <c r="V2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="T2" s="2">
-        <v>0</v>
-      </c>
-      <c r="U2" s="2">
-        <v>0</v>
-      </c>
-      <c r="V2" s="2">
-        <v>0</v>
-      </c>
-      <c r="W2" s="2" t="s">
-        <v>96</v>
+      <c r="W2" s="2">
+        <v>0</v>
       </c>
       <c r="X2" s="2">
         <v>0</v>
@@ -2567,24 +2763,24 @@
       <c r="Y2" s="2">
         <v>0</v>
       </c>
-      <c r="Z2" s="2">
-        <v>0</v>
+      <c r="Z2" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="AA2" s="2">
         <v>0</v>
       </c>
       <c r="AB2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE2" s="2">
         <v>-0.5</v>
       </c>
-      <c r="AC2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE2" s="2">
-        <v>0</v>
-      </c>
       <c r="AF2" s="2">
         <v>0</v>
       </c>
@@ -2609,59 +2805,71 @@
       <c r="AM2" s="2">
         <v>0</v>
       </c>
-      <c r="AN2" s="2" t="s">
+      <c r="AN2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AO2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP2" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ2" s="2">
-        <v>0</v>
-      </c>
       <c r="AR2" s="2">
         <v>0</v>
       </c>
       <c r="AS2" s="2">
         <v>0</v>
       </c>
-      <c r="AT2" s="2" t="s">
+      <c r="AT2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW2" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AU2" s="2">
-        <v>2</v>
-      </c>
-      <c r="AV2" s="2">
-        <v>2</v>
-      </c>
-      <c r="AW2" s="2">
-        <v>1</v>
-      </c>
       <c r="AX2" s="2">
         <v>2</v>
       </c>
       <c r="AY2" s="2">
         <v>2</v>
       </c>
-      <c r="AZ2" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="BA2" s="2" t="s">
-        <v>142</v>
+      <c r="AZ2" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA2" s="2">
+        <v>2</v>
       </c>
       <c r="BB2" s="2">
+        <v>2</v>
+      </c>
+      <c r="BC2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="BD2" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="BE2" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="BF2" s="2">
         <v>4</v>
       </c>
-      <c r="BC2" s="2">
-        <v>1</v>
-      </c>
-      <c r="BD2" s="2">
+      <c r="BG2" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH2" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2698,51 +2906,51 @@
       <c r="L3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M3" s="2">
-        <v>2</v>
+      <c r="M3" s="2" t="s">
+        <v>122</v>
       </c>
       <c r="N3" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="P3" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q3" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O3" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="P3" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q3" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="R3" s="2">
-        <v>0</v>
+      <c r="R3" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="S3" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="T3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="U3" s="2">
+        <v>0</v>
+      </c>
+      <c r="V3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="T3" s="2">
-        <v>0</v>
-      </c>
-      <c r="U3" s="2">
-        <v>0</v>
-      </c>
-      <c r="V3" s="2">
-        <v>0</v>
-      </c>
-      <c r="W3" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="X3" s="2" t="s">
+      <c r="W3" s="2">
+        <v>0</v>
+      </c>
+      <c r="X3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Y3" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="2">
-        <v>0</v>
-      </c>
       <c r="AB3" s="2">
         <v>0</v>
       </c>
@@ -2779,59 +2987,71 @@
       <c r="AM3" s="2">
         <v>0</v>
       </c>
-      <c r="AN3" s="2" t="s">
+      <c r="AN3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AO3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP3" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ3" s="2">
-        <v>0</v>
-      </c>
       <c r="AR3" s="2">
         <v>0</v>
       </c>
       <c r="AS3" s="2">
         <v>0</v>
       </c>
-      <c r="AT3" s="2" t="s">
+      <c r="AT3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW3" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AU3" s="2">
-        <v>2</v>
-      </c>
-      <c r="AV3" s="2">
-        <v>2</v>
-      </c>
-      <c r="AW3" s="2">
-        <v>1</v>
-      </c>
       <c r="AX3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY3" s="2">
         <v>2</v>
       </c>
-      <c r="AZ3" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="BA3" s="2" t="s">
-        <v>142</v>
+      <c r="AZ3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA3" s="2">
+        <v>1</v>
       </c>
       <c r="BB3" s="2">
+        <v>2</v>
+      </c>
+      <c r="BC3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="BD3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="BE3" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="BF3" s="2">
         <v>4</v>
       </c>
-      <c r="BC3" s="2">
-        <v>1</v>
-      </c>
-      <c r="BD3" s="2">
+      <c r="BG3" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2868,51 +3088,51 @@
       <c r="L4" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="M4" s="2">
-        <v>2</v>
+      <c r="M4" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="N4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P4" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O4" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="R4" s="2">
-        <v>0</v>
+      <c r="R4" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="S4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="T4" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="U4" s="2">
+        <v>0</v>
+      </c>
+      <c r="V4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="T4" s="2">
-        <v>0</v>
-      </c>
-      <c r="U4" s="2">
-        <v>0</v>
-      </c>
-      <c r="V4" s="2">
-        <v>0</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="X4" s="2" t="s">
+      <c r="W4" s="2">
+        <v>0</v>
+      </c>
+      <c r="X4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Y4" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="2">
-        <v>0</v>
-      </c>
       <c r="AB4" s="2">
         <v>0</v>
       </c>
@@ -2940,27 +3160,27 @@
       <c r="AJ4" s="2">
         <v>0</v>
       </c>
-      <c r="AK4" s="2" t="s">
+      <c r="AK4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="AL4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN4" s="2" t="s">
+      <c r="AO4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AO4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP4" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ4" s="2">
-        <v>0</v>
-      </c>
       <c r="AR4" s="2">
         <v>0</v>
       </c>
@@ -2971,37 +3191,49 @@
         <v>0</v>
       </c>
       <c r="AU4" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AV4" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW4" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AX4" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY4" s="2">
         <v>2</v>
       </c>
-      <c r="AZ4" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="BA4" s="2" t="s">
-        <v>95</v>
+      <c r="AZ4" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA4" s="2">
+        <v>1</v>
       </c>
       <c r="BB4" s="2">
+        <v>2</v>
+      </c>
+      <c r="BC4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BE4" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF4" s="2">
         <v>4</v>
       </c>
-      <c r="BC4" s="2">
-        <v>1</v>
-      </c>
-      <c r="BD4" s="2">
+      <c r="BG4" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH4" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3038,51 +3270,51 @@
       <c r="L5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="M5" s="2">
-        <v>2</v>
+      <c r="M5" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="N5" s="2" t="s">
-        <v>84</v>
+        <v>47</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="P5" s="2" t="s">
-        <v>47</v>
+        <v>47</v>
+      </c>
+      <c r="P5" s="2">
+        <v>2</v>
       </c>
       <c r="Q5" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="R5" s="2">
-        <v>0</v>
+        <v>83</v>
+      </c>
+      <c r="R5" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="S5" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="T5" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="U5" s="2">
+        <v>0</v>
+      </c>
+      <c r="V5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="T5" s="2">
-        <v>0</v>
-      </c>
-      <c r="U5" s="2">
-        <v>0</v>
-      </c>
-      <c r="V5" s="2">
-        <v>0</v>
-      </c>
-      <c r="W5" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="X5" s="2" t="s">
+      <c r="W5" s="2">
+        <v>0</v>
+      </c>
+      <c r="X5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Y5" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="2">
-        <v>0</v>
-      </c>
       <c r="AB5" s="2">
         <v>0</v>
       </c>
@@ -3110,68 +3342,80 @@
       <c r="AJ5" s="2">
         <v>0</v>
       </c>
-      <c r="AK5" s="2" t="s">
+      <c r="AK5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN5" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="AL5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN5" s="2" t="s">
+      <c r="AO5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AO5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP5" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ5" s="2">
-        <v>0</v>
-      </c>
       <c r="AR5" s="2">
         <v>0</v>
       </c>
       <c r="AS5" s="2">
         <v>0</v>
       </c>
-      <c r="AT5" s="2" t="s">
+      <c r="AT5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW5" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AU5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AV5" s="2">
-        <v>1</v>
-      </c>
-      <c r="AW5" s="2">
-        <v>2</v>
-      </c>
       <c r="AX5" s="2">
         <v>1</v>
       </c>
       <c r="AY5" s="2">
-        <v>2</v>
-      </c>
-      <c r="AZ5" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="BA5" s="2" t="s">
-        <v>95</v>
+        <v>1</v>
+      </c>
+      <c r="AZ5" s="2">
+        <v>2</v>
+      </c>
+      <c r="BA5" s="2">
+        <v>1</v>
       </c>
       <c r="BB5" s="2">
+        <v>2</v>
+      </c>
+      <c r="BC5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BE5" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF5" s="2">
         <v>4</v>
       </c>
-      <c r="BC5" s="2">
-        <v>1</v>
-      </c>
-      <c r="BD5" s="2">
+      <c r="BG5" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH5" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3209,57 +3453,57 @@
         <v>47</v>
       </c>
       <c r="M6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N6" s="2" t="s">
+      <c r="Q6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O6" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="P6" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q6" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="R6" s="2">
-        <v>0</v>
+      <c r="R6" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="S6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="T6" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="U6" s="2">
+        <v>0</v>
+      </c>
+      <c r="V6" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="T6" s="2">
-        <v>0</v>
-      </c>
-      <c r="U6" s="2">
-        <v>0</v>
-      </c>
-      <c r="V6" s="2">
-        <v>0</v>
-      </c>
-      <c r="W6" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="X6" s="2" t="s">
+      <c r="W6" s="2">
+        <v>0</v>
+      </c>
+      <c r="X6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Y6" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
       <c r="AB6" s="2">
         <v>0</v>
       </c>
       <c r="AC6" s="2">
         <v>0</v>
       </c>
-      <c r="AD6" s="2">
+      <c r="AD6">
         <v>0</v>
       </c>
       <c r="AE6" s="2">
@@ -3274,74 +3518,86 @@
       <c r="AH6" s="2">
         <v>0</v>
       </c>
-      <c r="AI6" s="2" t="s">
+      <c r="AI6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AJ6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK6" s="2" t="s">
+      <c r="AM6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN6" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AL6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN6" s="2" t="s">
+      <c r="AO6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AO6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ6" s="2">
-        <v>0</v>
-      </c>
       <c r="AR6" s="2">
         <v>0</v>
       </c>
       <c r="AS6" s="2">
         <v>0</v>
       </c>
-      <c r="AT6" s="2" t="s">
+      <c r="AT6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AU6" s="2" t="s">
+      <c r="AX6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AV6" s="2" t="s">
+      <c r="AY6" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AW6" s="2">
-        <v>2</v>
-      </c>
-      <c r="AX6" s="2">
-        <v>1</v>
-      </c>
-      <c r="AY6" s="2">
-        <v>2</v>
-      </c>
-      <c r="AZ6" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="BA6" s="2" t="s">
-        <v>95</v>
+      <c r="AZ6" s="2">
+        <v>2</v>
+      </c>
+      <c r="BA6" s="2">
+        <v>1</v>
       </c>
       <c r="BB6" s="2">
+        <v>2</v>
+      </c>
+      <c r="BC6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BE6" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF6" s="2">
         <v>4</v>
       </c>
-      <c r="BC6" s="2">
-        <v>1</v>
-      </c>
-      <c r="BD6" s="2">
+      <c r="BG6" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH6" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3378,38 +3634,38 @@
       <c r="L7" s="2">
         <v>2</v>
       </c>
-      <c r="M7" s="2">
-        <v>1</v>
+      <c r="M7" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="N7" s="2" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
       <c r="O7" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="P7" s="2" t="s">
-        <v>47</v>
+        <v>47</v>
+      </c>
+      <c r="P7" s="2">
+        <v>1</v>
       </c>
       <c r="Q7" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="R7" s="2">
-        <v>0</v>
+        <v>84</v>
+      </c>
+      <c r="R7" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="S7" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="T7" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="U7" s="2">
+        <v>0</v>
+      </c>
+      <c r="V7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="T7" s="2">
-        <v>0</v>
-      </c>
-      <c r="U7" s="2">
-        <v>0</v>
-      </c>
-      <c r="V7" s="2">
-        <v>0</v>
-      </c>
-      <c r="W7" s="2" t="s">
-        <v>95</v>
+      <c r="W7" s="2">
+        <v>0</v>
       </c>
       <c r="X7" s="2">
         <v>0</v>
@@ -3417,8 +3673,8 @@
       <c r="Y7" s="2">
         <v>0</v>
       </c>
-      <c r="Z7" s="2">
-        <v>0</v>
+      <c r="Z7" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="AA7" s="2">
         <v>0</v>
@@ -3445,7 +3701,7 @@
         <v>0</v>
       </c>
       <c r="AI7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="2">
         <v>0</v>
@@ -3454,23 +3710,23 @@
         <v>0</v>
       </c>
       <c r="AL7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AM7" s="2">
         <v>0</v>
       </c>
-      <c r="AN7" s="2" t="s">
+      <c r="AN7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AO7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ7" s="2">
-        <v>0</v>
-      </c>
       <c r="AR7" s="2">
         <v>0</v>
       </c>
@@ -3480,38 +3736,50 @@
       <c r="AT7" s="2">
         <v>0</v>
       </c>
-      <c r="AU7" s="2" t="s">
+      <c r="AU7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX7" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="AV7" s="2" t="s">
+      <c r="AY7" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AW7" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AY7" s="2">
-        <v>1</v>
-      </c>
-      <c r="AZ7" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="BA7" s="2" t="s">
-        <v>95</v>
+      <c r="AZ7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="2">
+        <v>1</v>
       </c>
       <c r="BB7" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BE7" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF7" s="2">
         <v>4</v>
       </c>
-      <c r="BC7" s="2">
-        <v>1</v>
-      </c>
-      <c r="BD7" s="2">
+      <c r="BG7" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH7" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3549,37 +3817,37 @@
         <v>2</v>
       </c>
       <c r="M8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="Q8" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O8" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="P8" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q8" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="R8" s="2">
-        <v>0</v>
-      </c>
-      <c r="S8" s="2">
-        <v>1</v>
-      </c>
-      <c r="T8" s="2">
-        <v>0</v>
+      <c r="R8" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="S8" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="T8" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="U8" s="2">
         <v>0</v>
       </c>
       <c r="V8" s="2">
-        <v>0</v>
-      </c>
-      <c r="W8" s="2" t="s">
-        <v>95</v>
+        <v>1</v>
+      </c>
+      <c r="W8" s="2">
+        <v>0</v>
       </c>
       <c r="X8" s="2">
         <v>0</v>
@@ -3587,8 +3855,8 @@
       <c r="Y8" s="2">
         <v>0</v>
       </c>
-      <c r="Z8" s="2">
-        <v>0</v>
+      <c r="Z8" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="AA8" s="2">
         <v>0</v>
@@ -3614,33 +3882,33 @@
       <c r="AH8" s="2">
         <v>0</v>
       </c>
-      <c r="AI8" s="2" t="s">
+      <c r="AI8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL8" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AJ8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL8" s="2">
-        <v>0</v>
-      </c>
       <c r="AM8" s="2">
         <v>0</v>
       </c>
-      <c r="AN8" s="2" t="s">
+      <c r="AN8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="AO8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ8" s="2">
-        <v>0</v>
-      </c>
       <c r="AR8" s="2">
         <v>0</v>
       </c>
@@ -3650,38 +3918,50 @@
       <c r="AT8" s="2">
         <v>0</v>
       </c>
-      <c r="AU8" s="2" t="s">
+      <c r="AU8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX8" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="AV8" s="2" t="s">
+      <c r="AY8" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="AW8" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AY8" s="2">
-        <v>1</v>
-      </c>
-      <c r="AZ8" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="BA8" s="2" t="s">
-        <v>95</v>
+      <c r="AZ8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="2">
+        <v>1</v>
       </c>
       <c r="BB8" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BE8" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF8" s="2">
         <v>4</v>
       </c>
-      <c r="BC8" s="2">
-        <v>1</v>
-      </c>
-      <c r="BD8" s="2">
+      <c r="BG8" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH8" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3719,37 +3999,37 @@
         <v>2</v>
       </c>
       <c r="M9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="N9" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="O9" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="P9" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="Q9" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="R9" s="2">
-        <v>0</v>
-      </c>
-      <c r="S9" s="2">
-        <v>1</v>
-      </c>
-      <c r="T9" s="2">
-        <v>0</v>
+        <v>85</v>
+      </c>
+      <c r="R9" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="S9" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="T9" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="U9" s="2">
         <v>0</v>
       </c>
       <c r="V9" s="2">
-        <v>0</v>
-      </c>
-      <c r="W9" s="2" t="s">
-        <v>95</v>
+        <v>1</v>
+      </c>
+      <c r="W9" s="2">
+        <v>0</v>
       </c>
       <c r="X9" s="2">
         <v>0</v>
@@ -3757,8 +4037,8 @@
       <c r="Y9" s="2">
         <v>0</v>
       </c>
-      <c r="Z9" s="2">
-        <v>0</v>
+      <c r="Z9" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="AA9" s="2">
         <v>0</v>
@@ -3784,79 +4064,91 @@
       <c r="AH9" s="2">
         <v>0</v>
       </c>
-      <c r="AI9" s="2" t="s">
+      <c r="AI9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AJ9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL9" s="2">
-        <v>0</v>
-      </c>
       <c r="AM9" s="2">
         <v>0</v>
       </c>
-      <c r="AN9" s="2" t="s">
+      <c r="AN9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AO9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP9" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ9" s="2">
-        <v>0</v>
-      </c>
       <c r="AR9" s="2">
         <v>0</v>
       </c>
       <c r="AS9" s="2">
         <v>0</v>
       </c>
-      <c r="AT9" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AU9" s="2" t="s">
+      <c r="AT9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="AX9" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AV9" s="2" t="s">
+      <c r="AY9" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AW9" s="2" t="s">
+      <c r="AZ9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="AX9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AY9" s="2">
-        <v>1</v>
-      </c>
-      <c r="AZ9" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="BA9" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="BB9" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="BC9" s="2">
-        <v>1</v>
+      <c r="BA9" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB9" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC9" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="BD9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BE9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF9" s="2" t="s">
         <v>80</v>
       </c>
+      <c r="BG9" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH9" s="2" t="s">
+        <v>156</v>
+      </c>
     </row>
-    <row r="10" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C10" s="2">
         <v>4</v>
@@ -3871,7 +4163,7 @@
         <v>3</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>44</v>
@@ -3889,57 +4181,57 @@
         <v>47</v>
       </c>
       <c r="M10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="P10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="Q10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O10" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="P10" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q10" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="R10" s="2">
-        <v>0</v>
+      <c r="R10" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="S10" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="T10" s="2">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="T10" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="U10" s="2">
         <v>0</v>
       </c>
-      <c r="V10" s="2">
-        <v>0</v>
-      </c>
-      <c r="W10" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="X10" s="2" t="s">
-        <v>92</v>
+      <c r="V10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="W10" s="2">
+        <v>0</v>
+      </c>
+      <c r="X10" s="2">
+        <v>0</v>
       </c>
       <c r="Y10" s="2">
         <v>0</v>
       </c>
       <c r="Z10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA10" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
       <c r="AB10" s="2">
         <v>0</v>
       </c>
-      <c r="AC10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD10" s="2">
+      <c r="AC10" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD10">
         <v>0</v>
       </c>
       <c r="AE10" s="2">
@@ -3954,79 +4246,91 @@
       <c r="AH10" s="2">
         <v>0</v>
       </c>
-      <c r="AI10" s="2" t="s">
+      <c r="AI10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AJ10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK10" s="2" t="s">
+      <c r="AM10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AL10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN10" s="2" t="s">
+      <c r="AO10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AO10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ10" s="2">
-        <v>0</v>
-      </c>
       <c r="AR10" s="2">
         <v>0</v>
       </c>
       <c r="AS10" s="2">
         <v>0</v>
       </c>
-      <c r="AT10" s="2" t="s">
+      <c r="AT10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW10" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AU10" s="2" t="s">
+      <c r="AX10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AV10" s="2" t="s">
+      <c r="AY10" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AW10" s="2">
-        <v>2</v>
-      </c>
-      <c r="AX10" s="2">
-        <v>1</v>
-      </c>
-      <c r="AY10" s="2">
-        <v>2</v>
-      </c>
-      <c r="AZ10" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="BA10" s="2" t="s">
-        <v>95</v>
+      <c r="AZ10" s="2">
+        <v>2</v>
+      </c>
+      <c r="BA10" s="2">
+        <v>1</v>
       </c>
       <c r="BB10" s="2">
+        <v>2</v>
+      </c>
+      <c r="BC10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BE10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF10" s="2">
         <v>4</v>
       </c>
-      <c r="BC10" s="2">
-        <v>1</v>
-      </c>
-      <c r="BD10" s="2">
+      <c r="BG10" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH10" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C11" s="2">
         <v>4</v>
@@ -4058,38 +4362,38 @@
       <c r="L11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M11" s="2">
-        <v>2</v>
+      <c r="M11" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="N11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P11" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O11" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="P11" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q11" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="R11" s="2">
-        <v>0</v>
+      <c r="R11" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="S11" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="T11" s="2">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="T11" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="U11" s="2">
         <v>0</v>
       </c>
-      <c r="V11" s="2">
-        <v>0</v>
-      </c>
-      <c r="W11" s="2" t="s">
-        <v>95</v>
+      <c r="V11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="W11" s="2">
+        <v>0</v>
       </c>
       <c r="X11" s="2">
         <v>0</v>
@@ -4097,14 +4401,14 @@
       <c r="Y11" s="2">
         <v>0</v>
       </c>
-      <c r="Z11" s="2">
-        <v>0</v>
+      <c r="Z11" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="AA11" s="2">
         <v>0</v>
       </c>
-      <c r="AB11" s="2" t="s">
-        <v>97</v>
+      <c r="AB11" s="2">
+        <v>0</v>
       </c>
       <c r="AC11" s="2">
         <v>0</v>
@@ -4112,8 +4416,8 @@
       <c r="AD11" s="2">
         <v>0</v>
       </c>
-      <c r="AE11" s="2">
-        <v>0</v>
+      <c r="AE11" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="AF11" s="2">
         <v>0</v>
@@ -4139,64 +4443,76 @@
       <c r="AM11" s="2">
         <v>0</v>
       </c>
-      <c r="AN11" s="2" t="s">
+      <c r="AN11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AO11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP11" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ11" s="2">
-        <v>0</v>
-      </c>
       <c r="AR11" s="2">
         <v>0</v>
       </c>
       <c r="AS11" s="2">
         <v>0</v>
       </c>
-      <c r="AT11" s="2" t="s">
+      <c r="AT11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW11" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AU11" s="2">
-        <v>2</v>
-      </c>
-      <c r="AV11" s="2">
-        <v>2</v>
-      </c>
-      <c r="AW11" s="2">
-        <v>1</v>
-      </c>
       <c r="AX11" s="2">
         <v>2</v>
       </c>
       <c r="AY11" s="2">
         <v>2</v>
       </c>
-      <c r="AZ11" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="BA11" s="2" t="s">
-        <v>95</v>
+      <c r="AZ11" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA11" s="2">
+        <v>2</v>
       </c>
       <c r="BB11" s="2">
+        <v>2</v>
+      </c>
+      <c r="BC11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BE11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF11" s="2">
         <v>4</v>
       </c>
-      <c r="BC11" s="2">
-        <v>1</v>
-      </c>
-      <c r="BD11" s="2">
+      <c r="BG11" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH11" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C12" s="2">
         <v>4</v>
@@ -4220,7 +4536,7 @@
         <v>2</v>
       </c>
       <c r="J12" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K12" s="2">
         <v>2</v>
@@ -4228,63 +4544,63 @@
       <c r="L12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M12" s="2">
-        <v>2</v>
+      <c r="M12" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="N12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P12" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O12" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="P12" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q12" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="R12" s="2">
-        <v>0</v>
+      <c r="R12" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="S12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="T12" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="U12" s="2">
+        <v>0</v>
+      </c>
+      <c r="V12" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="W12" s="2">
+        <v>0</v>
+      </c>
+      <c r="X12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="T12" s="2">
-        <v>0</v>
-      </c>
-      <c r="U12" s="2">
-        <v>0</v>
-      </c>
-      <c r="V12" s="2">
-        <v>0</v>
-      </c>
-      <c r="W12" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="X12" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="2">
-        <v>0</v>
-      </c>
       <c r="AF12" s="2">
         <v>0</v>
       </c>
@@ -4309,64 +4625,76 @@
       <c r="AM12" s="2">
         <v>0</v>
       </c>
-      <c r="AN12" s="2" t="s">
+      <c r="AN12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AO12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ12" s="2">
-        <v>0</v>
-      </c>
       <c r="AR12" s="2">
         <v>0</v>
       </c>
       <c r="AS12" s="2">
         <v>0</v>
       </c>
-      <c r="AT12" s="2" t="s">
+      <c r="AT12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW12" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AU12" s="2">
-        <v>2</v>
-      </c>
-      <c r="AV12" s="2">
-        <v>2</v>
-      </c>
-      <c r="AW12" s="2">
-        <v>1</v>
-      </c>
       <c r="AX12" s="2">
         <v>2</v>
       </c>
       <c r="AY12" s="2">
         <v>2</v>
       </c>
-      <c r="AZ12" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="BA12" s="2" t="s">
-        <v>95</v>
+      <c r="AZ12" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA12" s="2">
+        <v>2</v>
       </c>
       <c r="BB12" s="2">
+        <v>2</v>
+      </c>
+      <c r="BC12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BE12" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF12" s="2">
         <v>4</v>
       </c>
-      <c r="BC12" s="2">
-        <v>1</v>
-      </c>
-      <c r="BD12" s="2">
+      <c r="BG12" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH12" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C13" s="2">
         <v>4</v>
@@ -4378,7 +4706,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G13" s="2">
         <v>2</v>
@@ -4398,51 +4726,51 @@
       <c r="L13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M13" s="2">
-        <v>2</v>
+      <c r="M13" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="N13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P13" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="R13" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="S13" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="T13" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="U13" s="2">
+        <v>0</v>
+      </c>
+      <c r="V13" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="W13" s="2">
+        <v>0</v>
+      </c>
+      <c r="X13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA13" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="P13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q13" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="R13" s="2">
-        <v>0</v>
-      </c>
-      <c r="S13" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="T13" s="2">
-        <v>0</v>
-      </c>
-      <c r="U13" s="2">
-        <v>0</v>
-      </c>
-      <c r="V13" s="2">
-        <v>0</v>
-      </c>
-      <c r="W13" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="X13" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="Y13" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA13" s="2">
-        <v>0</v>
-      </c>
       <c r="AB13" s="2">
         <v>0</v>
       </c>
@@ -4479,64 +4807,76 @@
       <c r="AM13" s="2">
         <v>0</v>
       </c>
-      <c r="AN13" s="2" t="s">
+      <c r="AN13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AO13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP13" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ13" s="2">
-        <v>0</v>
-      </c>
       <c r="AR13" s="2">
         <v>0</v>
       </c>
       <c r="AS13" s="2">
         <v>0</v>
       </c>
-      <c r="AT13" s="2" t="s">
+      <c r="AT13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW13" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AU13" s="2">
-        <v>2</v>
-      </c>
-      <c r="AV13" s="2">
-        <v>2</v>
-      </c>
-      <c r="AW13" s="2">
-        <v>1</v>
-      </c>
       <c r="AX13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AY13" s="2">
         <v>2</v>
       </c>
-      <c r="AZ13" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="BA13" s="2" t="s">
-        <v>95</v>
+      <c r="AZ13" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA13" s="2">
+        <v>1</v>
       </c>
       <c r="BB13" s="2">
+        <v>2</v>
+      </c>
+      <c r="BC13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BE13" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF13" s="2">
         <v>4</v>
       </c>
-      <c r="BC13" s="2">
-        <v>1</v>
-      </c>
-      <c r="BD13" s="2">
+      <c r="BG13" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH13" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C14" s="2">
         <v>4</v>
@@ -4569,57 +4909,57 @@
         <v>47</v>
       </c>
       <c r="M14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="Q14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="O14" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="P14" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="R14" s="2">
-        <v>0</v>
+      <c r="R14" s="2" t="s">
+        <v>107</v>
       </c>
       <c r="S14" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="T14" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="U14" s="2">
+        <v>0</v>
+      </c>
+      <c r="V14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="T14" s="2">
-        <v>0</v>
-      </c>
-      <c r="U14" s="2">
-        <v>0</v>
-      </c>
-      <c r="V14" s="2">
-        <v>0</v>
-      </c>
-      <c r="W14" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="X14" s="2" t="s">
+      <c r="W14" s="2">
+        <v>0</v>
+      </c>
+      <c r="X14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="Y14" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="2" t="s">
+      <c r="AB14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD14" s="2">
+      <c r="AD14">
         <v>0</v>
       </c>
       <c r="AE14" s="2">
@@ -4634,17 +4974,17 @@
       <c r="AH14" s="2">
         <v>0</v>
       </c>
-      <c r="AI14" s="2" t="s">
+      <c r="AI14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="AJ14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK14" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AL14" s="2">
-        <v>0</v>
       </c>
       <c r="AM14" s="2">
         <v>0</v>
@@ -4658,8 +4998,8 @@
       <c r="AP14" s="2">
         <v>0</v>
       </c>
-      <c r="AQ14" s="2">
-        <v>0</v>
+      <c r="AQ14" s="2" t="s">
+        <v>45</v>
       </c>
       <c r="AR14" s="2">
         <v>0</v>
@@ -4667,46 +5007,58 @@
       <c r="AS14" s="2">
         <v>0</v>
       </c>
-      <c r="AT14" s="2" t="s">
+      <c r="AT14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW14" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AU14" s="2" t="s">
+      <c r="AX14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AV14" s="2" t="s">
+      <c r="AY14" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AW14" s="2">
-        <v>2</v>
-      </c>
-      <c r="AX14" s="2">
-        <v>1</v>
-      </c>
-      <c r="AY14" s="2">
-        <v>2</v>
-      </c>
-      <c r="AZ14" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="BA14" s="2" t="s">
-        <v>95</v>
+      <c r="AZ14" s="2">
+        <v>2</v>
+      </c>
+      <c r="BA14" s="2">
+        <v>1</v>
       </c>
       <c r="BB14" s="2">
+        <v>2</v>
+      </c>
+      <c r="BC14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BE14" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF14" s="2">
         <v>4</v>
       </c>
-      <c r="BC14" s="2">
-        <v>1</v>
-      </c>
-      <c r="BD14" s="2">
+      <c r="BG14" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH14" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C15" s="2">
         <v>4</v>
@@ -4738,53 +5090,53 @@
       <c r="L15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="M15" s="2">
-        <v>2</v>
+      <c r="M15" s="2" t="s">
+        <v>47</v>
       </c>
       <c r="N15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P15" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="R15" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="S15" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="U15" s="2">
+        <v>0</v>
+      </c>
+      <c r="V15" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="P15" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="Q15" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="R15" s="2">
-        <v>0</v>
-      </c>
-      <c r="S15" s="2" t="s">
+      <c r="W15" s="2">
+        <v>0</v>
+      </c>
+      <c r="X15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="T15" s="2">
-        <v>0</v>
-      </c>
-      <c r="U15" s="2">
-        <v>0</v>
-      </c>
-      <c r="V15" s="2">
-        <v>0</v>
-      </c>
-      <c r="W15" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="X15" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="2">
-        <v>0</v>
-      </c>
       <c r="AA15" s="2">
         <v>0</v>
       </c>
-      <c r="AB15" s="2" t="s">
-        <v>112</v>
+      <c r="AB15" s="2">
+        <v>0</v>
       </c>
       <c r="AC15" s="2">
         <v>0</v>
@@ -4792,8 +5144,8 @@
       <c r="AD15" s="2">
         <v>0</v>
       </c>
-      <c r="AE15" s="2">
-        <v>0</v>
+      <c r="AE15" s="2" t="s">
+        <v>111</v>
       </c>
       <c r="AF15" s="2">
         <v>0</v>
@@ -4819,64 +5171,76 @@
       <c r="AM15" s="2">
         <v>0</v>
       </c>
-      <c r="AN15" s="2" t="s">
+      <c r="AN15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AO15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ15" s="2">
-        <v>0</v>
-      </c>
       <c r="AR15" s="2">
         <v>0</v>
       </c>
       <c r="AS15" s="2">
         <v>0</v>
       </c>
-      <c r="AT15" s="2" t="s">
+      <c r="AT15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AU15" s="2">
-        <v>2</v>
-      </c>
-      <c r="AV15" s="2">
-        <v>2</v>
-      </c>
-      <c r="AW15" s="2">
-        <v>1</v>
-      </c>
-      <c r="AX15" s="2" t="s">
-        <v>114</v>
+      <c r="AX15" s="2">
+        <v>2</v>
       </c>
       <c r="AY15" s="2">
         <v>2</v>
       </c>
-      <c r="AZ15" s="2" t="s">
-        <v>95</v>
+      <c r="AZ15" s="2">
+        <v>1</v>
       </c>
       <c r="BA15" s="2" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
       <c r="BB15" s="2">
+        <v>2</v>
+      </c>
+      <c r="BC15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BE15" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF15" s="2">
         <v>4</v>
       </c>
-      <c r="BC15" s="2">
-        <v>1</v>
-      </c>
-      <c r="BD15" s="2">
+      <c r="BG15" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH15" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>70</v>
@@ -4909,98 +5273,98 @@
         <v>2</v>
       </c>
       <c r="M16" s="2" t="s">
-        <v>103</v>
+        <v>47</v>
       </c>
       <c r="N16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P16" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q16" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="O16" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="P16" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q16" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="R16" s="2">
-        <v>0</v>
+      <c r="R16" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="S16" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="T16" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="U16" s="2">
+        <v>0</v>
+      </c>
+      <c r="V16" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="W16" s="2">
+        <v>0</v>
+      </c>
+      <c r="X16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="T16" s="2">
-        <v>0</v>
-      </c>
-      <c r="U16" s="2">
-        <v>0</v>
-      </c>
-      <c r="V16" s="2">
-        <v>0</v>
-      </c>
-      <c r="W16" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="X16" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y16" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="2">
-        <v>0</v>
-      </c>
       <c r="AM16" s="2">
         <v>0</v>
       </c>
-      <c r="AN16" s="2" t="s">
+      <c r="AN16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AO16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ16" s="2">
-        <v>0</v>
-      </c>
       <c r="AR16" s="2">
         <v>0</v>
       </c>
@@ -5010,43 +5374,55 @@
       <c r="AT16" s="2">
         <v>0</v>
       </c>
-      <c r="AU16" s="2" t="s">
+      <c r="AU16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AV16" s="2" t="s">
+      <c r="AY16" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AW16" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AX16" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AY16" s="2">
-        <v>1</v>
-      </c>
       <c r="AZ16" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="BA16" s="2" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="BB16" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BE16" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF16" s="2">
         <v>4</v>
       </c>
-      <c r="BC16" s="2">
-        <v>1</v>
-      </c>
-      <c r="BD16" s="2">
+      <c r="BG16" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH16" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>70</v>
@@ -5079,144 +5455,156 @@
         <v>2</v>
       </c>
       <c r="M17" s="2" t="s">
-        <v>103</v>
+        <v>130</v>
       </c>
       <c r="N17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q17" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="O17" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="P17" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q17" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="R17" s="2">
-        <v>0</v>
+      <c r="R17" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="S17" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="T17" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="U17" s="2">
+        <v>0</v>
+      </c>
+      <c r="V17" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="W17" s="2">
+        <v>0</v>
+      </c>
+      <c r="X17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL17" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AM17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY17" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ17" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="BA17" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="T17" s="2">
-        <v>0</v>
-      </c>
-      <c r="U17" s="2">
-        <v>0</v>
-      </c>
-      <c r="V17" s="2">
-        <v>0</v>
-      </c>
-      <c r="W17" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="X17" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI17" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="AJ17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN17" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT17" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AV17" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AW17" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="AX17" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AY17" s="2">
-        <v>1</v>
-      </c>
-      <c r="AZ17" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="BA17" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="BB17" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BE17" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF17" s="2">
         <v>4</v>
       </c>
-      <c r="BC17" s="2">
-        <v>1</v>
-      </c>
-      <c r="BD17" s="2">
+      <c r="BG17" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH17" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>67</v>
@@ -5231,162 +5619,174 @@
         <v>3</v>
       </c>
       <c r="G18" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="J18" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="K18" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="J18" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="K18" s="2" t="s">
+      <c r="L18" s="2">
+        <v>2</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="R18" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S18" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="L18" s="2">
-        <v>2</v>
-      </c>
-      <c r="M18" s="2" t="s">
+      <c r="T18" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="U18" s="2">
+        <v>0</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="W18" s="2">
+        <v>0</v>
+      </c>
+      <c r="X18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AG18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ18" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="O18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="P18" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q18" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="R18" s="2">
-        <v>0</v>
-      </c>
-      <c r="S18" s="2" t="s">
+      <c r="BA18" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="T18" s="2">
-        <v>0</v>
-      </c>
-      <c r="U18" s="2">
-        <v>0</v>
-      </c>
-      <c r="V18" s="2">
-        <v>0</v>
-      </c>
-      <c r="W18" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="X18" s="2">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="AD18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AJ18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN18" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="AO18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AV18" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="AW18" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="AX18" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="AY18" s="2">
-        <v>1</v>
-      </c>
-      <c r="AZ18" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="BA18" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="BB18" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BE18" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF18" s="2">
         <v>4</v>
       </c>
-      <c r="BC18" s="2">
-        <v>1</v>
-      </c>
-      <c r="BD18" s="2">
+      <c r="BG18" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH18" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>67</v>
@@ -5419,37 +5819,37 @@
         <v>2</v>
       </c>
       <c r="M19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P19" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N19" s="2" t="s">
+      <c r="Q19" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="R19" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="P19" s="2" t="s">
+      <c r="S19" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="T19" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="U19" s="2">
+        <v>0</v>
+      </c>
+      <c r="V19" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="Q19" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="R19" s="2">
-        <v>0</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="T19" s="2">
-        <v>0</v>
-      </c>
-      <c r="U19" s="2">
-        <v>0</v>
-      </c>
-      <c r="V19" s="2">
-        <v>0</v>
-      </c>
-      <c r="W19" s="2" t="s">
-        <v>95</v>
+      <c r="W19" s="2">
+        <v>0</v>
       </c>
       <c r="X19" s="2">
         <v>0</v>
@@ -5457,8 +5857,8 @@
       <c r="Y19" s="2">
         <v>0</v>
       </c>
-      <c r="Z19" s="2">
-        <v>0</v>
+      <c r="Z19" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="AA19" s="2">
         <v>0</v>
@@ -5484,33 +5884,33 @@
       <c r="AH19" s="2">
         <v>0</v>
       </c>
-      <c r="AI19" s="2" t="s">
+      <c r="AI19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AJ19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL19" s="2">
-        <v>0</v>
-      </c>
       <c r="AM19" s="2">
         <v>0</v>
       </c>
-      <c r="AN19" s="2" t="s">
+      <c r="AN19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AO19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP19" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ19" s="2">
-        <v>0</v>
-      </c>
       <c r="AR19" s="2">
         <v>0</v>
       </c>
@@ -5520,43 +5920,55 @@
       <c r="AT19" s="2">
         <v>0</v>
       </c>
-      <c r="AU19" s="2" t="s">
+      <c r="AU19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AV19" s="2" t="s">
+      <c r="AY19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AW19" s="2" t="s">
+      <c r="AZ19" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AX19" s="2" t="s">
+      <c r="BA19" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AY19" s="2">
-        <v>1</v>
-      </c>
-      <c r="AZ19" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="BA19" s="2" t="s">
-        <v>95</v>
-      </c>
       <c r="BB19" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BE19" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF19" s="2">
         <v>4</v>
       </c>
-      <c r="BC19" s="2">
-        <v>1</v>
-      </c>
-      <c r="BD19" s="2">
+      <c r="BG19" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH19" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:56" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:60" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>67</v>
@@ -5571,154 +5983,712 @@
         <v>3</v>
       </c>
       <c r="G20" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="H20" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="I20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="K20" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="I20" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="K20" s="2" t="s">
+      <c r="L20" s="2">
+        <v>2</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="R20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S20" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="T20" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="U20" s="2">
+        <v>0</v>
+      </c>
+      <c r="V20" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="W20" s="2">
+        <v>0</v>
+      </c>
+      <c r="X20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA20" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE20" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="L20" s="2">
-        <v>2</v>
-      </c>
-      <c r="M20" s="2" t="s">
+      <c r="AF20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ20" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="N20" s="2" t="s">
+      <c r="BA20" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="O20" s="2" t="s">
+      <c r="BB20" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BE20" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF20" s="2">
+        <v>4</v>
+      </c>
+      <c r="BG20" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH20" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:60" x14ac:dyDescent="0.15">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>148</v>
+      </c>
+      <c r="C21" s="2">
+        <v>4</v>
+      </c>
+      <c r="D21" s="2">
+        <v>1</v>
+      </c>
+      <c r="E21" s="2">
+        <v>2</v>
+      </c>
+      <c r="F21" s="2">
+        <v>3</v>
+      </c>
+      <c r="G21" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="P20" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="Q20" s="2" t="s">
+      <c r="H21" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="K21" s="2">
+        <v>2</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O21" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="R20" s="2">
-        <v>0</v>
-      </c>
-      <c r="S20" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="T20" s="2">
-        <v>0</v>
-      </c>
-      <c r="U20" s="2">
-        <v>0</v>
-      </c>
-      <c r="V20" s="2">
-        <v>0</v>
-      </c>
-      <c r="W20" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="X20" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="Y20" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="AC20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI20" s="2" t="s">
+      <c r="P21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R21" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S21" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="T21" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="U21" s="2">
+        <v>0</v>
+      </c>
+      <c r="V21" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="W21" s="2">
+        <v>0</v>
+      </c>
+      <c r="X21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AJ20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN20" s="2" t="s">
+      <c r="AB21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AO20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AT20" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU20" s="2" t="s">
+      <c r="AO21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AV20" s="2" t="s">
+      <c r="AY21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AW20" s="2" t="s">
+      <c r="AZ21" s="2">
+        <v>2</v>
+      </c>
+      <c r="BA21" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB21" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="BC21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BE21" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF21" s="2">
+        <v>4</v>
+      </c>
+      <c r="BG21" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH21" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:60" x14ac:dyDescent="0.15">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C22" s="2">
+        <v>4</v>
+      </c>
+      <c r="D22" s="2">
+        <v>1</v>
+      </c>
+      <c r="E22" s="2">
+        <v>2</v>
+      </c>
+      <c r="F22" s="2">
+        <v>3</v>
+      </c>
+      <c r="G22" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AX20" s="2" t="s">
+      <c r="H22" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="AY20" s="2">
-        <v>1</v>
-      </c>
-      <c r="AZ20" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="BA20" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="BB20" s="2">
-        <v>4</v>
-      </c>
-      <c r="BC20" s="2">
-        <v>1</v>
-      </c>
-      <c r="BD20" s="2">
-        <v>0</v>
+      <c r="Q22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="R22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="T22" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="U22" s="2">
+        <v>0</v>
+      </c>
+      <c r="V22" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="W22" s="2">
+        <v>0</v>
+      </c>
+      <c r="X22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AB22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AO22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW22" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ22" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="BA22" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB22" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="BC22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD22" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BE22" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="BF22" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="BG22" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH22" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="23" spans="1:60" x14ac:dyDescent="0.15">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1</v>
+      </c>
+      <c r="E23" s="2">
+        <v>2</v>
+      </c>
+      <c r="F23" s="2">
+        <v>3</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L23" s="2">
+        <v>2</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="R23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S23" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="T23" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="U23" s="2">
+        <v>0</v>
+      </c>
+      <c r="V23" s="2">
+        <v>1</v>
+      </c>
+      <c r="W23" s="2">
+        <v>0</v>
+      </c>
+      <c r="X23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AM23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW23" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="AX23" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AY23" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="AZ23" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="BA23" s="2">
+        <v>1</v>
+      </c>
+      <c r="BB23" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BD23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BE23" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="BF23" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="BG23" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH23" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/bin/conf/buff.xlsx
+++ b/bin/conf/buff.xlsx
@@ -1521,7 +1521,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="168">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2120,6 +2120,18 @@
   </si>
   <si>
     <t>2.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊战士震撼大地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.25,-0.35,-0.45,-0.55</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2493,10 +2505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BH23"/>
+  <dimension ref="A1:BH24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N35" sqref="N35"/>
+      <selection activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6691,6 +6703,188 @@
         <v>156</v>
       </c>
     </row>
+    <row r="24" spans="1:60" x14ac:dyDescent="0.15">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>165</v>
+      </c>
+      <c r="C24" s="2">
+        <v>4</v>
+      </c>
+      <c r="D24" s="2">
+        <v>1</v>
+      </c>
+      <c r="E24" s="2">
+        <v>2</v>
+      </c>
+      <c r="F24" s="2">
+        <v>3</v>
+      </c>
+      <c r="G24" s="2">
+        <v>2</v>
+      </c>
+      <c r="H24" s="2">
+        <v>2</v>
+      </c>
+      <c r="I24" s="2">
+        <v>2</v>
+      </c>
+      <c r="J24" s="2">
+        <v>2</v>
+      </c>
+      <c r="K24" s="2">
+        <v>2</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="P24" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="T24" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="U24" s="2">
+        <v>0</v>
+      </c>
+      <c r="V24" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="W24" s="2">
+        <v>0</v>
+      </c>
+      <c r="X24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AA24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE24" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AF24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AR24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="AX24" s="2">
+        <v>2</v>
+      </c>
+      <c r="AY24" s="2">
+        <v>2</v>
+      </c>
+      <c r="AZ24" s="2">
+        <v>1</v>
+      </c>
+      <c r="BA24" s="2">
+        <v>2</v>
+      </c>
+      <c r="BB24" s="2">
+        <v>2</v>
+      </c>
+      <c r="BC24" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="BD24" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="BE24" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="BF24" s="2">
+        <v>4</v>
+      </c>
+      <c r="BG24" s="2">
+        <v>1</v>
+      </c>
+      <c r="BH24" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/conf/buff.xlsx
+++ b/bin/conf/buff.xlsx
@@ -1512,7 +1512,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//伤害类型(1:物理伤害 2:魔法伤害 3:纯粹伤害 4:不造成伤害)</t>
+//造成总伤害变化率 0.1表示 增加10%的总伤害 -0.1表示减少10%总伤害</t>
         </r>
       </text>
     </comment>
@@ -1538,7 +1538,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//伤害时间间隔</t>
+//伤害类型(1:物理伤害 2:魔法伤害 3:纯粹伤害 4:不造成伤害)</t>
         </r>
       </text>
     </comment>
@@ -1564,11 +1564,63 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//伤害值</t>
+//伤害时间间隔</t>
         </r>
       </text>
     </comment>
     <comment ref="BK1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//伤害值</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BL1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+// 特殊情况处理  0表示没有特殊情况 1:血魔的血怒buff死亡后加血</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BM1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1599,7 +1651,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="193">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2265,6 +2317,48 @@
   </si>
   <si>
     <t>1.4,1.7,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exception</t>
+  </si>
+  <si>
+    <t>DoAllHurtCV</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血魔血怒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,10,11,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1,0.15,0.2,0.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.16,0.19,0.22,0.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1,0.15,0.2,0.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血魔祭司的沉默</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4,5,6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2638,10 +2732,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BK27"/>
+  <dimension ref="A1:BM29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="N41" sqref="N41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2653,7 +2747,7 @@
     <col min="29" max="29" width="17.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:63" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:65" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2832,19 +2926,25 @@
         <v>161</v>
       </c>
       <c r="BH1" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="BI1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="BM1" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3022,20 +3122,26 @@
       <c r="BG2" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="BH2" s="2">
+      <c r="BH2" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="BI2" s="2">
         <v>4</v>
       </c>
-      <c r="BI2" s="2">
-        <v>1</v>
-      </c>
       <c r="BJ2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK2" s="2">
         <v>0</v>
       </c>
+      <c r="BL2" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="BM2" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3213,20 +3319,26 @@
       <c r="BG3" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="BH3" s="2">
+      <c r="BH3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="BI3" s="2">
         <v>4</v>
       </c>
-      <c r="BI3" s="2">
-        <v>1</v>
-      </c>
       <c r="BJ3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK3" s="2">
         <v>0</v>
       </c>
+      <c r="BL3" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="BM3" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="4" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3404,20 +3516,26 @@
       <c r="BG4" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="BH4" s="2">
+      <c r="BH4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BI4" s="2">
         <v>4</v>
       </c>
-      <c r="BI4" s="2">
-        <v>1</v>
-      </c>
       <c r="BJ4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK4" s="2">
         <v>0</v>
       </c>
+      <c r="BL4" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BM4" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="5" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3595,20 +3713,26 @@
       <c r="BG5" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="BH5" s="2">
+      <c r="BH5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BI5" s="2">
         <v>4</v>
       </c>
-      <c r="BI5" s="2">
-        <v>1</v>
-      </c>
       <c r="BJ5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK5" s="2">
         <v>0</v>
       </c>
+      <c r="BL5" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BM5" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="6" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3786,20 +3910,26 @@
       <c r="BG6" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="BH6" s="2">
+      <c r="BH6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BI6" s="2">
         <v>4</v>
       </c>
-      <c r="BI6" s="2">
-        <v>1</v>
-      </c>
       <c r="BJ6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK6" s="2">
         <v>0</v>
       </c>
+      <c r="BL6" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BM6" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="7" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3977,20 +4107,26 @@
       <c r="BG7" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="BH7" s="2">
+      <c r="BH7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BI7" s="2">
         <v>4</v>
       </c>
-      <c r="BI7" s="2">
-        <v>1</v>
-      </c>
       <c r="BJ7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK7" s="2">
         <v>0</v>
       </c>
+      <c r="BL7" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BM7" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4168,20 +4304,26 @@
       <c r="BG8" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="BH8" s="2">
+      <c r="BH8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BI8" s="2">
         <v>4</v>
       </c>
-      <c r="BI8" s="2">
-        <v>1</v>
-      </c>
       <c r="BJ8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK8" s="2">
         <v>0</v>
       </c>
+      <c r="BL8" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BM8" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4360,19 +4502,25 @@
         <v>93</v>
       </c>
       <c r="BH9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BI9" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="BI9" s="2">
-        <v>1</v>
-      </c>
-      <c r="BJ9" s="2" t="s">
+      <c r="BJ9" s="2">
+        <v>1</v>
+      </c>
+      <c r="BK9" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="BK9" s="2">
+      <c r="BL9" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BM9" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -4550,20 +4698,26 @@
       <c r="BG10" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="BH10" s="2">
+      <c r="BH10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BI10" s="2">
         <v>4</v>
       </c>
-      <c r="BI10" s="2">
-        <v>1</v>
-      </c>
       <c r="BJ10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK10" s="2">
         <v>0</v>
       </c>
+      <c r="BL10" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BM10" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -4741,20 +4895,26 @@
       <c r="BG11" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="BH11" s="2">
+      <c r="BH11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BI11" s="2">
         <v>4</v>
       </c>
-      <c r="BI11" s="2">
-        <v>1</v>
-      </c>
       <c r="BJ11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK11" s="2">
         <v>0</v>
       </c>
+      <c r="BL11" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BM11" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -4932,20 +5092,26 @@
       <c r="BG12" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="BH12" s="2">
+      <c r="BH12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BI12" s="2">
         <v>4</v>
       </c>
-      <c r="BI12" s="2">
-        <v>1</v>
-      </c>
       <c r="BJ12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK12" s="2">
         <v>0</v>
       </c>
+      <c r="BL12" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BM12" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="13" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5123,20 +5289,26 @@
       <c r="BG13" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="BH13" s="2">
+      <c r="BH13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BI13" s="2">
         <v>4</v>
       </c>
-      <c r="BI13" s="2">
-        <v>1</v>
-      </c>
       <c r="BJ13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK13" s="2">
         <v>0</v>
       </c>
+      <c r="BL13" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BM13" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5314,20 +5486,26 @@
       <c r="BG14" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="BH14" s="2">
+      <c r="BH14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BI14" s="2">
         <v>4</v>
       </c>
-      <c r="BI14" s="2">
-        <v>1</v>
-      </c>
       <c r="BJ14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK14" s="2">
         <v>0</v>
       </c>
+      <c r="BL14" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BM14" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -5505,20 +5683,26 @@
       <c r="BG15" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="BH15" s="2">
+      <c r="BH15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BI15" s="2">
         <v>4</v>
       </c>
-      <c r="BI15" s="2">
-        <v>1</v>
-      </c>
       <c r="BJ15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK15" s="2">
         <v>0</v>
       </c>
+      <c r="BL15" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BM15" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -5696,20 +5880,26 @@
       <c r="BG16" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="BH16" s="2">
+      <c r="BH16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BI16" s="2">
         <v>4</v>
       </c>
-      <c r="BI16" s="2">
-        <v>1</v>
-      </c>
       <c r="BJ16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK16" s="2">
         <v>0</v>
       </c>
+      <c r="BL16" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BM16" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -5887,20 +6077,26 @@
       <c r="BG17" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="BH17" s="2">
+      <c r="BH17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BI17" s="2">
         <v>4</v>
       </c>
-      <c r="BI17" s="2">
-        <v>1</v>
-      </c>
       <c r="BJ17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK17" s="2">
         <v>0</v>
       </c>
+      <c r="BL17" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BM17" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6078,20 +6274,26 @@
       <c r="BG18" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="BH18" s="2">
+      <c r="BH18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BI18" s="2">
         <v>4</v>
       </c>
-      <c r="BI18" s="2">
-        <v>1</v>
-      </c>
       <c r="BJ18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK18" s="2">
         <v>0</v>
       </c>
+      <c r="BL18" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BM18" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6269,20 +6471,26 @@
       <c r="BG19" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="BH19" s="2">
+      <c r="BH19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BI19" s="2">
         <v>4</v>
       </c>
-      <c r="BI19" s="2">
-        <v>1</v>
-      </c>
       <c r="BJ19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK19" s="2">
         <v>0</v>
       </c>
+      <c r="BL19" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BM19" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -6460,20 +6668,26 @@
       <c r="BG20" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="BH20" s="2">
+      <c r="BH20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BI20" s="2">
         <v>4</v>
       </c>
-      <c r="BI20" s="2">
-        <v>1</v>
-      </c>
       <c r="BJ20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK20" s="2">
         <v>0</v>
       </c>
+      <c r="BL20" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BM20" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -6651,20 +6865,26 @@
       <c r="BG21" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="BH21" s="2">
+      <c r="BH21" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BI21" s="2">
         <v>4</v>
       </c>
-      <c r="BI21" s="2">
-        <v>1</v>
-      </c>
       <c r="BJ21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK21" s="2">
         <v>0</v>
       </c>
+      <c r="BL21" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BM21" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -6843,19 +7063,25 @@
         <v>163</v>
       </c>
       <c r="BH22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BI22" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="BI22" s="2">
-        <v>1</v>
-      </c>
-      <c r="BJ22" s="2" t="s">
+      <c r="BJ22" s="2">
+        <v>1</v>
+      </c>
+      <c r="BK22" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="BK22" s="2">
+      <c r="BL22" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BM22" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -7034,19 +7260,25 @@
         <v>93</v>
       </c>
       <c r="BH23" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BI23" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="BI23" s="2">
-        <v>1</v>
-      </c>
-      <c r="BJ23" s="2" t="s">
+      <c r="BJ23" s="2">
+        <v>1</v>
+      </c>
+      <c r="BK23" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="BK23" s="2">
+      <c r="BL23" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BM23" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -7224,20 +7456,26 @@
       <c r="BG24" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="BH24" s="2">
+      <c r="BH24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BI24" s="2">
         <v>4</v>
       </c>
-      <c r="BI24" s="2">
-        <v>1</v>
-      </c>
       <c r="BJ24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK24" s="2">
         <v>0</v>
       </c>
+      <c r="BL24" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BM24" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -7415,20 +7653,26 @@
       <c r="BG25" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="BH25" s="2">
+      <c r="BH25" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BI25" s="2">
         <v>4</v>
       </c>
-      <c r="BI25" s="2">
-        <v>1</v>
-      </c>
       <c r="BJ25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK25" s="2">
         <v>0</v>
       </c>
+      <c r="BL25" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BM25" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -7606,20 +7850,26 @@
       <c r="BG26" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="BH26" s="2">
+      <c r="BH26" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BI26" s="2">
         <v>4</v>
       </c>
-      <c r="BI26" s="2">
-        <v>1</v>
-      </c>
       <c r="BJ26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BK26" s="2">
         <v>0</v>
       </c>
+      <c r="BL26" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BM26" s="2">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" spans="1:63" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
@@ -7798,16 +8048,416 @@
         <v>179</v>
       </c>
       <c r="BH27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BI27" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="BI27" s="2">
-        <v>1</v>
-      </c>
-      <c r="BJ27" s="2" t="s">
+      <c r="BJ27" s="2">
+        <v>1</v>
+      </c>
+      <c r="BK27" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="BK27" s="2" t="s">
+      <c r="BL27" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BM27" s="2" t="s">
         <v>181</v>
+      </c>
+    </row>
+    <row r="28" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>185</v>
+      </c>
+      <c r="C28" s="2">
+        <v>4</v>
+      </c>
+      <c r="D28" s="2">
+        <v>1</v>
+      </c>
+      <c r="E28" s="2">
+        <v>2</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H28" s="2">
+        <v>3</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J28" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q28" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="R28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T28" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V28" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="W28" s="2">
+        <v>0</v>
+      </c>
+      <c r="X28" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="Y28" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB28" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE28" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF28">
+        <v>0</v>
+      </c>
+      <c r="AG28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY28" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AZ28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB28" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="BC28" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BD28" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE28" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BF28" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG28" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="BH28" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="BI28" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="BJ28" s="2">
+        <v>1</v>
+      </c>
+      <c r="BK28" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="BL28" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="BM28" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="29" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>191</v>
+      </c>
+      <c r="C29" s="2">
+        <v>4</v>
+      </c>
+      <c r="D29" s="2">
+        <v>1</v>
+      </c>
+      <c r="E29" s="2">
+        <v>2</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H29" s="2">
+        <v>3</v>
+      </c>
+      <c r="I29" s="2">
+        <v>2</v>
+      </c>
+      <c r="J29" s="2">
+        <v>2</v>
+      </c>
+      <c r="K29" s="2">
+        <v>2</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M29" s="2">
+        <v>2</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R29" s="2">
+        <v>2</v>
+      </c>
+      <c r="S29" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V29" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="W29" s="2">
+        <v>0</v>
+      </c>
+      <c r="X29" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="Y29" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB29" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AH29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY29" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AZ29" s="2">
+        <v>2</v>
+      </c>
+      <c r="BA29" s="2">
+        <v>2</v>
+      </c>
+      <c r="BB29" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC29" s="2">
+        <v>2</v>
+      </c>
+      <c r="BD29" s="2">
+        <v>2</v>
+      </c>
+      <c r="BE29" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BF29" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG29" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BH29" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BI29" s="2">
+        <v>4</v>
+      </c>
+      <c r="BJ29" s="2">
+        <v>1</v>
+      </c>
+      <c r="BK29" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL29" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BM29" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/bin/conf/buff.xlsx
+++ b/bin/conf/buff.xlsx
@@ -67,7 +67,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//叠加类型 1:只更新最大时间 2:完美叠加(小鱼的偷属性)</t>
+//叠加类型 1:只更新最大时间 2:完美叠加(小鱼的偷属性)3:替换之前的</t>
         </r>
       </text>
     </comment>
@@ -1651,7 +1651,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="200">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2359,6 +2359,34 @@
   </si>
   <si>
     <t>3,4,5,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血魔焦渴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血魔焦渴隐身显形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:0.75:0.12:30:0.25:30,12:0.75:0.24:45:0.25:30,12:0.75:0.36:60:0.25:30,12:0.75:0.48:75:0.25:30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2732,10 +2760,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM29"/>
+  <dimension ref="A1:BM31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N41" sqref="N41"/>
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3498,8 +3526,8 @@
       <c r="BA4" s="2">
         <v>2</v>
       </c>
-      <c r="BB4" s="2">
-        <v>1</v>
+      <c r="BB4" s="2" t="s">
+        <v>157</v>
       </c>
       <c r="BC4" s="2">
         <v>1</v>
@@ -8458,6 +8486,400 @@
       </c>
       <c r="BM29" s="2">
         <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>193</v>
+      </c>
+      <c r="C30" s="2">
+        <v>4</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E30" s="2">
+        <v>2</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H30" s="2">
+        <v>3</v>
+      </c>
+      <c r="I30" s="2">
+        <v>2</v>
+      </c>
+      <c r="J30" s="2">
+        <v>2</v>
+      </c>
+      <c r="K30" s="2">
+        <v>2</v>
+      </c>
+      <c r="L30" s="2">
+        <v>2</v>
+      </c>
+      <c r="M30" s="2">
+        <v>2</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R30" s="2">
+        <v>2</v>
+      </c>
+      <c r="S30" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T30" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V30" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="W30" s="2">
+        <v>0</v>
+      </c>
+      <c r="X30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y30" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB30" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP30" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AQ30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ30" s="2">
+        <v>2</v>
+      </c>
+      <c r="BA30" s="2">
+        <v>2</v>
+      </c>
+      <c r="BB30" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="BC30" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD30" s="2">
+        <v>2</v>
+      </c>
+      <c r="BE30" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BF30" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG30" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BH30" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BI30" s="2">
+        <v>4</v>
+      </c>
+      <c r="BJ30" s="2">
+        <v>1</v>
+      </c>
+      <c r="BK30" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL30" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="BM30" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="31" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>195</v>
+      </c>
+      <c r="C31" s="2">
+        <v>4</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="E31" s="2">
+        <v>2</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H31" s="2">
+        <v>3</v>
+      </c>
+      <c r="I31" s="2">
+        <v>2</v>
+      </c>
+      <c r="J31" s="2">
+        <v>2</v>
+      </c>
+      <c r="K31" s="2">
+        <v>2</v>
+      </c>
+      <c r="L31" s="2">
+        <v>2</v>
+      </c>
+      <c r="M31" s="2">
+        <v>2</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="P31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R31" s="2">
+        <v>2</v>
+      </c>
+      <c r="S31" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T31" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V31" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="W31" s="2">
+        <v>0</v>
+      </c>
+      <c r="X31" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y31" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB31" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP31" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="AQ31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ31" s="2">
+        <v>2</v>
+      </c>
+      <c r="BA31" s="2">
+        <v>2</v>
+      </c>
+      <c r="BB31" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="BC31" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD31" s="2">
+        <v>2</v>
+      </c>
+      <c r="BE31" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BF31" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG31" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BH31" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BI31" s="2">
+        <v>4</v>
+      </c>
+      <c r="BJ31" s="2">
+        <v>1</v>
+      </c>
+      <c r="BK31" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL31" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="BM31" s="2" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/bin/conf/buff.xlsx
+++ b/bin/conf/buff.xlsx
@@ -1651,7 +1651,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="856" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="206">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2387,6 +2387,30 @@
   </si>
   <si>
     <t>12:0.75:0.12:30:0.25:30,12:0.75:0.24:45:0.25:30,12:0.75:0.36:60:0.25:30,12:0.75:0.48:75:0.25:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血魔的大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,45,60</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2760,10 +2784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM31"/>
+  <dimension ref="A1:BM32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M43" sqref="M43"/>
+    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
+      <selection activeCell="BM36" sqref="BM36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -8882,6 +8906,203 @@
         <v>198</v>
       </c>
     </row>
+    <row r="32" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>200</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D32" s="2">
+        <v>1</v>
+      </c>
+      <c r="E32" s="2">
+        <v>2</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H32" s="2">
+        <v>3</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N32" s="2">
+        <v>2</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V32" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="W32" s="2">
+        <v>0</v>
+      </c>
+      <c r="X32" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="Y32" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB32" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS32" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY32" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="AZ32" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA32" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB32" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC32" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="BD32" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE32" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BF32" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG32" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BH32" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BI32" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BJ32" s="2">
+        <v>1</v>
+      </c>
+      <c r="BK32" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="BL32" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="BM32" s="2" t="s">
+        <v>205</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/conf/buff.xlsx
+++ b/bin/conf/buff.xlsx
@@ -1651,7 +1651,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="226">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2411,6 +2411,86 @@
   </si>
   <si>
     <t>30,45,60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小娜迦的无敌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小娜迦幻象伤害加深</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小娜迦幻象自动死亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.75,-0.7,-0.65,-0.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小娜迦的网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小娜迦激流降甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2,-4,-6,-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小娜迦的之歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2784,10 +2864,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM32"/>
+  <dimension ref="A1:BM38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AQ1" workbookViewId="0">
-      <selection activeCell="BM36" sqref="BM36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T44" sqref="T44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6511,8 +6591,8 @@
       <c r="BC19" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BD19" s="2">
-        <v>1</v>
+      <c r="BD19" s="2" t="s">
+        <v>121</v>
       </c>
       <c r="BE19" s="2" t="s">
         <v>93</v>
@@ -6630,8 +6710,8 @@
       <c r="AC20" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="AD20" s="2">
-        <v>0</v>
+      <c r="AD20" s="2" t="s">
+        <v>140</v>
       </c>
       <c r="AE20" s="2">
         <v>0</v>
@@ -9101,6 +9181,1188 @@
       </c>
       <c r="BM32" s="2" t="s">
         <v>205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>206</v>
+      </c>
+      <c r="C33" s="2">
+        <v>4</v>
+      </c>
+      <c r="D33" s="2">
+        <v>1</v>
+      </c>
+      <c r="E33" s="2">
+        <v>2</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H33" s="2">
+        <v>3</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K33" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L33" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="M33" s="2">
+        <v>2</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q33" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="R33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T33" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V33" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="W33" s="2">
+        <v>0</v>
+      </c>
+      <c r="X33" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y33" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB33" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE33" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AZ33" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA33" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB33" s="2">
+        <v>2</v>
+      </c>
+      <c r="BC33" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD33" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE33" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BF33" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG33" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BH33" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BI33" s="2">
+        <v>4</v>
+      </c>
+      <c r="BJ33" s="2">
+        <v>1</v>
+      </c>
+      <c r="BK33" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL33" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BM33" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>207</v>
+      </c>
+      <c r="C34" s="2">
+        <v>4</v>
+      </c>
+      <c r="D34" s="2">
+        <v>1</v>
+      </c>
+      <c r="E34" s="2">
+        <v>2</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H34" s="2">
+        <v>3</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K34" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="L34" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M34" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q34" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="R34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T34" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V34" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="W34" s="2">
+        <v>0</v>
+      </c>
+      <c r="X34" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y34" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB34" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE34" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY34" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AZ34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB34" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="BC34" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD34" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE34" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BF34" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG34" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="BH34" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="BI34" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="BJ34" s="2">
+        <v>1</v>
+      </c>
+      <c r="BK34" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="BL34" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BM34" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>208</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D35" s="2">
+        <v>1</v>
+      </c>
+      <c r="E35" s="2">
+        <v>2</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H35" s="2">
+        <v>3</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N35" s="2">
+        <v>2</v>
+      </c>
+      <c r="O35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S35" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T35" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V35" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="W35" s="2">
+        <v>0</v>
+      </c>
+      <c r="X35" s="2">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB35" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS35" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY35" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="AZ35" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA35" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC35" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD35" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE35" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BF35" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG35" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BH35" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BI35" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="BJ35" s="2">
+        <v>1</v>
+      </c>
+      <c r="BK35" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="BL35" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BM35" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>212</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" s="2">
+        <v>1</v>
+      </c>
+      <c r="E36" s="2">
+        <v>2</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H36" s="2">
+        <v>3</v>
+      </c>
+      <c r="I36" s="2">
+        <v>1</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K36" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L36" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="M36" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="N36" s="2">
+        <v>2</v>
+      </c>
+      <c r="O36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q36" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U36" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="V36" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="W36" s="2">
+        <v>0</v>
+      </c>
+      <c r="X36" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="Y36" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB36" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS36" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA36" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BC36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BD36" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE36" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BF36" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG36" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BH36" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BI36" s="2">
+        <v>4</v>
+      </c>
+      <c r="BJ36" s="2">
+        <v>1</v>
+      </c>
+      <c r="BK36" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL36" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BM36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>214</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D37" s="2">
+        <v>1</v>
+      </c>
+      <c r="E37" s="2">
+        <v>2</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H37" s="2">
+        <v>3</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="K37" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="L37" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="M37" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="N37" s="2">
+        <v>2</v>
+      </c>
+      <c r="O37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q37" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U37" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="V37" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="W37" s="2">
+        <v>0</v>
+      </c>
+      <c r="X37" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="Y37" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB37" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM37" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="AN37" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS37" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA37" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BC37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BD37" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="BE37" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BF37" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG37" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BH37" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BI37" s="2">
+        <v>4</v>
+      </c>
+      <c r="BJ37" s="2">
+        <v>1</v>
+      </c>
+      <c r="BK37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL37" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BM37" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>217</v>
+      </c>
+      <c r="C38" s="2">
+        <v>4</v>
+      </c>
+      <c r="D38" s="2">
+        <v>1</v>
+      </c>
+      <c r="E38" s="2">
+        <v>2</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H38" s="2">
+        <v>3</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="K38" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="L38" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M38" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q38" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="R38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T38" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V38" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="W38" s="2">
+        <v>0</v>
+      </c>
+      <c r="X38" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y38" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB38" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC38" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE38" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="AF38">
+        <v>0</v>
+      </c>
+      <c r="AG38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AO38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP38" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS38" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY38" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AZ38" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA38" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB38" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="BC38" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="BD38" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="BE38" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BF38" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG38" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="BH38" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="BI38" s="2">
+        <v>4</v>
+      </c>
+      <c r="BJ38" s="2">
+        <v>1</v>
+      </c>
+      <c r="BK38" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL38" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BM38" s="2">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/bin/conf/buff.xlsx
+++ b/bin/conf/buff.xlsx
@@ -1651,7 +1651,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1087" uniqueCount="226">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="233">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2491,6 +2491,34 @@
   </si>
   <si>
     <t>-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小的眩晕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小被投掷状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小投掷目标的额外伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27,48,69,90</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2864,10 +2892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM38"/>
+  <dimension ref="A1:BM41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T44" sqref="T44"/>
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10365,6 +10393,597 @@
         <v>0</v>
       </c>
     </row>
+    <row r="39" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>226</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D39" s="2">
+        <v>1</v>
+      </c>
+      <c r="E39" s="2">
+        <v>2</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H39" s="2">
+        <v>3</v>
+      </c>
+      <c r="I39" s="2">
+        <v>1</v>
+      </c>
+      <c r="J39" s="2">
+        <v>1</v>
+      </c>
+      <c r="K39" s="2">
+        <v>1</v>
+      </c>
+      <c r="L39" s="2">
+        <v>1</v>
+      </c>
+      <c r="M39" s="2">
+        <v>1</v>
+      </c>
+      <c r="N39" s="2">
+        <v>2</v>
+      </c>
+      <c r="O39" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P39" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q39" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R39" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S39" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T39" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U39" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="V39" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="W39" s="2">
+        <v>0</v>
+      </c>
+      <c r="X39" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="Y39" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB39" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ39" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA39" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB39" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BC39" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BD39" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="BE39" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BF39" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG39" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BH39" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BI39" s="2">
+        <v>4</v>
+      </c>
+      <c r="BJ39" s="2">
+        <v>1</v>
+      </c>
+      <c r="BK39" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL39" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BM39" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>227</v>
+      </c>
+      <c r="C40" s="2">
+        <v>4</v>
+      </c>
+      <c r="D40" s="2">
+        <v>1</v>
+      </c>
+      <c r="E40" s="2">
+        <v>2</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H40" s="2">
+        <v>3</v>
+      </c>
+      <c r="I40" s="2">
+        <v>2</v>
+      </c>
+      <c r="J40" s="2">
+        <v>2</v>
+      </c>
+      <c r="K40" s="2">
+        <v>2</v>
+      </c>
+      <c r="L40" s="2">
+        <v>2</v>
+      </c>
+      <c r="M40" s="2">
+        <v>2</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O40" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P40" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q40" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R40" s="2">
+        <v>2</v>
+      </c>
+      <c r="S40" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T40" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U40" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V40" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="W40" s="2">
+        <v>0</v>
+      </c>
+      <c r="X40" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y40" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB40" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP40" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="AQ40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ40" s="2">
+        <v>2</v>
+      </c>
+      <c r="BA40" s="2">
+        <v>2</v>
+      </c>
+      <c r="BB40" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="BC40" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="BD40" s="2">
+        <v>2</v>
+      </c>
+      <c r="BE40" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BF40" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG40" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BH40" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BI40" s="2">
+        <v>4</v>
+      </c>
+      <c r="BJ40" s="2">
+        <v>1</v>
+      </c>
+      <c r="BK40" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL40" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BM40" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:65" x14ac:dyDescent="0.15">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>229</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D41" s="2">
+        <v>1</v>
+      </c>
+      <c r="E41" s="2">
+        <v>2</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H41" s="2">
+        <v>3</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K41" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L41" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M41" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N41" s="2">
+        <v>2</v>
+      </c>
+      <c r="O41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R41" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S41" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T41" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V41" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="W41" s="2">
+        <v>0</v>
+      </c>
+      <c r="X41" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="Y41" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB41" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="AC41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN41" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS41" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY41" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AZ41" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA41" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB41" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="BC41" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="BD41" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="BE41" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BF41" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BG41" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BH41" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BI41" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BJ41" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="BK41" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="BL41" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="BM41" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/conf/buff.xlsx
+++ b/bin/conf/buff.xlsx
@@ -1616,11 +1616,115 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-// 特殊情况处理  0表示没有特殊情况 1:血魔的血怒buff死亡后加血</t>
+//溅射半径</t>
         </r>
       </text>
     </comment>
     <comment ref="BM1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//弧度(扇形) π度为圆形</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BN1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//溅射伤害百分比</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BO1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//溅射是否无视魔免 1:是 2:否</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BP1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+// 特殊情况处理  0表示没有特殊情况 1:血魔的血怒buff死亡后加血</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BQ1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1651,7 +1755,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="246">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1894,83 +1998,660 @@
     <t>HurtType</t>
   </si>
   <si>
+    <t>HurtValue</t>
+  </si>
+  <si>
+    <t>治疗棒的自动死亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhisicImmune</t>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剑圣无敌斩的无敌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,3.25,3.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoCareMagicImmuneAddBuff</t>
+  </si>
+  <si>
+    <t>30,40,50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小黑的冰箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.16,-0.32,-0.48,-0.64</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小黑的沉默</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小黑光环攻击速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100,125,150,175</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚空跳的无敌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicCDStop</t>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚空的技能CD锁定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6,8,10,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.14,-0.20,-0.24,-0.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AttackSpeedCR</t>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚空的时间锁定眩晕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AnimotorPause</t>
+  </si>
+  <si>
+    <t>虚空大招的眩晕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚空大招的本体加速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsCollisoin</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌之箭眩晕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.75,2.15,2.55,2.95</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌裂隙的减速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.1,-0.2,-0.3,-0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-130,-50,-70,-90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PhysicalHurtAddHP</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicHurtAddHP</t>
+  </si>
+  <si>
+    <t>InvisibleBeSee</t>
+  </si>
+  <si>
+    <t>CanSeeInvisible</t>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MasterInvisible</t>
+  </si>
+  <si>
+    <t>混沌之军的无敌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌之军幻象伤害加深</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>混沌之军自动死亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllHurtCV</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊战士震撼大地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.25,-0.35,-0.45,-0.55</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SubTagNumRule</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊战士攻击速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4,5,6,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>InitTagNum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OverlyingAddTag</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊战士伤害叠加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8,12,16,20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熊战士大招伤害减免</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExceptionParam</t>
+  </si>
+  <si>
+    <t>1.4,1.7,2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exception</t>
+  </si>
+  <si>
+    <t>DoAllHurtCV</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血魔血怒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9,10,11,12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1,0.15,0.2,0.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.16,0.19,0.22,0.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1,0.15,0.2,0.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血魔祭司的沉默</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3,4,5,6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血魔焦渴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血魔焦渴隐身显形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12:0.75:0.12:30:0.25:30,12:0.75:0.24:45:0.25:30,12:0.75:0.36:60:0.25:30,12:0.75:0.48:75:0.25:30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血魔的大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30,45,60</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小娜迦的无敌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小娜迦幻象伤害加深</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小娜迦幻象自动死亡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.75,-0.7,-0.65,-0.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小娜迦的网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小娜迦激流降甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-2,-4,-6,-8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小娜迦的之歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小的眩晕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小被投掷状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小投掷目标的额外伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>27,48,69,90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>HurtTimeInterval</t>
-  </si>
-  <si>
-    <t>HurtValue</t>
-  </si>
-  <si>
-    <t>治疗棒的自动死亡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PhisicImmune</t>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>剑圣无敌斩的无敌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,3.25,3.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NoCareMagicImmuneAddBuff</t>
-  </si>
-  <si>
-    <t>30,40,50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小黑的冰箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpurtingRadius</t>
+  </si>
+  <si>
+    <t>SpurtingRadian</t>
+  </si>
+  <si>
+    <t>SpurtingHurtRatio</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpurtingNoCareMagicImmune</t>
+  </si>
+  <si>
+    <t>小小拔树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1978,547 +2659,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-0.16,-0.32,-0.48,-0.64</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小黑的沉默</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小黑光环攻击速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100,125,150,175</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚空跳的无敌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MagicCDStop</t>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚空的技能CD锁定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6,8,10,12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-0.14,-0.20,-0.24,-0.28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AttackSpeedCR</t>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚空的时间锁定眩晕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AnimotorPause</t>
-  </si>
-  <si>
-    <t>虚空大招的眩晕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚空大招的本体加速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsCollisoin</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>混沌之箭眩晕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.75,2.15,2.55,2.95</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>混沌裂隙的减速</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-0.1,-0.2,-0.3,-0.4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-130,-50,-70,-90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PhysicalHurtAddHP</t>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MagicHurtAddHP</t>
-  </si>
-  <si>
-    <t>InvisibleBeSee</t>
-  </si>
-  <si>
-    <t>CanSeeInvisible</t>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MasterInvisible</t>
-  </si>
-  <si>
-    <t>混沌之军的无敌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>混沌之军幻象伤害加深</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>100000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>混沌之军自动死亡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>AllHurtCV</t>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熊战士震撼大地</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-0.25,-0.35,-0.45,-0.55</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SubTagNumRule</t>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熊战士攻击速度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>4,5,6,7</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>InitTagNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OverlyingAddTag</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熊战士伤害叠加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8,12,16,20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>熊战士大招伤害减免</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-0.8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExceptionParam</t>
-  </si>
-  <si>
-    <t>1.4,1.7,2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Exception</t>
-  </si>
-  <si>
-    <t>DoAllHurtCV</t>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血魔血怒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9,10,11,12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.1,0.15,0.2,0.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.16,0.19,0.22,0.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.1,0.15,0.2,0.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血魔祭司的沉默</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3,4,5,6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血魔焦渴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血魔焦渴隐身显形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12:0.75:0.12:30:0.25:30,12:0.75:0.24:45:0.25:30,12:0.75:0.36:60:0.25:30,12:0.75:0.48:75:0.25:30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血魔的大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30,45,60</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小娜迦的无敌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小娜迦幻象伤害加深</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小娜迦幻象自动死亡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3.5</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-0.75,-0.7,-0.65,-0.6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小娜迦的网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小娜迦激流降甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-2,-4,-6,-8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小娜迦的之歌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小小的眩晕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小小被投掷状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小小投掷目标的额外伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>27,48,69,90</t>
+    <t>0.1,0.2,0.3,0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.047</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3,0.4,0.5,0.6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2892,10 +3045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BM41"/>
+  <dimension ref="A1:BQ42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K46" sqref="K46"/>
+    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
+      <selection activeCell="BN1" sqref="BN1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2905,9 +3058,13 @@
     <col min="6" max="6" width="8.5" customWidth="1"/>
     <col min="7" max="7" width="11.75" customWidth="1"/>
     <col min="29" max="29" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="12" customWidth="1"/>
+    <col min="65" max="65" width="12.75" customWidth="1"/>
+    <col min="66" max="66" width="17.875" customWidth="1"/>
+    <col min="67" max="67" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:65" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:69" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2921,13 +3078,13 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -2951,28 +3108,28 @@
         <v>52</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>143</v>
-      </c>
       <c r="Q1" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="R1" s="1" t="s">
         <v>11</v>
       </c>
       <c r="S1" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="T1" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="U1" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="W1" s="1" t="s">
         <v>12</v>
@@ -2990,7 +3147,7 @@
         <v>16</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>17</v>
@@ -3074,37 +3231,49 @@
         <v>57</v>
       </c>
       <c r="BD1" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="BE1" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="BF1" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="BG1" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="BH1" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="BI1" s="1" t="s">
         <v>70</v>
       </c>
       <c r="BJ1" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="BK1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BK1" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="BL1" s="1" t="s">
-        <v>182</v>
+        <v>233</v>
       </c>
       <c r="BM1" s="1" t="s">
-        <v>180</v>
+        <v>234</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:65" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3121,10 +3290,10 @@
         <v>2</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H2" s="2">
         <v>3</v>
@@ -3148,13 +3317,13 @@
         <v>50</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q2" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R2" s="2">
         <v>2</v>
@@ -3163,13 +3332,13 @@
         <v>50</v>
       </c>
       <c r="T2" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U2" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="W2" s="2">
         <v>0</v>
@@ -3187,7 +3356,7 @@
         <v>0</v>
       </c>
       <c r="AB2" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC2" s="2">
         <v>0</v>
@@ -3274,16 +3443,16 @@
         <v>2</v>
       </c>
       <c r="BE2" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="BF2" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="BG2" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BH2" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="BI2" s="2">
         <v>4</v>
@@ -3294,14 +3463,26 @@
       <c r="BK2" s="2">
         <v>0</v>
       </c>
-      <c r="BL2" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="BM2" s="2">
+      <c r="BL2" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="BN2" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="BO2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BP2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="BQ2" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:65" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3318,10 +3499,10 @@
         <v>2</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H3" s="2">
         <v>3</v>
@@ -3345,13 +3526,13 @@
         <v>50</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q3" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R3" s="2">
         <v>2</v>
@@ -3360,13 +3541,13 @@
         <v>50</v>
       </c>
       <c r="T3" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="U3" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="V3" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="W3" s="2">
         <v>0</v>
@@ -3384,7 +3565,7 @@
         <v>0</v>
       </c>
       <c r="AB3" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AC3" s="2" t="s">
         <v>40</v>
@@ -3471,16 +3652,16 @@
         <v>2</v>
       </c>
       <c r="BE3" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="BF3" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="BG3" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="BH3" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="BI3" s="2">
         <v>4</v>
@@ -3491,14 +3672,26 @@
       <c r="BK3" s="2">
         <v>0</v>
       </c>
-      <c r="BL3" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="BM3" s="2">
+      <c r="BL3" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="BN3" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="BO3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BP3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="BQ3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:65" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3515,10 +3708,10 @@
         <v>2</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H4" s="2">
         <v>3</v>
@@ -3557,13 +3750,13 @@
         <v>50</v>
       </c>
       <c r="T4" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U4" s="2" t="s">
         <v>46</v>
       </c>
       <c r="V4" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W4" s="2">
         <v>0</v>
@@ -3581,7 +3774,7 @@
         <v>0</v>
       </c>
       <c r="AB4" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC4" s="2" t="s">
         <v>44</v>
@@ -3659,7 +3852,7 @@
         <v>2</v>
       </c>
       <c r="BB4" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="BC4" s="2">
         <v>1</v>
@@ -3668,16 +3861,16 @@
         <v>2</v>
       </c>
       <c r="BE4" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BF4" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BG4" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BH4" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BI4" s="2">
         <v>4</v>
@@ -3688,14 +3881,26 @@
       <c r="BK4" s="2">
         <v>0</v>
       </c>
-      <c r="BL4" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BM4" s="2">
+      <c r="BL4" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ4" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:65" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3712,10 +3917,10 @@
         <v>2</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H5" s="2">
         <v>3</v>
@@ -3751,16 +3956,16 @@
         <v>2</v>
       </c>
       <c r="S5" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="T5" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U5" s="2" t="s">
         <v>46</v>
       </c>
       <c r="V5" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W5" s="2">
         <v>0</v>
@@ -3778,7 +3983,7 @@
         <v>0</v>
       </c>
       <c r="AB5" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC5" s="2" t="s">
         <v>44</v>
@@ -3865,16 +4070,16 @@
         <v>2</v>
       </c>
       <c r="BE5" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BF5" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BG5" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BH5" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BI5" s="2">
         <v>4</v>
@@ -3885,14 +4090,26 @@
       <c r="BK5" s="2">
         <v>0</v>
       </c>
-      <c r="BL5" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BM5" s="2">
+      <c r="BL5" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO5" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ5" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:65" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3909,10 +4126,10 @@
         <v>2</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H6" s="2">
         <v>3</v>
@@ -3951,13 +4168,13 @@
         <v>50</v>
       </c>
       <c r="T6" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U6" s="2" t="s">
         <v>46</v>
       </c>
       <c r="V6" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W6" s="2">
         <v>0</v>
@@ -3975,7 +4192,7 @@
         <v>0</v>
       </c>
       <c r="AB6" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC6" s="2" t="s">
         <v>44</v>
@@ -4062,16 +4279,16 @@
         <v>2</v>
       </c>
       <c r="BE6" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BF6" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BG6" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BH6" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BI6" s="2">
         <v>4</v>
@@ -4082,14 +4299,26 @@
       <c r="BK6" s="2">
         <v>0</v>
       </c>
-      <c r="BL6" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BM6" s="2">
+      <c r="BL6" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO6" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ6" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:65" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4106,10 +4335,10 @@
         <v>2</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H7" s="2">
         <v>3</v>
@@ -4145,16 +4374,16 @@
         <v>1</v>
       </c>
       <c r="S7" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="T7" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U7" s="2" t="s">
         <v>46</v>
       </c>
       <c r="V7" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W7" s="2">
         <v>0</v>
@@ -4172,7 +4401,7 @@
         <v>0</v>
       </c>
       <c r="AB7" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC7" s="2">
         <v>0</v>
@@ -4244,7 +4473,7 @@
         <v>0</v>
       </c>
       <c r="AZ7" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="BA7" s="2" t="s">
         <v>50</v>
@@ -4259,16 +4488,16 @@
         <v>1</v>
       </c>
       <c r="BE7" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BF7" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BG7" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BH7" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BI7" s="2">
         <v>4</v>
@@ -4279,14 +4508,26 @@
       <c r="BK7" s="2">
         <v>0</v>
       </c>
-      <c r="BL7" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BM7" s="2">
+      <c r="BL7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO7" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ7" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:65" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4303,10 +4544,10 @@
         <v>2</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H8" s="2">
         <v>3</v>
@@ -4345,13 +4586,13 @@
         <v>50</v>
       </c>
       <c r="T8" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U8" s="2" t="s">
         <v>46</v>
       </c>
       <c r="V8" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W8" s="2">
         <v>0</v>
@@ -4369,7 +4610,7 @@
         <v>0</v>
       </c>
       <c r="AB8" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC8" s="2">
         <v>0</v>
@@ -4441,10 +4682,10 @@
         <v>0</v>
       </c>
       <c r="AZ8" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="BA8" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="BB8" s="2">
         <v>0</v>
@@ -4456,16 +4697,16 @@
         <v>1</v>
       </c>
       <c r="BE8" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BF8" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BG8" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BH8" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BI8" s="2">
         <v>4</v>
@@ -4476,19 +4717,31 @@
       <c r="BK8" s="2">
         <v>0</v>
       </c>
-      <c r="BL8" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BM8" s="2">
+      <c r="BL8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO8" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ8" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:65" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>66</v>
@@ -4500,10 +4753,10 @@
         <v>2</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H9" s="2">
         <v>3</v>
@@ -4539,16 +4792,16 @@
         <v>50</v>
       </c>
       <c r="S9" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T9" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U9" s="2" t="s">
         <v>46</v>
       </c>
       <c r="V9" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W9" s="2">
         <v>0</v>
@@ -4566,7 +4819,7 @@
         <v>0</v>
       </c>
       <c r="AB9" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC9" s="2">
         <v>0</v>
@@ -4635,16 +4888,16 @@
         <v>0</v>
       </c>
       <c r="AY9" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AZ9" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="BA9" s="2" t="s">
         <v>50</v>
       </c>
       <c r="BB9" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BC9" s="2">
         <v>1</v>
@@ -4653,39 +4906,51 @@
         <v>1</v>
       </c>
       <c r="BE9" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BF9" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BG9" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BH9" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BI9" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BJ9" s="2">
         <v>1</v>
       </c>
       <c r="BK9" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="BL9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BM9" s="2">
+        <v>154</v>
+      </c>
+      <c r="BL9" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO9" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ9" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:65" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" s="2">
         <v>4</v>
@@ -4697,16 +4962,16 @@
         <v>2</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H10" s="2">
         <v>3</v>
       </c>
       <c r="I10" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="J10" s="2" t="s">
         <v>43</v>
@@ -4730,7 +4995,7 @@
         <v>46</v>
       </c>
       <c r="Q10" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R10" s="2" t="s">
         <v>43</v>
@@ -4739,19 +5004,19 @@
         <v>43</v>
       </c>
       <c r="T10" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U10" s="2" t="s">
         <v>46</v>
       </c>
       <c r="V10" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W10" s="2">
         <v>0</v>
       </c>
       <c r="X10" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="Y10" s="2">
         <v>0</v>
@@ -4763,16 +5028,16 @@
         <v>0</v>
       </c>
       <c r="AB10" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC10" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="AD10" s="2">
         <v>0</v>
       </c>
       <c r="AE10" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AF10">
         <v>0</v>
@@ -4850,16 +5115,16 @@
         <v>2</v>
       </c>
       <c r="BE10" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BF10" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BG10" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BH10" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BI10" s="2">
         <v>4</v>
@@ -4870,19 +5135,31 @@
       <c r="BK10" s="2">
         <v>0</v>
       </c>
-      <c r="BL10" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BM10" s="2">
+      <c r="BL10" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO10" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ10" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:65" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C11" s="2">
         <v>4</v>
@@ -4894,10 +5171,10 @@
         <v>2</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H11" s="2">
         <v>3</v>
@@ -4936,19 +5213,19 @@
         <v>50</v>
       </c>
       <c r="T11" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U11" s="2" t="s">
         <v>46</v>
       </c>
       <c r="V11" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W11" s="2">
         <v>0</v>
       </c>
       <c r="X11" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Y11" s="2">
         <v>0</v>
@@ -4960,7 +5237,7 @@
         <v>0</v>
       </c>
       <c r="AB11" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC11" s="2">
         <v>0</v>
@@ -4975,7 +5252,7 @@
         <v>0</v>
       </c>
       <c r="AG11" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="AH11" s="2">
         <v>0</v>
@@ -5047,16 +5324,16 @@
         <v>2</v>
       </c>
       <c r="BE11" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BF11" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BG11" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BH11" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BI11" s="2">
         <v>4</v>
@@ -5067,19 +5344,31 @@
       <c r="BK11" s="2">
         <v>0</v>
       </c>
-      <c r="BL11" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BM11" s="2">
+      <c r="BL11" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO11" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ11" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:65" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C12" s="2">
         <v>4</v>
@@ -5091,10 +5380,10 @@
         <v>2</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H12" s="2">
         <v>3</v>
@@ -5109,7 +5398,7 @@
         <v>2</v>
       </c>
       <c r="L12" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M12" s="2">
         <v>2</v>
@@ -5133,46 +5422,46 @@
         <v>50</v>
       </c>
       <c r="T12" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U12" s="2" t="s">
         <v>46</v>
       </c>
       <c r="V12" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W12" s="2">
         <v>0</v>
       </c>
       <c r="X12" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="Y12" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB12" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF12" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG12" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="AH12" s="2">
         <v>0</v>
@@ -5244,16 +5533,16 @@
         <v>2</v>
       </c>
       <c r="BE12" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BF12" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BG12" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BH12" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BI12" s="2">
         <v>4</v>
@@ -5264,19 +5553,31 @@
       <c r="BK12" s="2">
         <v>0</v>
       </c>
-      <c r="BL12" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BM12" s="2">
+      <c r="BL12" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO12" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ12" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:65" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C13" s="2">
         <v>4</v>
@@ -5288,13 +5589,13 @@
         <v>2</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I13" s="2">
         <v>2</v>
@@ -5330,13 +5631,13 @@
         <v>50</v>
       </c>
       <c r="T13" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U13" s="2" t="s">
         <v>46</v>
       </c>
       <c r="V13" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W13" s="2">
         <v>0</v>
@@ -5354,10 +5655,10 @@
         <v>0</v>
       </c>
       <c r="AB13" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC13" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AD13" s="2">
         <v>0</v>
@@ -5441,16 +5742,16 @@
         <v>2</v>
       </c>
       <c r="BE13" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BF13" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BG13" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BH13" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BI13" s="2">
         <v>4</v>
@@ -5461,19 +5762,31 @@
       <c r="BK13" s="2">
         <v>0</v>
       </c>
-      <c r="BL13" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BM13" s="2">
+      <c r="BL13" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO13" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ13" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:65" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C14" s="2">
         <v>4</v>
@@ -5485,10 +5798,10 @@
         <v>2</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H14" s="2">
         <v>3</v>
@@ -5527,13 +5840,13 @@
         <v>43</v>
       </c>
       <c r="T14" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="U14" s="2" t="s">
         <v>46</v>
       </c>
       <c r="V14" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W14" s="2">
         <v>0</v>
@@ -5551,7 +5864,7 @@
         <v>0</v>
       </c>
       <c r="AB14" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC14" s="2" t="s">
         <v>44</v>
@@ -5638,16 +5951,16 @@
         <v>2</v>
       </c>
       <c r="BE14" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BF14" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BG14" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BH14" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BI14" s="2">
         <v>4</v>
@@ -5658,19 +5971,31 @@
       <c r="BK14" s="2">
         <v>0</v>
       </c>
-      <c r="BL14" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BM14" s="2">
+      <c r="BL14" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO14" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ14" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:65" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C15" s="2">
         <v>4</v>
@@ -5682,10 +6007,10 @@
         <v>2</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H15" s="2">
         <v>3</v>
@@ -5724,32 +6049,32 @@
         <v>50</v>
       </c>
       <c r="T15" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="U15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V15" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="W15" s="2">
+        <v>0</v>
+      </c>
+      <c r="X15" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="U15" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="V15" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="W15" s="2">
-        <v>0</v>
-      </c>
-      <c r="X15" s="2" t="s">
+      <c r="Y15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB15" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="Y15" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA15" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB15" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="AC15" s="2">
         <v>0</v>
       </c>
@@ -5763,7 +6088,7 @@
         <v>0</v>
       </c>
       <c r="AG15" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AH15" s="2">
         <v>0</v>
@@ -5829,22 +6154,22 @@
         <v>1</v>
       </c>
       <c r="BC15" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="BD15" s="2">
         <v>2</v>
       </c>
       <c r="BE15" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BF15" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BG15" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BH15" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BI15" s="2">
         <v>4</v>
@@ -5855,19 +6180,31 @@
       <c r="BK15" s="2">
         <v>0</v>
       </c>
-      <c r="BL15" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BM15" s="2">
+      <c r="BL15" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO15" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ15" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:65" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>69</v>
@@ -5879,10 +6216,10 @@
         <v>2</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H16" s="2">
         <v>3</v>
@@ -5915,73 +6252,73 @@
         <v>46</v>
       </c>
       <c r="R16" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S16" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T16" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U16" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V16" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W16" s="2">
         <v>0</v>
       </c>
       <c r="X16" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN16" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="Y16" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AI16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AJ16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AK16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AL16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM16" s="2">
-        <v>0</v>
-      </c>
-      <c r="AN16" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="AO16" s="2">
         <v>0</v>
@@ -6023,25 +6360,25 @@
         <v>50</v>
       </c>
       <c r="BB16" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BC16" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BD16" s="2">
         <v>1</v>
       </c>
       <c r="BE16" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BF16" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BG16" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BH16" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BI16" s="2">
         <v>4</v>
@@ -6052,19 +6389,31 @@
       <c r="BK16" s="2">
         <v>0</v>
       </c>
-      <c r="BL16" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BM16" s="2">
+      <c r="BL16" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO16" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ16" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:65" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>69</v>
@@ -6076,10 +6425,10 @@
         <v>2</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H17" s="2">
         <v>3</v>
@@ -6103,7 +6452,7 @@
         <v>2</v>
       </c>
       <c r="O17" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P17" s="2" t="s">
         <v>46</v>
@@ -6112,25 +6461,25 @@
         <v>46</v>
       </c>
       <c r="R17" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="S17" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="T17" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="U17" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="V17" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W17" s="2">
         <v>0</v>
       </c>
       <c r="X17" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Y17" s="2">
         <v>0</v>
@@ -6142,7 +6491,7 @@
         <v>0</v>
       </c>
       <c r="AB17" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC17" s="2">
         <v>0</v>
@@ -6178,7 +6527,7 @@
         <v>0</v>
       </c>
       <c r="AN17" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AO17" s="2">
         <v>0</v>
@@ -6220,25 +6569,25 @@
         <v>50</v>
       </c>
       <c r="BB17" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="BC17" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BD17" s="2">
         <v>1</v>
       </c>
       <c r="BE17" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BF17" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BG17" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BH17" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BI17" s="2">
         <v>4</v>
@@ -6249,19 +6598,31 @@
       <c r="BK17" s="2">
         <v>0</v>
       </c>
-      <c r="BL17" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BM17" s="2">
+      <c r="BL17" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO17" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ17" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:65" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>66</v>
@@ -6273,28 +6634,28 @@
         <v>2</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H18" s="2">
         <v>3</v>
       </c>
       <c r="I18" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J18" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="K18" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="L18" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M18" s="2" t="s">
         <v>123</v>
-      </c>
-      <c r="L18" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>124</v>
       </c>
       <c r="N18" s="2">
         <v>2</v>
@@ -6318,46 +6679,46 @@
         <v>51</v>
       </c>
       <c r="U18" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="V18" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="W18" s="2">
+        <v>0</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH18" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="V18" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="W18" s="2">
-        <v>0</v>
-      </c>
-      <c r="X18" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="Y18" s="2">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AA18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AB18" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AG18" s="2">
-        <v>0</v>
-      </c>
-      <c r="AH18" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="AI18" s="2">
         <v>0</v>
@@ -6420,22 +6781,22 @@
         <v>51</v>
       </c>
       <c r="BC18" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="BD18" s="2">
         <v>1</v>
       </c>
       <c r="BE18" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BF18" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BG18" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BH18" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BI18" s="2">
         <v>4</v>
@@ -6446,19 +6807,31 @@
       <c r="BK18" s="2">
         <v>0</v>
       </c>
-      <c r="BL18" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BM18" s="2">
+      <c r="BL18" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO18" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ18" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:65" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>66</v>
@@ -6470,10 +6843,10 @@
         <v>2</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H19" s="2">
         <v>3</v>
@@ -6515,17 +6888,17 @@
         <v>51</v>
       </c>
       <c r="U19" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="V19" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="W19" s="2">
+        <v>0</v>
+      </c>
+      <c r="X19" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="V19" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="W19" s="2">
-        <v>0</v>
-      </c>
-      <c r="X19" s="2" t="s">
-        <v>132</v>
-      </c>
       <c r="Y19" s="2">
         <v>0</v>
       </c>
@@ -6536,7 +6909,7 @@
         <v>0</v>
       </c>
       <c r="AB19" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC19" s="2">
         <v>0</v>
@@ -6620,19 +6993,19 @@
         <v>51</v>
       </c>
       <c r="BD19" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BE19" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BF19" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BG19" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BH19" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BI19" s="2">
         <v>4</v>
@@ -6643,19 +7016,31 @@
       <c r="BK19" s="2">
         <v>0</v>
       </c>
-      <c r="BL19" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BM19" s="2">
+      <c r="BL19" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO19" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ19" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:65" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>66</v>
@@ -6667,28 +7052,28 @@
         <v>2</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H20" s="2">
         <v>3</v>
       </c>
       <c r="I20" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J20" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="K20" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M20" s="2" t="s">
         <v>135</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>136</v>
       </c>
       <c r="N20" s="2">
         <v>2</v>
@@ -6712,16 +7097,16 @@
         <v>51</v>
       </c>
       <c r="U20" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="V20" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W20" s="2">
         <v>0</v>
       </c>
       <c r="X20" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Y20" s="2">
         <v>0</v>
@@ -6733,13 +7118,13 @@
         <v>0</v>
       </c>
       <c r="AB20" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC20" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AD20" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AE20" s="2">
         <v>0</v>
@@ -6748,7 +7133,7 @@
         <v>0</v>
       </c>
       <c r="AG20" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AH20" s="2">
         <v>0</v>
@@ -6820,16 +7205,16 @@
         <v>1</v>
       </c>
       <c r="BE20" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BF20" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BG20" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BH20" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BI20" s="2">
         <v>4</v>
@@ -6840,19 +7225,31 @@
       <c r="BK20" s="2">
         <v>0</v>
       </c>
-      <c r="BL20" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BM20" s="2">
+      <c r="BL20" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO20" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ20" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:65" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C21" s="2">
         <v>4</v>
@@ -6864,10 +7261,10 @@
         <v>2</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H21" s="2">
         <v>3</v>
@@ -6876,14 +7273,14 @@
         <v>51</v>
       </c>
       <c r="J21" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="K21" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="L21" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="L21" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="M21" s="2">
         <v>2</v>
       </c>
@@ -6897,7 +7294,7 @@
         <v>46</v>
       </c>
       <c r="Q21" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R21" s="2" t="s">
         <v>43</v>
@@ -6912,13 +7309,13 @@
         <v>46</v>
       </c>
       <c r="V21" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W21" s="2">
         <v>0</v>
       </c>
       <c r="X21" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y21" s="2">
         <v>0</v>
@@ -6930,7 +7327,7 @@
         <v>0</v>
       </c>
       <c r="AB21" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC21" s="2" t="s">
         <v>44</v>
@@ -6939,7 +7336,7 @@
         <v>0</v>
       </c>
       <c r="AE21" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF21">
         <v>0</v>
@@ -7014,19 +7411,19 @@
         <v>1</v>
       </c>
       <c r="BD21" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="BE21" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BF21" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BG21" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BH21" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BI21" s="2">
         <v>4</v>
@@ -7037,19 +7434,31 @@
       <c r="BK21" s="2">
         <v>0</v>
       </c>
-      <c r="BL21" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BM21" s="2">
+      <c r="BL21" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO21" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ21" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:65" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C22" s="2">
         <v>4</v>
@@ -7061,10 +7470,10 @@
         <v>2</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H22" s="2">
         <v>3</v>
@@ -7073,16 +7482,16 @@
         <v>51</v>
       </c>
       <c r="J22" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="K22" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="K22" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="L22" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M22" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N22" s="2" t="s">
         <v>46</v>
@@ -7094,7 +7503,7 @@
         <v>46</v>
       </c>
       <c r="Q22" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R22" s="2" t="s">
         <v>51</v>
@@ -7109,13 +7518,13 @@
         <v>46</v>
       </c>
       <c r="V22" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W22" s="2">
         <v>0</v>
       </c>
       <c r="X22" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Y22" s="2">
         <v>0</v>
@@ -7127,7 +7536,7 @@
         <v>0</v>
       </c>
       <c r="AB22" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC22" s="2" t="s">
         <v>44</v>
@@ -7136,7 +7545,7 @@
         <v>0</v>
       </c>
       <c r="AE22" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF22">
         <v>0</v>
@@ -7205,48 +7614,60 @@
         <v>50</v>
       </c>
       <c r="BB22" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="BC22" s="2">
         <v>1</v>
       </c>
       <c r="BD22" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="BE22" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BF22" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BG22" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="BH22" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BI22" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BJ22" s="2">
         <v>1</v>
       </c>
       <c r="BK22" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="BL22" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BM22" s="2">
+        <v>139</v>
+      </c>
+      <c r="BL22" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO22" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ22" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:65" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>66</v>
@@ -7258,10 +7679,10 @@
         <v>2</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H23" s="2">
         <v>3</v>
@@ -7306,7 +7727,7 @@
         <v>46</v>
       </c>
       <c r="V23" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W23" s="2">
         <v>0</v>
@@ -7324,7 +7745,7 @@
         <v>0</v>
       </c>
       <c r="AB23" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC23" s="2">
         <v>0</v>
@@ -7393,7 +7814,7 @@
         <v>0</v>
       </c>
       <c r="AY23" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AZ23" s="2" t="s">
         <v>51</v>
@@ -7402,7 +7823,7 @@
         <v>50</v>
       </c>
       <c r="BB23" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BC23" s="2">
         <v>1</v>
@@ -7411,39 +7832,51 @@
         <v>1</v>
       </c>
       <c r="BE23" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BF23" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BG23" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BH23" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BI23" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BJ23" s="2">
         <v>1</v>
       </c>
       <c r="BK23" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="BL23" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BM23" s="2">
+        <v>154</v>
+      </c>
+      <c r="BL23" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO23" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ23" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:65" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C24" s="2">
         <v>4</v>
@@ -7455,10 +7888,10 @@
         <v>2</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H24" s="2">
         <v>3</v>
@@ -7482,13 +7915,13 @@
         <v>50</v>
       </c>
       <c r="O24" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P24" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="Q24" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R24" s="2">
         <v>2</v>
@@ -7503,13 +7936,13 @@
         <v>51</v>
       </c>
       <c r="V24" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="W24" s="2">
         <v>0</v>
       </c>
       <c r="X24" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y24" s="2">
         <v>0</v>
@@ -7536,7 +7969,7 @@
         <v>0</v>
       </c>
       <c r="AG24" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="AH24" s="2">
         <v>0</v>
@@ -7608,16 +8041,16 @@
         <v>2</v>
       </c>
       <c r="BE24" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="BF24" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="BG24" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="BH24" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BI24" s="2">
         <v>4</v>
@@ -7628,19 +8061,31 @@
       <c r="BK24" s="2">
         <v>0</v>
       </c>
-      <c r="BL24" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BM24" s="2">
+      <c r="BL24" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO24" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ24" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:65" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C25" s="2">
         <v>4</v>
@@ -7649,13 +8094,13 @@
         <v>1</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H25" s="2">
         <v>3</v>
@@ -7679,13 +8124,13 @@
         <v>50</v>
       </c>
       <c r="O25" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P25" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q25" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R25" s="2">
         <v>2</v>
@@ -7700,13 +8145,13 @@
         <v>51</v>
       </c>
       <c r="V25" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="W25" s="2">
         <v>0</v>
       </c>
       <c r="X25" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="Y25" s="2">
         <v>0</v>
@@ -7721,7 +8166,7 @@
         <v>44</v>
       </c>
       <c r="AC25" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="AD25" s="2">
         <v>0</v>
@@ -7805,16 +8250,16 @@
         <v>2</v>
       </c>
       <c r="BE25" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="BF25" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="BG25" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="BH25" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BI25" s="2">
         <v>4</v>
@@ -7825,19 +8270,31 @@
       <c r="BK25" s="2">
         <v>0</v>
       </c>
-      <c r="BL25" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BM25" s="2">
+      <c r="BL25" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO25" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ25" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:65" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C26" s="2">
         <v>4</v>
@@ -7846,13 +8303,13 @@
         <v>1</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H26" s="2">
         <v>3</v>
@@ -7876,13 +8333,13 @@
         <v>50</v>
       </c>
       <c r="O26" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="P26" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="Q26" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="R26" s="2">
         <v>2</v>
@@ -7897,13 +8354,13 @@
         <v>51</v>
       </c>
       <c r="V26" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="W26" s="2">
         <v>0</v>
       </c>
       <c r="X26" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Y26" s="2">
         <v>0</v>
@@ -7993,25 +8450,25 @@
         <v>2</v>
       </c>
       <c r="BB26" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="BC26" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BD26" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="BE26" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="BF26" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="BG26" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="BH26" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BI26" s="2">
         <v>4</v>
@@ -8022,19 +8479,31 @@
       <c r="BK26" s="2">
         <v>0</v>
       </c>
-      <c r="BL26" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BM26" s="2">
+      <c r="BL26" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO26" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ26" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:65" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C27" s="2">
         <v>4</v>
@@ -8046,10 +8515,10 @@
         <v>2</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H27" s="2">
         <v>3</v>
@@ -8058,16 +8527,16 @@
         <v>51</v>
       </c>
       <c r="J27" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="K27" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="K27" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="L27" s="2" t="s">
         <v>51</v>
       </c>
       <c r="M27" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N27" s="2" t="s">
         <v>46</v>
@@ -8079,7 +8548,7 @@
         <v>46</v>
       </c>
       <c r="Q27" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R27" s="2" t="s">
         <v>51</v>
@@ -8094,13 +8563,13 @@
         <v>46</v>
       </c>
       <c r="V27" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W27" s="2">
         <v>0</v>
       </c>
       <c r="X27" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y27" s="2">
         <v>0</v>
@@ -8112,7 +8581,7 @@
         <v>0</v>
       </c>
       <c r="AB27" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC27" s="2" t="s">
         <v>44</v>
@@ -8121,7 +8590,7 @@
         <v>0</v>
       </c>
       <c r="AE27" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF27">
         <v>0</v>
@@ -8190,48 +8659,60 @@
         <v>50</v>
       </c>
       <c r="BB27" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="BC27" s="2">
         <v>1</v>
       </c>
       <c r="BD27" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="BE27" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BF27" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BG27" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="BH27" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BI27" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BJ27" s="2">
         <v>1</v>
       </c>
       <c r="BK27" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="BL27" s="2" t="s">
-        <v>93</v>
+        <v>139</v>
+      </c>
+      <c r="BL27" s="2">
+        <v>0</v>
       </c>
       <c r="BM27" s="2" t="s">
-        <v>181</v>
+        <v>92</v>
+      </c>
+      <c r="BN27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO27" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ27" s="2" t="s">
+        <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:65" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C28" s="2">
         <v>4</v>
@@ -8243,10 +8724,10 @@
         <v>2</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H28" s="2">
         <v>3</v>
@@ -8255,16 +8736,16 @@
         <v>51</v>
       </c>
       <c r="J28" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="K28" s="2" t="s">
         <v>148</v>
-      </c>
-      <c r="K28" s="2" t="s">
-        <v>149</v>
       </c>
       <c r="L28" s="2" t="s">
         <v>51</v>
       </c>
       <c r="M28" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N28" s="2" t="s">
         <v>46</v>
@@ -8276,7 +8757,7 @@
         <v>46</v>
       </c>
       <c r="Q28" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R28" s="2" t="s">
         <v>51</v>
@@ -8291,13 +8772,13 @@
         <v>46</v>
       </c>
       <c r="V28" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W28" s="2">
         <v>0</v>
       </c>
       <c r="X28" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="Y28" s="2">
         <v>0</v>
@@ -8309,7 +8790,7 @@
         <v>0</v>
       </c>
       <c r="AB28" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC28" s="2" t="s">
         <v>44</v>
@@ -8318,7 +8799,7 @@
         <v>0</v>
       </c>
       <c r="AE28" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF28">
         <v>0</v>
@@ -8387,48 +8868,60 @@
         <v>50</v>
       </c>
       <c r="BB28" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="BC28" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BD28" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="BE28" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BF28" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BG28" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="BH28" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="BI28" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="BJ28" s="2">
+        <v>1</v>
+      </c>
+      <c r="BK28" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="BL28" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM28" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN28" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO28" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP28" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="BH28" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="BI28" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="BJ28" s="2">
-        <v>1</v>
-      </c>
-      <c r="BK28" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="BL28" s="2" t="s">
+      <c r="BQ28" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="BM28" s="2" t="s">
-        <v>189</v>
-      </c>
     </row>
-    <row r="29" spans="1:65" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C29" s="2">
         <v>4</v>
@@ -8440,10 +8933,10 @@
         <v>2</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H29" s="2">
         <v>3</v>
@@ -8458,7 +8951,7 @@
         <v>2</v>
       </c>
       <c r="L29" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M29" s="2">
         <v>2</v>
@@ -8488,13 +8981,13 @@
         <v>46</v>
       </c>
       <c r="V29" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W29" s="2">
         <v>0</v>
       </c>
       <c r="X29" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="Y29" s="2">
         <v>0</v>
@@ -8506,7 +8999,7 @@
         <v>0</v>
       </c>
       <c r="AB29" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC29" s="2">
         <v>0</v>
@@ -8593,16 +9086,16 @@
         <v>2</v>
       </c>
       <c r="BE29" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BF29" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BG29" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BH29" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BI29" s="2">
         <v>4</v>
@@ -8613,34 +9106,46 @@
       <c r="BK29" s="2">
         <v>0</v>
       </c>
-      <c r="BL29" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BM29" s="2">
+      <c r="BL29" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO29" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ29" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:65" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C30" s="2">
         <v>4</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E30" s="2">
         <v>2</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H30" s="2">
         <v>3</v>
@@ -8685,7 +9190,7 @@
         <v>46</v>
       </c>
       <c r="V30" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W30" s="2">
         <v>0</v>
@@ -8703,7 +9208,7 @@
         <v>0</v>
       </c>
       <c r="AB30" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC30" s="2" t="s">
         <v>44</v>
@@ -8745,7 +9250,7 @@
         <v>0</v>
       </c>
       <c r="AP30" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AQ30" s="2">
         <v>0</v>
@@ -8781,7 +9286,7 @@
         <v>2</v>
       </c>
       <c r="BB30" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="BC30" s="2">
         <v>1</v>
@@ -8790,16 +9295,16 @@
         <v>2</v>
       </c>
       <c r="BE30" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BF30" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BG30" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BH30" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BI30" s="2">
         <v>4</v>
@@ -8810,34 +9315,46 @@
       <c r="BK30" s="2">
         <v>0</v>
       </c>
-      <c r="BL30" s="2" t="s">
-        <v>121</v>
+      <c r="BL30" s="2">
+        <v>0</v>
       </c>
       <c r="BM30" s="2" t="s">
-        <v>199</v>
+        <v>92</v>
+      </c>
+      <c r="BN30" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO30" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP30" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="BQ30" s="2" t="s">
+        <v>198</v>
       </c>
     </row>
-    <row r="31" spans="1:65" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C31" s="2">
         <v>4</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E31" s="2">
         <v>2</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H31" s="2">
         <v>3</v>
@@ -8861,7 +9378,7 @@
         <v>51</v>
       </c>
       <c r="O31" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="P31" s="2" t="s">
         <v>46</v>
@@ -8882,7 +9399,7 @@
         <v>46</v>
       </c>
       <c r="V31" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W31" s="2">
         <v>0</v>
@@ -8900,7 +9417,7 @@
         <v>0</v>
       </c>
       <c r="AB31" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC31" s="2" t="s">
         <v>44</v>
@@ -8942,7 +9459,7 @@
         <v>0</v>
       </c>
       <c r="AP31" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AQ31" s="2">
         <v>0</v>
@@ -8978,7 +9495,7 @@
         <v>2</v>
       </c>
       <c r="BB31" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="BC31" s="2">
         <v>1</v>
@@ -8987,16 +9504,16 @@
         <v>2</v>
       </c>
       <c r="BE31" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BF31" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BG31" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BH31" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BI31" s="2">
         <v>4</v>
@@ -9007,19 +9524,31 @@
       <c r="BK31" s="2">
         <v>0</v>
       </c>
-      <c r="BL31" s="2" t="s">
+      <c r="BL31" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM31" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN31" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO31" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP31" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="BQ31" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="BM31" s="2" t="s">
-        <v>198</v>
-      </c>
     </row>
-    <row r="32" spans="1:65" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>66</v>
@@ -9031,10 +9560,10 @@
         <v>2</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H32" s="2">
         <v>3</v>
@@ -9079,13 +9608,13 @@
         <v>46</v>
       </c>
       <c r="V32" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W32" s="2">
         <v>0</v>
       </c>
       <c r="X32" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="Y32" s="2">
         <v>0</v>
@@ -9097,7 +9626,7 @@
         <v>0</v>
       </c>
       <c r="AB32" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC32" s="2">
         <v>0</v>
@@ -9166,7 +9695,7 @@
         <v>0</v>
       </c>
       <c r="AY32" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AZ32" s="2" t="s">
         <v>51</v>
@@ -9175,48 +9704,60 @@
         <v>50</v>
       </c>
       <c r="BB32" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BC32" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BD32" s="2">
         <v>1</v>
       </c>
       <c r="BE32" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BF32" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BG32" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BH32" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BI32" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BJ32" s="2">
         <v>1</v>
       </c>
       <c r="BK32" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="BL32" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM32" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN32" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO32" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP32" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="BQ32" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="BL32" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="BM32" s="2" t="s">
-        <v>205</v>
-      </c>
     </row>
-    <row r="33" spans="1:65" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C33" s="2">
         <v>4</v>
@@ -9228,10 +9769,10 @@
         <v>2</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H33" s="2">
         <v>3</v>
@@ -9240,14 +9781,14 @@
         <v>51</v>
       </c>
       <c r="J33" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="K33" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="K33" s="2" t="s">
+      <c r="L33" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="L33" s="2" t="s">
-        <v>150</v>
-      </c>
       <c r="M33" s="2">
         <v>2</v>
       </c>
@@ -9261,7 +9802,7 @@
         <v>46</v>
       </c>
       <c r="Q33" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="R33" s="2" t="s">
         <v>43</v>
@@ -9276,13 +9817,13 @@
         <v>46</v>
       </c>
       <c r="V33" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W33" s="2">
         <v>0</v>
       </c>
       <c r="X33" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="Y33" s="2">
         <v>0</v>
@@ -9294,7 +9835,7 @@
         <v>0</v>
       </c>
       <c r="AB33" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC33" s="2" t="s">
         <v>44</v>
@@ -9303,7 +9844,7 @@
         <v>0</v>
       </c>
       <c r="AE33" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF33">
         <v>0</v>
@@ -9378,19 +9919,19 @@
         <v>1</v>
       </c>
       <c r="BD33" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="BE33" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BF33" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BG33" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BH33" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BI33" s="2">
         <v>4</v>
@@ -9401,19 +9942,31 @@
       <c r="BK33" s="2">
         <v>0</v>
       </c>
-      <c r="BL33" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BM33" s="2">
+      <c r="BL33" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM33" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN33" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO33" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP33" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ33" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:65" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C34" s="2">
         <v>4</v>
@@ -9425,10 +9978,10 @@
         <v>2</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H34" s="2">
         <v>3</v>
@@ -9437,16 +9990,16 @@
         <v>51</v>
       </c>
       <c r="J34" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="K34" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="K34" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="L34" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="M34" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="N34" s="2" t="s">
         <v>46</v>
@@ -9458,7 +10011,7 @@
         <v>46</v>
       </c>
       <c r="Q34" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="R34" s="2" t="s">
         <v>51</v>
@@ -9473,13 +10026,13 @@
         <v>46</v>
       </c>
       <c r="V34" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W34" s="2">
         <v>0</v>
       </c>
       <c r="X34" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Y34" s="2">
         <v>0</v>
@@ -9491,7 +10044,7 @@
         <v>0</v>
       </c>
       <c r="AB34" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC34" s="2" t="s">
         <v>44</v>
@@ -9500,7 +10053,7 @@
         <v>0</v>
       </c>
       <c r="AE34" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -9569,48 +10122,60 @@
         <v>50</v>
       </c>
       <c r="BB34" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="BC34" s="2">
         <v>1</v>
       </c>
       <c r="BD34" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="BE34" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BF34" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BG34" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="BH34" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="BH34" s="2" t="s">
-        <v>211</v>
-      </c>
       <c r="BI34" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="BJ34" s="2">
         <v>1</v>
       </c>
       <c r="BK34" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="BL34" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BM34" s="2">
+        <v>139</v>
+      </c>
+      <c r="BL34" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM34" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN34" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO34" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP34" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ34" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:65" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>66</v>
@@ -9622,10 +10187,10 @@
         <v>2</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H35" s="2">
         <v>3</v>
@@ -9670,7 +10235,7 @@
         <v>46</v>
       </c>
       <c r="V35" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W35" s="2">
         <v>0</v>
@@ -9688,7 +10253,7 @@
         <v>0</v>
       </c>
       <c r="AB35" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC35" s="2">
         <v>0</v>
@@ -9757,7 +10322,7 @@
         <v>0</v>
       </c>
       <c r="AY35" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="AZ35" s="2" t="s">
         <v>51</v>
@@ -9766,7 +10331,7 @@
         <v>50</v>
       </c>
       <c r="BB35" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BC35" s="2">
         <v>1</v>
@@ -9775,39 +10340,51 @@
         <v>1</v>
       </c>
       <c r="BE35" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BF35" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BG35" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BH35" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BI35" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="BJ35" s="2">
         <v>1</v>
       </c>
       <c r="BK35" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="BL35" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BM35" s="2">
+        <v>154</v>
+      </c>
+      <c r="BL35" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM35" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN35" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO35" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP35" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ35" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:65" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>66</v>
@@ -9819,10 +10396,10 @@
         <v>2</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H36" s="2">
         <v>3</v>
@@ -9831,16 +10408,16 @@
         <v>1</v>
       </c>
       <c r="J36" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K36" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L36" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M36" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N36" s="2">
         <v>2</v>
@@ -9864,16 +10441,16 @@
         <v>51</v>
       </c>
       <c r="U36" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="V36" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W36" s="2">
         <v>0</v>
       </c>
       <c r="X36" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="Y36" s="2">
         <v>0</v>
@@ -9885,7 +10462,7 @@
         <v>0</v>
       </c>
       <c r="AB36" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC36" s="2">
         <v>0</v>
@@ -9972,16 +10549,16 @@
         <v>1</v>
       </c>
       <c r="BE36" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BF36" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BG36" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BH36" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BI36" s="2">
         <v>4</v>
@@ -9992,19 +10569,31 @@
       <c r="BK36" s="2">
         <v>0</v>
       </c>
-      <c r="BL36" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BM36" s="2">
+      <c r="BL36" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM36" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN36" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO36" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP36" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ36" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:65" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>66</v>
@@ -10016,28 +10605,28 @@
         <v>2</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H37" s="2">
         <v>3</v>
       </c>
       <c r="I37" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J37" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K37" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L37" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="M37" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N37" s="2">
         <v>2</v>
@@ -10061,16 +10650,16 @@
         <v>51</v>
       </c>
       <c r="U37" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="V37" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W37" s="2">
         <v>0</v>
       </c>
       <c r="X37" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="Y37" s="2">
         <v>0</v>
@@ -10082,7 +10671,7 @@
         <v>0</v>
       </c>
       <c r="AB37" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC37" s="2">
         <v>0</v>
@@ -10115,7 +10704,7 @@
         <v>0</v>
       </c>
       <c r="AM37" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="AN37" s="2" t="s">
         <v>44</v>
@@ -10166,19 +10755,19 @@
         <v>51</v>
       </c>
       <c r="BD37" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="BE37" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BF37" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BG37" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BH37" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BI37" s="2">
         <v>4</v>
@@ -10189,19 +10778,31 @@
       <c r="BK37" s="2">
         <v>0</v>
       </c>
-      <c r="BL37" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BM37" s="2">
+      <c r="BL37" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO37" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ37" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:65" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C38" s="2">
         <v>4</v>
@@ -10213,40 +10814,40 @@
         <v>2</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H38" s="2">
         <v>3</v>
       </c>
       <c r="I38" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="J38" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="K38" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="K38" s="2" t="s">
+      <c r="L38" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M38" s="2" t="s">
         <v>219</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="M38" s="2" t="s">
+      <c r="N38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q38" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="N38" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="P38" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q38" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="R38" s="2" t="s">
         <v>43</v>
@@ -10261,13 +10862,13 @@
         <v>46</v>
       </c>
       <c r="V38" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W38" s="2">
         <v>0</v>
       </c>
       <c r="X38" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Y38" s="2">
         <v>0</v>
@@ -10279,7 +10880,7 @@
         <v>0</v>
       </c>
       <c r="AB38" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC38" s="2" t="s">
         <v>44</v>
@@ -10288,7 +10889,7 @@
         <v>0</v>
       </c>
       <c r="AE38" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF38">
         <v>0</v>
@@ -10357,25 +10958,25 @@
         <v>50</v>
       </c>
       <c r="BB38" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="BC38" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="BD38" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="BE38" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BF38" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BG38" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="BC38" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="BD38" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="BE38" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BF38" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BG38" s="2" t="s">
+      <c r="BH38" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="BH38" s="2" t="s">
-        <v>225</v>
       </c>
       <c r="BI38" s="2">
         <v>4</v>
@@ -10386,19 +10987,31 @@
       <c r="BK38" s="2">
         <v>0</v>
       </c>
-      <c r="BL38" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BM38" s="2">
+      <c r="BL38" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM38" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN38" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO38" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP38" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ38" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:65" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>66</v>
@@ -10410,10 +11023,10 @@
         <v>2</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H39" s="2">
         <v>3</v>
@@ -10455,16 +11068,16 @@
         <v>51</v>
       </c>
       <c r="U39" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="V39" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W39" s="2">
         <v>0</v>
       </c>
       <c r="X39" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Y39" s="2">
         <v>0</v>
@@ -10476,7 +11089,7 @@
         <v>0</v>
       </c>
       <c r="AB39" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC39" s="2">
         <v>0</v>
@@ -10560,19 +11173,19 @@
         <v>51</v>
       </c>
       <c r="BD39" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BE39" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BF39" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BG39" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BH39" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BI39" s="2">
         <v>4</v>
@@ -10583,19 +11196,31 @@
       <c r="BK39" s="2">
         <v>0</v>
       </c>
-      <c r="BL39" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BM39" s="2">
+      <c r="BL39" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM39" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN39" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO39" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP39" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ39" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:65" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C40" s="2">
         <v>4</v>
@@ -10607,10 +11232,10 @@
         <v>2</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H40" s="2">
         <v>3</v>
@@ -10655,7 +11280,7 @@
         <v>46</v>
       </c>
       <c r="V40" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W40" s="2">
         <v>0</v>
@@ -10673,7 +11298,7 @@
         <v>0</v>
       </c>
       <c r="AB40" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC40" s="2" t="s">
         <v>44</v>
@@ -10715,7 +11340,7 @@
         <v>0</v>
       </c>
       <c r="AP40" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AQ40" s="2">
         <v>0</v>
@@ -10751,25 +11376,25 @@
         <v>2</v>
       </c>
       <c r="BB40" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="BC40" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="BD40" s="2">
         <v>2</v>
       </c>
       <c r="BE40" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BF40" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BG40" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BH40" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BI40" s="2">
         <v>4</v>
@@ -10780,19 +11405,31 @@
       <c r="BK40" s="2">
         <v>0</v>
       </c>
-      <c r="BL40" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BM40" s="2">
+      <c r="BL40" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM40" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN40" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO40" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP40" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ40" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:65" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:69" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>66</v>
@@ -10804,10 +11441,10 @@
         <v>2</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H41" s="2">
         <v>3</v>
@@ -10852,13 +11489,13 @@
         <v>46</v>
       </c>
       <c r="V41" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="W41" s="2">
         <v>0</v>
       </c>
       <c r="X41" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="Y41" s="2">
         <v>0</v>
@@ -10870,7 +11507,7 @@
         <v>0</v>
       </c>
       <c r="AB41" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AC41" s="2">
         <v>0</v>
@@ -10939,7 +11576,7 @@
         <v>0</v>
       </c>
       <c r="AY41" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="AZ41" s="2" t="s">
         <v>51</v>
@@ -10948,39 +11585,260 @@
         <v>50</v>
       </c>
       <c r="BB41" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="BC41" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="BD41" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="BE41" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BF41" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BG41" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BH41" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="BI41" s="2" t="s">
         <v>51</v>
       </c>
       <c r="BJ41" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="BK41" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="BL41" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="BM41" s="2">
+        <v>231</v>
+      </c>
+      <c r="BL41" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM41" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN41" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO41" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP41" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ41" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:69" x14ac:dyDescent="0.15">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>239</v>
+      </c>
+      <c r="C42" s="2">
+        <v>4</v>
+      </c>
+      <c r="D42" s="2">
+        <v>1</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="H42" s="2">
+        <v>3</v>
+      </c>
+      <c r="I42" s="2">
+        <v>2</v>
+      </c>
+      <c r="J42" s="2">
+        <v>2</v>
+      </c>
+      <c r="K42" s="2">
+        <v>2</v>
+      </c>
+      <c r="L42" s="2">
+        <v>2</v>
+      </c>
+      <c r="M42" s="2">
+        <v>2</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O42" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="P42" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="Q42" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="R42" s="2">
+        <v>2</v>
+      </c>
+      <c r="S42" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T42" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U42" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V42" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="W42" s="2">
+        <v>0</v>
+      </c>
+      <c r="X42" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y42" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD42" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="AE42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF42" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="AG42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AZ42" s="2">
+        <v>2</v>
+      </c>
+      <c r="BA42" s="2">
+        <v>2</v>
+      </c>
+      <c r="BB42" s="2">
+        <v>1</v>
+      </c>
+      <c r="BC42" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD42" s="2">
+        <v>2</v>
+      </c>
+      <c r="BE42" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="BF42" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="BG42" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="BH42" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BI42" s="2">
+        <v>4</v>
+      </c>
+      <c r="BJ42" s="2">
+        <v>1</v>
+      </c>
+      <c r="BK42" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL42" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="BM42" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="BN42" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="BO42" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP42" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ42" s="2">
         <v>0</v>
       </c>
     </row>

--- a/bin/conf/buff.xlsx
+++ b/bin/conf/buff.xlsx
@@ -1755,7 +1755,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1323" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="250">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2672,6 +2672,22 @@
   </si>
   <si>
     <t>0.3,0.4,0.5,0.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小小的长大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10,18,26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-20,-35,-50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风行束缚击眩晕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3045,17 +3061,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BQ42"/>
+  <dimension ref="A1:BQ44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AU1" workbookViewId="0">
-      <selection activeCell="BN1" sqref="BN1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="20.25" customWidth="1"/>
     <col min="5" max="5" width="15.375" customWidth="1"/>
-    <col min="6" max="6" width="8.5" customWidth="1"/>
+    <col min="6" max="6" width="9.625" customWidth="1"/>
     <col min="7" max="7" width="11.75" customWidth="1"/>
     <col min="29" max="29" width="17.25" bestFit="1" customWidth="1"/>
     <col min="64" max="64" width="12" customWidth="1"/>
@@ -3064,7 +3081,7 @@
     <col min="67" max="67" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:69" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11839,6 +11856,424 @@
         <v>92</v>
       </c>
       <c r="BQ42" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:69" x14ac:dyDescent="0.15">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>246</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D43" s="2">
+        <v>1</v>
+      </c>
+      <c r="E43" s="2">
+        <v>2</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G43" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H43" s="2">
+        <v>3</v>
+      </c>
+      <c r="I43" s="2">
+        <v>2</v>
+      </c>
+      <c r="J43" s="2">
+        <v>2</v>
+      </c>
+      <c r="K43" s="2">
+        <v>2</v>
+      </c>
+      <c r="L43" s="2">
+        <v>2</v>
+      </c>
+      <c r="M43" s="2">
+        <v>2</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O43" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P43" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q43" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R43" s="2">
+        <v>2</v>
+      </c>
+      <c r="S43" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="T43" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U43" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V43" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="W43" s="2">
+        <v>0</v>
+      </c>
+      <c r="X43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y43" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB43" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC43" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="AD43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE43" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="AF43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM43" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="AN43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP43" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AQ43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS43" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ43" s="2">
+        <v>2</v>
+      </c>
+      <c r="BA43" s="2">
+        <v>2</v>
+      </c>
+      <c r="BB43" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="BC43" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD43" s="2">
+        <v>2</v>
+      </c>
+      <c r="BE43" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BF43" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BG43" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BH43" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BI43" s="2">
+        <v>4</v>
+      </c>
+      <c r="BJ43" s="2">
+        <v>1</v>
+      </c>
+      <c r="BK43" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL43" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM43" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN43" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO43" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP43" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ43" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:69" x14ac:dyDescent="0.15">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>249</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D44" s="2">
+        <v>1</v>
+      </c>
+      <c r="E44" s="2">
+        <v>2</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H44" s="2">
+        <v>3</v>
+      </c>
+      <c r="I44" s="2">
+        <v>1</v>
+      </c>
+      <c r="J44" s="2">
+        <v>1</v>
+      </c>
+      <c r="K44" s="2">
+        <v>1</v>
+      </c>
+      <c r="L44" s="2">
+        <v>1</v>
+      </c>
+      <c r="M44" s="2">
+        <v>1</v>
+      </c>
+      <c r="N44" s="2">
+        <v>2</v>
+      </c>
+      <c r="O44" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P44" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q44" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R44" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="S44" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T44" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U44" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="V44" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="W44" s="2">
+        <v>0</v>
+      </c>
+      <c r="X44" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="Y44" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AC44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AO44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS44" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ44" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA44" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB44" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BC44" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BD44" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="BE44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BF44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BG44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BH44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BI44" s="2">
+        <v>4</v>
+      </c>
+      <c r="BJ44" s="2">
+        <v>1</v>
+      </c>
+      <c r="BK44" s="2">
+        <v>0</v>
+      </c>
+      <c r="BL44" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO44" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BP44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ44" s="2">
         <v>0</v>
       </c>
     </row>

--- a/bin/conf/buff.xlsx
+++ b/bin/conf/buff.xlsx
@@ -342,7 +342,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//隐身可以被看见 1:是 2:否</t>
+//是否只对指定攻击目标生效 1:是 2:非</t>
         </r>
       </text>
     </comment>
@@ -368,7 +368,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//可以看见隐身 1:是 2:否</t>
+//隐身可以被看见 1:是 2:否</t>
         </r>
       </text>
     </comment>
@@ -394,7 +394,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//大师级隐身 不会被看见 (分身的无敌和其他的blink躲弹道)1:是 2:否</t>
+//可以看见隐身 1:是 2:否</t>
         </r>
       </text>
     </comment>
@@ -420,7 +420,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//是否魔法免疫 1:是 2:非</t>
+//大师级隐身 不会被看见 (分身的无敌和其他的blink躲弹道)1:是 2:否</t>
         </r>
       </text>
     </comment>
@@ -446,7 +446,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//物理攻击免疫 1:是 2:非</t>
+//是否魔法免疫 1:是 2:非</t>
         </r>
       </text>
     </comment>
@@ -472,7 +472,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//技能冷却停止 1:是 2:非</t>
+//物理攻击免疫 1:是 2:非</t>
         </r>
       </text>
     </comment>
@@ -498,7 +498,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//是否暂停动画 1:是 2:非</t>
+//技能冷却停止 1:是 2:非</t>
         </r>
       </text>
     </comment>
@@ -524,7 +524,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//是否碰撞检测 1:是 2:非</t>
+//是否暂停动画 1:是 2:非</t>
         </r>
       </text>
     </comment>
@@ -550,7 +550,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//buff范围 小于等于0表示单体</t>
+//是否碰撞检测 1:是 2:非</t>
         </r>
       </text>
     </comment>
@@ -576,7 +576,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//持续时间</t>
+//buff范围 小于等于0表示单体</t>
         </r>
       </text>
     </comment>
@@ -602,7 +602,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//力量变化值 20表示增加20点力量</t>
+//持续时间</t>
         </r>
       </text>
     </comment>
@@ -628,7 +628,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//智力变化值 20表示增加20点智力</t>
+//力量变化值 20表示增加20点力量</t>
         </r>
       </text>
     </comment>
@@ -654,7 +654,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//敏捷变化值 20表示增加20点敏捷</t>
+//智力变化值 20表示增加20点智力</t>
         </r>
       </text>
     </comment>
@@ -680,7 +680,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//攻击速度变化比率 0.2就是增加20%</t>
+//敏捷变化值 20表示增加20点敏捷</t>
         </r>
       </text>
     </comment>
@@ -706,7 +706,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//攻击速度变化值 -10表示降低10点攻击速度</t>
+//攻击速度变化比率 0.2就是增加20%</t>
         </r>
       </text>
     </comment>
@@ -732,7 +732,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//攻击力变化比率 0.2就是增加20%</t>
+//攻击速度变化值 -10表示降低10点攻击速度</t>
         </r>
       </text>
     </comment>
@@ -758,7 +758,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//攻击力变化量 -20就是减少20点攻击力</t>
+//攻击力变化比率 0.2就是增加20%</t>
         </r>
       </text>
     </comment>
@@ -784,7 +784,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//攻击距离变化量 1.2就是增加1.2的攻击距离</t>
+//攻击力变化量 -20就是减少20点攻击力</t>
         </r>
       </text>
     </comment>
@@ -810,7 +810,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//移动速度变化率 1.0就是增加100%的移动速度</t>
+//攻击距离变化量 1.2就是增加1.2的攻击距离</t>
         </r>
       </text>
     </comment>
@@ -836,7 +836,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//移动速度变化量 0.5就是增加0.5米每秒的移动速度</t>
+//移动速度变化率 1.0就是增加100%的移动速度</t>
         </r>
       </text>
     </comment>
@@ -862,7 +862,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//技能增强变化量 0.02表示技能增强增加2%</t>
+//移动速度变化量 0.5就是增加0.5米每秒的移动速度</t>
         </r>
       </text>
     </comment>
@@ -888,7 +888,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//魔法恢复变化率 0.5表示增加50%的魔法恢复</t>
+//技能增强变化量 0.02表示技能增强增加2%</t>
         </r>
       </text>
     </comment>
@@ -914,7 +914,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//魔法恢复变化量 1.5表示增加1.5mp每秒的魔法恢复速度</t>
+//魔法恢复变化率 0.5表示增加50%的魔法恢复</t>
         </r>
       </text>
     </comment>
@@ -940,7 +940,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//护甲变化比率 0.2就是增加20%</t>
+//魔法恢复变化量 1.5表示增加1.5mp每秒的魔法恢复速度</t>
         </r>
       </text>
     </comment>
@@ -966,7 +966,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//护甲变化量 20就是增加20点护甲</t>
+//护甲变化比率 0.2就是增加20%</t>
         </r>
       </text>
     </comment>
@@ -992,7 +992,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//魔法抗性变化量 0.1表示增加10%的魔抗</t>
+//护甲变化量 20就是增加20点护甲</t>
         </r>
       </text>
     </comment>
@@ -1018,7 +1018,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//状态抗性变化量 0.1表示增加10%的状态抗性</t>
+//魔法抗性变化量 0.1表示增加10%的魔抗</t>
         </r>
       </text>
     </comment>
@@ -1044,7 +1044,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//闪避变化量 0.2就是增加20%的闪避</t>
+//状态抗性变化量 0.1表示增加10%的状态抗性</t>
         </r>
       </text>
     </comment>
@@ -1070,7 +1070,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//生命恢复变化率 0.5表示增加50%的生命恢复</t>
+//闪避变化量 0.2就是增加20%的闪避</t>
         </r>
       </text>
     </comment>
@@ -1096,7 +1096,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//生命恢复变化量 1.2表示增加1.2hp每秒的生命恢复</t>
+//生命恢复变化率 0.5表示增加50%的生命恢复</t>
         </r>
       </text>
     </comment>
@@ -1122,7 +1122,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//生命恢复变化量以最大生命值为基础 0.2表示增加20%最大生命值每秒的生命恢复</t>
+//生命恢复变化量 1.2表示增加1.2hp每秒的生命恢复</t>
         </r>
       </text>
     </comment>
@@ -1148,7 +1148,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//无视闪避变化量 0.2就是增加20%的无视闪避</t>
+//生命恢复变化量以最大生命值为基础 0.2表示增加20%最大生命值每秒的生命恢复</t>
         </r>
       </text>
     </comment>
@@ -1174,7 +1174,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//额外施法距离变化量 2.3表示增加施法距离2.3米</t>
+//无视闪避变化量 0.2就是增加20%的无视闪避</t>
         </r>
       </text>
     </comment>
@@ -1200,7 +1200,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//魔法消耗变化量 -0.1表示降低10%的魔法消耗</t>
+//额外施法距离变化量 2.3表示增加施法距离2.3米</t>
         </r>
       </text>
     </comment>
@@ -1226,7 +1226,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//技能CD变化量 -0.2表示降低20%的技能cd</t>
+//魔法消耗变化量 -0.1表示降低10%的魔法消耗</t>
         </r>
       </text>
     </comment>
@@ -1252,7 +1252,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//攻击指定目标攻击速度变化值 -10表示降低10点攻击速度</t>
+//技能CD变化量 -0.2表示降低20%的技能cd</t>
         </r>
       </text>
     </comment>
@@ -1278,7 +1278,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//开始生效的时间 1.2表示 1.2秒后生效</t>
+//攻击指定目标攻击速度变化值 -10表示降低10点攻击速度</t>
         </r>
       </text>
     </comment>
@@ -1304,7 +1304,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//攻击后失效 1:是 2:否</t>
+//开始生效的时间 1.2表示 1.2秒后生效</t>
         </r>
       </text>
     </comment>
@@ -1330,7 +1330,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//使用技能后失效 1:是 2:否</t>
+//攻击后失效 1:是 2:否</t>
         </r>
       </text>
     </comment>
@@ -1356,7 +1356,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//驱散等级 1 表示需要驱散等级大于等于1的 驱散效果才能驱散此buff</t>
+//使用技能后失效 1:是 2:否</t>
         </r>
       </text>
     </comment>
@@ -1382,7 +1382,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//buff类型 1:表示良性 2:表示恶性  队友只能驱散我的恶性buff 敌人只能驱散我的良性buff 3:中性</t>
+//驱散等级 1 表示需要驱散等级大于等于1的 驱散效果才能驱散此buff</t>
         </r>
       </text>
     </comment>
@@ -1408,7 +1408,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//添加此buff时 是否无视单位魔法免疫 1:是 2:非</t>
+//buff类型 1:表示良性 2:表示恶性  队友只能驱散我的恶性buff 敌人只能驱散我的良性buff 3:中性</t>
         </r>
       </text>
     </comment>
@@ -1434,7 +1434,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//物理伤害吸血 0.1表示 增加攻击造成伤害的10%的HP</t>
+//添加此buff时 是否无视单位魔法免疫 1:是 2:非</t>
         </r>
       </text>
     </comment>
@@ -1460,7 +1460,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//魔法伤害吸血 0.1表示 增加攻击造成伤害的10%的HP</t>
+//物理伤害吸血 0.1表示 增加攻击造成伤害的10%的HP</t>
         </r>
       </text>
     </comment>
@@ -1486,7 +1486,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//总伤害变化率 0.1表示 增加10%的总伤害 -0.1表示减少10%总伤害</t>
+//魔法伤害吸血 0.1表示 增加攻击造成伤害的10%的HP</t>
         </r>
       </text>
     </comment>
@@ -1512,7 +1512,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//造成总伤害变化率 0.1表示 增加10%的总伤害 -0.1表示减少10%总伤害</t>
+//总伤害变化率 0.1表示 增加10%的总伤害 -0.1表示减少10%总伤害</t>
         </r>
       </text>
     </comment>
@@ -1538,7 +1538,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//伤害类型(1:物理伤害 2:魔法伤害 3:纯粹伤害 4:不造成伤害)</t>
+//造成总伤害变化率 0.1表示 增加10%的总伤害 -0.1表示减少10%总伤害</t>
         </r>
       </text>
     </comment>
@@ -1564,7 +1564,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//伤害时间间隔</t>
+//伤害类型(1:物理伤害 2:魔法伤害 3:纯粹伤害 4:不造成伤害)</t>
         </r>
       </text>
     </comment>
@@ -1590,7 +1590,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//伤害值</t>
+//伤害时间间隔</t>
         </r>
       </text>
     </comment>
@@ -1616,7 +1616,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//溅射半径</t>
+//伤害值</t>
         </r>
       </text>
     </comment>
@@ -1642,7 +1642,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//弧度(扇形) π度为圆形</t>
+//溅射半径</t>
         </r>
       </text>
     </comment>
@@ -1668,7 +1668,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//溅射伤害百分比</t>
+//弧度(扇形) π度为圆形</t>
         </r>
       </text>
     </comment>
@@ -1694,7 +1694,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//溅射是否无视魔免 1:是 2:否</t>
+//溅射伤害百分比</t>
         </r>
       </text>
     </comment>
@@ -1720,11 +1720,37 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-// 特殊情况处理  0表示没有特殊情况 1:血魔的血怒buff死亡后加血</t>
+//溅射是否无视魔免 1:是 2:否</t>
         </r>
       </text>
     </comment>
     <comment ref="BQ1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+// 特殊情况处理  0表示没有特殊情况 1:血魔的血怒buff死亡后加血</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BR1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1755,7 +1781,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1380" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="260">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2688,6 +2714,45 @@
   </si>
   <si>
     <t>风行束缚击眩晕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风行闪避加速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风行减速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.15,-0.2,-0.25,-0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IsUseableAllocateAttackUnit</t>
+  </si>
+  <si>
+    <t>风行大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>450</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.5,-0.4,-0.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3061,11 +3126,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BQ44"/>
+  <dimension ref="A1:BR47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M49" sqref="M49"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AE47" sqref="AE47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3074,14 +3139,14 @@
     <col min="5" max="5" width="15.375" customWidth="1"/>
     <col min="6" max="6" width="9.625" customWidth="1"/>
     <col min="7" max="7" width="11.75" customWidth="1"/>
-    <col min="29" max="29" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="12" customWidth="1"/>
-    <col min="65" max="65" width="12.75" customWidth="1"/>
-    <col min="66" max="66" width="17.875" customWidth="1"/>
-    <col min="67" max="67" width="13.5" customWidth="1"/>
+    <col min="30" max="30" width="17.25" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="12" customWidth="1"/>
+    <col min="66" max="66" width="12.75" customWidth="1"/>
+    <col min="67" max="67" width="17.875" customWidth="1"/>
+    <col min="68" max="68" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:69" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:70" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3125,172 +3190,175 @@
         <v>52</v>
       </c>
       <c r="O1" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="P1" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AJ1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AK1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AL1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AM1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AN1" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AO1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AP1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AQ1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AR1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AS1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AT1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AU1" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AV1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AW1" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AX1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AY1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AZ1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="BA1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BB1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BC1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BD1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:69" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3334,50 +3402,50 @@
         <v>50</v>
       </c>
       <c r="O2" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="P2" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="R2" s="2">
-        <v>2</v>
-      </c>
-      <c r="S2" s="2" t="s">
+      <c r="S2" s="2">
+        <v>2</v>
+      </c>
+      <c r="T2" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="T2" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="U2" s="2" t="s">
         <v>100</v>
       </c>
       <c r="V2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="W2" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="W2" s="2">
-        <v>0</v>
-      </c>
-      <c r="X2" s="2" t="s">
+      <c r="X2" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="Y2" s="2">
-        <v>0</v>
-      </c>
       <c r="Z2" s="2">
         <v>0</v>
       </c>
       <c r="AA2" s="2">
         <v>0</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AB2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AC2" s="2">
-        <v>0</v>
-      </c>
       <c r="AD2" s="2">
         <v>0</v>
       </c>
@@ -3388,11 +3456,11 @@
         <v>0</v>
       </c>
       <c r="AG2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH2" s="2">
         <v>-0.5</v>
       </c>
-      <c r="AH2" s="2">
-        <v>0</v>
-      </c>
       <c r="AI2" s="2">
         <v>0</v>
       </c>
@@ -3423,12 +3491,12 @@
       <c r="AR2" s="2">
         <v>0</v>
       </c>
-      <c r="AS2" s="2" t="s">
+      <c r="AS2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT2" s="2">
-        <v>0</v>
-      </c>
       <c r="AU2" s="2">
         <v>0</v>
       </c>
@@ -3441,65 +3509,68 @@
       <c r="AX2" s="2">
         <v>0</v>
       </c>
-      <c r="AY2" s="2" t="s">
+      <c r="AY2" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ2" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AZ2" s="2">
-        <v>2</v>
-      </c>
       <c r="BA2" s="2">
         <v>2</v>
       </c>
       <c r="BB2" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD2" s="2">
         <v>2</v>
       </c>
-      <c r="BE2" s="2" t="s">
-        <v>139</v>
+      <c r="BE2" s="2">
+        <v>2</v>
       </c>
       <c r="BF2" s="2" t="s">
         <v>139</v>
       </c>
       <c r="BG2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="BH2" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="BH2" s="2" t="s">
+      <c r="BI2" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="BI2" s="2">
+      <c r="BJ2" s="2">
         <v>4</v>
       </c>
-      <c r="BJ2" s="2">
-        <v>1</v>
-      </c>
       <c r="BK2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL2" s="2">
         <v>0</v>
       </c>
-      <c r="BM2" s="2" t="s">
+      <c r="BM2" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN2" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="BN2" s="2" t="s">
+      <c r="BO2" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="BO2" s="2" t="s">
+      <c r="BP2" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="BP2" s="2" t="s">
+      <c r="BQ2" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="BQ2" s="2">
+      <c r="BR2" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:69" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3543,53 +3614,53 @@
         <v>50</v>
       </c>
       <c r="O3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="P3" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="Q3" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="R3" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="R3" s="2">
-        <v>2</v>
-      </c>
-      <c r="S3" s="2" t="s">
+      <c r="S3" s="2">
+        <v>2</v>
+      </c>
+      <c r="T3" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="T3" s="2" t="s">
+      <c r="U3" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="U3" s="2" t="s">
+      <c r="V3" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="V3" s="2" t="s">
+      <c r="W3" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="W3" s="2">
-        <v>0</v>
-      </c>
-      <c r="X3" s="2" t="s">
+      <c r="X3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Y3" s="2">
-        <v>0</v>
-      </c>
       <c r="Z3" s="2">
         <v>0</v>
       </c>
       <c r="AA3" s="2">
         <v>0</v>
       </c>
-      <c r="AB3" s="2" t="s">
+      <c r="AB3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="AC3" s="2" t="s">
+      <c r="AD3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="AD3" s="2">
-        <v>0</v>
-      </c>
       <c r="AE3" s="2">
         <v>0</v>
       </c>
@@ -3632,12 +3703,12 @@
       <c r="AR3" s="2">
         <v>0</v>
       </c>
-      <c r="AS3" s="2" t="s">
+      <c r="AS3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT3" s="2">
-        <v>0</v>
-      </c>
       <c r="AU3" s="2">
         <v>0</v>
       </c>
@@ -3650,26 +3721,26 @@
       <c r="AX3" s="2">
         <v>0</v>
       </c>
-      <c r="AY3" s="2" t="s">
+      <c r="AY3" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ3" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AZ3" s="2">
-        <v>2</v>
-      </c>
       <c r="BA3" s="2">
         <v>2</v>
       </c>
       <c r="BB3" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC3" s="2">
         <v>1</v>
       </c>
       <c r="BD3" s="2">
-        <v>2</v>
-      </c>
-      <c r="BE3" s="2" t="s">
-        <v>139</v>
+        <v>1</v>
+      </c>
+      <c r="BE3" s="2">
+        <v>2</v>
       </c>
       <c r="BF3" s="2" t="s">
         <v>139</v>
@@ -3680,35 +3751,38 @@
       <c r="BH3" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="BI3" s="2">
+      <c r="BI3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="BJ3" s="2">
         <v>4</v>
       </c>
-      <c r="BJ3" s="2">
-        <v>1</v>
-      </c>
       <c r="BK3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL3" s="2">
         <v>0</v>
       </c>
-      <c r="BM3" s="2" t="s">
+      <c r="BM3" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN3" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="BN3" s="2" t="s">
+      <c r="BO3" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="BO3" s="2" t="s">
+      <c r="BP3" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="BP3" s="2" t="s">
+      <c r="BQ3" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="BQ3" s="2">
+      <c r="BR3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:69" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3760,45 +3834,45 @@
       <c r="Q4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="R4" s="2">
-        <v>2</v>
-      </c>
-      <c r="S4" s="2" t="s">
+      <c r="R4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S4" s="2">
+        <v>2</v>
+      </c>
+      <c r="T4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="T4" s="2" t="s">
+      <c r="U4" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="U4" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="V4" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W4" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="W4" s="2">
-        <v>0</v>
-      </c>
-      <c r="X4" s="2" t="s">
+      <c r="X4" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y4" s="2">
-        <v>0</v>
-      </c>
       <c r="Z4" s="2">
         <v>0</v>
       </c>
       <c r="AA4" s="2">
         <v>0</v>
       </c>
-      <c r="AB4" s="2" t="s">
-        <v>92</v>
+      <c r="AB4" s="2">
+        <v>0</v>
       </c>
       <c r="AC4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD4" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AD4" s="2">
-        <v>0</v>
-      </c>
       <c r="AE4" s="2">
         <v>0</v>
       </c>
@@ -3832,21 +3906,21 @@
       <c r="AO4" s="2">
         <v>0</v>
       </c>
-      <c r="AP4" s="2" t="s">
+      <c r="AP4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="AQ4" s="2">
-        <v>0</v>
-      </c>
       <c r="AR4" s="2">
         <v>0</v>
       </c>
-      <c r="AS4" s="2" t="s">
+      <c r="AS4" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT4" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="AT4" s="2">
-        <v>0</v>
-      </c>
       <c r="AU4" s="2">
         <v>0</v>
       </c>
@@ -3863,22 +3937,22 @@
         <v>0</v>
       </c>
       <c r="AZ4" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BA4" s="2">
         <v>2</v>
       </c>
-      <c r="BB4" s="2" t="s">
+      <c r="BB4" s="2">
+        <v>2</v>
+      </c>
+      <c r="BC4" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="BC4" s="2">
-        <v>1</v>
-      </c>
       <c r="BD4" s="2">
-        <v>2</v>
-      </c>
-      <c r="BE4" s="2" t="s">
-        <v>92</v>
+        <v>1</v>
+      </c>
+      <c r="BE4" s="2">
+        <v>2</v>
       </c>
       <c r="BF4" s="2" t="s">
         <v>92</v>
@@ -3889,35 +3963,38 @@
       <c r="BH4" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BI4" s="2">
+      <c r="BI4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ4" s="2">
         <v>4</v>
       </c>
-      <c r="BJ4" s="2">
-        <v>1</v>
-      </c>
       <c r="BK4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL4" s="2">
         <v>0</v>
       </c>
-      <c r="BM4" s="2" t="s">
-        <v>92</v>
+      <c r="BM4" s="2">
+        <v>0</v>
       </c>
       <c r="BN4" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BO4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP4" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BP4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BQ4" s="2">
+      <c r="BQ4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BR4" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:69" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3969,45 +4046,45 @@
       <c r="Q5" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="R5" s="2">
-        <v>2</v>
-      </c>
-      <c r="S5" s="2" t="s">
+      <c r="R5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S5" s="2">
+        <v>2</v>
+      </c>
+      <c r="T5" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="T5" s="2" t="s">
+      <c r="U5" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="U5" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="V5" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W5" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="W5" s="2">
-        <v>0</v>
-      </c>
-      <c r="X5" s="2" t="s">
+      <c r="X5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="Y5" s="2">
-        <v>0</v>
-      </c>
       <c r="Z5" s="2">
         <v>0</v>
       </c>
       <c r="AA5" s="2">
         <v>0</v>
       </c>
-      <c r="AB5" s="2" t="s">
-        <v>92</v>
+      <c r="AB5" s="2">
+        <v>0</v>
       </c>
       <c r="AC5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AD5" s="2">
-        <v>0</v>
-      </c>
       <c r="AE5" s="2">
         <v>0</v>
       </c>
@@ -4041,21 +4118,21 @@
       <c r="AO5" s="2">
         <v>0</v>
       </c>
-      <c r="AP5" s="2" t="s">
+      <c r="AP5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="AQ5" s="2">
-        <v>0</v>
-      </c>
       <c r="AR5" s="2">
         <v>0</v>
       </c>
-      <c r="AS5" s="2" t="s">
+      <c r="AS5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT5" s="2">
-        <v>0</v>
-      </c>
       <c r="AU5" s="2">
         <v>0</v>
       </c>
@@ -4068,26 +4145,26 @@
       <c r="AX5" s="2">
         <v>0</v>
       </c>
-      <c r="AY5" s="2" t="s">
+      <c r="AY5" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ5" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AZ5" s="2">
-        <v>1</v>
-      </c>
       <c r="BA5" s="2">
         <v>1</v>
       </c>
       <c r="BB5" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD5" s="2">
-        <v>2</v>
-      </c>
-      <c r="BE5" s="2" t="s">
-        <v>92</v>
+        <v>1</v>
+      </c>
+      <c r="BE5" s="2">
+        <v>2</v>
       </c>
       <c r="BF5" s="2" t="s">
         <v>92</v>
@@ -4098,35 +4175,38 @@
       <c r="BH5" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BI5" s="2">
+      <c r="BI5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ5" s="2">
         <v>4</v>
       </c>
-      <c r="BJ5" s="2">
-        <v>1</v>
-      </c>
       <c r="BK5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL5" s="2">
         <v>0</v>
       </c>
-      <c r="BM5" s="2" t="s">
-        <v>92</v>
+      <c r="BM5" s="2">
+        <v>0</v>
       </c>
       <c r="BN5" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BO5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP5" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BP5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BQ5" s="2">
+      <c r="BQ5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BR5" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:69" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4179,51 +4259,51 @@
         <v>46</v>
       </c>
       <c r="R6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="S6" s="2" t="s">
+      <c r="T6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="T6" s="2" t="s">
+      <c r="U6" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="U6" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="V6" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W6" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="W6" s="2">
-        <v>0</v>
-      </c>
-      <c r="X6" s="2" t="s">
+      <c r="X6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="Y6" s="2">
-        <v>0</v>
-      </c>
       <c r="Z6" s="2">
         <v>0</v>
       </c>
       <c r="AA6" s="2">
         <v>0</v>
       </c>
-      <c r="AB6" s="2" t="s">
-        <v>92</v>
+      <c r="AB6" s="2">
+        <v>0</v>
       </c>
       <c r="AC6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AD6" s="2">
-        <v>0</v>
-      </c>
       <c r="AE6" s="2">
         <v>0</v>
       </c>
-      <c r="AF6">
-        <v>0</v>
-      </c>
-      <c r="AG6" s="2">
+      <c r="AF6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG6">
         <v>0</v>
       </c>
       <c r="AH6" s="2">
@@ -4244,27 +4324,27 @@
       <c r="AM6" s="2">
         <v>0</v>
       </c>
-      <c r="AN6" s="2" t="s">
+      <c r="AN6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO6" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AO6" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP6" s="2" t="s">
+      <c r="AP6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AQ6" s="2">
-        <v>0</v>
-      </c>
       <c r="AR6" s="2">
         <v>0</v>
       </c>
-      <c r="AS6" s="2" t="s">
+      <c r="AS6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT6" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AT6" s="2">
-        <v>0</v>
-      </c>
       <c r="AU6" s="2">
         <v>0</v>
       </c>
@@ -4277,26 +4357,26 @@
       <c r="AX6" s="2">
         <v>0</v>
       </c>
-      <c r="AY6" s="2" t="s">
+      <c r="AY6" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ6" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="AZ6" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="BA6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="BB6" s="2">
-        <v>2</v>
+      <c r="BB6" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="BC6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD6" s="2">
-        <v>2</v>
-      </c>
-      <c r="BE6" s="2" t="s">
-        <v>92</v>
+        <v>1</v>
+      </c>
+      <c r="BE6" s="2">
+        <v>2</v>
       </c>
       <c r="BF6" s="2" t="s">
         <v>92</v>
@@ -4307,35 +4387,38 @@
       <c r="BH6" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BI6" s="2">
+      <c r="BI6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ6" s="2">
         <v>4</v>
       </c>
-      <c r="BJ6" s="2">
-        <v>1</v>
-      </c>
       <c r="BK6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL6" s="2">
         <v>0</v>
       </c>
-      <c r="BM6" s="2" t="s">
-        <v>92</v>
+      <c r="BM6" s="2">
+        <v>0</v>
       </c>
       <c r="BN6" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BO6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP6" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BP6" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BQ6" s="2">
+      <c r="BQ6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BR6" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:69" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4387,41 +4470,41 @@
       <c r="Q7" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="R7" s="2">
-        <v>1</v>
-      </c>
-      <c r="S7" s="2" t="s">
+      <c r="R7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S7" s="2">
+        <v>1</v>
+      </c>
+      <c r="T7" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="T7" s="2" t="s">
+      <c r="U7" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="U7" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="V7" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W7" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="W7" s="2">
-        <v>0</v>
-      </c>
-      <c r="X7" s="2" t="s">
+      <c r="X7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="Y7" s="2">
-        <v>0</v>
-      </c>
       <c r="Z7" s="2">
         <v>0</v>
       </c>
       <c r="AA7" s="2">
         <v>0</v>
       </c>
-      <c r="AB7" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC7" s="2">
-        <v>0</v>
+      <c r="AB7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="AD7" s="2">
         <v>0</v>
@@ -4454,10 +4537,10 @@
         <v>0</v>
       </c>
       <c r="AN7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AP7" s="2">
         <v>0</v>
@@ -4468,12 +4551,12 @@
       <c r="AR7" s="2">
         <v>0</v>
       </c>
-      <c r="AS7" s="2" t="s">
+      <c r="AS7" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT7" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT7" s="2">
-        <v>0</v>
-      </c>
       <c r="AU7" s="2">
         <v>0</v>
       </c>
@@ -4489,23 +4572,23 @@
       <c r="AY7" s="2">
         <v>0</v>
       </c>
-      <c r="AZ7" s="2" t="s">
+      <c r="AZ7" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA7" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="BA7" s="2" t="s">
+      <c r="BB7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="BB7" s="2">
-        <v>0</v>
-      </c>
       <c r="BC7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="2">
         <v>1</v>
       </c>
-      <c r="BE7" s="2" t="s">
-        <v>92</v>
+      <c r="BE7" s="2">
+        <v>1</v>
       </c>
       <c r="BF7" s="2" t="s">
         <v>92</v>
@@ -4516,35 +4599,38 @@
       <c r="BH7" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BI7" s="2">
+      <c r="BI7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ7" s="2">
         <v>4</v>
       </c>
-      <c r="BJ7" s="2">
-        <v>1</v>
-      </c>
       <c r="BK7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL7" s="2">
         <v>0</v>
       </c>
-      <c r="BM7" s="2" t="s">
-        <v>92</v>
+      <c r="BM7" s="2">
+        <v>0</v>
       </c>
       <c r="BN7" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BO7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP7" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BP7" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BQ7" s="2">
+      <c r="BQ7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BR7" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:69" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4597,28 +4683,28 @@
         <v>46</v>
       </c>
       <c r="R8" s="2" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="S8" s="2" t="s">
         <v>50</v>
       </c>
       <c r="T8" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U8" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="U8" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="V8" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W8" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="W8" s="2">
-        <v>0</v>
-      </c>
       <c r="X8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z8" s="2">
         <v>0</v>
@@ -4626,11 +4712,11 @@
       <c r="AA8" s="2">
         <v>0</v>
       </c>
-      <c r="AB8" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC8" s="2">
-        <v>0</v>
+      <c r="AB8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC8" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="AD8" s="2">
         <v>0</v>
@@ -4662,12 +4748,12 @@
       <c r="AM8" s="2">
         <v>0</v>
       </c>
-      <c r="AN8" s="2" t="s">
+      <c r="AN8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AO8" s="2">
-        <v>0</v>
-      </c>
       <c r="AP8" s="2">
         <v>0</v>
       </c>
@@ -4677,12 +4763,12 @@
       <c r="AR8" s="2">
         <v>0</v>
       </c>
-      <c r="AS8" s="2" t="s">
+      <c r="AS8" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="AT8" s="2">
-        <v>0</v>
-      </c>
       <c r="AU8" s="2">
         <v>0</v>
       </c>
@@ -4698,23 +4784,23 @@
       <c r="AY8" s="2">
         <v>0</v>
       </c>
-      <c r="AZ8" s="2" t="s">
+      <c r="AZ8" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA8" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="BA8" s="2" t="s">
+      <c r="BB8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BB8" s="2">
-        <v>0</v>
-      </c>
       <c r="BC8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="2">
         <v>1</v>
       </c>
-      <c r="BE8" s="2" t="s">
-        <v>92</v>
+      <c r="BE8" s="2">
+        <v>1</v>
       </c>
       <c r="BF8" s="2" t="s">
         <v>92</v>
@@ -4725,35 +4811,38 @@
       <c r="BH8" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BI8" s="2">
+      <c r="BI8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ8" s="2">
         <v>4</v>
       </c>
-      <c r="BJ8" s="2">
-        <v>1</v>
-      </c>
       <c r="BK8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL8" s="2">
         <v>0</v>
       </c>
-      <c r="BM8" s="2" t="s">
-        <v>92</v>
+      <c r="BM8" s="2">
+        <v>0</v>
       </c>
       <c r="BN8" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BO8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP8" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BP8" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BQ8" s="2">
+      <c r="BQ8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BR8" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:69" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -4806,28 +4895,28 @@
         <v>46</v>
       </c>
       <c r="R9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="S9" s="2" t="s">
+      <c r="T9" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="T9" s="2" t="s">
+      <c r="U9" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="U9" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="V9" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W9" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="W9" s="2">
-        <v>0</v>
-      </c>
       <c r="X9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y9" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z9" s="2">
         <v>0</v>
@@ -4835,11 +4924,11 @@
       <c r="AA9" s="2">
         <v>0</v>
       </c>
-      <c r="AB9" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC9" s="2">
-        <v>0</v>
+      <c r="AB9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC9" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="AD9" s="2">
         <v>0</v>
@@ -4871,12 +4960,12 @@
       <c r="AM9" s="2">
         <v>0</v>
       </c>
-      <c r="AN9" s="2" t="s">
+      <c r="AN9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AO9" s="2">
-        <v>0</v>
-      </c>
       <c r="AP9" s="2">
         <v>0</v>
       </c>
@@ -4886,12 +4975,12 @@
       <c r="AR9" s="2">
         <v>0</v>
       </c>
-      <c r="AS9" s="2" t="s">
+      <c r="AS9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT9" s="2">
-        <v>0</v>
-      </c>
       <c r="AU9" s="2">
         <v>0</v>
       </c>
@@ -4904,26 +4993,26 @@
       <c r="AX9" s="2">
         <v>0</v>
       </c>
-      <c r="AY9" s="2" t="s">
+      <c r="AY9" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ9" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AZ9" s="2" t="s">
+      <c r="BA9" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="BA9" s="2" t="s">
+      <c r="BB9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="BB9" s="2" t="s">
+      <c r="BC9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BC9" s="2">
-        <v>1</v>
-      </c>
       <c r="BD9" s="2">
         <v>1</v>
       </c>
-      <c r="BE9" s="2" t="s">
-        <v>92</v>
+      <c r="BE9" s="2">
+        <v>1</v>
       </c>
       <c r="BF9" s="2" t="s">
         <v>92</v>
@@ -4935,34 +5024,37 @@
         <v>92</v>
       </c>
       <c r="BI9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="BJ9" s="2">
-        <v>1</v>
-      </c>
-      <c r="BK9" s="2" t="s">
+      <c r="BK9" s="2">
+        <v>1</v>
+      </c>
+      <c r="BL9" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="BL9" s="2">
-        <v>0</v>
-      </c>
-      <c r="BM9" s="2" t="s">
-        <v>92</v>
+      <c r="BM9" s="2">
+        <v>0</v>
       </c>
       <c r="BN9" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BO9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP9" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BP9" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BQ9" s="2">
+      <c r="BQ9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BR9" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:69" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5012,54 +5104,54 @@
         <v>46</v>
       </c>
       <c r="Q10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R10" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="R10" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="S10" s="2" t="s">
         <v>43</v>
       </c>
       <c r="T10" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U10" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="U10" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="V10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W10" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="W10" s="2">
-        <v>0</v>
-      </c>
-      <c r="X10" s="2" t="s">
+      <c r="X10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="Y10" s="2">
-        <v>0</v>
-      </c>
       <c r="Z10" s="2">
         <v>0</v>
       </c>
       <c r="AA10" s="2">
         <v>0</v>
       </c>
-      <c r="AB10" s="2" t="s">
-        <v>92</v>
+      <c r="AB10" s="2">
+        <v>0</v>
       </c>
       <c r="AC10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD10" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="AD10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE10" s="2" t="s">
+      <c r="AE10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF10" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10" s="2">
+      <c r="AG10">
         <v>0</v>
       </c>
       <c r="AH10" s="2">
@@ -5080,27 +5172,27 @@
       <c r="AM10" s="2">
         <v>0</v>
       </c>
-      <c r="AN10" s="2" t="s">
+      <c r="AN10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO10" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AO10" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP10" s="2" t="s">
+      <c r="AP10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AQ10" s="2">
-        <v>0</v>
-      </c>
       <c r="AR10" s="2">
         <v>0</v>
       </c>
-      <c r="AS10" s="2" t="s">
+      <c r="AS10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT10" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="AT10" s="2">
-        <v>0</v>
-      </c>
       <c r="AU10" s="2">
         <v>0</v>
       </c>
@@ -5113,26 +5205,26 @@
       <c r="AX10" s="2">
         <v>0</v>
       </c>
-      <c r="AY10" s="2" t="s">
+      <c r="AY10" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ10" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="AZ10" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="BA10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="BB10" s="2">
-        <v>2</v>
+      <c r="BB10" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="BC10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD10" s="2">
-        <v>2</v>
-      </c>
-      <c r="BE10" s="2" t="s">
-        <v>92</v>
+        <v>1</v>
+      </c>
+      <c r="BE10" s="2">
+        <v>2</v>
       </c>
       <c r="BF10" s="2" t="s">
         <v>92</v>
@@ -5143,35 +5235,38 @@
       <c r="BH10" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BI10" s="2">
+      <c r="BI10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ10" s="2">
         <v>4</v>
       </c>
-      <c r="BJ10" s="2">
-        <v>1</v>
-      </c>
       <c r="BK10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL10" s="2">
         <v>0</v>
       </c>
-      <c r="BM10" s="2" t="s">
-        <v>92</v>
+      <c r="BM10" s="2">
+        <v>0</v>
       </c>
       <c r="BN10" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BO10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP10" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BP10" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BQ10" s="2">
+      <c r="BQ10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BR10" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:69" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5223,41 +5318,41 @@
       <c r="Q11" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="R11" s="2">
-        <v>2</v>
-      </c>
-      <c r="S11" s="2" t="s">
+      <c r="R11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S11" s="2">
+        <v>2</v>
+      </c>
+      <c r="T11" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="T11" s="2" t="s">
+      <c r="U11" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="U11" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="V11" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W11" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="W11" s="2">
-        <v>0</v>
-      </c>
-      <c r="X11" s="2" t="s">
+      <c r="X11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="Y11" s="2">
-        <v>0</v>
-      </c>
       <c r="Z11" s="2">
         <v>0</v>
       </c>
       <c r="AA11" s="2">
         <v>0</v>
       </c>
-      <c r="AB11" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC11" s="2">
-        <v>0</v>
+      <c r="AB11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC11" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="AD11" s="2">
         <v>0</v>
@@ -5268,12 +5363,12 @@
       <c r="AF11" s="2">
         <v>0</v>
       </c>
-      <c r="AG11" s="2" t="s">
+      <c r="AG11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="AH11" s="2">
-        <v>0</v>
-      </c>
       <c r="AI11" s="2">
         <v>0</v>
       </c>
@@ -5304,12 +5399,12 @@
       <c r="AR11" s="2">
         <v>0</v>
       </c>
-      <c r="AS11" s="2" t="s">
+      <c r="AS11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT11" s="2">
-        <v>0</v>
-      </c>
       <c r="AU11" s="2">
         <v>0</v>
       </c>
@@ -5322,26 +5417,26 @@
       <c r="AX11" s="2">
         <v>0</v>
       </c>
-      <c r="AY11" s="2" t="s">
+      <c r="AY11" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ11" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AZ11" s="2">
-        <v>2</v>
-      </c>
       <c r="BA11" s="2">
         <v>2</v>
       </c>
       <c r="BB11" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC11" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD11" s="2">
         <v>2</v>
       </c>
-      <c r="BE11" s="2" t="s">
-        <v>92</v>
+      <c r="BE11" s="2">
+        <v>2</v>
       </c>
       <c r="BF11" s="2" t="s">
         <v>92</v>
@@ -5352,35 +5447,38 @@
       <c r="BH11" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BI11" s="2">
+      <c r="BI11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ11" s="2">
         <v>4</v>
       </c>
-      <c r="BJ11" s="2">
-        <v>1</v>
-      </c>
       <c r="BK11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL11" s="2">
         <v>0</v>
       </c>
-      <c r="BM11" s="2" t="s">
-        <v>92</v>
+      <c r="BM11" s="2">
+        <v>0</v>
       </c>
       <c r="BN11" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BO11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP11" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BP11" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BQ11" s="2">
+      <c r="BQ11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BR11" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:69" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5432,41 +5530,41 @@
       <c r="Q12" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="R12" s="2">
-        <v>2</v>
-      </c>
-      <c r="S12" s="2" t="s">
+      <c r="R12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S12" s="2">
+        <v>2</v>
+      </c>
+      <c r="T12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="T12" s="2" t="s">
+      <c r="U12" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="U12" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="V12" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W12" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="W12" s="2">
-        <v>0</v>
-      </c>
-      <c r="X12" s="2" t="s">
+      <c r="X12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="Y12" s="2">
-        <v>0</v>
-      </c>
       <c r="Z12" s="2">
         <v>0</v>
       </c>
       <c r="AA12" s="2">
         <v>0</v>
       </c>
-      <c r="AB12" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC12" s="2">
-        <v>0</v>
+      <c r="AB12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="AD12" s="2">
         <v>0</v>
@@ -5477,12 +5575,12 @@
       <c r="AF12" s="2">
         <v>0</v>
       </c>
-      <c r="AG12" s="2" t="s">
+      <c r="AG12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH12" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="AH12" s="2">
-        <v>0</v>
-      </c>
       <c r="AI12" s="2">
         <v>0</v>
       </c>
@@ -5513,12 +5611,12 @@
       <c r="AR12" s="2">
         <v>0</v>
       </c>
-      <c r="AS12" s="2" t="s">
+      <c r="AS12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT12" s="2">
-        <v>0</v>
-      </c>
       <c r="AU12" s="2">
         <v>0</v>
       </c>
@@ -5531,26 +5629,26 @@
       <c r="AX12" s="2">
         <v>0</v>
       </c>
-      <c r="AY12" s="2" t="s">
+      <c r="AY12" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ12" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AZ12" s="2">
-        <v>2</v>
-      </c>
       <c r="BA12" s="2">
         <v>2</v>
       </c>
       <c r="BB12" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC12" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD12" s="2">
         <v>2</v>
       </c>
-      <c r="BE12" s="2" t="s">
-        <v>92</v>
+      <c r="BE12" s="2">
+        <v>2</v>
       </c>
       <c r="BF12" s="2" t="s">
         <v>92</v>
@@ -5561,35 +5659,38 @@
       <c r="BH12" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BI12" s="2">
+      <c r="BI12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ12" s="2">
         <v>4</v>
       </c>
-      <c r="BJ12" s="2">
-        <v>1</v>
-      </c>
       <c r="BK12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL12" s="2">
         <v>0</v>
       </c>
-      <c r="BM12" s="2" t="s">
-        <v>92</v>
+      <c r="BM12" s="2">
+        <v>0</v>
       </c>
       <c r="BN12" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BO12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP12" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BP12" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BQ12" s="2">
+      <c r="BQ12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BR12" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:69" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5641,45 +5742,45 @@
       <c r="Q13" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="R13" s="2">
-        <v>2</v>
-      </c>
-      <c r="S13" s="2" t="s">
+      <c r="R13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S13" s="2">
+        <v>2</v>
+      </c>
+      <c r="T13" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="T13" s="2" t="s">
+      <c r="U13" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="U13" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="V13" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W13" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="W13" s="2">
-        <v>0</v>
-      </c>
-      <c r="X13" s="2" t="s">
+      <c r="X13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y13" s="2">
-        <v>0</v>
-      </c>
       <c r="Z13" s="2">
         <v>0</v>
       </c>
       <c r="AA13" s="2">
         <v>0</v>
       </c>
-      <c r="AB13" s="2" t="s">
-        <v>92</v>
+      <c r="AB13" s="2">
+        <v>0</v>
       </c>
       <c r="AC13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD13" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="AD13" s="2">
-        <v>0</v>
-      </c>
       <c r="AE13" s="2">
         <v>0</v>
       </c>
@@ -5722,12 +5823,12 @@
       <c r="AR13" s="2">
         <v>0</v>
       </c>
-      <c r="AS13" s="2" t="s">
+      <c r="AS13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT13" s="2">
-        <v>0</v>
-      </c>
       <c r="AU13" s="2">
         <v>0</v>
       </c>
@@ -5740,26 +5841,26 @@
       <c r="AX13" s="2">
         <v>0</v>
       </c>
-      <c r="AY13" s="2" t="s">
+      <c r="AY13" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ13" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AZ13" s="2">
-        <v>2</v>
-      </c>
       <c r="BA13" s="2">
         <v>2</v>
       </c>
       <c r="BB13" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC13" s="2">
         <v>1</v>
       </c>
       <c r="BD13" s="2">
-        <v>2</v>
-      </c>
-      <c r="BE13" s="2" t="s">
-        <v>92</v>
+        <v>1</v>
+      </c>
+      <c r="BE13" s="2">
+        <v>2</v>
       </c>
       <c r="BF13" s="2" t="s">
         <v>92</v>
@@ -5770,35 +5871,38 @@
       <c r="BH13" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BI13" s="2">
+      <c r="BI13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ13" s="2">
         <v>4</v>
       </c>
-      <c r="BJ13" s="2">
-        <v>1</v>
-      </c>
       <c r="BK13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL13" s="2">
         <v>0</v>
       </c>
-      <c r="BM13" s="2" t="s">
-        <v>92</v>
+      <c r="BM13" s="2">
+        <v>0</v>
       </c>
       <c r="BN13" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BO13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP13" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BP13" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BQ13" s="2">
+      <c r="BQ13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BR13" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:69" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -5851,51 +5955,51 @@
         <v>46</v>
       </c>
       <c r="R14" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="S14" s="2" t="s">
         <v>43</v>
       </c>
       <c r="T14" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U14" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="U14" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="V14" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W14" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="W14" s="2">
-        <v>0</v>
-      </c>
-      <c r="X14" s="2" t="s">
+      <c r="X14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y14" s="2">
-        <v>0</v>
-      </c>
       <c r="Z14" s="2">
         <v>0</v>
       </c>
       <c r="AA14" s="2">
         <v>0</v>
       </c>
-      <c r="AB14" s="2" t="s">
-        <v>92</v>
+      <c r="AB14" s="2">
+        <v>0</v>
       </c>
       <c r="AC14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AD14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE14" s="2" t="s">
+      <c r="AE14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14" s="2">
+      <c r="AG14">
         <v>0</v>
       </c>
       <c r="AH14" s="2">
@@ -5916,27 +6020,27 @@
       <c r="AM14" s="2">
         <v>0</v>
       </c>
-      <c r="AN14" s="2" t="s">
+      <c r="AN14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO14" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AO14" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP14" s="2" t="s">
+      <c r="AP14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AQ14" s="2">
-        <v>0</v>
-      </c>
       <c r="AR14" s="2">
         <v>0</v>
       </c>
-      <c r="AS14" s="2" t="s">
+      <c r="AS14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT14" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT14" s="2">
-        <v>0</v>
-      </c>
       <c r="AU14" s="2">
         <v>0</v>
       </c>
@@ -5949,26 +6053,26 @@
       <c r="AX14" s="2">
         <v>0</v>
       </c>
-      <c r="AY14" s="2" t="s">
+      <c r="AY14" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ14" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="AZ14" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="BA14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="BB14" s="2">
-        <v>2</v>
+      <c r="BB14" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="BC14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BD14" s="2">
-        <v>2</v>
-      </c>
-      <c r="BE14" s="2" t="s">
-        <v>92</v>
+        <v>1</v>
+      </c>
+      <c r="BE14" s="2">
+        <v>2</v>
       </c>
       <c r="BF14" s="2" t="s">
         <v>92</v>
@@ -5979,35 +6083,38 @@
       <c r="BH14" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BI14" s="2">
+      <c r="BI14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ14" s="2">
         <v>4</v>
       </c>
-      <c r="BJ14" s="2">
-        <v>1</v>
-      </c>
       <c r="BK14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL14" s="2">
         <v>0</v>
       </c>
-      <c r="BM14" s="2" t="s">
-        <v>92</v>
+      <c r="BM14" s="2">
+        <v>0</v>
       </c>
       <c r="BN14" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BO14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP14" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BP14" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BQ14" s="2">
+      <c r="BQ14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BR14" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:69" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6059,42 +6166,42 @@
       <c r="Q15" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="R15" s="2">
-        <v>2</v>
-      </c>
-      <c r="S15" s="2" t="s">
+      <c r="R15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S15" s="2">
+        <v>2</v>
+      </c>
+      <c r="T15" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="T15" s="2" t="s">
+      <c r="U15" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="U15" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="V15" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W15" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="W15" s="2">
-        <v>0</v>
-      </c>
-      <c r="X15" s="2" t="s">
+      <c r="X15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="Y15" s="2">
-        <v>0</v>
-      </c>
       <c r="Z15" s="2">
         <v>0</v>
       </c>
       <c r="AA15" s="2">
         <v>0</v>
       </c>
-      <c r="AB15" s="2" t="s">
+      <c r="AB15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="AC15" s="2">
-        <v>0</v>
-      </c>
       <c r="AD15" s="2">
         <v>0</v>
       </c>
@@ -6104,12 +6211,12 @@
       <c r="AF15" s="2">
         <v>0</v>
       </c>
-      <c r="AG15" s="2" t="s">
+      <c r="AG15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH15" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="AH15" s="2">
-        <v>0</v>
-      </c>
       <c r="AI15" s="2">
         <v>0</v>
       </c>
@@ -6140,12 +6247,12 @@
       <c r="AR15" s="2">
         <v>0</v>
       </c>
-      <c r="AS15" s="2" t="s">
+      <c r="AS15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT15" s="2">
-        <v>0</v>
-      </c>
       <c r="AU15" s="2">
         <v>0</v>
       </c>
@@ -6158,26 +6265,26 @@
       <c r="AX15" s="2">
         <v>0</v>
       </c>
-      <c r="AY15" s="2" t="s">
+      <c r="AY15" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AZ15" s="2">
-        <v>2</v>
-      </c>
       <c r="BA15" s="2">
         <v>2</v>
       </c>
       <c r="BB15" s="2">
-        <v>1</v>
-      </c>
-      <c r="BC15" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BC15" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD15" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="BD15" s="2">
-        <v>2</v>
-      </c>
-      <c r="BE15" s="2" t="s">
-        <v>92</v>
+      <c r="BE15" s="2">
+        <v>2</v>
       </c>
       <c r="BF15" s="2" t="s">
         <v>92</v>
@@ -6188,35 +6295,38 @@
       <c r="BH15" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BI15" s="2">
+      <c r="BI15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ15" s="2">
         <v>4</v>
       </c>
-      <c r="BJ15" s="2">
-        <v>1</v>
-      </c>
       <c r="BK15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL15" s="2">
         <v>0</v>
       </c>
-      <c r="BM15" s="2" t="s">
-        <v>92</v>
+      <c r="BM15" s="2">
+        <v>0</v>
       </c>
       <c r="BN15" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BO15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP15" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BP15" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BQ15" s="2">
+      <c r="BQ15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BR15" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:69" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6269,40 +6379,40 @@
         <v>46</v>
       </c>
       <c r="R16" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S16" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="S16" s="2" t="s">
+      <c r="T16" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="T16" s="2" t="s">
+      <c r="U16" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="U16" s="2" t="s">
+      <c r="V16" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="V16" s="2" t="s">
+      <c r="W16" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="W16" s="2">
-        <v>0</v>
-      </c>
-      <c r="X16" s="2" t="s">
+      <c r="X16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y16" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="Y16" s="2">
-        <v>0</v>
-      </c>
       <c r="Z16" s="2">
         <v>0</v>
       </c>
       <c r="AA16" s="2">
         <v>0</v>
       </c>
-      <c r="AB16" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC16" s="2">
-        <v>0</v>
+      <c r="AB16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="AD16" s="2">
         <v>0</v>
@@ -6334,12 +6444,12 @@
       <c r="AM16" s="2">
         <v>0</v>
       </c>
-      <c r="AN16" s="2" t="s">
+      <c r="AN16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO16" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AO16" s="2">
-        <v>0</v>
-      </c>
       <c r="AP16" s="2">
         <v>0</v>
       </c>
@@ -6349,12 +6459,12 @@
       <c r="AR16" s="2">
         <v>0</v>
       </c>
-      <c r="AS16" s="2" t="s">
+      <c r="AS16" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT16" s="2">
-        <v>0</v>
-      </c>
       <c r="AU16" s="2">
         <v>0</v>
       </c>
@@ -6370,23 +6480,23 @@
       <c r="AY16" s="2">
         <v>0</v>
       </c>
-      <c r="AZ16" s="2" t="s">
-        <v>50</v>
+      <c r="AZ16" s="2">
+        <v>0</v>
       </c>
       <c r="BA16" s="2" t="s">
         <v>50</v>
       </c>
       <c r="BB16" s="2" t="s">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BC16" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="BD16" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE16" s="2" t="s">
-        <v>92</v>
+      <c r="BD16" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="BE16" s="2">
+        <v>1</v>
       </c>
       <c r="BF16" s="2" t="s">
         <v>92</v>
@@ -6397,35 +6507,38 @@
       <c r="BH16" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BI16" s="2">
+      <c r="BI16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ16" s="2">
         <v>4</v>
       </c>
-      <c r="BJ16" s="2">
-        <v>1</v>
-      </c>
       <c r="BK16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL16" s="2">
         <v>0</v>
       </c>
-      <c r="BM16" s="2" t="s">
-        <v>92</v>
+      <c r="BM16" s="2">
+        <v>0</v>
       </c>
       <c r="BN16" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BO16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP16" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BP16" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BQ16" s="2">
+      <c r="BQ16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BR16" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:69" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6469,49 +6582,49 @@
         <v>2</v>
       </c>
       <c r="O17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P17" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="P17" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="Q17" s="2" t="s">
         <v>46</v>
       </c>
       <c r="R17" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S17" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="S17" s="2" t="s">
+      <c r="T17" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="T17" s="2" t="s">
+      <c r="U17" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="U17" s="2" t="s">
+      <c r="V17" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="V17" s="2" t="s">
+      <c r="W17" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="W17" s="2">
-        <v>0</v>
-      </c>
-      <c r="X17" s="2" t="s">
+      <c r="X17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="Y17" s="2">
-        <v>0</v>
-      </c>
       <c r="Z17" s="2">
         <v>0</v>
       </c>
       <c r="AA17" s="2">
         <v>0</v>
       </c>
-      <c r="AB17" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC17" s="2">
-        <v>0</v>
+      <c r="AB17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="AD17" s="2">
         <v>0</v>
@@ -6543,12 +6656,12 @@
       <c r="AM17" s="2">
         <v>0</v>
       </c>
-      <c r="AN17" s="2" t="s">
+      <c r="AN17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO17" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="AO17" s="2">
-        <v>0</v>
-      </c>
       <c r="AP17" s="2">
         <v>0</v>
       </c>
@@ -6558,12 +6671,12 @@
       <c r="AR17" s="2">
         <v>0</v>
       </c>
-      <c r="AS17" s="2" t="s">
+      <c r="AS17" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT17" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT17" s="2">
-        <v>0</v>
-      </c>
       <c r="AU17" s="2">
         <v>0</v>
       </c>
@@ -6579,23 +6692,23 @@
       <c r="AY17" s="2">
         <v>0</v>
       </c>
-      <c r="AZ17" s="2" t="s">
-        <v>50</v>
+      <c r="AZ17" s="2">
+        <v>0</v>
       </c>
       <c r="BA17" s="2" t="s">
         <v>50</v>
       </c>
       <c r="BB17" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BC17" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="BC17" s="2" t="s">
+      <c r="BD17" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="BD17" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE17" s="2" t="s">
-        <v>92</v>
+      <c r="BE17" s="2">
+        <v>1</v>
       </c>
       <c r="BF17" s="2" t="s">
         <v>92</v>
@@ -6606,35 +6719,38 @@
       <c r="BH17" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BI17" s="2">
+      <c r="BI17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ17" s="2">
         <v>4</v>
       </c>
-      <c r="BJ17" s="2">
-        <v>1</v>
-      </c>
       <c r="BK17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL17" s="2">
         <v>0</v>
       </c>
-      <c r="BM17" s="2" t="s">
-        <v>92</v>
+      <c r="BM17" s="2">
+        <v>0</v>
       </c>
       <c r="BN17" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BO17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP17" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BP17" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BQ17" s="2">
+      <c r="BQ17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BR17" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:69" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6687,7 +6803,7 @@
         <v>46</v>
       </c>
       <c r="R18" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="S18" s="2" t="s">
         <v>51</v>
@@ -6696,31 +6812,31 @@
         <v>51</v>
       </c>
       <c r="U18" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V18" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="V18" s="2" t="s">
+      <c r="W18" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="W18" s="2">
-        <v>0</v>
-      </c>
-      <c r="X18" s="2" t="s">
+      <c r="X18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="Y18" s="2">
-        <v>0</v>
-      </c>
       <c r="Z18" s="2">
         <v>0</v>
       </c>
       <c r="AA18" s="2">
         <v>0</v>
       </c>
-      <c r="AB18" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC18" s="2">
-        <v>0</v>
+      <c r="AB18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="AD18" s="2">
         <v>0</v>
@@ -6734,12 +6850,12 @@
       <c r="AG18" s="2">
         <v>0</v>
       </c>
-      <c r="AH18" s="2" t="s">
+      <c r="AH18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="AI18" s="2">
-        <v>0</v>
-      </c>
       <c r="AJ18" s="2">
         <v>0</v>
       </c>
@@ -6752,12 +6868,12 @@
       <c r="AM18" s="2">
         <v>0</v>
       </c>
-      <c r="AN18" s="2" t="s">
+      <c r="AN18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AO18" s="2">
-        <v>0</v>
-      </c>
       <c r="AP18" s="2">
         <v>0</v>
       </c>
@@ -6767,12 +6883,12 @@
       <c r="AR18" s="2">
         <v>0</v>
       </c>
-      <c r="AS18" s="2" t="s">
+      <c r="AS18" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT18" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT18" s="2">
-        <v>0</v>
-      </c>
       <c r="AU18" s="2">
         <v>0</v>
       </c>
@@ -6788,23 +6904,23 @@
       <c r="AY18" s="2">
         <v>0</v>
       </c>
-      <c r="AZ18" s="2" t="s">
-        <v>50</v>
+      <c r="AZ18" s="2">
+        <v>0</v>
       </c>
       <c r="BA18" s="2" t="s">
         <v>50</v>
       </c>
       <c r="BB18" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BC18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BC18" s="2" t="s">
+      <c r="BD18" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="BD18" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE18" s="2" t="s">
-        <v>92</v>
+      <c r="BE18" s="2">
+        <v>1</v>
       </c>
       <c r="BF18" s="2" t="s">
         <v>92</v>
@@ -6815,35 +6931,38 @@
       <c r="BH18" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BI18" s="2">
+      <c r="BI18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ18" s="2">
         <v>4</v>
       </c>
-      <c r="BJ18" s="2">
-        <v>1</v>
-      </c>
       <c r="BK18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL18" s="2">
         <v>0</v>
       </c>
-      <c r="BM18" s="2" t="s">
-        <v>92</v>
+      <c r="BM18" s="2">
+        <v>0</v>
       </c>
       <c r="BN18" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BO18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP18" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BP18" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BQ18" s="2">
+      <c r="BQ18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BR18" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:69" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -6896,7 +7015,7 @@
         <v>46</v>
       </c>
       <c r="R19" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="S19" s="2" t="s">
         <v>51</v>
@@ -6905,31 +7024,31 @@
         <v>51</v>
       </c>
       <c r="U19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V19" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="V19" s="2" t="s">
+      <c r="W19" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="W19" s="2">
-        <v>0</v>
-      </c>
-      <c r="X19" s="2" t="s">
+      <c r="X19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="Y19" s="2">
-        <v>0</v>
-      </c>
       <c r="Z19" s="2">
         <v>0</v>
       </c>
       <c r="AA19" s="2">
         <v>0</v>
       </c>
-      <c r="AB19" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC19" s="2">
-        <v>0</v>
+      <c r="AB19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="AD19" s="2">
         <v>0</v>
@@ -6961,12 +7080,12 @@
       <c r="AM19" s="2">
         <v>0</v>
       </c>
-      <c r="AN19" s="2" t="s">
+      <c r="AN19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AO19" s="2">
-        <v>0</v>
-      </c>
       <c r="AP19" s="2">
         <v>0</v>
       </c>
@@ -6976,12 +7095,12 @@
       <c r="AR19" s="2">
         <v>0</v>
       </c>
-      <c r="AS19" s="2" t="s">
+      <c r="AS19" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT19" s="2">
-        <v>0</v>
-      </c>
       <c r="AU19" s="2">
         <v>0</v>
       </c>
@@ -6997,24 +7116,24 @@
       <c r="AY19" s="2">
         <v>0</v>
       </c>
-      <c r="AZ19" s="2" t="s">
-        <v>50</v>
+      <c r="AZ19" s="2">
+        <v>0</v>
       </c>
       <c r="BA19" s="2" t="s">
         <v>50</v>
       </c>
       <c r="BB19" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="BC19" s="2" t="s">
         <v>51</v>
       </c>
       <c r="BD19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BE19" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="BE19" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="BF19" s="2" t="s">
         <v>92</v>
       </c>
@@ -7024,35 +7143,38 @@
       <c r="BH19" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BI19" s="2">
+      <c r="BI19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ19" s="2">
         <v>4</v>
       </c>
-      <c r="BJ19" s="2">
-        <v>1</v>
-      </c>
       <c r="BK19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL19" s="2">
         <v>0</v>
       </c>
-      <c r="BM19" s="2" t="s">
-        <v>92</v>
+      <c r="BM19" s="2">
+        <v>0</v>
       </c>
       <c r="BN19" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BO19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP19" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BP19" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BQ19" s="2">
+      <c r="BQ19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BR19" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:69" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -7105,7 +7227,7 @@
         <v>46</v>
       </c>
       <c r="R20" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="S20" s="2" t="s">
         <v>51</v>
@@ -7114,47 +7236,47 @@
         <v>51</v>
       </c>
       <c r="U20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V20" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="V20" s="2" t="s">
+      <c r="W20" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="W20" s="2">
-        <v>0</v>
-      </c>
-      <c r="X20" s="2" t="s">
+      <c r="X20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y20" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="Y20" s="2">
-        <v>0</v>
-      </c>
       <c r="Z20" s="2">
         <v>0</v>
       </c>
       <c r="AA20" s="2">
         <v>0</v>
       </c>
-      <c r="AB20" s="2" t="s">
-        <v>92</v>
+      <c r="AB20" s="2">
+        <v>0</v>
       </c>
       <c r="AC20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD20" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="AD20" s="2" t="s">
+      <c r="AE20" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="AE20" s="2">
-        <v>0</v>
-      </c>
       <c r="AF20" s="2">
         <v>0</v>
       </c>
-      <c r="AG20" s="2" t="s">
+      <c r="AG20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH20" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="AH20" s="2">
-        <v>0</v>
-      </c>
       <c r="AI20" s="2">
         <v>0</v>
       </c>
@@ -7170,12 +7292,12 @@
       <c r="AM20" s="2">
         <v>0</v>
       </c>
-      <c r="AN20" s="2" t="s">
+      <c r="AN20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AO20" s="2">
-        <v>0</v>
-      </c>
       <c r="AP20" s="2">
         <v>0</v>
       </c>
@@ -7185,12 +7307,12 @@
       <c r="AR20" s="2">
         <v>0</v>
       </c>
-      <c r="AS20" s="2" t="s">
+      <c r="AS20" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT20" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT20" s="2">
-        <v>0</v>
-      </c>
       <c r="AU20" s="2">
         <v>0</v>
       </c>
@@ -7206,23 +7328,23 @@
       <c r="AY20" s="2">
         <v>0</v>
       </c>
-      <c r="AZ20" s="2" t="s">
-        <v>50</v>
+      <c r="AZ20" s="2">
+        <v>0</v>
       </c>
       <c r="BA20" s="2" t="s">
         <v>50</v>
       </c>
       <c r="BB20" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="BC20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BD20" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE20" s="2" t="s">
-        <v>92</v>
+      <c r="BD20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BE20" s="2">
+        <v>1</v>
       </c>
       <c r="BF20" s="2" t="s">
         <v>92</v>
@@ -7233,35 +7355,38 @@
       <c r="BH20" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BI20" s="2">
+      <c r="BI20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ20" s="2">
         <v>4</v>
       </c>
-      <c r="BJ20" s="2">
-        <v>1</v>
-      </c>
       <c r="BK20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL20" s="2">
         <v>0</v>
       </c>
-      <c r="BM20" s="2" t="s">
-        <v>92</v>
+      <c r="BM20" s="2">
+        <v>0</v>
       </c>
       <c r="BN20" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BO20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP20" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BP20" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BQ20" s="2">
+      <c r="BQ20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BR20" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:69" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -7311,54 +7436,54 @@
         <v>46</v>
       </c>
       <c r="Q21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R21" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="R21" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="S21" s="2" t="s">
         <v>43</v>
       </c>
       <c r="T21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="U21" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="V21" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W21" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="W21" s="2">
-        <v>0</v>
-      </c>
-      <c r="X21" s="2" t="s">
+      <c r="X21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y21" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="Y21" s="2">
-        <v>0</v>
-      </c>
       <c r="Z21" s="2">
         <v>0</v>
       </c>
       <c r="AA21" s="2">
         <v>0</v>
       </c>
-      <c r="AB21" s="2" t="s">
-        <v>92</v>
+      <c r="AB21" s="2">
+        <v>0</v>
       </c>
       <c r="AC21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AD21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="2" t="s">
+      <c r="AE21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF21" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="AF21">
-        <v>0</v>
-      </c>
-      <c r="AG21" s="2">
+      <c r="AG21">
         <v>0</v>
       </c>
       <c r="AH21" s="2">
@@ -7379,27 +7504,27 @@
       <c r="AM21" s="2">
         <v>0</v>
       </c>
-      <c r="AN21" s="2" t="s">
+      <c r="AN21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AO21" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP21" s="2" t="s">
+      <c r="AP21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AQ21" s="2">
-        <v>0</v>
-      </c>
       <c r="AR21" s="2">
         <v>0</v>
       </c>
-      <c r="AS21" s="2" t="s">
+      <c r="AS21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT21" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT21" s="2">
-        <v>0</v>
-      </c>
       <c r="AU21" s="2">
         <v>0</v>
       </c>
@@ -7412,27 +7537,27 @@
       <c r="AX21" s="2">
         <v>0</v>
       </c>
-      <c r="AY21" s="2" t="s">
+      <c r="AY21" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ21" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="AZ21" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="BA21" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="BB21" s="2">
-        <v>2</v>
+      <c r="BB21" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="BC21" s="2">
-        <v>1</v>
-      </c>
-      <c r="BD21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD21" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE21" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="BE21" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="BF21" s="2" t="s">
         <v>92</v>
       </c>
@@ -7442,35 +7567,38 @@
       <c r="BH21" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BI21" s="2">
+      <c r="BI21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ21" s="2">
         <v>4</v>
       </c>
-      <c r="BJ21" s="2">
-        <v>1</v>
-      </c>
       <c r="BK21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL21" s="2">
         <v>0</v>
       </c>
-      <c r="BM21" s="2" t="s">
-        <v>92</v>
+      <c r="BM21" s="2">
+        <v>0</v>
       </c>
       <c r="BN21" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BO21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP21" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BP21" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BQ21" s="2">
+      <c r="BQ21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BR21" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:69" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -7520,10 +7648,10 @@
         <v>46</v>
       </c>
       <c r="Q22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R22" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="R22" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="S22" s="2" t="s">
         <v>51</v>
@@ -7532,42 +7660,42 @@
         <v>51</v>
       </c>
       <c r="U22" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="V22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W22" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="W22" s="2">
-        <v>0</v>
-      </c>
-      <c r="X22" s="2" t="s">
+      <c r="X22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="Y22" s="2">
-        <v>0</v>
-      </c>
       <c r="Z22" s="2">
         <v>0</v>
       </c>
       <c r="AA22" s="2">
         <v>0</v>
       </c>
-      <c r="AB22" s="2" t="s">
-        <v>92</v>
+      <c r="AB22" s="2">
+        <v>0</v>
       </c>
       <c r="AC22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AD22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="2" t="s">
+      <c r="AE22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="AF22">
-        <v>0</v>
-      </c>
-      <c r="AG22" s="2">
+      <c r="AG22">
         <v>0</v>
       </c>
       <c r="AH22" s="2">
@@ -7588,27 +7716,27 @@
       <c r="AM22" s="2">
         <v>0</v>
       </c>
-      <c r="AN22" s="2" t="s">
+      <c r="AN22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AO22" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP22" s="2" t="s">
+      <c r="AP22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AQ22" s="2">
-        <v>0</v>
-      </c>
       <c r="AR22" s="2">
         <v>0</v>
       </c>
-      <c r="AS22" s="2" t="s">
+      <c r="AS22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT22" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT22" s="2">
-        <v>0</v>
-      </c>
       <c r="AU22" s="2">
         <v>0</v>
       </c>
@@ -7621,65 +7749,68 @@
       <c r="AX22" s="2">
         <v>0</v>
       </c>
-      <c r="AY22" s="2" t="s">
+      <c r="AY22" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ22" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="AZ22" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="BA22" s="2" t="s">
         <v>50</v>
       </c>
       <c r="BB22" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BC22" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="BC22" s="2">
-        <v>1</v>
-      </c>
-      <c r="BD22" s="2" t="s">
+      <c r="BD22" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE22" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="BE22" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="BF22" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BG22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BH22" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="BH22" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="BI22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ22" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="BJ22" s="2">
-        <v>1</v>
-      </c>
-      <c r="BK22" s="2" t="s">
+      <c r="BK22" s="2">
+        <v>1</v>
+      </c>
+      <c r="BL22" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="BL22" s="2">
-        <v>0</v>
-      </c>
-      <c r="BM22" s="2" t="s">
-        <v>92</v>
+      <c r="BM22" s="2">
+        <v>0</v>
       </c>
       <c r="BN22" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BO22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP22" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BP22" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BQ22" s="2">
+      <c r="BQ22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BR22" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:69" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -7732,28 +7863,28 @@
         <v>46</v>
       </c>
       <c r="R23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S23" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="S23" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="T23" s="2" t="s">
         <v>51</v>
       </c>
       <c r="U23" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="V23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W23" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="W23" s="2">
-        <v>0</v>
-      </c>
       <c r="X23" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y23" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z23" s="2">
         <v>0</v>
@@ -7761,11 +7892,11 @@
       <c r="AA23" s="2">
         <v>0</v>
       </c>
-      <c r="AB23" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC23" s="2">
-        <v>0</v>
+      <c r="AB23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="AD23" s="2">
         <v>0</v>
@@ -7797,12 +7928,12 @@
       <c r="AM23" s="2">
         <v>0</v>
       </c>
-      <c r="AN23" s="2" t="s">
+      <c r="AN23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AO23" s="2">
-        <v>0</v>
-      </c>
       <c r="AP23" s="2">
         <v>0</v>
       </c>
@@ -7812,12 +7943,12 @@
       <c r="AR23" s="2">
         <v>0</v>
       </c>
-      <c r="AS23" s="2" t="s">
+      <c r="AS23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT23" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT23" s="2">
-        <v>0</v>
-      </c>
       <c r="AU23" s="2">
         <v>0</v>
       </c>
@@ -7830,26 +7961,26 @@
       <c r="AX23" s="2">
         <v>0</v>
       </c>
-      <c r="AY23" s="2" t="s">
+      <c r="AY23" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ23" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="AZ23" s="2" t="s">
+      <c r="BA23" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BA23" s="2" t="s">
+      <c r="BB23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="BB23" s="2" t="s">
+      <c r="BC23" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BC23" s="2">
-        <v>1</v>
-      </c>
       <c r="BD23" s="2">
         <v>1</v>
       </c>
-      <c r="BE23" s="2" t="s">
-        <v>92</v>
+      <c r="BE23" s="2">
+        <v>1</v>
       </c>
       <c r="BF23" s="2" t="s">
         <v>92</v>
@@ -7861,34 +7992,37 @@
         <v>92</v>
       </c>
       <c r="BI23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ23" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="BJ23" s="2">
-        <v>1</v>
-      </c>
-      <c r="BK23" s="2" t="s">
+      <c r="BK23" s="2">
+        <v>1</v>
+      </c>
+      <c r="BL23" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="BL23" s="2">
-        <v>0</v>
-      </c>
-      <c r="BM23" s="2" t="s">
-        <v>92</v>
+      <c r="BM23" s="2">
+        <v>0</v>
       </c>
       <c r="BN23" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BO23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP23" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BP23" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BQ23" s="2">
+      <c r="BQ23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BR23" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:69" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -7932,50 +8066,50 @@
         <v>50</v>
       </c>
       <c r="O24" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P24" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="P24" s="2" t="s">
+      <c r="Q24" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="Q24" s="2" t="s">
+      <c r="R24" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="R24" s="2">
-        <v>2</v>
-      </c>
-      <c r="S24" s="2" t="s">
+      <c r="S24" s="2">
+        <v>2</v>
+      </c>
+      <c r="T24" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="T24" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="U24" s="2" t="s">
         <v>51</v>
       </c>
       <c r="V24" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W24" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="W24" s="2">
-        <v>0</v>
-      </c>
-      <c r="X24" s="2" t="s">
+      <c r="X24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y24" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="Y24" s="2">
-        <v>0</v>
-      </c>
       <c r="Z24" s="2">
         <v>0</v>
       </c>
       <c r="AA24" s="2">
         <v>0</v>
       </c>
-      <c r="AB24" s="2" t="s">
+      <c r="AB24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AC24" s="2">
-        <v>0</v>
-      </c>
       <c r="AD24" s="2">
         <v>0</v>
       </c>
@@ -7985,12 +8119,12 @@
       <c r="AF24" s="2">
         <v>0</v>
       </c>
-      <c r="AG24" s="2" t="s">
+      <c r="AG24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH24" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="AH24" s="2">
-        <v>0</v>
-      </c>
       <c r="AI24" s="2">
         <v>0</v>
       </c>
@@ -8021,12 +8155,12 @@
       <c r="AR24" s="2">
         <v>0</v>
       </c>
-      <c r="AS24" s="2" t="s">
+      <c r="AS24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT24" s="2">
-        <v>0</v>
-      </c>
       <c r="AU24" s="2">
         <v>0</v>
       </c>
@@ -8039,65 +8173,68 @@
       <c r="AX24" s="2">
         <v>0</v>
       </c>
-      <c r="AY24" s="2" t="s">
+      <c r="AY24" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ24" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AZ24" s="2">
-        <v>2</v>
-      </c>
       <c r="BA24" s="2">
         <v>2</v>
       </c>
       <c r="BB24" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC24" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD24" s="2">
         <v>2</v>
       </c>
-      <c r="BE24" s="2" t="s">
-        <v>139</v>
+      <c r="BE24" s="2">
+        <v>2</v>
       </c>
       <c r="BF24" s="2" t="s">
         <v>139</v>
       </c>
       <c r="BG24" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="BH24" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="BH24" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BI24" s="2">
+      <c r="BI24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ24" s="2">
         <v>4</v>
       </c>
-      <c r="BJ24" s="2">
-        <v>1</v>
-      </c>
       <c r="BK24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL24" s="2">
         <v>0</v>
       </c>
-      <c r="BM24" s="2" t="s">
-        <v>92</v>
+      <c r="BM24" s="2">
+        <v>0</v>
       </c>
       <c r="BN24" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BO24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP24" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BP24" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BQ24" s="2">
+      <c r="BQ24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BR24" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:69" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -8141,53 +8278,53 @@
         <v>50</v>
       </c>
       <c r="O25" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P25" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="P25" s="2" t="s">
+      <c r="Q25" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="Q25" s="2" t="s">
+      <c r="R25" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="R25" s="2">
-        <v>2</v>
-      </c>
-      <c r="S25" s="2" t="s">
+      <c r="S25" s="2">
+        <v>2</v>
+      </c>
+      <c r="T25" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="T25" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="U25" s="2" t="s">
         <v>51</v>
       </c>
       <c r="V25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W25" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="W25" s="2">
-        <v>0</v>
-      </c>
-      <c r="X25" s="2" t="s">
+      <c r="X25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="Y25" s="2">
-        <v>0</v>
-      </c>
       <c r="Z25" s="2">
         <v>0</v>
       </c>
       <c r="AA25" s="2">
         <v>0</v>
       </c>
-      <c r="AB25" s="2" t="s">
+      <c r="AB25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AC25" s="2" t="s">
+      <c r="AD25" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="AD25" s="2">
-        <v>0</v>
-      </c>
       <c r="AE25" s="2">
         <v>0</v>
       </c>
@@ -8230,12 +8367,12 @@
       <c r="AR25" s="2">
         <v>0</v>
       </c>
-      <c r="AS25" s="2" t="s">
+      <c r="AS25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT25" s="2">
-        <v>0</v>
-      </c>
       <c r="AU25" s="2">
         <v>0</v>
       </c>
@@ -8248,26 +8385,26 @@
       <c r="AX25" s="2">
         <v>0</v>
       </c>
-      <c r="AY25" s="2" t="s">
+      <c r="AY25" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ25" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AZ25" s="2">
-        <v>2</v>
-      </c>
       <c r="BA25" s="2">
         <v>2</v>
       </c>
       <c r="BB25" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC25" s="2">
         <v>1</v>
       </c>
       <c r="BD25" s="2">
-        <v>2</v>
-      </c>
-      <c r="BE25" s="2" t="s">
-        <v>139</v>
+        <v>1</v>
+      </c>
+      <c r="BE25" s="2">
+        <v>2</v>
       </c>
       <c r="BF25" s="2" t="s">
         <v>139</v>
@@ -8276,37 +8413,40 @@
         <v>139</v>
       </c>
       <c r="BH25" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BI25" s="2">
+        <v>139</v>
+      </c>
+      <c r="BI25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ25" s="2">
         <v>4</v>
       </c>
-      <c r="BJ25" s="2">
-        <v>1</v>
-      </c>
       <c r="BK25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL25" s="2">
         <v>0</v>
       </c>
-      <c r="BM25" s="2" t="s">
-        <v>92</v>
+      <c r="BM25" s="2">
+        <v>0</v>
       </c>
       <c r="BN25" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BO25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP25" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BP25" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BQ25" s="2">
+      <c r="BQ25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BR25" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:69" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -8350,52 +8490,52 @@
         <v>50</v>
       </c>
       <c r="O26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P26" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="P26" s="2" t="s">
+      <c r="Q26" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="Q26" s="2" t="s">
+      <c r="R26" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="R26" s="2">
-        <v>2</v>
-      </c>
-      <c r="S26" s="2" t="s">
+      <c r="S26" s="2">
+        <v>2</v>
+      </c>
+      <c r="T26" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="T26" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="U26" s="2" t="s">
         <v>51</v>
       </c>
       <c r="V26" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W26" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="W26" s="2">
-        <v>0</v>
-      </c>
-      <c r="X26" s="2" t="s">
+      <c r="X26" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y26" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="Y26" s="2">
-        <v>0</v>
-      </c>
       <c r="Z26" s="2">
         <v>0</v>
       </c>
       <c r="AA26" s="2">
         <v>0</v>
       </c>
-      <c r="AB26" s="2" t="s">
-        <v>44</v>
+      <c r="AB26" s="2">
+        <v>0</v>
       </c>
       <c r="AC26" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AD26" s="2">
-        <v>0</v>
+      <c r="AD26" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="AE26" s="2">
         <v>0</v>
@@ -8439,12 +8579,12 @@
       <c r="AR26" s="2">
         <v>0</v>
       </c>
-      <c r="AS26" s="2" t="s">
+      <c r="AS26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT26" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT26" s="2">
-        <v>0</v>
-      </c>
       <c r="AU26" s="2">
         <v>0</v>
       </c>
@@ -8457,26 +8597,26 @@
       <c r="AX26" s="2">
         <v>0</v>
       </c>
-      <c r="AY26" s="2" t="s">
+      <c r="AY26" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ26" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AZ26" s="2">
-        <v>2</v>
-      </c>
       <c r="BA26" s="2">
         <v>2</v>
       </c>
-      <c r="BB26" s="2" t="s">
+      <c r="BB26" s="2">
+        <v>2</v>
+      </c>
+      <c r="BC26" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="BC26" s="2" t="s">
+      <c r="BD26" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="BD26" s="2" t="s">
+      <c r="BE26" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="BE26" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="BF26" s="2" t="s">
         <v>139</v>
@@ -8485,37 +8625,40 @@
         <v>139</v>
       </c>
       <c r="BH26" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BI26" s="2">
+        <v>139</v>
+      </c>
+      <c r="BI26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ26" s="2">
         <v>4</v>
       </c>
-      <c r="BJ26" s="2">
-        <v>1</v>
-      </c>
       <c r="BK26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL26" s="2">
         <v>0</v>
       </c>
-      <c r="BM26" s="2" t="s">
-        <v>92</v>
+      <c r="BM26" s="2">
+        <v>0</v>
       </c>
       <c r="BN26" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BO26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP26" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BP26" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BQ26" s="2">
+      <c r="BQ26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BR26" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:69" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
@@ -8565,10 +8708,10 @@
         <v>46</v>
       </c>
       <c r="Q27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R27" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="R27" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="S27" s="2" t="s">
         <v>51</v>
@@ -8577,42 +8720,42 @@
         <v>51</v>
       </c>
       <c r="U27" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="V27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W27" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="W27" s="2">
-        <v>0</v>
-      </c>
-      <c r="X27" s="2" t="s">
+      <c r="X27" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y27" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="Y27" s="2">
-        <v>0</v>
-      </c>
       <c r="Z27" s="2">
         <v>0</v>
       </c>
       <c r="AA27" s="2">
         <v>0</v>
       </c>
-      <c r="AB27" s="2" t="s">
-        <v>92</v>
+      <c r="AB27" s="2">
+        <v>0</v>
       </c>
       <c r="AC27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD27" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AD27" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE27" s="2" t="s">
+      <c r="AE27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF27" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="AF27">
-        <v>0</v>
-      </c>
-      <c r="AG27" s="2">
+      <c r="AG27">
         <v>0</v>
       </c>
       <c r="AH27" s="2">
@@ -8633,27 +8776,27 @@
       <c r="AM27" s="2">
         <v>0</v>
       </c>
-      <c r="AN27" s="2" t="s">
+      <c r="AN27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO27" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AO27" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP27" s="2" t="s">
+      <c r="AP27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ27" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AQ27" s="2">
-        <v>0</v>
-      </c>
       <c r="AR27" s="2">
         <v>0</v>
       </c>
-      <c r="AS27" s="2" t="s">
+      <c r="AS27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT27" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT27" s="2">
-        <v>0</v>
-      </c>
       <c r="AU27" s="2">
         <v>0</v>
       </c>
@@ -8666,65 +8809,68 @@
       <c r="AX27" s="2">
         <v>0</v>
       </c>
-      <c r="AY27" s="2" t="s">
+      <c r="AY27" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ27" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="AZ27" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="BA27" s="2" t="s">
         <v>50</v>
       </c>
       <c r="BB27" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BC27" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="BC27" s="2">
-        <v>1</v>
-      </c>
-      <c r="BD27" s="2" t="s">
+      <c r="BD27" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE27" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="BE27" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="BF27" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BG27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BH27" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="BH27" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="BI27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ27" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="BJ27" s="2">
-        <v>1</v>
-      </c>
-      <c r="BK27" s="2" t="s">
+      <c r="BK27" s="2">
+        <v>1</v>
+      </c>
+      <c r="BL27" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="BL27" s="2">
-        <v>0</v>
-      </c>
-      <c r="BM27" s="2" t="s">
-        <v>92</v>
+      <c r="BM27" s="2">
+        <v>0</v>
       </c>
       <c r="BN27" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BO27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP27" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BP27" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="BQ27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BR27" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:69" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
@@ -8774,10 +8920,10 @@
         <v>46</v>
       </c>
       <c r="Q28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R28" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="R28" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="S28" s="2" t="s">
         <v>51</v>
@@ -8786,42 +8932,42 @@
         <v>51</v>
       </c>
       <c r="U28" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="V28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W28" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="W28" s="2">
-        <v>0</v>
-      </c>
-      <c r="X28" s="2" t="s">
+      <c r="X28" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="Y28" s="2">
-        <v>0</v>
-      </c>
       <c r="Z28" s="2">
         <v>0</v>
       </c>
       <c r="AA28" s="2">
         <v>0</v>
       </c>
-      <c r="AB28" s="2" t="s">
-        <v>92</v>
+      <c r="AB28" s="2">
+        <v>0</v>
       </c>
       <c r="AC28" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD28" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AD28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE28" s="2" t="s">
+      <c r="AE28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF28" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="AF28">
-        <v>0</v>
-      </c>
-      <c r="AG28" s="2">
+      <c r="AG28">
         <v>0</v>
       </c>
       <c r="AH28" s="2">
@@ -8842,27 +8988,27 @@
       <c r="AM28" s="2">
         <v>0</v>
       </c>
-      <c r="AN28" s="2" t="s">
+      <c r="AN28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO28" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AO28" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP28" s="2" t="s">
+      <c r="AP28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ28" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AQ28" s="2">
-        <v>0</v>
-      </c>
       <c r="AR28" s="2">
         <v>0</v>
       </c>
-      <c r="AS28" s="2" t="s">
+      <c r="AS28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT28" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT28" s="2">
-        <v>0</v>
-      </c>
       <c r="AU28" s="2">
         <v>0</v>
       </c>
@@ -8875,65 +9021,68 @@
       <c r="AX28" s="2">
         <v>0</v>
       </c>
-      <c r="AY28" s="2" t="s">
+      <c r="AY28" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ28" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="AZ28" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="BA28" s="2" t="s">
         <v>50</v>
       </c>
       <c r="BB28" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BC28" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="BC28" s="2" t="s">
+      <c r="BD28" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="BD28" s="2" t="s">
+      <c r="BE28" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="BE28" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="BF28" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BG28" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BH28" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="BH28" s="2" t="s">
+      <c r="BI28" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="BI28" s="2" t="s">
+      <c r="BJ28" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="BJ28" s="2">
-        <v>1</v>
-      </c>
-      <c r="BK28" s="2" t="s">
+      <c r="BK28" s="2">
+        <v>1</v>
+      </c>
+      <c r="BL28" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="BL28" s="2">
-        <v>0</v>
-      </c>
-      <c r="BM28" s="2" t="s">
-        <v>92</v>
+      <c r="BM28" s="2">
+        <v>0</v>
       </c>
       <c r="BN28" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BO28" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP28" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BP28" s="2" t="s">
+      <c r="BQ28" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="BQ28" s="2" t="s">
+      <c r="BR28" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="29" spans="1:69" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
@@ -8985,41 +9134,41 @@
       <c r="Q29" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="R29" s="2">
-        <v>2</v>
-      </c>
-      <c r="S29" s="2" t="s">
+      <c r="R29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S29" s="2">
+        <v>2</v>
+      </c>
+      <c r="T29" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="T29" s="2" t="s">
+      <c r="U29" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="U29" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="V29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W29" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="W29" s="2">
-        <v>0</v>
-      </c>
-      <c r="X29" s="2" t="s">
+      <c r="X29" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="Y29" s="2">
-        <v>0</v>
-      </c>
       <c r="Z29" s="2">
         <v>0</v>
       </c>
       <c r="AA29" s="2">
         <v>0</v>
       </c>
-      <c r="AB29" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC29" s="2">
-        <v>0</v>
+      <c r="AB29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="AD29" s="2">
         <v>0</v>
@@ -9030,12 +9179,12 @@
       <c r="AF29" s="2">
         <v>0</v>
       </c>
-      <c r="AG29" s="2" t="s">
+      <c r="AG29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH29" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AH29" s="2">
-        <v>0</v>
-      </c>
       <c r="AI29" s="2">
         <v>0</v>
       </c>
@@ -9066,12 +9215,12 @@
       <c r="AR29" s="2">
         <v>0</v>
       </c>
-      <c r="AS29" s="2" t="s">
+      <c r="AS29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT29" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT29" s="2">
-        <v>0</v>
-      </c>
       <c r="AU29" s="2">
         <v>0</v>
       </c>
@@ -9084,26 +9233,26 @@
       <c r="AX29" s="2">
         <v>0</v>
       </c>
-      <c r="AY29" s="2" t="s">
+      <c r="AY29" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ29" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AZ29" s="2">
-        <v>2</v>
-      </c>
       <c r="BA29" s="2">
         <v>2</v>
       </c>
       <c r="BB29" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC29" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BD29" s="2">
         <v>2</v>
       </c>
-      <c r="BE29" s="2" t="s">
-        <v>92</v>
+      <c r="BE29" s="2">
+        <v>2</v>
       </c>
       <c r="BF29" s="2" t="s">
         <v>92</v>
@@ -9114,35 +9263,38 @@
       <c r="BH29" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BI29" s="2">
+      <c r="BI29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ29" s="2">
         <v>4</v>
       </c>
-      <c r="BJ29" s="2">
-        <v>1</v>
-      </c>
       <c r="BK29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL29" s="2">
         <v>0</v>
       </c>
-      <c r="BM29" s="2" t="s">
-        <v>92</v>
+      <c r="BM29" s="2">
+        <v>0</v>
       </c>
       <c r="BN29" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BO29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP29" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BP29" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BQ29" s="2">
+      <c r="BQ29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BR29" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:69" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
@@ -9194,45 +9346,45 @@
       <c r="Q30" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="R30" s="2">
-        <v>2</v>
-      </c>
-      <c r="S30" s="2" t="s">
+      <c r="R30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S30" s="2">
+        <v>2</v>
+      </c>
+      <c r="T30" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="T30" s="2" t="s">
+      <c r="U30" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="U30" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="V30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W30" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="W30" s="2">
-        <v>0</v>
-      </c>
-      <c r="X30" s="2" t="s">
+      <c r="X30" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y30" s="2">
-        <v>0</v>
-      </c>
       <c r="Z30" s="2">
         <v>0</v>
       </c>
       <c r="AA30" s="2">
         <v>0</v>
       </c>
-      <c r="AB30" s="2" t="s">
-        <v>92</v>
+      <c r="AB30" s="2">
+        <v>0</v>
       </c>
       <c r="AC30" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD30" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AD30" s="2">
-        <v>0</v>
-      </c>
       <c r="AE30" s="2">
         <v>0</v>
       </c>
@@ -9266,21 +9418,21 @@
       <c r="AO30" s="2">
         <v>0</v>
       </c>
-      <c r="AP30" s="2" t="s">
+      <c r="AP30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ30" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="AQ30" s="2">
-        <v>0</v>
-      </c>
       <c r="AR30" s="2">
         <v>0</v>
       </c>
-      <c r="AS30" s="2" t="s">
+      <c r="AS30" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT30" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT30" s="2">
-        <v>0</v>
-      </c>
       <c r="AU30" s="2">
         <v>0</v>
       </c>
@@ -9297,22 +9449,22 @@
         <v>0</v>
       </c>
       <c r="AZ30" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BA30" s="2">
         <v>2</v>
       </c>
-      <c r="BB30" s="2" t="s">
+      <c r="BB30" s="2">
+        <v>2</v>
+      </c>
+      <c r="BC30" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="BC30" s="2">
-        <v>1</v>
-      </c>
       <c r="BD30" s="2">
-        <v>2</v>
-      </c>
-      <c r="BE30" s="2" t="s">
-        <v>92</v>
+        <v>1</v>
+      </c>
+      <c r="BE30" s="2">
+        <v>2</v>
       </c>
       <c r="BF30" s="2" t="s">
         <v>92</v>
@@ -9323,35 +9475,38 @@
       <c r="BH30" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BI30" s="2">
+      <c r="BI30" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ30" s="2">
         <v>4</v>
       </c>
-      <c r="BJ30" s="2">
-        <v>1</v>
-      </c>
       <c r="BK30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL30" s="2">
         <v>0</v>
       </c>
-      <c r="BM30" s="2" t="s">
-        <v>92</v>
+      <c r="BM30" s="2">
+        <v>0</v>
       </c>
       <c r="BN30" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BO30" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP30" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BP30" s="2" t="s">
+      <c r="BQ30" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="BQ30" s="2" t="s">
+      <c r="BR30" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="31" spans="1:69" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
@@ -9395,53 +9550,53 @@
         <v>51</v>
       </c>
       <c r="O31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P31" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="P31" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="Q31" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="R31" s="2">
-        <v>2</v>
-      </c>
-      <c r="S31" s="2" t="s">
+      <c r="R31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S31" s="2">
+        <v>2</v>
+      </c>
+      <c r="T31" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="T31" s="2" t="s">
+      <c r="U31" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="U31" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="V31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W31" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="W31" s="2">
-        <v>0</v>
-      </c>
-      <c r="X31" s="2" t="s">
+      <c r="X31" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y31" s="2">
-        <v>0</v>
-      </c>
       <c r="Z31" s="2">
         <v>0</v>
       </c>
       <c r="AA31" s="2">
         <v>0</v>
       </c>
-      <c r="AB31" s="2" t="s">
-        <v>92</v>
+      <c r="AB31" s="2">
+        <v>0</v>
       </c>
       <c r="AC31" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD31" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AD31" s="2">
-        <v>0</v>
-      </c>
       <c r="AE31" s="2">
         <v>0</v>
       </c>
@@ -9475,21 +9630,21 @@
       <c r="AO31" s="2">
         <v>0</v>
       </c>
-      <c r="AP31" s="2" t="s">
+      <c r="AP31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ31" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="AQ31" s="2">
-        <v>0</v>
-      </c>
       <c r="AR31" s="2">
         <v>0</v>
       </c>
-      <c r="AS31" s="2" t="s">
+      <c r="AS31" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT31" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT31" s="2">
-        <v>0</v>
-      </c>
       <c r="AU31" s="2">
         <v>0</v>
       </c>
@@ -9506,22 +9661,22 @@
         <v>0</v>
       </c>
       <c r="AZ31" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BA31" s="2">
         <v>2</v>
       </c>
-      <c r="BB31" s="2" t="s">
+      <c r="BB31" s="2">
+        <v>2</v>
+      </c>
+      <c r="BC31" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="BC31" s="2">
-        <v>1</v>
-      </c>
       <c r="BD31" s="2">
-        <v>2</v>
-      </c>
-      <c r="BE31" s="2" t="s">
-        <v>92</v>
+        <v>1</v>
+      </c>
+      <c r="BE31" s="2">
+        <v>2</v>
       </c>
       <c r="BF31" s="2" t="s">
         <v>92</v>
@@ -9532,35 +9687,38 @@
       <c r="BH31" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BI31" s="2">
+      <c r="BI31" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ31" s="2">
         <v>4</v>
       </c>
-      <c r="BJ31" s="2">
-        <v>1</v>
-      </c>
       <c r="BK31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL31" s="2">
         <v>0</v>
       </c>
-      <c r="BM31" s="2" t="s">
-        <v>92</v>
+      <c r="BM31" s="2">
+        <v>0</v>
       </c>
       <c r="BN31" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BO31" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP31" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BP31" s="2" t="s">
+      <c r="BQ31" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="BQ31" s="2" t="s">
+      <c r="BR31" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="32" spans="1:69" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
@@ -9613,40 +9771,40 @@
         <v>46</v>
       </c>
       <c r="R32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S32" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="S32" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="T32" s="2" t="s">
         <v>51</v>
       </c>
       <c r="U32" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="V32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W32" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="W32" s="2">
-        <v>0</v>
-      </c>
-      <c r="X32" s="2" t="s">
+      <c r="X32" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y32" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="Y32" s="2">
-        <v>0</v>
-      </c>
       <c r="Z32" s="2">
         <v>0</v>
       </c>
       <c r="AA32" s="2">
         <v>0</v>
       </c>
-      <c r="AB32" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC32" s="2">
-        <v>0</v>
+      <c r="AB32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC32" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="AD32" s="2">
         <v>0</v>
@@ -9678,12 +9836,12 @@
       <c r="AM32" s="2">
         <v>0</v>
       </c>
-      <c r="AN32" s="2" t="s">
+      <c r="AN32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO32" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AO32" s="2">
-        <v>0</v>
-      </c>
       <c r="AP32" s="2">
         <v>0</v>
       </c>
@@ -9693,12 +9851,12 @@
       <c r="AR32" s="2">
         <v>0</v>
       </c>
-      <c r="AS32" s="2" t="s">
+      <c r="AS32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT32" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT32" s="2">
-        <v>0</v>
-      </c>
       <c r="AU32" s="2">
         <v>0</v>
       </c>
@@ -9711,26 +9869,26 @@
       <c r="AX32" s="2">
         <v>0</v>
       </c>
-      <c r="AY32" s="2" t="s">
+      <c r="AY32" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ32" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="AZ32" s="2" t="s">
+      <c r="BA32" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BA32" s="2" t="s">
+      <c r="BB32" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="BB32" s="2" t="s">
+      <c r="BC32" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BC32" s="2" t="s">
+      <c r="BD32" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="BD32" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE32" s="2" t="s">
-        <v>92</v>
+      <c r="BE32" s="2">
+        <v>1</v>
       </c>
       <c r="BF32" s="2" t="s">
         <v>92</v>
@@ -9742,34 +9900,37 @@
         <v>92</v>
       </c>
       <c r="BI32" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ32" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="BJ32" s="2">
-        <v>1</v>
-      </c>
-      <c r="BK32" s="2" t="s">
+      <c r="BK32" s="2">
+        <v>1</v>
+      </c>
+      <c r="BL32" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="BL32" s="2">
-        <v>0</v>
-      </c>
-      <c r="BM32" s="2" t="s">
-        <v>92</v>
+      <c r="BM32" s="2">
+        <v>0</v>
       </c>
       <c r="BN32" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BO32" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP32" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BP32" s="2" t="s">
+      <c r="BQ32" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="BQ32" s="2" t="s">
+      <c r="BR32" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="33" spans="1:69" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
@@ -9819,54 +9980,54 @@
         <v>46</v>
       </c>
       <c r="Q33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R33" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="R33" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="S33" s="2" t="s">
         <v>43</v>
       </c>
       <c r="T33" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U33" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="U33" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="V33" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W33" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="W33" s="2">
-        <v>0</v>
-      </c>
-      <c r="X33" s="2" t="s">
+      <c r="X33" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="Y33" s="2">
-        <v>0</v>
-      </c>
       <c r="Z33" s="2">
         <v>0</v>
       </c>
       <c r="AA33" s="2">
         <v>0</v>
       </c>
-      <c r="AB33" s="2" t="s">
-        <v>92</v>
+      <c r="AB33" s="2">
+        <v>0</v>
       </c>
       <c r="AC33" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD33" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AD33" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE33" s="2" t="s">
+      <c r="AE33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF33" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="AF33">
-        <v>0</v>
-      </c>
-      <c r="AG33" s="2">
+      <c r="AG33">
         <v>0</v>
       </c>
       <c r="AH33" s="2">
@@ -9887,27 +10048,27 @@
       <c r="AM33" s="2">
         <v>0</v>
       </c>
-      <c r="AN33" s="2" t="s">
+      <c r="AN33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO33" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AO33" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP33" s="2" t="s">
+      <c r="AP33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ33" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AQ33" s="2">
-        <v>0</v>
-      </c>
       <c r="AR33" s="2">
         <v>0</v>
       </c>
-      <c r="AS33" s="2" t="s">
+      <c r="AS33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT33" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT33" s="2">
-        <v>0</v>
-      </c>
       <c r="AU33" s="2">
         <v>0</v>
       </c>
@@ -9920,27 +10081,27 @@
       <c r="AX33" s="2">
         <v>0</v>
       </c>
-      <c r="AY33" s="2" t="s">
+      <c r="AY33" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ33" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="AZ33" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="BA33" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="BB33" s="2">
-        <v>2</v>
+      <c r="BB33" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="BC33" s="2">
-        <v>1</v>
-      </c>
-      <c r="BD33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BD33" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE33" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="BE33" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="BF33" s="2" t="s">
         <v>92</v>
       </c>
@@ -9950,35 +10111,38 @@
       <c r="BH33" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BI33" s="2">
+      <c r="BI33" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ33" s="2">
         <v>4</v>
       </c>
-      <c r="BJ33" s="2">
-        <v>1</v>
-      </c>
       <c r="BK33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL33" s="2">
         <v>0</v>
       </c>
-      <c r="BM33" s="2" t="s">
-        <v>92</v>
+      <c r="BM33" s="2">
+        <v>0</v>
       </c>
       <c r="BN33" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BO33" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP33" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BP33" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BQ33" s="2">
+      <c r="BQ33" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BR33" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:69" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>33</v>
       </c>
@@ -10028,10 +10192,10 @@
         <v>46</v>
       </c>
       <c r="Q34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R34" s="2" t="s">
         <v>153</v>
-      </c>
-      <c r="R34" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="S34" s="2" t="s">
         <v>51</v>
@@ -10040,42 +10204,42 @@
         <v>51</v>
       </c>
       <c r="U34" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="V34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W34" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="W34" s="2">
-        <v>0</v>
-      </c>
-      <c r="X34" s="2" t="s">
+      <c r="X34" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="Y34" s="2">
-        <v>0</v>
-      </c>
       <c r="Z34" s="2">
         <v>0</v>
       </c>
       <c r="AA34" s="2">
         <v>0</v>
       </c>
-      <c r="AB34" s="2" t="s">
-        <v>92</v>
+      <c r="AB34" s="2">
+        <v>0</v>
       </c>
       <c r="AC34" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD34" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AD34" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE34" s="2" t="s">
+      <c r="AE34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF34" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="AF34">
-        <v>0</v>
-      </c>
-      <c r="AG34" s="2">
+      <c r="AG34">
         <v>0</v>
       </c>
       <c r="AH34" s="2">
@@ -10096,27 +10260,27 @@
       <c r="AM34" s="2">
         <v>0</v>
       </c>
-      <c r="AN34" s="2" t="s">
+      <c r="AN34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO34" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AO34" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP34" s="2" t="s">
+      <c r="AP34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ34" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AQ34" s="2">
-        <v>0</v>
-      </c>
       <c r="AR34" s="2">
         <v>0</v>
       </c>
-      <c r="AS34" s="2" t="s">
+      <c r="AS34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT34" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT34" s="2">
-        <v>0</v>
-      </c>
       <c r="AU34" s="2">
         <v>0</v>
       </c>
@@ -10129,65 +10293,68 @@
       <c r="AX34" s="2">
         <v>0</v>
       </c>
-      <c r="AY34" s="2" t="s">
+      <c r="AY34" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ34" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="AZ34" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="BA34" s="2" t="s">
         <v>50</v>
       </c>
       <c r="BB34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BC34" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="BC34" s="2">
-        <v>1</v>
-      </c>
-      <c r="BD34" s="2" t="s">
+      <c r="BD34" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE34" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="BE34" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="BF34" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BG34" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BH34" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="BH34" s="2" t="s">
+      <c r="BI34" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="BI34" s="2" t="s">
+      <c r="BJ34" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="BJ34" s="2">
-        <v>1</v>
-      </c>
-      <c r="BK34" s="2" t="s">
+      <c r="BK34" s="2">
+        <v>1</v>
+      </c>
+      <c r="BL34" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="BL34" s="2">
-        <v>0</v>
-      </c>
-      <c r="BM34" s="2" t="s">
-        <v>92</v>
+      <c r="BM34" s="2">
+        <v>0</v>
       </c>
       <c r="BN34" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BO34" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP34" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BP34" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BQ34" s="2">
+      <c r="BQ34" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BR34" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:69" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
@@ -10240,28 +10407,28 @@
         <v>46</v>
       </c>
       <c r="R35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S35" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="S35" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="T35" s="2" t="s">
         <v>51</v>
       </c>
       <c r="U35" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="V35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W35" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="W35" s="2">
-        <v>0</v>
-      </c>
       <c r="X35" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y35" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z35" s="2">
         <v>0</v>
@@ -10269,11 +10436,11 @@
       <c r="AA35" s="2">
         <v>0</v>
       </c>
-      <c r="AB35" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC35" s="2">
-        <v>0</v>
+      <c r="AB35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC35" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="AD35" s="2">
         <v>0</v>
@@ -10305,12 +10472,12 @@
       <c r="AM35" s="2">
         <v>0</v>
       </c>
-      <c r="AN35" s="2" t="s">
+      <c r="AN35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO35" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AO35" s="2">
-        <v>0</v>
-      </c>
       <c r="AP35" s="2">
         <v>0</v>
       </c>
@@ -10320,12 +10487,12 @@
       <c r="AR35" s="2">
         <v>0</v>
       </c>
-      <c r="AS35" s="2" t="s">
+      <c r="AS35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT35" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT35" s="2">
-        <v>0</v>
-      </c>
       <c r="AU35" s="2">
         <v>0</v>
       </c>
@@ -10338,26 +10505,26 @@
       <c r="AX35" s="2">
         <v>0</v>
       </c>
-      <c r="AY35" s="2" t="s">
+      <c r="AY35" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ35" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="AZ35" s="2" t="s">
+      <c r="BA35" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BA35" s="2" t="s">
+      <c r="BB35" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="BB35" s="2" t="s">
+      <c r="BC35" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BC35" s="2">
-        <v>1</v>
-      </c>
       <c r="BD35" s="2">
         <v>1</v>
       </c>
-      <c r="BE35" s="2" t="s">
-        <v>92</v>
+      <c r="BE35" s="2">
+        <v>1</v>
       </c>
       <c r="BF35" s="2" t="s">
         <v>92</v>
@@ -10369,34 +10536,37 @@
         <v>92</v>
       </c>
       <c r="BI35" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ35" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="BJ35" s="2">
-        <v>1</v>
-      </c>
-      <c r="BK35" s="2" t="s">
+      <c r="BK35" s="2">
+        <v>1</v>
+      </c>
+      <c r="BL35" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="BL35" s="2">
-        <v>0</v>
-      </c>
-      <c r="BM35" s="2" t="s">
-        <v>92</v>
+      <c r="BM35" s="2">
+        <v>0</v>
       </c>
       <c r="BN35" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BO35" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP35" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BP35" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BQ35" s="2">
+      <c r="BQ35" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BR35" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:69" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
@@ -10449,7 +10619,7 @@
         <v>46</v>
       </c>
       <c r="R36" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="S36" s="2" t="s">
         <v>51</v>
@@ -10458,31 +10628,31 @@
         <v>51</v>
       </c>
       <c r="U36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V36" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="V36" s="2" t="s">
+      <c r="W36" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="W36" s="2">
-        <v>0</v>
-      </c>
-      <c r="X36" s="2" t="s">
+      <c r="X36" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y36" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="Y36" s="2">
-        <v>0</v>
-      </c>
       <c r="Z36" s="2">
         <v>0</v>
       </c>
       <c r="AA36" s="2">
         <v>0</v>
       </c>
-      <c r="AB36" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC36" s="2">
-        <v>0</v>
+      <c r="AB36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC36" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="AD36" s="2">
         <v>0</v>
@@ -10514,12 +10684,12 @@
       <c r="AM36" s="2">
         <v>0</v>
       </c>
-      <c r="AN36" s="2" t="s">
+      <c r="AN36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO36" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AO36" s="2">
-        <v>0</v>
-      </c>
       <c r="AP36" s="2">
         <v>0</v>
       </c>
@@ -10529,12 +10699,12 @@
       <c r="AR36" s="2">
         <v>0</v>
       </c>
-      <c r="AS36" s="2" t="s">
+      <c r="AS36" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT36" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT36" s="2">
-        <v>0</v>
-      </c>
       <c r="AU36" s="2">
         <v>0</v>
       </c>
@@ -10550,23 +10720,23 @@
       <c r="AY36" s="2">
         <v>0</v>
       </c>
-      <c r="AZ36" s="2" t="s">
-        <v>50</v>
+      <c r="AZ36" s="2">
+        <v>0</v>
       </c>
       <c r="BA36" s="2" t="s">
         <v>50</v>
       </c>
       <c r="BB36" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="BC36" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BD36" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE36" s="2" t="s">
-        <v>92</v>
+      <c r="BD36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BE36" s="2">
+        <v>1</v>
       </c>
       <c r="BF36" s="2" t="s">
         <v>92</v>
@@ -10577,35 +10747,38 @@
       <c r="BH36" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BI36" s="2">
+      <c r="BI36" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ36" s="2">
         <v>4</v>
       </c>
-      <c r="BJ36" s="2">
-        <v>1</v>
-      </c>
       <c r="BK36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL36" s="2">
         <v>0</v>
       </c>
-      <c r="BM36" s="2" t="s">
-        <v>92</v>
+      <c r="BM36" s="2">
+        <v>0</v>
       </c>
       <c r="BN36" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BO36" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP36" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BP36" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BQ36" s="2">
+      <c r="BQ36" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BR36" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:69" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>36</v>
       </c>
@@ -10658,7 +10831,7 @@
         <v>46</v>
       </c>
       <c r="R37" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="S37" s="2" t="s">
         <v>51</v>
@@ -10667,31 +10840,31 @@
         <v>51</v>
       </c>
       <c r="U37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V37" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="V37" s="2" t="s">
+      <c r="W37" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="W37" s="2">
-        <v>0</v>
-      </c>
-      <c r="X37" s="2" t="s">
+      <c r="X37" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y37" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="Y37" s="2">
-        <v>0</v>
-      </c>
       <c r="Z37" s="2">
         <v>0</v>
       </c>
       <c r="AA37" s="2">
         <v>0</v>
       </c>
-      <c r="AB37" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC37" s="2">
-        <v>0</v>
+      <c r="AB37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC37" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="AD37" s="2">
         <v>0</v>
@@ -10720,15 +10893,15 @@
       <c r="AL37" s="2">
         <v>0</v>
       </c>
-      <c r="AM37" s="2" t="s">
+      <c r="AM37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN37" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="AN37" s="2" t="s">
+      <c r="AO37" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AO37" s="2">
-        <v>0</v>
-      </c>
       <c r="AP37" s="2">
         <v>0</v>
       </c>
@@ -10738,12 +10911,12 @@
       <c r="AR37" s="2">
         <v>0</v>
       </c>
-      <c r="AS37" s="2" t="s">
+      <c r="AS37" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT37" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT37" s="2">
-        <v>0</v>
-      </c>
       <c r="AU37" s="2">
         <v>0</v>
       </c>
@@ -10759,24 +10932,24 @@
       <c r="AY37" s="2">
         <v>0</v>
       </c>
-      <c r="AZ37" s="2" t="s">
-        <v>50</v>
+      <c r="AZ37" s="2">
+        <v>0</v>
       </c>
       <c r="BA37" s="2" t="s">
         <v>50</v>
       </c>
       <c r="BB37" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="BC37" s="2" t="s">
         <v>51</v>
       </c>
       <c r="BD37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BE37" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="BE37" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="BF37" s="2" t="s">
         <v>92</v>
       </c>
@@ -10786,35 +10959,38 @@
       <c r="BH37" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BI37" s="2">
+      <c r="BI37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ37" s="2">
         <v>4</v>
       </c>
-      <c r="BJ37" s="2">
-        <v>1</v>
-      </c>
       <c r="BK37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL37" s="2">
         <v>0</v>
       </c>
-      <c r="BM37" s="2" t="s">
-        <v>92</v>
+      <c r="BM37" s="2">
+        <v>0</v>
       </c>
       <c r="BN37" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BO37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP37" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BP37" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BQ37" s="2">
+      <c r="BQ37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BR37" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:69" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
@@ -10864,54 +11040,54 @@
         <v>46</v>
       </c>
       <c r="Q38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R38" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="R38" s="2" t="s">
-        <v>43</v>
       </c>
       <c r="S38" s="2" t="s">
         <v>43</v>
       </c>
       <c r="T38" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U38" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="U38" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="V38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W38" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="W38" s="2">
-        <v>0</v>
-      </c>
-      <c r="X38" s="2" t="s">
+      <c r="X38" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="Y38" s="2">
-        <v>0</v>
-      </c>
       <c r="Z38" s="2">
         <v>0</v>
       </c>
       <c r="AA38" s="2">
         <v>0</v>
       </c>
-      <c r="AB38" s="2" t="s">
-        <v>92</v>
+      <c r="AB38" s="2">
+        <v>0</v>
       </c>
       <c r="AC38" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD38" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AD38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE38" s="2" t="s">
+      <c r="AE38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF38" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="AF38">
-        <v>0</v>
-      </c>
-      <c r="AG38" s="2">
+      <c r="AG38">
         <v>0</v>
       </c>
       <c r="AH38" s="2">
@@ -10932,27 +11108,27 @@
       <c r="AM38" s="2">
         <v>0</v>
       </c>
-      <c r="AN38" s="2" t="s">
+      <c r="AN38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO38" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="AO38" s="2">
-        <v>0</v>
-      </c>
-      <c r="AP38" s="2" t="s">
+      <c r="AP38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ38" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AQ38" s="2">
-        <v>0</v>
-      </c>
       <c r="AR38" s="2">
         <v>0</v>
       </c>
-      <c r="AS38" s="2" t="s">
+      <c r="AS38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT38" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT38" s="2">
-        <v>0</v>
-      </c>
       <c r="AU38" s="2">
         <v>0</v>
       </c>
@@ -10965,65 +11141,68 @@
       <c r="AX38" s="2">
         <v>0</v>
       </c>
-      <c r="AY38" s="2" t="s">
+      <c r="AY38" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ38" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="AZ38" s="2" t="s">
-        <v>50</v>
       </c>
       <c r="BA38" s="2" t="s">
         <v>50</v>
       </c>
       <c r="BB38" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BC38" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="BC38" s="2" t="s">
+      <c r="BD38" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="BD38" s="2" t="s">
+      <c r="BE38" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="BE38" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="BF38" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BG38" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BH38" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="BH38" s="2" t="s">
+      <c r="BI38" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="BI38" s="2">
+      <c r="BJ38" s="2">
         <v>4</v>
       </c>
-      <c r="BJ38" s="2">
-        <v>1</v>
-      </c>
       <c r="BK38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL38" s="2">
         <v>0</v>
       </c>
-      <c r="BM38" s="2" t="s">
-        <v>92</v>
+      <c r="BM38" s="2">
+        <v>0</v>
       </c>
       <c r="BN38" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BO38" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP38" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BP38" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BQ38" s="2">
+      <c r="BQ38" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BR38" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:69" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>38</v>
       </c>
@@ -11076,7 +11255,7 @@
         <v>46</v>
       </c>
       <c r="R39" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="S39" s="2" t="s">
         <v>51</v>
@@ -11085,31 +11264,31 @@
         <v>51</v>
       </c>
       <c r="U39" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V39" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="V39" s="2" t="s">
+      <c r="W39" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="W39" s="2">
-        <v>0</v>
-      </c>
-      <c r="X39" s="2" t="s">
+      <c r="X39" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y39" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="Y39" s="2">
-        <v>0</v>
-      </c>
       <c r="Z39" s="2">
         <v>0</v>
       </c>
       <c r="AA39" s="2">
         <v>0</v>
       </c>
-      <c r="AB39" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC39" s="2">
-        <v>0</v>
+      <c r="AB39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC39" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="AD39" s="2">
         <v>0</v>
@@ -11141,12 +11320,12 @@
       <c r="AM39" s="2">
         <v>0</v>
       </c>
-      <c r="AN39" s="2" t="s">
+      <c r="AN39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO39" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AO39" s="2">
-        <v>0</v>
-      </c>
       <c r="AP39" s="2">
         <v>0</v>
       </c>
@@ -11156,12 +11335,12 @@
       <c r="AR39" s="2">
         <v>0</v>
       </c>
-      <c r="AS39" s="2" t="s">
+      <c r="AS39" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT39" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT39" s="2">
-        <v>0</v>
-      </c>
       <c r="AU39" s="2">
         <v>0</v>
       </c>
@@ -11177,24 +11356,24 @@
       <c r="AY39" s="2">
         <v>0</v>
       </c>
-      <c r="AZ39" s="2" t="s">
-        <v>50</v>
+      <c r="AZ39" s="2">
+        <v>0</v>
       </c>
       <c r="BA39" s="2" t="s">
         <v>50</v>
       </c>
       <c r="BB39" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="BC39" s="2" t="s">
         <v>51</v>
       </c>
       <c r="BD39" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BE39" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="BE39" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="BF39" s="2" t="s">
         <v>92</v>
       </c>
@@ -11204,35 +11383,38 @@
       <c r="BH39" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BI39" s="2">
+      <c r="BI39" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ39" s="2">
         <v>4</v>
       </c>
-      <c r="BJ39" s="2">
-        <v>1</v>
-      </c>
       <c r="BK39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL39" s="2">
         <v>0</v>
       </c>
-      <c r="BM39" s="2" t="s">
-        <v>92</v>
+      <c r="BM39" s="2">
+        <v>0</v>
       </c>
       <c r="BN39" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BO39" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP39" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BP39" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BQ39" s="2">
+      <c r="BQ39" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BR39" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:69" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
@@ -11284,45 +11466,45 @@
       <c r="Q40" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="R40" s="2">
-        <v>2</v>
-      </c>
-      <c r="S40" s="2" t="s">
+      <c r="R40" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S40" s="2">
+        <v>2</v>
+      </c>
+      <c r="T40" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="T40" s="2" t="s">
+      <c r="U40" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="U40" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="V40" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W40" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="W40" s="2">
-        <v>0</v>
-      </c>
-      <c r="X40" s="2" t="s">
+      <c r="X40" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y40" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y40" s="2">
-        <v>0</v>
-      </c>
       <c r="Z40" s="2">
         <v>0</v>
       </c>
       <c r="AA40" s="2">
         <v>0</v>
       </c>
-      <c r="AB40" s="2" t="s">
-        <v>92</v>
+      <c r="AB40" s="2">
+        <v>0</v>
       </c>
       <c r="AC40" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD40" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AD40" s="2">
-        <v>0</v>
-      </c>
       <c r="AE40" s="2">
         <v>0</v>
       </c>
@@ -11356,21 +11538,21 @@
       <c r="AO40" s="2">
         <v>0</v>
       </c>
-      <c r="AP40" s="2" t="s">
+      <c r="AP40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ40" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="AQ40" s="2">
-        <v>0</v>
-      </c>
       <c r="AR40" s="2">
         <v>0</v>
       </c>
-      <c r="AS40" s="2" t="s">
+      <c r="AS40" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT40" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT40" s="2">
-        <v>0</v>
-      </c>
       <c r="AU40" s="2">
         <v>0</v>
       </c>
@@ -11387,22 +11569,22 @@
         <v>0</v>
       </c>
       <c r="AZ40" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BA40" s="2">
         <v>2</v>
       </c>
-      <c r="BB40" s="2" t="s">
+      <c r="BB40" s="2">
+        <v>2</v>
+      </c>
+      <c r="BC40" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="BC40" s="2" t="s">
+      <c r="BD40" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="BD40" s="2">
-        <v>2</v>
-      </c>
-      <c r="BE40" s="2" t="s">
-        <v>92</v>
+      <c r="BE40" s="2">
+        <v>2</v>
       </c>
       <c r="BF40" s="2" t="s">
         <v>92</v>
@@ -11413,35 +11595,38 @@
       <c r="BH40" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BI40" s="2">
+      <c r="BI40" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ40" s="2">
         <v>4</v>
       </c>
-      <c r="BJ40" s="2">
-        <v>1</v>
-      </c>
       <c r="BK40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL40" s="2">
         <v>0</v>
       </c>
-      <c r="BM40" s="2" t="s">
-        <v>92</v>
+      <c r="BM40" s="2">
+        <v>0</v>
       </c>
       <c r="BN40" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BO40" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP40" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BP40" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BQ40" s="2">
+      <c r="BQ40" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BR40" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:69" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>40</v>
       </c>
@@ -11494,40 +11679,40 @@
         <v>46</v>
       </c>
       <c r="R41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S41" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="S41" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="T41" s="2" t="s">
         <v>51</v>
       </c>
       <c r="U41" s="2" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="V41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W41" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="W41" s="2">
-        <v>0</v>
-      </c>
-      <c r="X41" s="2" t="s">
+      <c r="X41" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y41" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="Y41" s="2">
-        <v>0</v>
-      </c>
       <c r="Z41" s="2">
         <v>0</v>
       </c>
       <c r="AA41" s="2">
         <v>0</v>
       </c>
-      <c r="AB41" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC41" s="2">
-        <v>0</v>
+      <c r="AB41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="AD41" s="2">
         <v>0</v>
@@ -11559,12 +11744,12 @@
       <c r="AM41" s="2">
         <v>0</v>
       </c>
-      <c r="AN41" s="2" t="s">
+      <c r="AN41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO41" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AO41" s="2">
-        <v>0</v>
-      </c>
       <c r="AP41" s="2">
         <v>0</v>
       </c>
@@ -11574,12 +11759,12 @@
       <c r="AR41" s="2">
         <v>0</v>
       </c>
-      <c r="AS41" s="2" t="s">
+      <c r="AS41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT41" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT41" s="2">
-        <v>0</v>
-      </c>
       <c r="AU41" s="2">
         <v>0</v>
       </c>
@@ -11592,27 +11777,27 @@
       <c r="AX41" s="2">
         <v>0</v>
       </c>
-      <c r="AY41" s="2" t="s">
+      <c r="AY41" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ41" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="AZ41" s="2" t="s">
+      <c r="BA41" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BA41" s="2" t="s">
+      <c r="BB41" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="BB41" s="2" t="s">
+      <c r="BC41" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BC41" s="2" t="s">
+      <c r="BD41" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="BD41" s="2" t="s">
+      <c r="BE41" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="BE41" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="BF41" s="2" t="s">
         <v>92</v>
       </c>
@@ -11623,34 +11808,37 @@
         <v>92</v>
       </c>
       <c r="BI41" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ41" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BJ41" s="2" t="s">
+      <c r="BK41" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="BK41" s="2" t="s">
+      <c r="BL41" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="BL41" s="2">
-        <v>0</v>
-      </c>
-      <c r="BM41" s="2" t="s">
-        <v>92</v>
+      <c r="BM41" s="2">
+        <v>0</v>
       </c>
       <c r="BN41" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BO41" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP41" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BP41" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BQ41" s="2">
+      <c r="BQ41" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BR41" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:69" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>41</v>
       </c>
@@ -11694,62 +11882,62 @@
         <v>50</v>
       </c>
       <c r="O42" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P42" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="P42" s="2" t="s">
+      <c r="Q42" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="Q42" s="2" t="s">
+      <c r="R42" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="R42" s="2">
-        <v>2</v>
-      </c>
-      <c r="S42" s="2" t="s">
+      <c r="S42" s="2">
+        <v>2</v>
+      </c>
+      <c r="T42" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="T42" s="2" t="s">
-        <v>51</v>
       </c>
       <c r="U42" s="2" t="s">
         <v>51</v>
       </c>
       <c r="V42" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W42" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="W42" s="2">
-        <v>0</v>
-      </c>
-      <c r="X42" s="2" t="s">
+      <c r="X42" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="Y42" s="2">
-        <v>0</v>
-      </c>
       <c r="Z42" s="2">
         <v>0</v>
       </c>
       <c r="AA42" s="2">
         <v>0</v>
       </c>
-      <c r="AB42" s="2" t="s">
-        <v>44</v>
+      <c r="AB42" s="2">
+        <v>0</v>
       </c>
       <c r="AC42" s="2" t="s">
         <v>44</v>
       </c>
       <c r="AD42" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE42" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="AE42" s="2">
-        <v>0</v>
-      </c>
-      <c r="AF42" s="2" t="s">
+      <c r="AF42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG42" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="AG42" s="2">
-        <v>0</v>
-      </c>
       <c r="AH42" s="2">
         <v>0</v>
       </c>
@@ -11783,12 +11971,12 @@
       <c r="AR42" s="2">
         <v>0</v>
       </c>
-      <c r="AS42" s="2" t="s">
+      <c r="AS42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT42" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT42" s="2">
-        <v>0</v>
-      </c>
       <c r="AU42" s="2">
         <v>0</v>
       </c>
@@ -11801,26 +11989,26 @@
       <c r="AX42" s="2">
         <v>0</v>
       </c>
-      <c r="AY42" s="2" t="s">
+      <c r="AY42" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ42" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AZ42" s="2">
-        <v>2</v>
-      </c>
       <c r="BA42" s="2">
         <v>2</v>
       </c>
       <c r="BB42" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC42" s="2">
         <v>1</v>
       </c>
       <c r="BD42" s="2">
-        <v>2</v>
-      </c>
-      <c r="BE42" s="2" t="s">
-        <v>139</v>
+        <v>1</v>
+      </c>
+      <c r="BE42" s="2">
+        <v>2</v>
       </c>
       <c r="BF42" s="2" t="s">
         <v>139</v>
@@ -11829,37 +12017,40 @@
         <v>139</v>
       </c>
       <c r="BH42" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BI42" s="2">
+        <v>139</v>
+      </c>
+      <c r="BI42" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ42" s="2">
         <v>4</v>
       </c>
-      <c r="BJ42" s="2">
-        <v>1</v>
-      </c>
       <c r="BK42" s="2">
-        <v>0</v>
-      </c>
-      <c r="BL42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BL42" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM42" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="BM42" s="2" t="s">
+      <c r="BN42" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="BN42" s="2" t="s">
+      <c r="BO42" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="BO42" s="2" t="s">
+      <c r="BP42" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BP42" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BQ42" s="2">
+      <c r="BQ42" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BR42" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:69" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>42</v>
       </c>
@@ -11911,51 +12102,51 @@
       <c r="Q43" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="R43" s="2">
-        <v>2</v>
-      </c>
-      <c r="S43" s="2" t="s">
+      <c r="R43" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S43" s="2">
+        <v>2</v>
+      </c>
+      <c r="T43" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="T43" s="2" t="s">
+      <c r="U43" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="U43" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="V43" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W43" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="W43" s="2">
-        <v>0</v>
-      </c>
-      <c r="X43" s="2" t="s">
+      <c r="X43" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y43" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="Y43" s="2">
-        <v>0</v>
-      </c>
       <c r="Z43" s="2">
         <v>0</v>
       </c>
       <c r="AA43" s="2">
         <v>0</v>
       </c>
-      <c r="AB43" s="2" t="s">
-        <v>92</v>
+      <c r="AB43" s="2">
+        <v>0</v>
       </c>
       <c r="AC43" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD43" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="AD43" s="2">
-        <v>0</v>
-      </c>
-      <c r="AE43" s="2" t="s">
+      <c r="AE43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF43" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="AF43" s="2">
-        <v>0</v>
-      </c>
       <c r="AG43" s="2">
         <v>0</v>
       </c>
@@ -11974,30 +12165,30 @@
       <c r="AL43" s="2">
         <v>0</v>
       </c>
-      <c r="AM43" s="2" t="s">
+      <c r="AM43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN43" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="AN43" s="2">
-        <v>0</v>
-      </c>
       <c r="AO43" s="2">
         <v>0</v>
       </c>
-      <c r="AP43" s="2" t="s">
+      <c r="AP43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ43" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AQ43" s="2">
-        <v>0</v>
-      </c>
       <c r="AR43" s="2">
         <v>0</v>
       </c>
-      <c r="AS43" s="2" t="s">
+      <c r="AS43" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT43" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT43" s="2">
-        <v>0</v>
-      </c>
       <c r="AU43" s="2">
         <v>0</v>
       </c>
@@ -12014,22 +12205,22 @@
         <v>0</v>
       </c>
       <c r="AZ43" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BA43" s="2">
         <v>2</v>
       </c>
-      <c r="BB43" s="2" t="s">
+      <c r="BB43" s="2">
+        <v>2</v>
+      </c>
+      <c r="BC43" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="BC43" s="2">
-        <v>1</v>
-      </c>
       <c r="BD43" s="2">
-        <v>2</v>
-      </c>
-      <c r="BE43" s="2" t="s">
-        <v>92</v>
+        <v>1</v>
+      </c>
+      <c r="BE43" s="2">
+        <v>2</v>
       </c>
       <c r="BF43" s="2" t="s">
         <v>92</v>
@@ -12040,35 +12231,38 @@
       <c r="BH43" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BI43" s="2">
+      <c r="BI43" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ43" s="2">
         <v>4</v>
       </c>
-      <c r="BJ43" s="2">
-        <v>1</v>
-      </c>
       <c r="BK43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL43" s="2">
         <v>0</v>
       </c>
-      <c r="BM43" s="2" t="s">
-        <v>92</v>
+      <c r="BM43" s="2">
+        <v>0</v>
       </c>
       <c r="BN43" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BO43" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP43" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BP43" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BQ43" s="2">
+      <c r="BQ43" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BR43" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:69" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:70" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>43</v>
       </c>
@@ -12121,7 +12315,7 @@
         <v>46</v>
       </c>
       <c r="R44" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="S44" s="2" t="s">
         <v>51</v>
@@ -12130,31 +12324,31 @@
         <v>51</v>
       </c>
       <c r="U44" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V44" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="V44" s="2" t="s">
+      <c r="W44" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="W44" s="2">
-        <v>0</v>
-      </c>
-      <c r="X44" s="2" t="s">
+      <c r="X44" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y44" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="Y44" s="2">
-        <v>0</v>
-      </c>
       <c r="Z44" s="2">
         <v>0</v>
       </c>
       <c r="AA44" s="2">
         <v>0</v>
       </c>
-      <c r="AB44" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="AC44" s="2">
-        <v>0</v>
+      <c r="AB44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC44" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="AD44" s="2">
         <v>0</v>
@@ -12186,12 +12380,12 @@
       <c r="AM44" s="2">
         <v>0</v>
       </c>
-      <c r="AN44" s="2" t="s">
+      <c r="AN44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO44" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AO44" s="2">
-        <v>0</v>
-      </c>
       <c r="AP44" s="2">
         <v>0</v>
       </c>
@@ -12201,12 +12395,12 @@
       <c r="AR44" s="2">
         <v>0</v>
       </c>
-      <c r="AS44" s="2" t="s">
+      <c r="AS44" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT44" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="AT44" s="2">
-        <v>0</v>
-      </c>
       <c r="AU44" s="2">
         <v>0</v>
       </c>
@@ -12222,24 +12416,24 @@
       <c r="AY44" s="2">
         <v>0</v>
       </c>
-      <c r="AZ44" s="2" t="s">
-        <v>50</v>
+      <c r="AZ44" s="2">
+        <v>0</v>
       </c>
       <c r="BA44" s="2" t="s">
         <v>50</v>
       </c>
       <c r="BB44" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="BC44" s="2" t="s">
         <v>51</v>
       </c>
       <c r="BD44" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BE44" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="BE44" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="BF44" s="2" t="s">
         <v>92</v>
       </c>
@@ -12249,31 +12443,670 @@
       <c r="BH44" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BI44" s="2">
+      <c r="BI44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ44" s="2">
         <v>4</v>
       </c>
-      <c r="BJ44" s="2">
-        <v>1</v>
-      </c>
       <c r="BK44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BL44" s="2">
         <v>0</v>
       </c>
-      <c r="BM44" s="2" t="s">
-        <v>92</v>
+      <c r="BM44" s="2">
+        <v>0</v>
       </c>
       <c r="BN44" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BO44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP44" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BP44" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BQ44" s="2">
+      <c r="BQ44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BR44" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:70" x14ac:dyDescent="0.15">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>252</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D45" s="2">
+        <v>1</v>
+      </c>
+      <c r="E45" s="2">
+        <v>2</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G45" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H45" s="2">
+        <v>3</v>
+      </c>
+      <c r="I45" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J45" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K45" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="L45" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M45" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="N45" s="2">
+        <v>2</v>
+      </c>
+      <c r="O45" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P45" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q45" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R45" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S45" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T45" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U45" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V45" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="W45" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="X45" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="Z45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD45" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE45" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH45" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AI45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ45" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="AR45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT45" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY45" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ45" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BC45" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BD45" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BE45" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="BF45" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BG45" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BH45" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BI45" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ45" s="2">
+        <v>4</v>
+      </c>
+      <c r="BK45" s="2">
+        <v>1</v>
+      </c>
+      <c r="BL45" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM45" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN45" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO45" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP45" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BQ45" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BR45" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:70" x14ac:dyDescent="0.15">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>253</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" s="2">
+        <v>1</v>
+      </c>
+      <c r="E46" s="2">
+        <v>2</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G46" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H46" s="2">
+        <v>3</v>
+      </c>
+      <c r="I46" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="J46" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="K46" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="L46" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M46" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="N46" s="2">
+        <v>2</v>
+      </c>
+      <c r="O46" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="P46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R46" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S46" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T46" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U46" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V46" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="W46" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="X46" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="Z46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD46" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE46" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH46" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="AI46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT46" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY46" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ46" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA46" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB46" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BC46" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BD46" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BE46" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="BF46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BG46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BH46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BI46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ46" s="2">
+        <v>4</v>
+      </c>
+      <c r="BK46" s="2">
+        <v>1</v>
+      </c>
+      <c r="BL46" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM46" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP46" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BQ46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BR46" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:70" x14ac:dyDescent="0.15">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>256</v>
+      </c>
+      <c r="C47" s="2">
+        <v>4</v>
+      </c>
+      <c r="D47" s="2">
+        <v>1</v>
+      </c>
+      <c r="E47" s="2">
+        <v>2</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H47" s="2">
+        <v>3</v>
+      </c>
+      <c r="I47" s="2">
+        <v>2</v>
+      </c>
+      <c r="J47" s="2">
+        <v>2</v>
+      </c>
+      <c r="K47" s="2">
+        <v>2</v>
+      </c>
+      <c r="L47" s="2">
+        <v>2</v>
+      </c>
+      <c r="M47" s="2">
+        <v>2</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O47" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="P47" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q47" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="R47" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="S47" s="2">
+        <v>2</v>
+      </c>
+      <c r="T47" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V47" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W47" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="X47" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="Z47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD47" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="AE47" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT47" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY47" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ47" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="BA47" s="2">
+        <v>2</v>
+      </c>
+      <c r="BB47" s="2">
+        <v>2</v>
+      </c>
+      <c r="BC47" s="2">
+        <v>1</v>
+      </c>
+      <c r="BD47" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE47" s="2">
+        <v>2</v>
+      </c>
+      <c r="BF47" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="BG47" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="BH47" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="BI47" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="BJ47" s="2">
+        <v>4</v>
+      </c>
+      <c r="BK47" s="2">
+        <v>1</v>
+      </c>
+      <c r="BL47" s="2">
+        <v>0</v>
+      </c>
+      <c r="BM47" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN47" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="BO47" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="BP47" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BQ47" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="BR47" s="2">
         <v>0</v>
       </c>
     </row>

--- a/bin/conf/buff.xlsx
+++ b/bin/conf/buff.xlsx
@@ -1382,7 +1382,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//驱散等级 1 表示需要驱散等级大于等于1的 驱散效果才能驱散此buff</t>
+//移动后失效 1:是 2:否</t>
         </r>
       </text>
     </comment>
@@ -1408,7 +1408,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//buff类型 1:表示良性 2:表示恶性  队友只能驱散我的恶性buff 敌人只能驱散我的良性buff 3:中性</t>
+//驱散等级 1 表示需要驱散等级大于等于1的 驱散效果才能驱散此buff</t>
         </r>
       </text>
     </comment>
@@ -1434,7 +1434,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//添加此buff时 是否无视单位魔法免疫 1:是 2:非</t>
+//buff类型 1:表示良性 2:表示恶性  队友只能驱散我的恶性buff 敌人只能驱散我的良性buff 3:中性</t>
         </r>
       </text>
     </comment>
@@ -1460,7 +1460,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//物理伤害吸血 0.1表示 增加攻击造成伤害的10%的HP</t>
+//添加此buff时 是否无视单位魔法免疫 1:是 2:非</t>
         </r>
       </text>
     </comment>
@@ -1486,7 +1486,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//魔法伤害吸血 0.1表示 增加攻击造成伤害的10%的HP</t>
+//物理伤害吸血 0.1表示 增加攻击造成伤害的10%的HP</t>
         </r>
       </text>
     </comment>
@@ -1512,7 +1512,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//总伤害变化率 0.1表示 增加10%的总伤害 -0.1表示减少10%总伤害</t>
+//魔法伤害吸血 0.1表示 增加攻击造成伤害的10%的HP</t>
         </r>
       </text>
     </comment>
@@ -1538,7 +1538,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//造成总伤害变化率 0.1表示 增加10%的总伤害 -0.1表示减少10%总伤害</t>
+//总伤害变化率 0.1表示 增加10%的总伤害 -0.1表示减少10%总伤害</t>
         </r>
       </text>
     </comment>
@@ -1564,7 +1564,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//伤害类型(1:物理伤害 2:魔法伤害 3:纯粹伤害 4:不造成伤害)</t>
+//造成总伤害变化率 0.1表示 增加10%的总伤害 -0.1表示减少10%总伤害</t>
         </r>
       </text>
     </comment>
@@ -1590,7 +1590,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//伤害时间间隔</t>
+//伤害类型(1:物理伤害 2:魔法伤害 3:纯粹伤害 4:不造成伤害)</t>
         </r>
       </text>
     </comment>
@@ -1616,7 +1616,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//伤害值</t>
+//伤害时间间隔</t>
         </r>
       </text>
     </comment>
@@ -1642,7 +1642,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//溅射半径</t>
+//伤害值</t>
         </r>
       </text>
     </comment>
@@ -1668,7 +1668,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//弧度(扇形) π度为圆形</t>
+//溅射半径</t>
         </r>
       </text>
     </comment>
@@ -1694,7 +1694,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//溅射伤害百分比</t>
+//弧度(扇形) π度为圆形</t>
         </r>
       </text>
     </comment>
@@ -1720,7 +1720,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//溅射是否无视魔免 1:是 2:否</t>
+//溅射伤害百分比</t>
         </r>
       </text>
     </comment>
@@ -1746,11 +1746,37 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
+//溅射是否无视魔免 1:是 2:否</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="BR1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 // 特殊情况处理  0表示没有特殊情况 1:血魔的血怒buff死亡后加血</t>
         </r>
       </text>
     </comment>
-    <comment ref="BR1" authorId="0" shapeId="0">
+    <comment ref="BS1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -1781,7 +1807,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="267">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2753,6 +2779,33 @@
   </si>
   <si>
     <t>-0.5,-0.4,-0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕克的沉默</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2,2.5,3,3.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕克相位转移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.75,1.5,2.25,3.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MoveInvalid</t>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3126,11 +3179,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BR47"/>
+  <dimension ref="A1:BS49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE47" sqref="AE47"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BE53" sqref="BE53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3140,13 +3193,13 @@
     <col min="6" max="6" width="9.625" customWidth="1"/>
     <col min="7" max="7" width="11.75" customWidth="1"/>
     <col min="30" max="30" width="17.25" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="12" customWidth="1"/>
-    <col min="66" max="66" width="12.75" customWidth="1"/>
-    <col min="67" max="67" width="17.875" customWidth="1"/>
-    <col min="68" max="68" width="13.5" customWidth="1"/>
+    <col min="66" max="66" width="12" customWidth="1"/>
+    <col min="67" max="67" width="12.75" customWidth="1"/>
+    <col min="68" max="68" width="17.875" customWidth="1"/>
+    <col min="69" max="69" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:70" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:71" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3310,55 +3363,58 @@
         <v>54</v>
       </c>
       <c r="BC1" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="BD1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BE1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BF1" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BG1" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BH1" s="1" t="s">
         <v>140</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BI1" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BJ1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="BJ1" s="1" t="s">
+      <c r="BK1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="BK1" s="1" t="s">
+      <c r="BL1" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="BL1" s="1" t="s">
+      <c r="BM1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="BM1" s="1" t="s">
+      <c r="BN1" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="BN1" s="1" t="s">
+      <c r="BO1" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="BO1" s="1" t="s">
+      <c r="BP1" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="BP1" s="1" t="s">
+      <c r="BQ1" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="BQ1" s="1" t="s">
+      <c r="BR1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="BR1" s="1" t="s">
+      <c r="BS1" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3521,56 +3577,57 @@
       <c r="BB2" s="2">
         <v>2</v>
       </c>
-      <c r="BC2" s="2">
-        <v>1</v>
-      </c>
+      <c r="BC2" s="2"/>
       <c r="BD2" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BE2" s="2">
         <v>2</v>
       </c>
-      <c r="BF2" s="2" t="s">
-        <v>139</v>
+      <c r="BF2" s="2">
+        <v>2</v>
       </c>
       <c r="BG2" s="2" t="s">
         <v>139</v>
       </c>
       <c r="BH2" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="BI2" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="BI2" s="2" t="s">
+      <c r="BJ2" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="BJ2" s="2">
+      <c r="BK2" s="2">
         <v>4</v>
       </c>
-      <c r="BK2" s="2">
-        <v>1</v>
-      </c>
       <c r="BL2" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM2" s="2">
         <v>0</v>
       </c>
-      <c r="BN2" s="2" t="s">
+      <c r="BN2" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO2" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="BO2" s="2" t="s">
+      <c r="BP2" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="BP2" s="2" t="s">
+      <c r="BQ2" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="BQ2" s="2" t="s">
+      <c r="BR2" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="BR2" s="2">
+      <c r="BS2" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3733,17 +3790,15 @@
       <c r="BB3" s="2">
         <v>2</v>
       </c>
-      <c r="BC3" s="2">
-        <v>1</v>
-      </c>
+      <c r="BC3" s="2"/>
       <c r="BD3" s="2">
         <v>1</v>
       </c>
       <c r="BE3" s="2">
-        <v>2</v>
-      </c>
-      <c r="BF3" s="2" t="s">
-        <v>139</v>
+        <v>1</v>
+      </c>
+      <c r="BF3" s="2">
+        <v>2</v>
       </c>
       <c r="BG3" s="2" t="s">
         <v>139</v>
@@ -3754,35 +3809,38 @@
       <c r="BI3" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="BJ3" s="2">
+      <c r="BJ3" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="BK3" s="2">
         <v>4</v>
       </c>
-      <c r="BK3" s="2">
-        <v>1</v>
-      </c>
       <c r="BL3" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM3" s="2">
         <v>0</v>
       </c>
-      <c r="BN3" s="2" t="s">
+      <c r="BN3" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO3" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="BO3" s="2" t="s">
+      <c r="BP3" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="BP3" s="2" t="s">
+      <c r="BQ3" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="BQ3" s="2" t="s">
+      <c r="BR3" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="BR3" s="2">
+      <c r="BS3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3945,17 +4003,15 @@
       <c r="BB4" s="2">
         <v>2</v>
       </c>
-      <c r="BC4" s="2" t="s">
+      <c r="BC4" s="2"/>
+      <c r="BD4" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="BD4" s="2">
-        <v>1</v>
-      </c>
       <c r="BE4" s="2">
-        <v>2</v>
-      </c>
-      <c r="BF4" s="2" t="s">
-        <v>92</v>
+        <v>1</v>
+      </c>
+      <c r="BF4" s="2">
+        <v>2</v>
       </c>
       <c r="BG4" s="2" t="s">
         <v>92</v>
@@ -3966,35 +4022,38 @@
       <c r="BI4" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BJ4" s="2">
+      <c r="BJ4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK4" s="2">
         <v>4</v>
       </c>
-      <c r="BK4" s="2">
-        <v>1</v>
-      </c>
       <c r="BL4" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM4" s="2">
         <v>0</v>
       </c>
-      <c r="BN4" s="2" t="s">
-        <v>92</v>
+      <c r="BN4" s="2">
+        <v>0</v>
       </c>
       <c r="BO4" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BP4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ4" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BQ4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BR4" s="2">
+      <c r="BR4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS4" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -4157,17 +4216,15 @@
       <c r="BB5" s="2">
         <v>1</v>
       </c>
-      <c r="BC5" s="2">
-        <v>2</v>
-      </c>
+      <c r="BC5" s="2"/>
       <c r="BD5" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BE5" s="2">
-        <v>2</v>
-      </c>
-      <c r="BF5" s="2" t="s">
-        <v>92</v>
+        <v>1</v>
+      </c>
+      <c r="BF5" s="2">
+        <v>2</v>
       </c>
       <c r="BG5" s="2" t="s">
         <v>92</v>
@@ -4178,35 +4235,38 @@
       <c r="BI5" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BJ5" s="2">
+      <c r="BJ5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK5" s="2">
         <v>4</v>
       </c>
-      <c r="BK5" s="2">
-        <v>1</v>
-      </c>
       <c r="BL5" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM5" s="2">
         <v>0</v>
       </c>
-      <c r="BN5" s="2" t="s">
-        <v>92</v>
+      <c r="BN5" s="2">
+        <v>0</v>
       </c>
       <c r="BO5" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BP5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ5" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BQ5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BR5" s="2">
+      <c r="BR5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS5" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -4369,17 +4429,15 @@
       <c r="BB6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="BC6" s="2">
-        <v>2</v>
-      </c>
+      <c r="BC6" s="2"/>
       <c r="BD6" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BE6" s="2">
-        <v>2</v>
-      </c>
-      <c r="BF6" s="2" t="s">
-        <v>92</v>
+        <v>1</v>
+      </c>
+      <c r="BF6" s="2">
+        <v>2</v>
       </c>
       <c r="BG6" s="2" t="s">
         <v>92</v>
@@ -4390,35 +4448,38 @@
       <c r="BI6" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BJ6" s="2">
+      <c r="BJ6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK6" s="2">
         <v>4</v>
       </c>
-      <c r="BK6" s="2">
-        <v>1</v>
-      </c>
       <c r="BL6" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM6" s="2">
         <v>0</v>
       </c>
-      <c r="BN6" s="2" t="s">
-        <v>92</v>
+      <c r="BN6" s="2">
+        <v>0</v>
       </c>
       <c r="BO6" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BP6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ6" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BQ6" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BR6" s="2">
+      <c r="BR6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS6" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -4581,17 +4642,15 @@
       <c r="BB7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="BC7" s="2">
-        <v>0</v>
-      </c>
+      <c r="BC7" s="2"/>
       <c r="BD7" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE7" s="2">
         <v>1</v>
       </c>
-      <c r="BF7" s="2" t="s">
-        <v>92</v>
+      <c r="BF7" s="2">
+        <v>1</v>
       </c>
       <c r="BG7" s="2" t="s">
         <v>92</v>
@@ -4602,35 +4661,38 @@
       <c r="BI7" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BJ7" s="2">
+      <c r="BJ7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK7" s="2">
         <v>4</v>
       </c>
-      <c r="BK7" s="2">
-        <v>1</v>
-      </c>
       <c r="BL7" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM7" s="2">
         <v>0</v>
       </c>
-      <c r="BN7" s="2" t="s">
-        <v>92</v>
+      <c r="BN7" s="2">
+        <v>0</v>
       </c>
       <c r="BO7" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BP7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ7" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BQ7" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BR7" s="2">
+      <c r="BR7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS7" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -4793,17 +4855,15 @@
       <c r="BB8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BC8" s="2">
-        <v>0</v>
-      </c>
+      <c r="BC8" s="2"/>
       <c r="BD8" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BE8" s="2">
         <v>1</v>
       </c>
-      <c r="BF8" s="2" t="s">
-        <v>92</v>
+      <c r="BF8" s="2">
+        <v>1</v>
       </c>
       <c r="BG8" s="2" t="s">
         <v>92</v>
@@ -4814,35 +4874,38 @@
       <c r="BI8" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BJ8" s="2">
+      <c r="BJ8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK8" s="2">
         <v>4</v>
       </c>
-      <c r="BK8" s="2">
-        <v>1</v>
-      </c>
       <c r="BL8" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM8" s="2">
         <v>0</v>
       </c>
-      <c r="BN8" s="2" t="s">
-        <v>92</v>
+      <c r="BN8" s="2">
+        <v>0</v>
       </c>
       <c r="BO8" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BP8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ8" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BQ8" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BR8" s="2">
+      <c r="BR8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS8" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -5005,17 +5068,15 @@
       <c r="BB9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="BC9" s="2" t="s">
+      <c r="BC9" s="2"/>
+      <c r="BD9" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BD9" s="2">
-        <v>1</v>
-      </c>
       <c r="BE9" s="2">
         <v>1</v>
       </c>
-      <c r="BF9" s="2" t="s">
-        <v>92</v>
+      <c r="BF9" s="2">
+        <v>1</v>
       </c>
       <c r="BG9" s="2" t="s">
         <v>92</v>
@@ -5027,34 +5088,37 @@
         <v>92</v>
       </c>
       <c r="BJ9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK9" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="BK9" s="2">
-        <v>1</v>
-      </c>
-      <c r="BL9" s="2" t="s">
+      <c r="BL9" s="2">
+        <v>1</v>
+      </c>
+      <c r="BM9" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="BM9" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN9" s="2" t="s">
-        <v>92</v>
+      <c r="BN9" s="2">
+        <v>0</v>
       </c>
       <c r="BO9" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BP9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ9" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BQ9" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BR9" s="2">
+      <c r="BR9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS9" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -5217,17 +5281,15 @@
       <c r="BB10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="BC10" s="2">
-        <v>2</v>
-      </c>
+      <c r="BC10" s="2"/>
       <c r="BD10" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BE10" s="2">
-        <v>2</v>
-      </c>
-      <c r="BF10" s="2" t="s">
-        <v>92</v>
+        <v>1</v>
+      </c>
+      <c r="BF10" s="2">
+        <v>2</v>
       </c>
       <c r="BG10" s="2" t="s">
         <v>92</v>
@@ -5238,35 +5300,38 @@
       <c r="BI10" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BJ10" s="2">
+      <c r="BJ10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK10" s="2">
         <v>4</v>
       </c>
-      <c r="BK10" s="2">
-        <v>1</v>
-      </c>
       <c r="BL10" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM10" s="2">
         <v>0</v>
       </c>
-      <c r="BN10" s="2" t="s">
-        <v>92</v>
+      <c r="BN10" s="2">
+        <v>0</v>
       </c>
       <c r="BO10" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BP10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ10" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BQ10" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BR10" s="2">
+      <c r="BR10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS10" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -5429,17 +5494,15 @@
       <c r="BB11" s="2">
         <v>2</v>
       </c>
-      <c r="BC11" s="2">
-        <v>1</v>
-      </c>
+      <c r="BC11" s="2"/>
       <c r="BD11" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BE11" s="2">
         <v>2</v>
       </c>
-      <c r="BF11" s="2" t="s">
-        <v>92</v>
+      <c r="BF11" s="2">
+        <v>2</v>
       </c>
       <c r="BG11" s="2" t="s">
         <v>92</v>
@@ -5450,35 +5513,38 @@
       <c r="BI11" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BJ11" s="2">
+      <c r="BJ11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK11" s="2">
         <v>4</v>
       </c>
-      <c r="BK11" s="2">
-        <v>1</v>
-      </c>
       <c r="BL11" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM11" s="2">
         <v>0</v>
       </c>
-      <c r="BN11" s="2" t="s">
-        <v>92</v>
+      <c r="BN11" s="2">
+        <v>0</v>
       </c>
       <c r="BO11" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BP11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ11" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BQ11" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BR11" s="2">
+      <c r="BR11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS11" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -5641,17 +5707,15 @@
       <c r="BB12" s="2">
         <v>2</v>
       </c>
-      <c r="BC12" s="2">
-        <v>1</v>
-      </c>
+      <c r="BC12" s="2"/>
       <c r="BD12" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BE12" s="2">
         <v>2</v>
       </c>
-      <c r="BF12" s="2" t="s">
-        <v>92</v>
+      <c r="BF12" s="2">
+        <v>2</v>
       </c>
       <c r="BG12" s="2" t="s">
         <v>92</v>
@@ -5662,35 +5726,38 @@
       <c r="BI12" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BJ12" s="2">
+      <c r="BJ12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK12" s="2">
         <v>4</v>
       </c>
-      <c r="BK12" s="2">
-        <v>1</v>
-      </c>
       <c r="BL12" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM12" s="2">
         <v>0</v>
       </c>
-      <c r="BN12" s="2" t="s">
-        <v>92</v>
+      <c r="BN12" s="2">
+        <v>0</v>
       </c>
       <c r="BO12" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BP12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ12" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BQ12" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BR12" s="2">
+      <c r="BR12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS12" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -5853,17 +5920,15 @@
       <c r="BB13" s="2">
         <v>2</v>
       </c>
-      <c r="BC13" s="2">
-        <v>1</v>
-      </c>
+      <c r="BC13" s="2"/>
       <c r="BD13" s="2">
         <v>1</v>
       </c>
       <c r="BE13" s="2">
-        <v>2</v>
-      </c>
-      <c r="BF13" s="2" t="s">
-        <v>92</v>
+        <v>1</v>
+      </c>
+      <c r="BF13" s="2">
+        <v>2</v>
       </c>
       <c r="BG13" s="2" t="s">
         <v>92</v>
@@ -5874,35 +5939,38 @@
       <c r="BI13" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BJ13" s="2">
+      <c r="BJ13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK13" s="2">
         <v>4</v>
       </c>
-      <c r="BK13" s="2">
-        <v>1</v>
-      </c>
       <c r="BL13" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM13" s="2">
         <v>0</v>
       </c>
-      <c r="BN13" s="2" t="s">
-        <v>92</v>
+      <c r="BN13" s="2">
+        <v>0</v>
       </c>
       <c r="BO13" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BP13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ13" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BQ13" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BR13" s="2">
+      <c r="BR13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS13" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -6065,17 +6133,15 @@
       <c r="BB14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="BC14" s="2">
-        <v>2</v>
-      </c>
+      <c r="BC14" s="2"/>
       <c r="BD14" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BE14" s="2">
-        <v>2</v>
-      </c>
-      <c r="BF14" s="2" t="s">
-        <v>92</v>
+        <v>1</v>
+      </c>
+      <c r="BF14" s="2">
+        <v>2</v>
       </c>
       <c r="BG14" s="2" t="s">
         <v>92</v>
@@ -6086,35 +6152,38 @@
       <c r="BI14" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BJ14" s="2">
+      <c r="BJ14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK14" s="2">
         <v>4</v>
       </c>
-      <c r="BK14" s="2">
-        <v>1</v>
-      </c>
       <c r="BL14" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM14" s="2">
         <v>0</v>
       </c>
-      <c r="BN14" s="2" t="s">
-        <v>92</v>
+      <c r="BN14" s="2">
+        <v>0</v>
       </c>
       <c r="BO14" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BP14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ14" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BQ14" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BR14" s="2">
+      <c r="BR14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS14" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -6277,17 +6346,15 @@
       <c r="BB15" s="2">
         <v>2</v>
       </c>
-      <c r="BC15" s="2">
-        <v>1</v>
-      </c>
-      <c r="BD15" s="2" t="s">
+      <c r="BC15" s="2"/>
+      <c r="BD15" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE15" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="BE15" s="2">
-        <v>2</v>
-      </c>
-      <c r="BF15" s="2" t="s">
-        <v>92</v>
+      <c r="BF15" s="2">
+        <v>2</v>
       </c>
       <c r="BG15" s="2" t="s">
         <v>92</v>
@@ -6298,35 +6365,38 @@
       <c r="BI15" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BJ15" s="2">
+      <c r="BJ15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK15" s="2">
         <v>4</v>
       </c>
-      <c r="BK15" s="2">
-        <v>1</v>
-      </c>
       <c r="BL15" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM15" s="2">
         <v>0</v>
       </c>
-      <c r="BN15" s="2" t="s">
-        <v>92</v>
+      <c r="BN15" s="2">
+        <v>0</v>
       </c>
       <c r="BO15" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BP15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ15" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BQ15" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BR15" s="2">
+      <c r="BR15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS15" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -6489,17 +6559,15 @@
       <c r="BB16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="BC16" s="2" t="s">
-        <v>100</v>
-      </c>
+      <c r="BC16" s="2"/>
       <c r="BD16" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="BE16" s="2">
-        <v>1</v>
-      </c>
-      <c r="BF16" s="2" t="s">
-        <v>92</v>
+      <c r="BE16" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="BF16" s="2">
+        <v>1</v>
       </c>
       <c r="BG16" s="2" t="s">
         <v>92</v>
@@ -6510,35 +6578,38 @@
       <c r="BI16" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BJ16" s="2">
+      <c r="BJ16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK16" s="2">
         <v>4</v>
       </c>
-      <c r="BK16" s="2">
-        <v>1</v>
-      </c>
       <c r="BL16" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM16" s="2">
         <v>0</v>
       </c>
-      <c r="BN16" s="2" t="s">
-        <v>92</v>
+      <c r="BN16" s="2">
+        <v>0</v>
       </c>
       <c r="BO16" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BP16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ16" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BQ16" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BR16" s="2">
+      <c r="BR16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS16" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -6702,16 +6773,16 @@
         <v>50</v>
       </c>
       <c r="BC17" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="BD17" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="BD17" s="2" t="s">
+      <c r="BE17" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="BE17" s="2">
-        <v>1</v>
-      </c>
-      <c r="BF17" s="2" t="s">
-        <v>92</v>
+      <c r="BF17" s="2">
+        <v>1</v>
       </c>
       <c r="BG17" s="2" t="s">
         <v>92</v>
@@ -6722,35 +6793,38 @@
       <c r="BI17" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BJ17" s="2">
+      <c r="BJ17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK17" s="2">
         <v>4</v>
       </c>
-      <c r="BK17" s="2">
-        <v>1</v>
-      </c>
       <c r="BL17" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM17" s="2">
         <v>0</v>
       </c>
-      <c r="BN17" s="2" t="s">
-        <v>92</v>
+      <c r="BN17" s="2">
+        <v>0</v>
       </c>
       <c r="BO17" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BP17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ17" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BQ17" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BR17" s="2">
+      <c r="BR17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS17" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -6914,16 +6988,16 @@
         <v>50</v>
       </c>
       <c r="BC18" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="BD18" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BD18" s="2" t="s">
+      <c r="BE18" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="BE18" s="2">
-        <v>1</v>
-      </c>
-      <c r="BF18" s="2" t="s">
-        <v>92</v>
+      <c r="BF18" s="2">
+        <v>1</v>
       </c>
       <c r="BG18" s="2" t="s">
         <v>92</v>
@@ -6934,35 +7008,38 @@
       <c r="BI18" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BJ18" s="2">
+      <c r="BJ18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK18" s="2">
         <v>4</v>
       </c>
-      <c r="BK18" s="2">
-        <v>1</v>
-      </c>
       <c r="BL18" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM18" s="2">
         <v>0</v>
       </c>
-      <c r="BN18" s="2" t="s">
-        <v>92</v>
+      <c r="BN18" s="2">
+        <v>0</v>
       </c>
       <c r="BO18" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BP18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ18" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BQ18" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BR18" s="2">
+      <c r="BR18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS18" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -7126,17 +7203,17 @@
         <v>50</v>
       </c>
       <c r="BC19" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="BD19" s="2" t="s">
         <v>51</v>
       </c>
       <c r="BE19" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BF19" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="BF19" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="BG19" s="2" t="s">
         <v>92</v>
       </c>
@@ -7146,35 +7223,38 @@
       <c r="BI19" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BJ19" s="2">
+      <c r="BJ19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK19" s="2">
         <v>4</v>
       </c>
-      <c r="BK19" s="2">
-        <v>1</v>
-      </c>
       <c r="BL19" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM19" s="2">
         <v>0</v>
       </c>
-      <c r="BN19" s="2" t="s">
-        <v>92</v>
+      <c r="BN19" s="2">
+        <v>0</v>
       </c>
       <c r="BO19" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BP19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ19" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BQ19" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BR19" s="2">
+      <c r="BR19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS19" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -7338,16 +7418,16 @@
         <v>50</v>
       </c>
       <c r="BC20" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="BD20" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BE20" s="2">
-        <v>1</v>
-      </c>
-      <c r="BF20" s="2" t="s">
-        <v>92</v>
+      <c r="BE20" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BF20" s="2">
+        <v>1</v>
       </c>
       <c r="BG20" s="2" t="s">
         <v>92</v>
@@ -7358,35 +7438,38 @@
       <c r="BI20" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BJ20" s="2">
+      <c r="BJ20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK20" s="2">
         <v>4</v>
       </c>
-      <c r="BK20" s="2">
-        <v>1</v>
-      </c>
       <c r="BL20" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM20" s="2">
         <v>0</v>
       </c>
-      <c r="BN20" s="2" t="s">
-        <v>92</v>
+      <c r="BN20" s="2">
+        <v>0</v>
       </c>
       <c r="BO20" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BP20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ20" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BQ20" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BR20" s="2">
+      <c r="BR20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS20" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -7549,18 +7632,18 @@
       <c r="BB21" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="BC21" s="2">
-        <v>2</v>
+      <c r="BC21" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="BD21" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE21" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE21" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF21" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="BF21" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="BG21" s="2" t="s">
         <v>92</v>
       </c>
@@ -7570,35 +7653,38 @@
       <c r="BI21" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BJ21" s="2">
+      <c r="BJ21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK21" s="2">
         <v>4</v>
       </c>
-      <c r="BK21" s="2">
-        <v>1</v>
-      </c>
       <c r="BL21" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM21" s="2">
         <v>0</v>
       </c>
-      <c r="BN21" s="2" t="s">
-        <v>92</v>
+      <c r="BN21" s="2">
+        <v>0</v>
       </c>
       <c r="BO21" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BP21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ21" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BQ21" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BR21" s="2">
+      <c r="BR21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS21" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -7762,55 +7848,58 @@
         <v>50</v>
       </c>
       <c r="BC22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD22" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="BD22" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE22" s="2" t="s">
+      <c r="BE22" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF22" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="BF22" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="BG22" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BH22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BI22" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="BI22" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="BJ22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK22" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="BK22" s="2">
-        <v>1</v>
-      </c>
-      <c r="BL22" s="2" t="s">
+      <c r="BL22" s="2">
+        <v>1</v>
+      </c>
+      <c r="BM22" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="BM22" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN22" s="2" t="s">
-        <v>92</v>
+      <c r="BN22" s="2">
+        <v>0</v>
       </c>
       <c r="BO22" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BP22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ22" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BQ22" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BR22" s="2">
+      <c r="BR22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS22" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -7974,16 +8063,16 @@
         <v>50</v>
       </c>
       <c r="BC23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD23" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BD23" s="2">
-        <v>1</v>
-      </c>
       <c r="BE23" s="2">
         <v>1</v>
       </c>
-      <c r="BF23" s="2" t="s">
-        <v>92</v>
+      <c r="BF23" s="2">
+        <v>1</v>
       </c>
       <c r="BG23" s="2" t="s">
         <v>92</v>
@@ -7995,34 +8084,37 @@
         <v>92</v>
       </c>
       <c r="BJ23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK23" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="BK23" s="2">
-        <v>1</v>
-      </c>
-      <c r="BL23" s="2" t="s">
+      <c r="BL23" s="2">
+        <v>1</v>
+      </c>
+      <c r="BM23" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="BM23" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN23" s="2" t="s">
-        <v>92</v>
+      <c r="BN23" s="2">
+        <v>0</v>
       </c>
       <c r="BO23" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BP23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ23" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BQ23" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BR23" s="2">
+      <c r="BR23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS23" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -8185,56 +8277,59 @@
       <c r="BB24" s="2">
         <v>2</v>
       </c>
-      <c r="BC24" s="2">
-        <v>1</v>
+      <c r="BC24" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="BD24" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BE24" s="2">
         <v>2</v>
       </c>
-      <c r="BF24" s="2" t="s">
-        <v>139</v>
+      <c r="BF24" s="2">
+        <v>2</v>
       </c>
       <c r="BG24" s="2" t="s">
         <v>139</v>
       </c>
       <c r="BH24" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="BI24" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="BI24" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BJ24" s="2">
+      <c r="BJ24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK24" s="2">
         <v>4</v>
       </c>
-      <c r="BK24" s="2">
-        <v>1</v>
-      </c>
       <c r="BL24" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM24" s="2">
         <v>0</v>
       </c>
-      <c r="BN24" s="2" t="s">
-        <v>92</v>
+      <c r="BN24" s="2">
+        <v>0</v>
       </c>
       <c r="BO24" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BP24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ24" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BQ24" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BR24" s="2">
+      <c r="BR24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS24" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -8397,17 +8492,17 @@
       <c r="BB25" s="2">
         <v>2</v>
       </c>
-      <c r="BC25" s="2">
-        <v>1</v>
+      <c r="BC25" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="BD25" s="2">
         <v>1</v>
       </c>
       <c r="BE25" s="2">
-        <v>2</v>
-      </c>
-      <c r="BF25" s="2" t="s">
-        <v>139</v>
+        <v>1</v>
+      </c>
+      <c r="BF25" s="2">
+        <v>2</v>
       </c>
       <c r="BG25" s="2" t="s">
         <v>139</v>
@@ -8416,37 +8511,40 @@
         <v>139</v>
       </c>
       <c r="BI25" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BJ25" s="2">
+        <v>139</v>
+      </c>
+      <c r="BJ25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK25" s="2">
         <v>4</v>
       </c>
-      <c r="BK25" s="2">
-        <v>1</v>
-      </c>
       <c r="BL25" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM25" s="2">
         <v>0</v>
       </c>
-      <c r="BN25" s="2" t="s">
-        <v>92</v>
+      <c r="BN25" s="2">
+        <v>0</v>
       </c>
       <c r="BO25" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BP25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ25" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BQ25" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BR25" s="2">
+      <c r="BR25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS25" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -8610,16 +8708,16 @@
         <v>2</v>
       </c>
       <c r="BC26" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD26" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="BD26" s="2" t="s">
+      <c r="BE26" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="BE26" s="2" t="s">
+      <c r="BF26" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="BF26" s="2" t="s">
-        <v>139</v>
       </c>
       <c r="BG26" s="2" t="s">
         <v>139</v>
@@ -8628,37 +8726,40 @@
         <v>139</v>
       </c>
       <c r="BI26" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BJ26" s="2">
+        <v>139</v>
+      </c>
+      <c r="BJ26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK26" s="2">
         <v>4</v>
       </c>
-      <c r="BK26" s="2">
-        <v>1</v>
-      </c>
       <c r="BL26" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM26" s="2">
         <v>0</v>
       </c>
-      <c r="BN26" s="2" t="s">
-        <v>92</v>
+      <c r="BN26" s="2">
+        <v>0</v>
       </c>
       <c r="BO26" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BP26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ26" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BQ26" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BR26" s="2">
+      <c r="BR26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS26" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
@@ -8822,55 +8923,58 @@
         <v>50</v>
       </c>
       <c r="BC27" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD27" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="BD27" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE27" s="2" t="s">
+      <c r="BE27" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF27" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="BF27" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="BG27" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BH27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BI27" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="BI27" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="BJ27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK27" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="BK27" s="2">
-        <v>1</v>
-      </c>
-      <c r="BL27" s="2" t="s">
+      <c r="BL27" s="2">
+        <v>1</v>
+      </c>
+      <c r="BM27" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="BM27" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN27" s="2" t="s">
-        <v>92</v>
+      <c r="BN27" s="2">
+        <v>0</v>
       </c>
       <c r="BO27" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BP27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ27" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BQ27" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="BR27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS27" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
@@ -9034,55 +9138,58 @@
         <v>50</v>
       </c>
       <c r="BC28" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD28" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="BD28" s="2" t="s">
+      <c r="BE28" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="BE28" s="2" t="s">
+      <c r="BF28" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="BF28" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="BG28" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BH28" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BI28" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="BI28" s="2" t="s">
+      <c r="BJ28" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="BJ28" s="2" t="s">
+      <c r="BK28" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="BK28" s="2">
-        <v>1</v>
-      </c>
-      <c r="BL28" s="2" t="s">
+      <c r="BL28" s="2">
+        <v>1</v>
+      </c>
+      <c r="BM28" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="BM28" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN28" s="2" t="s">
-        <v>92</v>
+      <c r="BN28" s="2">
+        <v>0</v>
       </c>
       <c r="BO28" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BP28" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ28" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BQ28" s="2" t="s">
+      <c r="BR28" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="BR28" s="2" t="s">
+      <c r="BS28" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="29" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
@@ -9245,17 +9352,17 @@
       <c r="BB29" s="2">
         <v>2</v>
       </c>
-      <c r="BC29" s="2">
-        <v>1</v>
+      <c r="BC29" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="BD29" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BE29" s="2">
         <v>2</v>
       </c>
-      <c r="BF29" s="2" t="s">
-        <v>92</v>
+      <c r="BF29" s="2">
+        <v>2</v>
       </c>
       <c r="BG29" s="2" t="s">
         <v>92</v>
@@ -9266,35 +9373,38 @@
       <c r="BI29" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BJ29" s="2">
+      <c r="BJ29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK29" s="2">
         <v>4</v>
       </c>
-      <c r="BK29" s="2">
-        <v>1</v>
-      </c>
       <c r="BL29" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM29" s="2">
         <v>0</v>
       </c>
-      <c r="BN29" s="2" t="s">
-        <v>92</v>
+      <c r="BN29" s="2">
+        <v>0</v>
       </c>
       <c r="BO29" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BP29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ29" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BQ29" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BR29" s="2">
+      <c r="BR29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS29" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
@@ -9458,16 +9568,16 @@
         <v>2</v>
       </c>
       <c r="BC30" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD30" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="BD30" s="2">
-        <v>1</v>
-      </c>
       <c r="BE30" s="2">
-        <v>2</v>
-      </c>
-      <c r="BF30" s="2" t="s">
-        <v>92</v>
+        <v>1</v>
+      </c>
+      <c r="BF30" s="2">
+        <v>2</v>
       </c>
       <c r="BG30" s="2" t="s">
         <v>92</v>
@@ -9478,35 +9588,38 @@
       <c r="BI30" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BJ30" s="2">
+      <c r="BJ30" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK30" s="2">
         <v>4</v>
       </c>
-      <c r="BK30" s="2">
-        <v>1</v>
-      </c>
       <c r="BL30" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM30" s="2">
         <v>0</v>
       </c>
-      <c r="BN30" s="2" t="s">
-        <v>92</v>
+      <c r="BN30" s="2">
+        <v>0</v>
       </c>
       <c r="BO30" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BP30" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ30" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BQ30" s="2" t="s">
+      <c r="BR30" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="BR30" s="2" t="s">
+      <c r="BS30" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="31" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
@@ -9670,16 +9783,16 @@
         <v>2</v>
       </c>
       <c r="BC31" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD31" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="BD31" s="2">
-        <v>1</v>
-      </c>
       <c r="BE31" s="2">
-        <v>2</v>
-      </c>
-      <c r="BF31" s="2" t="s">
-        <v>92</v>
+        <v>1</v>
+      </c>
+      <c r="BF31" s="2">
+        <v>2</v>
       </c>
       <c r="BG31" s="2" t="s">
         <v>92</v>
@@ -9690,35 +9803,38 @@
       <c r="BI31" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BJ31" s="2">
+      <c r="BJ31" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK31" s="2">
         <v>4</v>
       </c>
-      <c r="BK31" s="2">
-        <v>1</v>
-      </c>
       <c r="BL31" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM31" s="2">
         <v>0</v>
       </c>
-      <c r="BN31" s="2" t="s">
-        <v>92</v>
+      <c r="BN31" s="2">
+        <v>0</v>
       </c>
       <c r="BO31" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BP31" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ31" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BQ31" s="2" t="s">
+      <c r="BR31" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="BR31" s="2" t="s">
+      <c r="BS31" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="32" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
@@ -9882,16 +9998,16 @@
         <v>50</v>
       </c>
       <c r="BC32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD32" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BD32" s="2" t="s">
+      <c r="BE32" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="BE32" s="2">
-        <v>1</v>
-      </c>
-      <c r="BF32" s="2" t="s">
-        <v>92</v>
+      <c r="BF32" s="2">
+        <v>1</v>
       </c>
       <c r="BG32" s="2" t="s">
         <v>92</v>
@@ -9903,34 +10019,37 @@
         <v>92</v>
       </c>
       <c r="BJ32" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK32" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="BK32" s="2">
-        <v>1</v>
-      </c>
-      <c r="BL32" s="2" t="s">
+      <c r="BL32" s="2">
+        <v>1</v>
+      </c>
+      <c r="BM32" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="BM32" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN32" s="2" t="s">
-        <v>92</v>
+      <c r="BN32" s="2">
+        <v>0</v>
       </c>
       <c r="BO32" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BP32" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ32" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BQ32" s="2" t="s">
+      <c r="BR32" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="BR32" s="2" t="s">
+      <c r="BS32" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="33" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
@@ -10093,18 +10212,18 @@
       <c r="BB33" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="BC33" s="2">
-        <v>2</v>
+      <c r="BC33" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="BD33" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="BE33" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF33" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="BF33" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="BG33" s="2" t="s">
         <v>92</v>
       </c>
@@ -10114,35 +10233,38 @@
       <c r="BI33" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BJ33" s="2">
+      <c r="BJ33" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK33" s="2">
         <v>4</v>
       </c>
-      <c r="BK33" s="2">
-        <v>1</v>
-      </c>
       <c r="BL33" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM33" s="2">
         <v>0</v>
       </c>
-      <c r="BN33" s="2" t="s">
-        <v>92</v>
+      <c r="BN33" s="2">
+        <v>0</v>
       </c>
       <c r="BO33" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BP33" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ33" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BQ33" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BR33" s="2">
+      <c r="BR33" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS33" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>33</v>
       </c>
@@ -10306,55 +10428,58 @@
         <v>50</v>
       </c>
       <c r="BC34" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD34" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="BD34" s="2">
-        <v>1</v>
-      </c>
-      <c r="BE34" s="2" t="s">
+      <c r="BE34" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF34" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="BF34" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="BG34" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BH34" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BI34" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="BI34" s="2" t="s">
+      <c r="BJ34" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="BJ34" s="2" t="s">
+      <c r="BK34" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="BK34" s="2">
-        <v>1</v>
-      </c>
-      <c r="BL34" s="2" t="s">
+      <c r="BL34" s="2">
+        <v>1</v>
+      </c>
+      <c r="BM34" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="BM34" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN34" s="2" t="s">
-        <v>92</v>
+      <c r="BN34" s="2">
+        <v>0</v>
       </c>
       <c r="BO34" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BP34" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ34" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BQ34" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BR34" s="2">
+      <c r="BR34" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS34" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
@@ -10518,16 +10643,16 @@
         <v>50</v>
       </c>
       <c r="BC35" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD35" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BD35" s="2">
-        <v>1</v>
-      </c>
       <c r="BE35" s="2">
         <v>1</v>
       </c>
-      <c r="BF35" s="2" t="s">
-        <v>92</v>
+      <c r="BF35" s="2">
+        <v>1</v>
       </c>
       <c r="BG35" s="2" t="s">
         <v>92</v>
@@ -10539,34 +10664,37 @@
         <v>92</v>
       </c>
       <c r="BJ35" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK35" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="BK35" s="2">
-        <v>1</v>
-      </c>
-      <c r="BL35" s="2" t="s">
+      <c r="BL35" s="2">
+        <v>1</v>
+      </c>
+      <c r="BM35" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="BM35" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN35" s="2" t="s">
-        <v>92</v>
+      <c r="BN35" s="2">
+        <v>0</v>
       </c>
       <c r="BO35" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BP35" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ35" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BQ35" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BR35" s="2">
+      <c r="BR35" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS35" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
@@ -10730,16 +10858,16 @@
         <v>50</v>
       </c>
       <c r="BC36" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="BD36" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BE36" s="2">
-        <v>1</v>
-      </c>
-      <c r="BF36" s="2" t="s">
-        <v>92</v>
+      <c r="BE36" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BF36" s="2">
+        <v>1</v>
       </c>
       <c r="BG36" s="2" t="s">
         <v>92</v>
@@ -10750,35 +10878,38 @@
       <c r="BI36" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BJ36" s="2">
+      <c r="BJ36" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK36" s="2">
         <v>4</v>
       </c>
-      <c r="BK36" s="2">
-        <v>1</v>
-      </c>
       <c r="BL36" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM36" s="2">
         <v>0</v>
       </c>
-      <c r="BN36" s="2" t="s">
-        <v>92</v>
+      <c r="BN36" s="2">
+        <v>0</v>
       </c>
       <c r="BO36" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BP36" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ36" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BQ36" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BR36" s="2">
+      <c r="BR36" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS36" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>36</v>
       </c>
@@ -10942,17 +11073,17 @@
         <v>50</v>
       </c>
       <c r="BC37" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="BD37" s="2" t="s">
         <v>51</v>
       </c>
       <c r="BE37" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BF37" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="BF37" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="BG37" s="2" t="s">
         <v>92</v>
       </c>
@@ -10962,35 +11093,38 @@
       <c r="BI37" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BJ37" s="2">
+      <c r="BJ37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK37" s="2">
         <v>4</v>
       </c>
-      <c r="BK37" s="2">
-        <v>1</v>
-      </c>
       <c r="BL37" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM37" s="2">
         <v>0</v>
       </c>
-      <c r="BN37" s="2" t="s">
-        <v>92</v>
+      <c r="BN37" s="2">
+        <v>0</v>
       </c>
       <c r="BO37" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BP37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ37" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BQ37" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BR37" s="2">
+      <c r="BR37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS37" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
@@ -11154,55 +11288,58 @@
         <v>50</v>
       </c>
       <c r="BC38" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD38" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="BD38" s="2" t="s">
+      <c r="BE38" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="BE38" s="2" t="s">
+      <c r="BF38" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="BF38" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="BG38" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BH38" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BI38" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="BI38" s="2" t="s">
+      <c r="BJ38" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="BJ38" s="2">
+      <c r="BK38" s="2">
         <v>4</v>
       </c>
-      <c r="BK38" s="2">
-        <v>1</v>
-      </c>
       <c r="BL38" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM38" s="2">
         <v>0</v>
       </c>
-      <c r="BN38" s="2" t="s">
-        <v>92</v>
+      <c r="BN38" s="2">
+        <v>0</v>
       </c>
       <c r="BO38" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BP38" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ38" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BQ38" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BR38" s="2">
+      <c r="BR38" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS38" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>38</v>
       </c>
@@ -11366,17 +11503,17 @@
         <v>50</v>
       </c>
       <c r="BC39" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="BD39" s="2" t="s">
         <v>51</v>
       </c>
       <c r="BE39" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BF39" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="BF39" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="BG39" s="2" t="s">
         <v>92</v>
       </c>
@@ -11386,35 +11523,38 @@
       <c r="BI39" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BJ39" s="2">
+      <c r="BJ39" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK39" s="2">
         <v>4</v>
       </c>
-      <c r="BK39" s="2">
-        <v>1</v>
-      </c>
       <c r="BL39" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM39" s="2">
         <v>0</v>
       </c>
-      <c r="BN39" s="2" t="s">
-        <v>92</v>
+      <c r="BN39" s="2">
+        <v>0</v>
       </c>
       <c r="BO39" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BP39" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ39" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BQ39" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BR39" s="2">
+      <c r="BR39" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS39" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
@@ -11578,16 +11718,16 @@
         <v>2</v>
       </c>
       <c r="BC40" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD40" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="BD40" s="2" t="s">
+      <c r="BE40" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="BE40" s="2">
-        <v>2</v>
-      </c>
-      <c r="BF40" s="2" t="s">
-        <v>92</v>
+      <c r="BF40" s="2">
+        <v>2</v>
       </c>
       <c r="BG40" s="2" t="s">
         <v>92</v>
@@ -11598,35 +11738,38 @@
       <c r="BI40" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BJ40" s="2">
+      <c r="BJ40" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK40" s="2">
         <v>4</v>
       </c>
-      <c r="BK40" s="2">
-        <v>1</v>
-      </c>
       <c r="BL40" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM40" s="2">
         <v>0</v>
       </c>
-      <c r="BN40" s="2" t="s">
-        <v>92</v>
+      <c r="BN40" s="2">
+        <v>0</v>
       </c>
       <c r="BO40" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BP40" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ40" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BQ40" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BR40" s="2">
+      <c r="BR40" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS40" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>40</v>
       </c>
@@ -11790,17 +11933,17 @@
         <v>50</v>
       </c>
       <c r="BC41" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD41" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="BD41" s="2" t="s">
+      <c r="BE41" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="BE41" s="2" t="s">
+      <c r="BF41" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="BF41" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="BG41" s="2" t="s">
         <v>92</v>
       </c>
@@ -11811,34 +11954,37 @@
         <v>92</v>
       </c>
       <c r="BJ41" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK41" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="BK41" s="2" t="s">
+      <c r="BL41" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="BL41" s="2" t="s">
+      <c r="BM41" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="BM41" s="2">
-        <v>0</v>
-      </c>
-      <c r="BN41" s="2" t="s">
-        <v>92</v>
+      <c r="BN41" s="2">
+        <v>0</v>
       </c>
       <c r="BO41" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BP41" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ41" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BQ41" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BR41" s="2">
+      <c r="BR41" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS41" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>41</v>
       </c>
@@ -12001,17 +12147,17 @@
       <c r="BB42" s="2">
         <v>2</v>
       </c>
-      <c r="BC42" s="2">
-        <v>1</v>
+      <c r="BC42" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="BD42" s="2">
         <v>1</v>
       </c>
       <c r="BE42" s="2">
-        <v>2</v>
-      </c>
-      <c r="BF42" s="2" t="s">
-        <v>139</v>
+        <v>1</v>
+      </c>
+      <c r="BF42" s="2">
+        <v>2</v>
       </c>
       <c r="BG42" s="2" t="s">
         <v>139</v>
@@ -12020,37 +12166,40 @@
         <v>139</v>
       </c>
       <c r="BI42" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BJ42" s="2">
+        <v>139</v>
+      </c>
+      <c r="BJ42" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK42" s="2">
         <v>4</v>
       </c>
-      <c r="BK42" s="2">
-        <v>1</v>
-      </c>
       <c r="BL42" s="2">
-        <v>0</v>
-      </c>
-      <c r="BM42" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="BM42" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN42" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="BN42" s="2" t="s">
+      <c r="BO42" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="BO42" s="2" t="s">
+      <c r="BP42" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="BP42" s="2" t="s">
+      <c r="BQ42" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BQ42" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BR42" s="2">
+      <c r="BR42" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS42" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>42</v>
       </c>
@@ -12214,16 +12363,16 @@
         <v>2</v>
       </c>
       <c r="BC43" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD43" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="BD43" s="2">
-        <v>1</v>
-      </c>
       <c r="BE43" s="2">
-        <v>2</v>
-      </c>
-      <c r="BF43" s="2" t="s">
-        <v>92</v>
+        <v>1</v>
+      </c>
+      <c r="BF43" s="2">
+        <v>2</v>
       </c>
       <c r="BG43" s="2" t="s">
         <v>92</v>
@@ -12234,35 +12383,38 @@
       <c r="BI43" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BJ43" s="2">
+      <c r="BJ43" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK43" s="2">
         <v>4</v>
       </c>
-      <c r="BK43" s="2">
-        <v>1</v>
-      </c>
       <c r="BL43" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM43" s="2">
         <v>0</v>
       </c>
-      <c r="BN43" s="2" t="s">
-        <v>92</v>
+      <c r="BN43" s="2">
+        <v>0</v>
       </c>
       <c r="BO43" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BP43" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ43" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BQ43" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BR43" s="2">
+      <c r="BR43" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS43" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>43</v>
       </c>
@@ -12426,17 +12578,17 @@
         <v>50</v>
       </c>
       <c r="BC44" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="BD44" s="2" t="s">
         <v>51</v>
       </c>
       <c r="BE44" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BF44" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="BF44" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="BG44" s="2" t="s">
         <v>92</v>
       </c>
@@ -12446,35 +12598,38 @@
       <c r="BI44" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BJ44" s="2">
+      <c r="BJ44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK44" s="2">
         <v>4</v>
       </c>
-      <c r="BK44" s="2">
-        <v>1</v>
-      </c>
       <c r="BL44" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM44" s="2">
         <v>0</v>
       </c>
-      <c r="BN44" s="2" t="s">
-        <v>92</v>
+      <c r="BN44" s="2">
+        <v>0</v>
       </c>
       <c r="BO44" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BP44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ44" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BQ44" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BR44" s="2">
+      <c r="BR44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS44" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>44</v>
       </c>
@@ -12638,17 +12793,17 @@
         <v>50</v>
       </c>
       <c r="BC45" s="2" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="BD45" s="2" t="s">
         <v>96</v>
       </c>
       <c r="BE45" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BF45" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="BF45" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="BG45" s="2" t="s">
         <v>92</v>
       </c>
@@ -12658,35 +12813,38 @@
       <c r="BI45" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BJ45" s="2">
+      <c r="BJ45" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK45" s="2">
         <v>4</v>
       </c>
-      <c r="BK45" s="2">
-        <v>1</v>
-      </c>
       <c r="BL45" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM45" s="2">
         <v>0</v>
       </c>
-      <c r="BN45" s="2" t="s">
-        <v>92</v>
+      <c r="BN45" s="2">
+        <v>0</v>
       </c>
       <c r="BO45" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BP45" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ45" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BQ45" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BR45" s="2">
+      <c r="BR45" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS45" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>45</v>
       </c>
@@ -12850,17 +13008,17 @@
         <v>50</v>
       </c>
       <c r="BC46" s="2" t="s">
-        <v>96</v>
+        <v>46</v>
       </c>
       <c r="BD46" s="2" t="s">
         <v>96</v>
       </c>
       <c r="BE46" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BF46" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="BF46" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="BG46" s="2" t="s">
         <v>92</v>
       </c>
@@ -12870,35 +13028,38 @@
       <c r="BI46" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="BJ46" s="2">
+      <c r="BJ46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK46" s="2">
         <v>4</v>
       </c>
-      <c r="BK46" s="2">
-        <v>1</v>
-      </c>
       <c r="BL46" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM46" s="2">
         <v>0</v>
       </c>
-      <c r="BN46" s="2" t="s">
-        <v>92</v>
+      <c r="BN46" s="2">
+        <v>0</v>
       </c>
       <c r="BO46" s="2" t="s">
         <v>92</v>
       </c>
       <c r="BP46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ46" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="BQ46" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="BR46" s="2">
+      <c r="BR46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS46" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:70" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:71" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>46</v>
       </c>
@@ -13061,17 +13222,17 @@
       <c r="BB47" s="2">
         <v>2</v>
       </c>
-      <c r="BC47" s="2">
-        <v>1</v>
+      <c r="BC47" s="2" t="s">
+        <v>46</v>
       </c>
       <c r="BD47" s="2">
         <v>1</v>
       </c>
       <c r="BE47" s="2">
-        <v>2</v>
-      </c>
-      <c r="BF47" s="2" t="s">
-        <v>139</v>
+        <v>1</v>
+      </c>
+      <c r="BF47" s="2">
+        <v>2</v>
       </c>
       <c r="BG47" s="2" t="s">
         <v>139</v>
@@ -13082,31 +13243,464 @@
       <c r="BI47" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="BJ47" s="2">
+      <c r="BJ47" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="BK47" s="2">
         <v>4</v>
       </c>
-      <c r="BK47" s="2">
-        <v>1</v>
-      </c>
       <c r="BL47" s="2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BM47" s="2">
         <v>0</v>
       </c>
-      <c r="BN47" s="2" t="s">
+      <c r="BN47" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO47" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="BO47" s="2" t="s">
+      <c r="BP47" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="BP47" s="2" t="s">
+      <c r="BQ47" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="BQ47" s="2" t="s">
+      <c r="BR47" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="BR47" s="2">
+      <c r="BS47" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:71" x14ac:dyDescent="0.15">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>260</v>
+      </c>
+      <c r="C48" s="2">
+        <v>4</v>
+      </c>
+      <c r="D48" s="2">
+        <v>1</v>
+      </c>
+      <c r="E48" s="2">
+        <v>2</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H48" s="2">
+        <v>3</v>
+      </c>
+      <c r="I48" s="2">
+        <v>2</v>
+      </c>
+      <c r="J48" s="2">
+        <v>2</v>
+      </c>
+      <c r="K48" s="2">
+        <v>2</v>
+      </c>
+      <c r="L48" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="M48" s="2">
+        <v>2</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O48" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P48" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q48" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R48" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S48" s="2">
+        <v>2</v>
+      </c>
+      <c r="T48" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U48" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V48" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W48" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="X48" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y48" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="Z48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC48" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH48" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AI48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT48" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY48" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ48" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="BA48" s="2">
+        <v>2</v>
+      </c>
+      <c r="BB48" s="2">
+        <v>2</v>
+      </c>
+      <c r="BC48" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD48" s="2">
+        <v>1</v>
+      </c>
+      <c r="BE48" s="2">
+        <v>2</v>
+      </c>
+      <c r="BF48" s="2">
+        <v>2</v>
+      </c>
+      <c r="BG48" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BH48" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BI48" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ48" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK48" s="2">
+        <v>4</v>
+      </c>
+      <c r="BL48" s="2">
+        <v>1</v>
+      </c>
+      <c r="BM48" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN48" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO48" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP48" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ48" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BR48" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS48" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:71" x14ac:dyDescent="0.15">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>262</v>
+      </c>
+      <c r="C49" s="2">
+        <v>4</v>
+      </c>
+      <c r="D49" s="2">
+        <v>1</v>
+      </c>
+      <c r="E49" s="2">
+        <v>2</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H49" s="2">
+        <v>3</v>
+      </c>
+      <c r="I49" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="J49" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="K49" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L49" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="M49" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O49" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P49" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q49" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R49" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="S49" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="T49" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="U49" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V49" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W49" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="X49" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y49" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="Z49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC49" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD49" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF49" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="AG49">
+        <v>0</v>
+      </c>
+      <c r="AH49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO49" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AP49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ49" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT49" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY49" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ49" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="BA49" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BB49" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BC49" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="BD49" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE49" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BF49" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="BG49" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BH49" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BI49" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="BJ49" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="BK49" s="2">
+        <v>4</v>
+      </c>
+      <c r="BL49" s="2">
+        <v>1</v>
+      </c>
+      <c r="BM49" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN49" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO49" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP49" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ49" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BR49" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS49" s="2">
         <v>0</v>
       </c>
     </row>

--- a/bin/conf/buff.xlsx
+++ b/bin/conf/buff.xlsx
@@ -1772,7 +1772,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-// 特殊情况处理  0表示没有特殊情况 1:血魔的血怒buff死亡后加血</t>
+// 特殊情况处理  0表示没有特殊情况 1:血魔的血怒buff死亡后加血 2:血魔焦渴 3:血魔大招 4:帕克大招</t>
         </r>
       </text>
     </comment>
@@ -1807,7 +1807,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1626" uniqueCount="267">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="273">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2806,6 +2806,30 @@
   </si>
   <si>
     <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕克大招眩晕1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕克大招眩晕2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.8,2.4,3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帕克大招梦境</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2:300:6:50,2:400:6:50,2:500:6:50</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3179,11 +3203,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BS49"/>
+  <dimension ref="A1:BS52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BE53" sqref="BE53"/>
+    <sheetView tabSelected="1" topLeftCell="AW1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BS52" sqref="BS52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -13704,6 +13728,651 @@
         <v>0</v>
       </c>
     </row>
+    <row r="50" spans="1:71" x14ac:dyDescent="0.15">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>267</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D50" s="2">
+        <v>1</v>
+      </c>
+      <c r="E50" s="2">
+        <v>2</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H50" s="2">
+        <v>3</v>
+      </c>
+      <c r="I50" s="2">
+        <v>1</v>
+      </c>
+      <c r="J50" s="2">
+        <v>1</v>
+      </c>
+      <c r="K50" s="2">
+        <v>1</v>
+      </c>
+      <c r="L50" s="2">
+        <v>1</v>
+      </c>
+      <c r="M50" s="2">
+        <v>1</v>
+      </c>
+      <c r="N50" s="2">
+        <v>2</v>
+      </c>
+      <c r="O50" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P50" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q50" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R50" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S50" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T50" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U50" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V50" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="W50" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="X50" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO50" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT50" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY50" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ50" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA50" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB50" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BC50" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD50" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BE50" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BF50" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG50" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BH50" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BI50" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ50" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK50" s="2">
+        <v>4</v>
+      </c>
+      <c r="BL50" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BM50" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN50" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO50" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP50" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ50" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BR50" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="BS50" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="51" spans="1:71" x14ac:dyDescent="0.15">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>268</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D51" s="2">
+        <v>1</v>
+      </c>
+      <c r="E51" s="2">
+        <v>2</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H51" s="2">
+        <v>3</v>
+      </c>
+      <c r="I51" s="2">
+        <v>1</v>
+      </c>
+      <c r="J51" s="2">
+        <v>1</v>
+      </c>
+      <c r="K51" s="2">
+        <v>1</v>
+      </c>
+      <c r="L51" s="2">
+        <v>1</v>
+      </c>
+      <c r="M51" s="2">
+        <v>1</v>
+      </c>
+      <c r="N51" s="2">
+        <v>2</v>
+      </c>
+      <c r="O51" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P51" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q51" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R51" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S51" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T51" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U51" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V51" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="W51" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="X51" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="Z51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO51" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT51" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY51" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ51" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA51" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB51" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BC51" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD51" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BE51" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BF51" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG51" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BH51" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BI51" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ51" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK51" s="2">
+        <v>4</v>
+      </c>
+      <c r="BL51" s="2">
+        <v>1</v>
+      </c>
+      <c r="BM51" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN51" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO51" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP51" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ51" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BR51" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="BS51" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="52" spans="1:71" x14ac:dyDescent="0.15">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>270</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D52" s="2">
+        <v>1</v>
+      </c>
+      <c r="E52" s="2">
+        <v>2</v>
+      </c>
+      <c r="F52" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H52" s="2">
+        <v>3</v>
+      </c>
+      <c r="I52" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="J52" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="K52" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="L52" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="M52" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="N52" s="2">
+        <v>2</v>
+      </c>
+      <c r="O52" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P52" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q52" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R52" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S52" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="T52" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U52" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V52" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="W52" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="X52" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y52" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="Z52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC52" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO52" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AP52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT52" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY52" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ52" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA52" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB52" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BC52" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD52" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BE52" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BF52" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="BG52" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BH52" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BI52" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ52" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK52" s="2">
+        <v>4</v>
+      </c>
+      <c r="BL52" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="BM52" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN52" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO52" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP52" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ52" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BR52" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="BS52" s="2" t="s">
+        <v>272</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/conf/buff.xlsx
+++ b/bin/conf/buff.xlsx
@@ -1807,7 +1807,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1729" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1821" uniqueCount="280">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2830,6 +2830,34 @@
   </si>
   <si>
     <t>2:300:6:50,2:400:6:50,2:500:6:50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影魔3压</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影魔攻击力加成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>24,40,56,72</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>影魔减甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-4,-5,-6,-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3203,11 +3231,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BS52"/>
+  <dimension ref="A1:BS55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AW1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BS52" sqref="BS52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BU65" sqref="BU65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14373,6 +14401,651 @@
         <v>272</v>
       </c>
     </row>
+    <row r="53" spans="1:71" x14ac:dyDescent="0.15">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>273</v>
+      </c>
+      <c r="C53" s="2">
+        <v>4</v>
+      </c>
+      <c r="D53" s="2">
+        <v>1</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H53" s="2">
+        <v>3</v>
+      </c>
+      <c r="I53" s="2">
+        <v>2</v>
+      </c>
+      <c r="J53" s="2">
+        <v>2</v>
+      </c>
+      <c r="K53" s="2">
+        <v>2</v>
+      </c>
+      <c r="L53" s="2">
+        <v>2</v>
+      </c>
+      <c r="M53" s="2">
+        <v>2</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="O53" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P53" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q53" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="R53" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="S53" s="2">
+        <v>2</v>
+      </c>
+      <c r="T53" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U53" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V53" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W53" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="X53" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Z53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD53" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT53" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY53" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ53" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="BA53" s="2">
+        <v>2</v>
+      </c>
+      <c r="BB53" s="2">
+        <v>2</v>
+      </c>
+      <c r="BC53" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD53" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BE53" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="BF53" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="BG53" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="BH53" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="BI53" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="BJ53" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK53" s="2">
+        <v>4</v>
+      </c>
+      <c r="BL53" s="2">
+        <v>1</v>
+      </c>
+      <c r="BM53" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN53" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO53" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP53" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ53" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BR53" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS53" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:71" x14ac:dyDescent="0.15">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>274</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D54" s="2">
+        <v>1</v>
+      </c>
+      <c r="E54" s="2">
+        <v>2</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H54" s="2">
+        <v>3</v>
+      </c>
+      <c r="I54" s="2">
+        <v>2</v>
+      </c>
+      <c r="J54" s="2">
+        <v>2</v>
+      </c>
+      <c r="K54" s="2">
+        <v>2</v>
+      </c>
+      <c r="L54" s="2">
+        <v>2</v>
+      </c>
+      <c r="M54" s="2">
+        <v>2</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O54" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P54" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q54" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R54" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S54" s="2">
+        <v>2</v>
+      </c>
+      <c r="T54" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U54" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V54" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W54" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="X54" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y54" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD54" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF54" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="AG54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN54" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="AO54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ54" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT54" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY54" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ54" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA54" s="2">
+        <v>2</v>
+      </c>
+      <c r="BB54" s="2">
+        <v>2</v>
+      </c>
+      <c r="BC54" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD54" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="BE54" s="2">
+        <v>1</v>
+      </c>
+      <c r="BF54" s="2">
+        <v>2</v>
+      </c>
+      <c r="BG54" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BH54" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BI54" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ54" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK54" s="2">
+        <v>4</v>
+      </c>
+      <c r="BL54" s="2">
+        <v>1</v>
+      </c>
+      <c r="BM54" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN54" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO54" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP54" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ54" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BR54" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS54" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:71" x14ac:dyDescent="0.15">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>276</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D55" s="2">
+        <v>1</v>
+      </c>
+      <c r="E55" s="2">
+        <v>2</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H55" s="2">
+        <v>3</v>
+      </c>
+      <c r="I55" s="2">
+        <v>2</v>
+      </c>
+      <c r="J55" s="2">
+        <v>2</v>
+      </c>
+      <c r="K55" s="2">
+        <v>2</v>
+      </c>
+      <c r="L55" s="2">
+        <v>2</v>
+      </c>
+      <c r="M55" s="2">
+        <v>2</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="O55" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P55" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q55" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R55" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S55" s="2">
+        <v>2</v>
+      </c>
+      <c r="T55" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U55" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V55" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="W55" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="X55" s="2">
+        <v>0</v>
+      </c>
+      <c r="Y55" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="Z55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC55" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AD55" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AE55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF55" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="AG55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN55" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="AO55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ55" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT55" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY55" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ55" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA55" s="2">
+        <v>2</v>
+      </c>
+      <c r="BB55" s="2">
+        <v>2</v>
+      </c>
+      <c r="BC55" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BD55" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="BE55" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="BF55" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="BG55" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BH55" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BI55" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ55" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK55" s="2">
+        <v>4</v>
+      </c>
+      <c r="BL55" s="2">
+        <v>1</v>
+      </c>
+      <c r="BM55" s="2">
+        <v>0</v>
+      </c>
+      <c r="BN55" s="2">
+        <v>0</v>
+      </c>
+      <c r="BO55" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP55" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ55" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BR55" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BS55" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/conf/buff.xlsx
+++ b/bin/conf/buff.xlsx
@@ -1911,7 +1911,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2282" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2370" uniqueCount="319">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3078,6 +3078,42 @@
   </si>
   <si>
     <t>NoPlayerControl</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火枪榴弹伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15,35,55,75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火枪榴弹减速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.85,-0.2,-0.25,-0.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3451,11 +3487,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BW62"/>
+  <dimension ref="A1:BW64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Y66" sqref="Y66"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AJ67" sqref="AJ67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3867,7 +3903,9 @@
       <c r="BD2" s="2">
         <v>2</v>
       </c>
-      <c r="BE2" s="2"/>
+      <c r="BE2" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="BF2" s="2">
         <v>1</v>
       </c>
@@ -4090,7 +4128,9 @@
       <c r="BD3" s="2">
         <v>2</v>
       </c>
-      <c r="BE3" s="2"/>
+      <c r="BE3" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="BF3" s="2">
         <v>1</v>
       </c>
@@ -4313,7 +4353,9 @@
       <c r="BD4" s="2">
         <v>2</v>
       </c>
-      <c r="BE4" s="2"/>
+      <c r="BE4" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="BF4" s="2" t="s">
         <v>157</v>
       </c>
@@ -4536,7 +4578,9 @@
       <c r="BD5" s="2">
         <v>1</v>
       </c>
-      <c r="BE5" s="2"/>
+      <c r="BE5" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="BF5" s="2">
         <v>2</v>
       </c>
@@ -4759,7 +4803,9 @@
       <c r="BD6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="BE6" s="2"/>
+      <c r="BE6" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="BF6" s="2">
         <v>2</v>
       </c>
@@ -4982,7 +5028,9 @@
       <c r="BD7" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="BE7" s="2"/>
+      <c r="BE7" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="BF7" s="2">
         <v>0</v>
       </c>
@@ -5205,7 +5253,9 @@
       <c r="BD8" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="BE8" s="2"/>
+      <c r="BE8" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="BF8" s="2">
         <v>0</v>
       </c>
@@ -5428,7 +5478,9 @@
       <c r="BD9" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="BE9" s="2"/>
+      <c r="BE9" s="2" t="s">
+        <v>120</v>
+      </c>
       <c r="BF9" s="2" t="s">
         <v>75</v>
       </c>
@@ -5651,7 +5703,9 @@
       <c r="BD10" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="BE10" s="2"/>
+      <c r="BE10" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="BF10" s="2">
         <v>2</v>
       </c>
@@ -5874,7 +5928,9 @@
       <c r="BD11" s="2">
         <v>2</v>
       </c>
-      <c r="BE11" s="2"/>
+      <c r="BE11" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="BF11" s="2">
         <v>1</v>
       </c>
@@ -6097,7 +6153,9 @@
       <c r="BD12" s="2">
         <v>2</v>
       </c>
-      <c r="BE12" s="2"/>
+      <c r="BE12" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="BF12" s="2">
         <v>1</v>
       </c>
@@ -6320,7 +6378,9 @@
       <c r="BD13" s="2">
         <v>2</v>
       </c>
-      <c r="BE13" s="2"/>
+      <c r="BE13" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="BF13" s="2">
         <v>1</v>
       </c>
@@ -6543,7 +6603,9 @@
       <c r="BD14" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="BE14" s="2"/>
+      <c r="BE14" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="BF14" s="2">
         <v>2</v>
       </c>
@@ -6766,7 +6828,9 @@
       <c r="BD15" s="2">
         <v>2</v>
       </c>
-      <c r="BE15" s="2"/>
+      <c r="BE15" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="BF15" s="2">
         <v>1</v>
       </c>
@@ -6989,7 +7053,9 @@
       <c r="BD16" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="BE16" s="2"/>
+      <c r="BE16" s="2" t="s">
+        <v>317</v>
+      </c>
       <c r="BF16" s="2" t="s">
         <v>100</v>
       </c>
@@ -17392,6 +17458,456 @@
         <v>92</v>
       </c>
       <c r="BW62" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:75" x14ac:dyDescent="0.15">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>310</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D63" s="2">
+        <v>1</v>
+      </c>
+      <c r="E63" s="2">
+        <v>2</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H63" s="2">
+        <v>3</v>
+      </c>
+      <c r="I63" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="J63" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="K63" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L63" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="M63" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="N63" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O63" s="2">
+        <v>2</v>
+      </c>
+      <c r="P63" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q63" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R63" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S63" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T63" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="U63" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V63" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W63" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="X63" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y63" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA63" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="AB63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE63" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ63" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV63" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AW63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY63" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ63" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA63" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB63" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="BC63" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BD63" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BE63" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BF63" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BG63" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="BH63" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="BI63" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ63" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK63" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BL63" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BM63" s="2"/>
+      <c r="BN63" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BO63" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="BP63" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="BQ63" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="BR63" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS63" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BT63" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BU63" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BV63" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BW63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:75" x14ac:dyDescent="0.15">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>314</v>
+      </c>
+      <c r="C64" s="2">
+        <v>4</v>
+      </c>
+      <c r="D64" s="2">
+        <v>1</v>
+      </c>
+      <c r="E64" s="2">
+        <v>2</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H64" s="2">
+        <v>3</v>
+      </c>
+      <c r="I64" s="2">
+        <v>2</v>
+      </c>
+      <c r="J64" s="2">
+        <v>2</v>
+      </c>
+      <c r="K64" s="2">
+        <v>2</v>
+      </c>
+      <c r="L64" s="2">
+        <v>2</v>
+      </c>
+      <c r="M64" s="2">
+        <v>2</v>
+      </c>
+      <c r="N64" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="O64" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="P64" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q64" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="R64" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="S64" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="T64" s="2">
+        <v>2</v>
+      </c>
+      <c r="U64" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V64" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W64" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="X64" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="Y64" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA64" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="AB64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE64" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ64" s="2" t="s">
+        <v>318</v>
+      </c>
+      <c r="AK64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV64" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AW64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY64" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ64" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA64" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB64" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="BC64" s="2">
+        <v>2</v>
+      </c>
+      <c r="BD64" s="2">
+        <v>2</v>
+      </c>
+      <c r="BE64" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="BF64" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="BG64" s="2">
+        <v>2</v>
+      </c>
+      <c r="BH64" s="2">
+        <v>2</v>
+      </c>
+      <c r="BI64" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="BJ64" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="BK64" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="BL64" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="BM64" s="2"/>
+      <c r="BN64" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="BO64" s="2">
+        <v>4</v>
+      </c>
+      <c r="BP64" s="2">
+        <v>1</v>
+      </c>
+      <c r="BQ64" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR64" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS64" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="BT64" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="BU64" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BV64" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="BW64" s="2">
         <v>0</v>
       </c>
     </row>

--- a/bin/conf/buff.xlsx
+++ b/bin/conf/buff.xlsx
@@ -3085,10 +3085,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -3114,6 +3110,10 @@
   </si>
   <si>
     <t>-0.85,-0.2,-0.25,-0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3489,9 +3489,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BW64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AW1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AJ67" sqref="AJ67"/>
+      <selection pane="bottomLeft" activeCell="BQ66" sqref="BQ66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7054,7 +7054,7 @@
         <v>50</v>
       </c>
       <c r="BE16" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="BF16" s="2" t="s">
         <v>100</v>
@@ -17541,7 +17541,7 @@
         <v>0</v>
       </c>
       <c r="AA63" s="2" t="s">
-        <v>311</v>
+        <v>318</v>
       </c>
       <c r="AB63" s="2">
         <v>0</v>
@@ -17659,13 +17659,13 @@
         <v>129</v>
       </c>
       <c r="BO63" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="BP63" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BQ63" s="2" t="s">
         <v>312</v>
-      </c>
-      <c r="BP63" s="2" t="s">
-        <v>311</v>
-      </c>
-      <c r="BQ63" s="2" t="s">
-        <v>313</v>
       </c>
       <c r="BR63" s="2">
         <v>0</v>
@@ -17691,7 +17691,7 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C64" s="2">
         <v>4</v>
@@ -17766,7 +17766,7 @@
         <v>0</v>
       </c>
       <c r="AA64" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="AB64" s="2">
         <v>0</v>
@@ -17793,7 +17793,7 @@
         <v>0</v>
       </c>
       <c r="AJ64" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="AK64" s="2">
         <v>0</v>
@@ -17856,7 +17856,7 @@
         <v>2</v>
       </c>
       <c r="BE64" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="BF64" s="2" t="s">
         <v>157</v>

--- a/bin/conf/buff.xlsx
+++ b/bin/conf/buff.xlsx
@@ -1911,7 +1911,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2370" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2492" uniqueCount="327">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3110,6 +3110,38 @@
   </si>
   <si>
     <t>-0.85,-0.2,-0.25,-0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火枪瞄准被动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火枪瞄准主动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打断眩晕</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3487,11 +3519,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BW64"/>
+  <dimension ref="A1:BW67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AW1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BQ66" sqref="BQ66"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AA71" sqref="AA71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -17911,6 +17943,681 @@
         <v>0</v>
       </c>
     </row>
+    <row r="65" spans="1:75" x14ac:dyDescent="0.15">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>319</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D65" s="2">
+        <v>1</v>
+      </c>
+      <c r="E65" s="2">
+        <v>2</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H65" s="2">
+        <v>3</v>
+      </c>
+      <c r="I65" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J65" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="K65" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="L65" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M65" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N65" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O65" s="2">
+        <v>2</v>
+      </c>
+      <c r="P65" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q65" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R65" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S65" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T65" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U65" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V65" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W65" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="X65" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y65" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA65" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="AB65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE65" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF65" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG65" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI65" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="AJ65" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ65" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS65" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AT65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV65" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AW65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY65" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ65" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA65" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB65" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC65" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BD65" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BE65" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BF65" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="BG65" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BH65" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="BI65" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ65" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK65" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BL65" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BM65" s="2"/>
+      <c r="BN65" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BO65" s="2">
+        <v>4</v>
+      </c>
+      <c r="BP65" s="2">
+        <v>1</v>
+      </c>
+      <c r="BQ65" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR65" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS65" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BT65" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BU65" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BV65" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BW65" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:75" x14ac:dyDescent="0.15">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>323</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D66" s="2">
+        <v>1</v>
+      </c>
+      <c r="E66" s="2">
+        <v>2</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H66" s="2">
+        <v>3</v>
+      </c>
+      <c r="I66" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="J66" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="K66" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="L66" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="M66" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O66" s="2">
+        <v>2</v>
+      </c>
+      <c r="P66" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q66" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R66" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S66" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T66" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U66" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V66" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W66" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="X66" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y66" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA66" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="AB66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE66" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF66" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="AG66" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI66" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="AJ66" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AK66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ66" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS66" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AT66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV66" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AW66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY66" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ66" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA66" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB66" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC66" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BD66" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BE66" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BF66" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="BG66" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BH66" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="BI66" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ66" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK66" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BL66" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BM66" s="2"/>
+      <c r="BN66" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BO66" s="2">
+        <v>4</v>
+      </c>
+      <c r="BP66" s="2">
+        <v>1</v>
+      </c>
+      <c r="BQ66" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR66" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS66" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BT66" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BU66" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BV66" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BW66" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:75" x14ac:dyDescent="0.15">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>325</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D67" s="2">
+        <v>1</v>
+      </c>
+      <c r="E67" s="2">
+        <v>2</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H67" s="2">
+        <v>3</v>
+      </c>
+      <c r="I67" s="2">
+        <v>1</v>
+      </c>
+      <c r="J67" s="2">
+        <v>1</v>
+      </c>
+      <c r="K67" s="2">
+        <v>1</v>
+      </c>
+      <c r="L67" s="2">
+        <v>1</v>
+      </c>
+      <c r="M67" s="2">
+        <v>1</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O67" s="2">
+        <v>2</v>
+      </c>
+      <c r="P67" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q67" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R67" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S67" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T67" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="U67" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V67" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W67" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="X67" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Y67" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AA67" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="AB67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE67" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ67" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AR67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV67" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AW67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY67" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ67" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA67" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB67" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC67" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BD67" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BE67" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BF67" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BG67" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BH67" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BI67" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BJ67" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BK67" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BL67" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BM67" s="2"/>
+      <c r="BN67" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BO67" s="2">
+        <v>4</v>
+      </c>
+      <c r="BP67" s="2">
+        <v>1</v>
+      </c>
+      <c r="BQ67" s="2">
+        <v>0</v>
+      </c>
+      <c r="BR67" s="2">
+        <v>0</v>
+      </c>
+      <c r="BS67" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BT67" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BU67" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BV67" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BW67" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/conf/buff.xlsx
+++ b/bin/conf/buff.xlsx
@@ -1963,7 +1963,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2825" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2861" uniqueCount="351">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3284,6 +3284,14 @@
   </si>
   <si>
     <t>0.83</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月骑眩晕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3657,11 +3665,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BY72"/>
+  <dimension ref="A1:BY73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AK72" sqref="AK72"/>
+      <selection pane="bottomLeft" activeCell="I80" sqref="I80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -20313,6 +20321,237 @@
         <v>0</v>
       </c>
     </row>
+    <row r="73" spans="1:77" x14ac:dyDescent="0.15">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>349</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D73" s="2">
+        <v>1</v>
+      </c>
+      <c r="E73" s="2">
+        <v>2</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H73" s="2">
+        <v>3</v>
+      </c>
+      <c r="I73" s="2">
+        <v>1</v>
+      </c>
+      <c r="J73" s="2">
+        <v>1</v>
+      </c>
+      <c r="K73" s="2">
+        <v>1</v>
+      </c>
+      <c r="L73" s="2">
+        <v>1</v>
+      </c>
+      <c r="M73" s="2">
+        <v>1</v>
+      </c>
+      <c r="N73" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O73" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="P73" s="2">
+        <v>2</v>
+      </c>
+      <c r="Q73" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R73" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S73" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T73" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U73" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V73" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W73" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="X73" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y73" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z73" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AB73" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="AC73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AD73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF73" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AG73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AI73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR73" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AS73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW73" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AX73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY73" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ73" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA73" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB73" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC73" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD73" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BE73" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF73" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BG73" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BH73" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BI73" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BJ73" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="BK73" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BL73" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BM73" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN73" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO73" s="2"/>
+      <c r="BP73" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BQ73" s="2">
+        <v>4</v>
+      </c>
+      <c r="BR73" s="2">
+        <v>1</v>
+      </c>
+      <c r="BS73" s="2">
+        <v>0</v>
+      </c>
+      <c r="BT73" s="2">
+        <v>0</v>
+      </c>
+      <c r="BU73" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BV73" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BW73" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="BX73" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY73" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/conf/buff.xlsx
+++ b/bin/conf/buff.xlsx
@@ -2041,7 +2041,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3556" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3728" uniqueCount="398">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3512,6 +3512,50 @@
   </si>
   <si>
     <t>-0.08,-0.12,-0.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝猫的拉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝猫超负荷标记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝猫超负荷减速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝猫大招无敌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3885,11 +3929,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CB84"/>
+  <dimension ref="A1:CB88"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AM87" sqref="AM87"/>
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="S98" sqref="S98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -24069,6 +24113,966 @@
         <v>0</v>
       </c>
     </row>
+    <row r="85" spans="1:80" x14ac:dyDescent="0.15">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>387</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D85" s="2">
+        <v>1</v>
+      </c>
+      <c r="E85" s="2">
+        <v>2</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H85" s="2">
+        <v>3</v>
+      </c>
+      <c r="I85" s="2">
+        <v>1</v>
+      </c>
+      <c r="J85" s="2">
+        <v>1</v>
+      </c>
+      <c r="K85" s="2">
+        <v>1</v>
+      </c>
+      <c r="L85" s="2">
+        <v>1</v>
+      </c>
+      <c r="M85" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N85" s="2">
+        <v>1</v>
+      </c>
+      <c r="O85" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P85" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q85" s="2">
+        <v>2</v>
+      </c>
+      <c r="R85" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S85" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T85" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U85" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V85" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="W85" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="X85" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y85" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="Z85" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA85" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="AD85" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="AE85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH85" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT85" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX85" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY85" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AZ85" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA85" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB85" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC85" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD85" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE85" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF85" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BG85" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BH85" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BI85" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BJ85" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BK85" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="BL85" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="BM85" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN85" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO85" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP85" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ85" s="2"/>
+      <c r="BR85" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BS85" s="2">
+        <v>4</v>
+      </c>
+      <c r="BT85" s="2">
+        <v>1</v>
+      </c>
+      <c r="BU85" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV85" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="BW85" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX85" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY85" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BZ85" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="CA85" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CB85" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:80" x14ac:dyDescent="0.15">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>389</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D86" s="2">
+        <v>1</v>
+      </c>
+      <c r="E86" s="2">
+        <v>2</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H86" s="2">
+        <v>3</v>
+      </c>
+      <c r="I86" s="2">
+        <v>2</v>
+      </c>
+      <c r="J86" s="2">
+        <v>2</v>
+      </c>
+      <c r="K86" s="2">
+        <v>2</v>
+      </c>
+      <c r="L86" s="2">
+        <v>2</v>
+      </c>
+      <c r="M86" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="N86" s="2">
+        <v>2</v>
+      </c>
+      <c r="O86" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P86" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q86" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R86" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S86" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T86" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U86" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V86" s="2">
+        <v>2</v>
+      </c>
+      <c r="W86" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="X86" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y86" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z86" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA86" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="AD86" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH86" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI86" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK86" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="AL86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM86" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="AN86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS86" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="AT86" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="AU86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV86" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AW86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX86" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY86" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AZ86" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA86" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB86" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC86" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD86" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE86" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF86" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="BG86" s="2">
+        <v>2</v>
+      </c>
+      <c r="BH86" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BI86" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BJ86" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="BK86" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="BL86" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="BM86" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN86" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO86" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP86" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ86" s="2"/>
+      <c r="BR86" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BS86" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="BT86" s="2">
+        <v>1</v>
+      </c>
+      <c r="BU86" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="BV86" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BW86" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX86" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY86" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BZ86" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="CA86" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CB86" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:80" x14ac:dyDescent="0.15">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>392</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="D87" s="2">
+        <v>1</v>
+      </c>
+      <c r="E87" s="2">
+        <v>2</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H87" s="2">
+        <v>3</v>
+      </c>
+      <c r="I87" s="2">
+        <v>2</v>
+      </c>
+      <c r="J87" s="2">
+        <v>2</v>
+      </c>
+      <c r="K87" s="2">
+        <v>2</v>
+      </c>
+      <c r="L87" s="2">
+        <v>2</v>
+      </c>
+      <c r="M87" s="2" t="s">
+        <v>374</v>
+      </c>
+      <c r="N87" s="2">
+        <v>2</v>
+      </c>
+      <c r="O87" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P87" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q87" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="R87" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S87" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T87" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U87" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V87" s="2">
+        <v>2</v>
+      </c>
+      <c r="W87" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="X87" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y87" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z87" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA87" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB87" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="AD87" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE87" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF87" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG87" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH87" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI87" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="AJ87" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK87" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="AL87" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM87" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="AN87" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO87" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP87" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ87" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR87" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS87" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="AT87" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="AU87" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV87" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AW87" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX87" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY87" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AZ87" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA87" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB87" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC87" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD87" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE87" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF87" s="2">
+        <v>2</v>
+      </c>
+      <c r="BG87" s="2">
+        <v>2</v>
+      </c>
+      <c r="BH87" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BI87" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BJ87" s="2" t="s">
+        <v>395</v>
+      </c>
+      <c r="BK87" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="BL87" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="BM87" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN87" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO87" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP87" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ87" s="2"/>
+      <c r="BR87" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BS87" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="BT87" s="2">
+        <v>1</v>
+      </c>
+      <c r="BU87" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="BV87" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BW87" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX87" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY87" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BZ87" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="CA87" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CB87" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:80" x14ac:dyDescent="0.15">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>396</v>
+      </c>
+      <c r="C88" s="2">
+        <v>4</v>
+      </c>
+      <c r="D88" s="2">
+        <v>1</v>
+      </c>
+      <c r="E88" s="2">
+        <v>2</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H88" s="2">
+        <v>3</v>
+      </c>
+      <c r="I88" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J88" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="K88" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="L88" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="M88" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N88" s="2">
+        <v>2</v>
+      </c>
+      <c r="O88" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P88" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q88" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="R88" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S88" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T88" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U88" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V88" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="W88" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="X88" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y88" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="Z88" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA88" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB88" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AD88" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE88" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF88" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG88" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH88" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI88" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AJ88" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK88" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AL88">
+        <v>0</v>
+      </c>
+      <c r="AM88" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN88" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO88" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP88" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ88" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR88" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS88" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT88" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU88" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV88" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AW88" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX88" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY88" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AZ88" s="2">
+        <v>0</v>
+      </c>
+      <c r="BA88" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB88" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC88" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD88" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE88" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="BF88" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BG88" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BH88" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BI88" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BJ88" s="2">
+        <v>2</v>
+      </c>
+      <c r="BK88" s="2">
+        <v>1</v>
+      </c>
+      <c r="BL88" s="2">
+        <v>2</v>
+      </c>
+      <c r="BM88" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BN88" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO88" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP88" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ88" s="2"/>
+      <c r="BR88" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BS88" s="2">
+        <v>4</v>
+      </c>
+      <c r="BT88" s="2">
+        <v>1</v>
+      </c>
+      <c r="BU88" s="2">
+        <v>0</v>
+      </c>
+      <c r="BV88" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BW88" s="2">
+        <v>0</v>
+      </c>
+      <c r="BX88" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BY88" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BZ88" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="CA88" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CB88" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/conf/buff.xlsx
+++ b/bin/conf/buff.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4082,7 +4082,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CC94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BD1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="BV94" sqref="BV94"/>
     </sheetView>

--- a/bin/conf/buff.xlsx
+++ b/bin/conf/buff.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
   <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
@@ -2034,11 +2034,37 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
+//溅射特效</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CC1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 // 特殊情况处理  0表示没有特殊情况 1:血魔的血怒buff死亡后加血 2:血魔焦渴 3:血魔大招 4:帕克大招 5幽鬼折射</t>
         </r>
       </text>
     </comment>
-    <comment ref="CC1" authorId="0" shapeId="0">
+    <comment ref="CD1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2069,7 +2095,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4089" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4091" uniqueCount="431">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3169,14 +3195,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>-0.81,-0.14,-0.18,-0.22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.81,0.14,0.18,0.22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PathHalo</t>
   </si>
   <si>
@@ -3707,6 +3725,21 @@
   </si>
   <si>
     <t>0.6,0.75,0.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.11,0.14,0.18,0.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.11,-0.14,-0.18,-0.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SpurtingBulletModeType</t>
+  </si>
+  <si>
+    <t>33</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4080,11 +4113,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CC94"/>
+  <dimension ref="A1:CD94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="BV94" sqref="BV94"/>
+    <sheetView tabSelected="1" topLeftCell="BH1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="CB1" sqref="CB1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4097,10 +4130,10 @@
     <col min="76" max="76" width="12" customWidth="1"/>
     <col min="77" max="77" width="12.75" customWidth="1"/>
     <col min="78" max="78" width="17.875" customWidth="1"/>
-    <col min="79" max="79" width="13.5" customWidth="1"/>
+    <col min="79" max="80" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:81" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:82" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4138,16 +4171,16 @@
         <v>9</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="P1" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="Q1" s="1" t="s">
         <v>52</v>
@@ -4189,7 +4222,7 @@
         <v>13</v>
       </c>
       <c r="AD1" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="AE1" s="1" t="s">
         <v>14</v>
@@ -4255,7 +4288,7 @@
         <v>62</v>
       </c>
       <c r="AZ1" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="BA1" s="1" t="s">
         <v>33</v>
@@ -4285,7 +4318,7 @@
         <v>266</v>
       </c>
       <c r="BJ1" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="BK1" s="1" t="s">
         <v>56</v>
@@ -4309,10 +4342,10 @@
         <v>183</v>
       </c>
       <c r="BR1" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="BS1" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="BT1" s="1" t="s">
         <v>70</v>
@@ -4324,7 +4357,7 @@
         <v>71</v>
       </c>
       <c r="BW1" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="BX1" s="1" t="s">
         <v>234</v>
@@ -4339,13 +4372,16 @@
         <v>239</v>
       </c>
       <c r="CB1" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="CC1" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="CC1" s="1" t="s">
+      <c r="CD1" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="2" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -4555,7 +4591,7 @@
       </c>
       <c r="BR2" s="2"/>
       <c r="BS2" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="BT2" s="2">
         <v>4</v>
@@ -4581,14 +4617,15 @@
       <c r="CA2" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="CB2" s="2" t="s">
+      <c r="CB2" s="2"/>
+      <c r="CC2" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="CC2" s="2">
+      <c r="CD2" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -4824,14 +4861,15 @@
       <c r="CA3" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="CB3" s="2" t="s">
+      <c r="CB3" s="2"/>
+      <c r="CC3" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="CC3" s="2">
+      <c r="CD3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5067,14 +5105,15 @@
       <c r="CA4" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB4" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC4" s="2">
+      <c r="CB4" s="2"/>
+      <c r="CC4" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD4" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5310,14 +5349,15 @@
       <c r="CA5" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB5" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC5" s="2">
+      <c r="CB5" s="2"/>
+      <c r="CC5" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD5" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -5553,14 +5593,15 @@
       <c r="CA6" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB6" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC6" s="2">
+      <c r="CB6" s="2"/>
+      <c r="CC6" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD6" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -5796,14 +5837,15 @@
       <c r="CA7" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB7" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC7" s="2">
+      <c r="CB7" s="2"/>
+      <c r="CC7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD7" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6039,14 +6081,15 @@
       <c r="CA8" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB8" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC8" s="2">
+      <c r="CB8" s="2"/>
+      <c r="CC8" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD8" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6282,14 +6325,15 @@
       <c r="CA9" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB9" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC9" s="2">
+      <c r="CB9" s="2"/>
+      <c r="CC9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD9" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -6525,14 +6569,15 @@
       <c r="CA10" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB10" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC10" s="2">
+      <c r="CB10" s="2"/>
+      <c r="CC10" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD10" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -6768,14 +6813,15 @@
       <c r="CA11" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB11" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC11" s="2">
+      <c r="CB11" s="2"/>
+      <c r="CC11" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD11" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7011,14 +7057,15 @@
       <c r="CA12" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB12" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC12" s="2">
+      <c r="CB12" s="2"/>
+      <c r="CC12" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD12" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -7254,14 +7301,15 @@
       <c r="CA13" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB13" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC13" s="2">
+      <c r="CB13" s="2"/>
+      <c r="CC13" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD13" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -7497,14 +7545,15 @@
       <c r="CA14" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB14" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC14" s="2">
+      <c r="CB14" s="2"/>
+      <c r="CC14" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD14" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -7740,14 +7789,15 @@
       <c r="CA15" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB15" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC15" s="2">
+      <c r="CB15" s="2"/>
+      <c r="CC15" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD15" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -7929,7 +7979,7 @@
         <v>50</v>
       </c>
       <c r="BI16" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="BJ16" s="2" t="s">
         <v>46</v>
@@ -7983,14 +8033,15 @@
       <c r="CA16" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB16" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC16" s="2">
+      <c r="CB16" s="2"/>
+      <c r="CC16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD16" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -8226,14 +8277,15 @@
       <c r="CA17" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB17" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC17" s="2">
+      <c r="CB17" s="2"/>
+      <c r="CC17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD17" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -8469,14 +8521,15 @@
       <c r="CA18" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB18" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC18" s="2">
+      <c r="CB18" s="2"/>
+      <c r="CC18" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD18" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -8712,14 +8765,15 @@
       <c r="CA19" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB19" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC19" s="2">
+      <c r="CB19" s="2"/>
+      <c r="CC19" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD19" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -8955,14 +9009,15 @@
       <c r="CA20" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB20" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC20" s="2">
+      <c r="CB20" s="2"/>
+      <c r="CC20" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD20" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -9198,14 +9253,15 @@
       <c r="CA21" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB21" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC21" s="2">
+      <c r="CB21" s="2"/>
+      <c r="CC21" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD21" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -9441,14 +9497,15 @@
       <c r="CA22" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB22" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC22" s="2">
+      <c r="CB22" s="2"/>
+      <c r="CC22" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD22" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -9684,14 +9741,15 @@
       <c r="CA23" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB23" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC23" s="2">
+      <c r="CB23" s="2"/>
+      <c r="CC23" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD23" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -9927,14 +9985,15 @@
       <c r="CA24" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB24" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC24" s="2">
+      <c r="CB24" s="2"/>
+      <c r="CC24" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD24" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -10170,14 +10229,15 @@
       <c r="CA25" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB25" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC25" s="2">
+      <c r="CB25" s="2"/>
+      <c r="CC25" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD25" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -10413,14 +10473,15 @@
       <c r="CA26" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB26" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC26" s="2">
+      <c r="CB26" s="2"/>
+      <c r="CC26" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD26" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
@@ -10656,14 +10717,15 @@
       <c r="CA27" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB27" s="2" t="s">
-        <v>92</v>
-      </c>
+      <c r="CB27" s="2"/>
       <c r="CC27" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD27" s="2" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="28" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
@@ -10899,14 +10961,15 @@
       <c r="CA28" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB28" s="2" t="s">
+      <c r="CB28" s="2"/>
+      <c r="CC28" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="CC28" s="2" t="s">
+      <c r="CD28" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="29" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
@@ -11142,14 +11205,15 @@
       <c r="CA29" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB29" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC29" s="2">
+      <c r="CB29" s="2"/>
+      <c r="CC29" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD29" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
@@ -11385,14 +11449,15 @@
       <c r="CA30" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB30" s="2" t="s">
+      <c r="CB30" s="2"/>
+      <c r="CC30" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="CC30" s="2" t="s">
+      <c r="CD30" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="31" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
@@ -11628,14 +11693,15 @@
       <c r="CA31" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB31" s="2" t="s">
+      <c r="CB31" s="2"/>
+      <c r="CC31" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="CC31" s="2" t="s">
+      <c r="CD31" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="32" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
@@ -11871,14 +11937,15 @@
       <c r="CA32" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB32" s="2" t="s">
+      <c r="CB32" s="2"/>
+      <c r="CC32" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="CC32" s="2" t="s">
+      <c r="CD32" s="2" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="33" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
@@ -12114,14 +12181,15 @@
       <c r="CA33" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB33" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC33" s="2">
+      <c r="CB33" s="2"/>
+      <c r="CC33" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD33" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>33</v>
       </c>
@@ -12357,14 +12425,15 @@
       <c r="CA34" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB34" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC34" s="2">
+      <c r="CB34" s="2"/>
+      <c r="CC34" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD34" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
@@ -12600,14 +12669,15 @@
       <c r="CA35" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB35" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC35" s="2">
+      <c r="CB35" s="2"/>
+      <c r="CC35" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD35" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
@@ -12843,14 +12913,15 @@
       <c r="CA36" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB36" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC36" s="2">
+      <c r="CB36" s="2"/>
+      <c r="CC36" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD36" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>36</v>
       </c>
@@ -13086,14 +13157,15 @@
       <c r="CA37" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB37" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC37" s="2">
+      <c r="CB37" s="2"/>
+      <c r="CC37" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD37" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
@@ -13329,14 +13401,15 @@
       <c r="CA38" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB38" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC38" s="2">
+      <c r="CB38" s="2"/>
+      <c r="CC38" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD38" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>38</v>
       </c>
@@ -13572,14 +13645,15 @@
       <c r="CA39" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB39" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC39" s="2">
+      <c r="CB39" s="2"/>
+      <c r="CC39" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD39" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
@@ -13815,14 +13889,15 @@
       <c r="CA40" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB40" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC40" s="2">
+      <c r="CB40" s="2"/>
+      <c r="CC40" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD40" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>40</v>
       </c>
@@ -14058,14 +14133,15 @@
       <c r="CA41" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB41" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC41" s="2">
+      <c r="CB41" s="2"/>
+      <c r="CC41" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD41" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>41</v>
       </c>
@@ -14302,13 +14378,16 @@
         <v>127</v>
       </c>
       <c r="CB42" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC42" s="2">
+        <v>430</v>
+      </c>
+      <c r="CC42" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD42" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>42</v>
       </c>
@@ -14544,14 +14623,15 @@
       <c r="CA43" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB43" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC43" s="2">
+      <c r="CB43" s="2"/>
+      <c r="CC43" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD43" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>43</v>
       </c>
@@ -14787,14 +14867,15 @@
       <c r="CA44" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB44" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC44" s="2">
+      <c r="CB44" s="2"/>
+      <c r="CC44" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD44" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>44</v>
       </c>
@@ -15030,14 +15111,15 @@
       <c r="CA45" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB45" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC45" s="2">
+      <c r="CB45" s="2"/>
+      <c r="CC45" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD45" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>45</v>
       </c>
@@ -15273,14 +15355,15 @@
       <c r="CA46" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB46" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC46" s="2">
+      <c r="CB46" s="2"/>
+      <c r="CC46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD46" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>46</v>
       </c>
@@ -15516,14 +15599,15 @@
       <c r="CA47" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="CB47" s="2" t="s">
+      <c r="CB47" s="2"/>
+      <c r="CC47" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="CC47" s="2">
+      <c r="CD47" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>47</v>
       </c>
@@ -15759,14 +15843,15 @@
       <c r="CA48" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB48" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC48" s="2">
+      <c r="CB48" s="2"/>
+      <c r="CC48" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD48" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>48</v>
       </c>
@@ -16002,14 +16087,15 @@
       <c r="CA49" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB49" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC49" s="2">
+      <c r="CB49" s="2"/>
+      <c r="CC49" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD49" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>49</v>
       </c>
@@ -16245,14 +16331,15 @@
       <c r="CA50" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB50" s="2" t="s">
+      <c r="CB50" s="2"/>
+      <c r="CC50" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="CC50" s="2" t="s">
+      <c r="CD50" s="2" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="51" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>50</v>
       </c>
@@ -16488,14 +16575,15 @@
       <c r="CA51" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB51" s="2" t="s">
-        <v>140</v>
-      </c>
+      <c r="CB51" s="2"/>
       <c r="CC51" s="2" t="s">
         <v>140</v>
       </c>
+      <c r="CD51" s="2" t="s">
+        <v>140</v>
+      </c>
     </row>
-    <row r="52" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>51</v>
       </c>
@@ -16731,14 +16819,15 @@
       <c r="CA52" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB52" s="2" t="s">
+      <c r="CB52" s="2"/>
+      <c r="CC52" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="CC52" s="2" t="s">
+      <c r="CD52" s="2" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="53" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>52</v>
       </c>
@@ -16974,14 +17063,15 @@
       <c r="CA53" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB53" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC53" s="2">
+      <c r="CB53" s="2"/>
+      <c r="CC53" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD53" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>53</v>
       </c>
@@ -17217,14 +17307,15 @@
       <c r="CA54" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB54" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC54" s="2">
+      <c r="CB54" s="2"/>
+      <c r="CC54" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD54" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>54</v>
       </c>
@@ -17460,14 +17551,15 @@
       <c r="CA55" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB55" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC55" s="2">
+      <c r="CB55" s="2"/>
+      <c r="CC55" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD55" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>55</v>
       </c>
@@ -17703,14 +17795,15 @@
       <c r="CA56" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB56" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC56" s="2">
+      <c r="CB56" s="2"/>
+      <c r="CC56" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD56" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>56</v>
       </c>
@@ -17826,7 +17919,7 @@
         <v>0</v>
       </c>
       <c r="AM57" s="2" t="s">
-        <v>293</v>
+        <v>427</v>
       </c>
       <c r="AN57" s="2">
         <v>0</v>
@@ -17946,14 +18039,15 @@
       <c r="CA57" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB57" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC57" s="2">
+      <c r="CB57" s="2"/>
+      <c r="CC57" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD57" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>57</v>
       </c>
@@ -18069,7 +18163,7 @@
         <v>0</v>
       </c>
       <c r="AM58" s="2" t="s">
-        <v>292</v>
+        <v>428</v>
       </c>
       <c r="AN58" s="2">
         <v>0</v>
@@ -18189,19 +18283,20 @@
       <c r="CA58" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB58" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC58" s="2">
+      <c r="CB58" s="2"/>
+      <c r="CC58" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD58" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>66</v>
@@ -18282,7 +18377,7 @@
         <v>0</v>
       </c>
       <c r="AC59" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AD59" s="2" t="s">
         <v>92</v>
@@ -18405,10 +18500,10 @@
         <v>92</v>
       </c>
       <c r="BR59" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="BS59" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="BT59" s="2">
         <v>4</v>
@@ -18434,19 +18529,20 @@
       <c r="CA59" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB59" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC59" s="2">
+      <c r="CB59" s="2"/>
+      <c r="CC59" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD59" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C60" s="2">
         <v>4</v>
@@ -18527,7 +18623,7 @@
         <v>0</v>
       </c>
       <c r="AC60" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="AD60" s="2" t="s">
         <v>92</v>
@@ -18644,7 +18740,7 @@
         <v>92</v>
       </c>
       <c r="BP60" s="2" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="BQ60" s="2" t="s">
         <v>92</v>
@@ -18677,19 +18773,20 @@
       <c r="CA60" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB60" s="2" t="s">
-        <v>304</v>
-      </c>
+      <c r="CB60" s="2"/>
       <c r="CC60" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
+      </c>
+      <c r="CD60" s="2" t="s">
+        <v>303</v>
       </c>
     </row>
-    <row r="61" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="C61" s="2">
         <v>4</v>
@@ -18890,7 +18987,7 @@
         <v>216</v>
       </c>
       <c r="BQ61" s="2" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="BR61" s="2"/>
       <c r="BS61" s="2" t="s">
@@ -18920,19 +19017,20 @@
       <c r="CA61" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB61" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC61" s="2">
+      <c r="CB61" s="2"/>
+      <c r="CC61" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD61" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>66</v>
@@ -19100,7 +19198,7 @@
         <v>0</v>
       </c>
       <c r="BF62" s="2" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="BG62" s="2" t="s">
         <v>51</v>
@@ -19163,19 +19261,20 @@
       <c r="CA62" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB62" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC62" s="2">
+      <c r="CB62" s="2"/>
+      <c r="CC62" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD62" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>66</v>
@@ -19256,7 +19355,7 @@
         <v>0</v>
       </c>
       <c r="AC63" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="AD63" s="2" t="s">
         <v>92</v>
@@ -19383,13 +19482,13 @@
         <v>129</v>
       </c>
       <c r="BT63" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="BU63" s="2" t="s">
         <v>128</v>
       </c>
       <c r="BV63" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="BW63" s="2" t="s">
         <v>92</v>
@@ -19406,19 +19505,20 @@
       <c r="CA63" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB63" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC63" s="2">
+      <c r="CB63" s="2"/>
+      <c r="CC63" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD63" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C64" s="2">
         <v>4</v>
@@ -19499,7 +19599,7 @@
         <v>0</v>
       </c>
       <c r="AC64" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="AD64" s="2" t="s">
         <v>92</v>
@@ -19529,7 +19629,7 @@
         <v>0</v>
       </c>
       <c r="AM64" s="2" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="AN64" s="2">
         <v>0</v>
@@ -19595,7 +19695,7 @@
         <v>2</v>
       </c>
       <c r="BI64" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="BJ64" s="2" t="s">
         <v>46</v>
@@ -19623,7 +19723,7 @@
       </c>
       <c r="BR64" s="2"/>
       <c r="BS64" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="BT64" s="2">
         <v>4</v>
@@ -19649,19 +19749,20 @@
       <c r="CA64" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="CB64" s="2" t="s">
+      <c r="CB64" s="2"/>
+      <c r="CC64" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="CC64" s="2">
+      <c r="CD64" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>66</v>
@@ -19742,7 +19843,7 @@
         <v>0</v>
       </c>
       <c r="AC65" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="AD65" s="2" t="s">
         <v>92</v>
@@ -19769,7 +19870,7 @@
         <v>0</v>
       </c>
       <c r="AL65" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AM65" s="2" t="s">
         <v>140</v>
@@ -19844,7 +19945,7 @@
         <v>46</v>
       </c>
       <c r="BK65" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="BL65" s="2" t="s">
         <v>96</v>
@@ -19892,19 +19993,20 @@
       <c r="CA65" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB65" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC65" s="2">
+      <c r="CB65" s="2"/>
+      <c r="CC65" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD65" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>66</v>
@@ -19985,7 +20087,7 @@
         <v>0</v>
       </c>
       <c r="AC66" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AD66" s="2" t="s">
         <v>92</v>
@@ -20012,7 +20114,7 @@
         <v>0</v>
       </c>
       <c r="AL66" s="2" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="AM66" s="2" t="s">
         <v>140</v>
@@ -20087,7 +20189,7 @@
         <v>46</v>
       </c>
       <c r="BK66" s="2" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="BL66" s="2" t="s">
         <v>96</v>
@@ -20135,19 +20237,20 @@
       <c r="CA66" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB66" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC66" s="2">
+      <c r="CB66" s="2"/>
+      <c r="CC66" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD66" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>66</v>
@@ -20228,7 +20331,7 @@
         <v>0</v>
       </c>
       <c r="AC67" s="2" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="AD67" s="2" t="s">
         <v>92</v>
@@ -20378,19 +20481,20 @@
       <c r="CA67" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB67" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC67" s="2">
+      <c r="CB67" s="2"/>
+      <c r="CC67" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD67" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>66</v>
@@ -20411,7 +20515,7 @@
         <v>3</v>
       </c>
       <c r="I68" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J68" s="2" t="s">
         <v>120</v>
@@ -20471,7 +20575,7 @@
         <v>0</v>
       </c>
       <c r="AC68" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AD68" s="2" t="s">
         <v>92</v>
@@ -20573,7 +20677,7 @@
         <v>120</v>
       </c>
       <c r="BK68" s="2" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="BL68" s="2" t="s">
         <v>51</v>
@@ -20621,19 +20725,20 @@
       <c r="CA68" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB68" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC68" s="2">
+      <c r="CB68" s="2"/>
+      <c r="CC68" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD68" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>156</v>
@@ -20714,7 +20819,7 @@
         <v>0</v>
       </c>
       <c r="AC69" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="AD69" s="2" t="s">
         <v>92</v>
@@ -20762,7 +20867,7 @@
         <v>0</v>
       </c>
       <c r="AS69" s="2" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="AT69" s="2">
         <v>0</v>
@@ -20813,7 +20918,7 @@
         <v>46</v>
       </c>
       <c r="BJ69" s="2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="BK69" s="2" t="s">
         <v>157</v>
@@ -20864,19 +20969,20 @@
       <c r="CA69" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB69" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC69" s="2">
+      <c r="CB69" s="2"/>
+      <c r="CC69" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD69" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>156</v>
@@ -20957,7 +21063,7 @@
         <v>0</v>
       </c>
       <c r="AC70" s="2" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="AD70" s="2" t="s">
         <v>92</v>
@@ -20987,7 +21093,7 @@
         <v>0</v>
       </c>
       <c r="AM70" s="2" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="AN70" s="2">
         <v>0</v>
@@ -21056,10 +21162,10 @@
         <v>46</v>
       </c>
       <c r="BJ70" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="BK70" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="BL70" s="2" t="s">
         <v>120</v>
@@ -21090,7 +21196,7 @@
         <v>1</v>
       </c>
       <c r="BV70" s="2" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="BW70" s="2" t="s">
         <v>92</v>
@@ -21107,19 +21213,20 @@
       <c r="CA70" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB70" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC70" s="2">
+      <c r="CB70" s="2"/>
+      <c r="CC70" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD70" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>156</v>
@@ -21230,7 +21337,7 @@
         <v>0</v>
       </c>
       <c r="AM71" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="AN71" s="2">
         <v>0</v>
@@ -21305,7 +21412,7 @@
         <v>157</v>
       </c>
       <c r="BL71" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="BM71" s="2" t="s">
         <v>120</v>
@@ -21327,7 +21434,7 @@
         <v>129</v>
       </c>
       <c r="BT71" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="BU71" s="2">
         <v>1</v>
@@ -21350,19 +21457,20 @@
       <c r="CA71" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB71" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC71" s="2">
+      <c r="CB71" s="2"/>
+      <c r="CC71" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD71" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>156</v>
@@ -21473,7 +21581,7 @@
         <v>0</v>
       </c>
       <c r="AM72" s="2" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="AN72" s="2">
         <v>0</v>
@@ -21548,7 +21656,7 @@
         <v>128</v>
       </c>
       <c r="BL72" s="2" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="BM72" s="2" t="s">
         <v>120</v>
@@ -21570,7 +21678,7 @@
         <v>129</v>
       </c>
       <c r="BT72" s="2" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="BU72" s="2">
         <v>1</v>
@@ -21593,19 +21701,20 @@
       <c r="CA72" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB72" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC72" s="2">
+      <c r="CB72" s="2"/>
+      <c r="CC72" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD72" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>66</v>
@@ -21686,10 +21795,10 @@
         <v>0</v>
       </c>
       <c r="AC73" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="AD73" s="2" t="s">
         <v>350</v>
-      </c>
-      <c r="AD73" s="2" t="s">
-        <v>352</v>
       </c>
       <c r="AE73" s="2">
         <v>0</v>
@@ -21836,19 +21945,20 @@
       <c r="CA73" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB73" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC73" s="2">
+      <c r="CB73" s="2"/>
+      <c r="CC73" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD73" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>66</v>
@@ -21884,7 +21994,7 @@
         <v>120</v>
       </c>
       <c r="N74" s="2" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="O74" s="2" t="s">
         <v>46</v>
@@ -21929,10 +22039,10 @@
         <v>0</v>
       </c>
       <c r="AC74" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="AD74" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="AE74" s="2">
         <v>0</v>
@@ -22031,10 +22141,10 @@
         <v>46</v>
       </c>
       <c r="BK74" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="BL74" s="2" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="BM74" s="2" t="s">
         <v>120</v>
@@ -22065,7 +22175,7 @@
         <v>0</v>
       </c>
       <c r="BW74" s="2" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="BX74" s="2">
         <v>0</v>
@@ -22079,19 +22189,20 @@
       <c r="CA74" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB74" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC74" s="2">
+      <c r="CB74" s="2"/>
+      <c r="CC74" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD74" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>156</v>
@@ -22172,7 +22283,7 @@
         <v>0</v>
       </c>
       <c r="AC75" s="2" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="AD75" s="2" t="s">
         <v>92</v>
@@ -22190,7 +22301,7 @@
         <v>92</v>
       </c>
       <c r="AI75" s="2" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="AJ75" s="2">
         <v>0</v>
@@ -22202,7 +22313,7 @@
         <v>0</v>
       </c>
       <c r="AM75" s="2" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="AN75" s="2">
         <v>0</v>
@@ -22274,7 +22385,7 @@
         <v>144</v>
       </c>
       <c r="BK75" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="BL75" s="2" t="s">
         <v>120</v>
@@ -22305,10 +22416,10 @@
         <v>1</v>
       </c>
       <c r="BV75" s="2" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="BW75" s="2" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="BX75" s="2">
         <v>0</v>
@@ -22322,19 +22433,20 @@
       <c r="CA75" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB75" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC75" s="2">
+      <c r="CB75" s="2"/>
+      <c r="CC75" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD75" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>156</v>
@@ -22415,7 +22527,7 @@
         <v>0</v>
       </c>
       <c r="AC76" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AD76" s="2" t="s">
         <v>92</v>
@@ -22463,10 +22575,10 @@
         <v>0</v>
       </c>
       <c r="AS76" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AT76" s="2" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="AU76" s="2">
         <v>0</v>
@@ -22565,19 +22677,20 @@
       <c r="CA76" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB76" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC76" s="2">
+      <c r="CB76" s="2"/>
+      <c r="CC76" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD76" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>156</v>
@@ -22658,7 +22771,7 @@
         <v>0</v>
       </c>
       <c r="AC77" s="2" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="AD77" s="2" t="s">
         <v>92</v>
@@ -22706,7 +22819,7 @@
         <v>0</v>
       </c>
       <c r="AS77" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AT77" s="2" t="s">
         <v>187</v>
@@ -22760,7 +22873,7 @@
         <v>46</v>
       </c>
       <c r="BK77" s="2" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="BL77" s="2" t="s">
         <v>128</v>
@@ -22808,19 +22921,20 @@
       <c r="CA77" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB77" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC77" s="2">
+      <c r="CB77" s="2"/>
+      <c r="CC77" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD77" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>156</v>
@@ -22853,7 +22967,7 @@
         <v>2</v>
       </c>
       <c r="M78" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="N78" s="2">
         <v>2</v>
@@ -22919,7 +23033,7 @@
         <v>92</v>
       </c>
       <c r="AI78" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="AJ78" s="2">
         <v>0</v>
@@ -22949,7 +23063,7 @@
         <v>0</v>
       </c>
       <c r="AS78" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AT78" s="2" t="s">
         <v>287</v>
@@ -23028,13 +23142,13 @@
         <v>129</v>
       </c>
       <c r="BT78" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="BU78" s="2">
         <v>1</v>
       </c>
       <c r="BV78" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="BW78" s="2" t="s">
         <v>92</v>
@@ -23051,19 +23165,20 @@
       <c r="CA78" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB78" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC78" s="2">
+      <c r="CB78" s="2"/>
+      <c r="CC78" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD78" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>156</v>
@@ -23096,7 +23211,7 @@
         <v>2</v>
       </c>
       <c r="M79" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="N79" s="2">
         <v>2</v>
@@ -23162,7 +23277,7 @@
         <v>92</v>
       </c>
       <c r="AI79" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="AJ79" s="2">
         <v>0</v>
@@ -23192,7 +23307,7 @@
         <v>0</v>
       </c>
       <c r="AS79" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AT79" s="2" t="s">
         <v>287</v>
@@ -23271,13 +23386,13 @@
         <v>129</v>
       </c>
       <c r="BT79" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="BU79" s="2">
         <v>1</v>
       </c>
       <c r="BV79" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="BW79" s="2" t="s">
         <v>92</v>
@@ -23294,19 +23409,20 @@
       <c r="CA79" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB79" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC79" s="2">
+      <c r="CB79" s="2"/>
+      <c r="CC79" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD79" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>156</v>
@@ -23339,7 +23455,7 @@
         <v>2</v>
       </c>
       <c r="M80" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="N80" s="2">
         <v>2</v>
@@ -23417,7 +23533,7 @@
         <v>0</v>
       </c>
       <c r="AM80" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AN80" s="2">
         <v>0</v>
@@ -23435,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="AS80" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AT80" s="2" t="s">
         <v>287</v>
@@ -23514,7 +23630,7 @@
         <v>129</v>
       </c>
       <c r="BT80" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="BU80" s="2">
         <v>1</v>
@@ -23537,19 +23653,20 @@
       <c r="CA80" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB80" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC80" s="2">
+      <c r="CB80" s="2"/>
+      <c r="CC80" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD80" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>156</v>
@@ -23582,7 +23699,7 @@
         <v>2</v>
       </c>
       <c r="M81" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="N81" s="2">
         <v>2</v>
@@ -23660,7 +23777,7 @@
         <v>0</v>
       </c>
       <c r="AM81" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AN81" s="2">
         <v>0</v>
@@ -23678,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="AS81" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AT81" s="2" t="s">
         <v>287</v>
@@ -23757,7 +23874,7 @@
         <v>129</v>
       </c>
       <c r="BT81" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="BU81" s="2">
         <v>1</v>
@@ -23780,19 +23897,20 @@
       <c r="CA81" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB81" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC81" s="2">
+      <c r="CB81" s="2"/>
+      <c r="CC81" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD81" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>156</v>
@@ -23825,7 +23943,7 @@
         <v>2</v>
       </c>
       <c r="M82" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="N82" s="2">
         <v>2</v>
@@ -23903,7 +24021,7 @@
         <v>0</v>
       </c>
       <c r="AM82" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AN82" s="2">
         <v>0</v>
@@ -23921,7 +24039,7 @@
         <v>0</v>
       </c>
       <c r="AS82" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AT82" s="2" t="s">
         <v>287</v>
@@ -24000,7 +24118,7 @@
         <v>129</v>
       </c>
       <c r="BT82" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="BU82" s="2">
         <v>1</v>
@@ -24023,19 +24141,20 @@
       <c r="CA82" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB82" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC82" s="2">
+      <c r="CB82" s="2"/>
+      <c r="CC82" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD82" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>156</v>
@@ -24068,7 +24187,7 @@
         <v>2</v>
       </c>
       <c r="M83" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="N83" s="2">
         <v>2</v>
@@ -24146,7 +24265,7 @@
         <v>0</v>
       </c>
       <c r="AM83" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AN83" s="2">
         <v>0</v>
@@ -24164,7 +24283,7 @@
         <v>0</v>
       </c>
       <c r="AS83" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AT83" s="2" t="s">
         <v>287</v>
@@ -24243,7 +24362,7 @@
         <v>129</v>
       </c>
       <c r="BT83" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="BU83" s="2">
         <v>1</v>
@@ -24266,19 +24385,20 @@
       <c r="CA83" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB83" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC83" s="2">
+      <c r="CB83" s="2"/>
+      <c r="CC83" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD83" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>156</v>
@@ -24311,7 +24431,7 @@
         <v>2</v>
       </c>
       <c r="M84" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="N84" s="2">
         <v>2</v>
@@ -24389,7 +24509,7 @@
         <v>0</v>
       </c>
       <c r="AM84" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="AN84" s="2">
         <v>0</v>
@@ -24407,7 +24527,7 @@
         <v>0</v>
       </c>
       <c r="AS84" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AT84" s="2" t="s">
         <v>287</v>
@@ -24486,7 +24606,7 @@
         <v>129</v>
       </c>
       <c r="BT84" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="BU84" s="2">
         <v>1</v>
@@ -24509,19 +24629,20 @@
       <c r="CA84" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB84" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC84" s="2">
+      <c r="CB84" s="2"/>
+      <c r="CC84" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD84" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>66</v>
@@ -24602,10 +24723,10 @@
         <v>0</v>
       </c>
       <c r="AC85" s="2" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="AD85" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="AE85" s="2">
         <v>0</v>
@@ -24752,19 +24873,20 @@
       <c r="CA85" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB85" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC85" s="2">
+      <c r="CB85" s="2"/>
+      <c r="CC85" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD85" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>156</v>
@@ -24797,7 +24919,7 @@
         <v>2</v>
       </c>
       <c r="M86" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="N86" s="2">
         <v>2</v>
@@ -24845,7 +24967,7 @@
         <v>0</v>
       </c>
       <c r="AC86" s="2" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AD86" s="2" t="s">
         <v>92</v>
@@ -24893,7 +25015,7 @@
         <v>0</v>
       </c>
       <c r="AS86" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AT86" s="2" t="s">
         <v>287</v>
@@ -24950,10 +25072,10 @@
         <v>120</v>
       </c>
       <c r="BL86" s="2" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="BM86" s="2" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="BN86" s="2" t="s">
         <v>92</v>
@@ -24972,7 +25094,7 @@
         <v>129</v>
       </c>
       <c r="BT86" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="BU86" s="2">
         <v>1</v>
@@ -24995,19 +25117,20 @@
       <c r="CA86" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB86" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC86" s="2">
+      <c r="CB86" s="2"/>
+      <c r="CC86" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD86" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>156</v>
@@ -25040,7 +25163,7 @@
         <v>2</v>
       </c>
       <c r="M87" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="N87" s="2">
         <v>2</v>
@@ -25088,7 +25211,7 @@
         <v>0</v>
       </c>
       <c r="AC87" s="2" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="AD87" s="2" t="s">
         <v>92</v>
@@ -25106,7 +25229,7 @@
         <v>92</v>
       </c>
       <c r="AI87" s="2" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="AJ87" s="2">
         <v>0</v>
@@ -25136,7 +25259,7 @@
         <v>0</v>
       </c>
       <c r="AS87" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AT87" s="2" t="s">
         <v>287</v>
@@ -25190,7 +25313,7 @@
         <v>46</v>
       </c>
       <c r="BK87" s="2" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="BL87" s="2" t="s">
         <v>120</v>
@@ -25215,7 +25338,7 @@
         <v>129</v>
       </c>
       <c r="BT87" s="2" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="BU87" s="2">
         <v>1</v>
@@ -25238,19 +25361,20 @@
       <c r="CA87" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB87" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC87" s="2">
+      <c r="CB87" s="2"/>
+      <c r="CC87" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD87" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="C88" s="2">
         <v>4</v>
@@ -25280,7 +25404,7 @@
         <v>51</v>
       </c>
       <c r="L88" s="2" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="M88" s="2" t="s">
         <v>46</v>
@@ -25400,7 +25524,7 @@
         <v>44</v>
       </c>
       <c r="AZ88" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="BA88" s="2">
         <v>0</v>
@@ -25481,19 +25605,20 @@
       <c r="CA88" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB88" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC88" s="2">
+      <c r="CB88" s="2"/>
+      <c r="CC88" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD88" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>66</v>
@@ -25643,7 +25768,7 @@
         <v>44</v>
       </c>
       <c r="AZ89" s="2" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="BA89" s="2">
         <v>0</v>
@@ -25701,14 +25826,14 @@
         <v>129</v>
       </c>
       <c r="BT89" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="BU89" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="BV89" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="BU89" s="2" t="s">
-        <v>400</v>
-      </c>
-      <c r="BV89" s="2" t="s">
-        <v>401</v>
-      </c>
       <c r="BW89" s="2" t="s">
         <v>92</v>
       </c>
@@ -25724,19 +25849,20 @@
       <c r="CA89" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB89" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC89" s="2">
+      <c r="CB89" s="2"/>
+      <c r="CC89" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD89" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>66</v>
@@ -25763,7 +25889,7 @@
         <v>2</v>
       </c>
       <c r="K90" s="2" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="L90" s="2">
         <v>2</v>
@@ -25817,7 +25943,7 @@
         <v>0</v>
       </c>
       <c r="AC90" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="AD90" s="2" t="s">
         <v>92</v>
@@ -25865,10 +25991,10 @@
         <v>0</v>
       </c>
       <c r="AS90" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AT90" s="2" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="AU90" s="2">
         <v>0</v>
@@ -25886,40 +26012,40 @@
         <v>44</v>
       </c>
       <c r="AZ90" s="2" t="s">
+        <v>405</v>
+      </c>
+      <c r="BA90" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB90" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC90" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD90" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE90" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF90" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG90" s="2">
+        <v>2</v>
+      </c>
+      <c r="BH90" s="2">
+        <v>2</v>
+      </c>
+      <c r="BI90" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BJ90" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BK90" s="2" t="s">
         <v>407</v>
-      </c>
-      <c r="BA90" s="2">
-        <v>0</v>
-      </c>
-      <c r="BB90" s="2">
-        <v>0</v>
-      </c>
-      <c r="BC90" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD90" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE90" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF90" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG90" s="2">
-        <v>2</v>
-      </c>
-      <c r="BH90" s="2">
-        <v>2</v>
-      </c>
-      <c r="BI90" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="BJ90" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="BK90" s="2" t="s">
-        <v>409</v>
       </c>
       <c r="BL90" s="2" t="s">
         <v>96</v>
@@ -25967,19 +26093,20 @@
       <c r="CA90" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB90" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC90" s="2">
+      <c r="CB90" s="2"/>
+      <c r="CC90" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD90" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>66</v>
@@ -26006,7 +26133,7 @@
         <v>2</v>
       </c>
       <c r="K91" s="2" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="L91" s="2">
         <v>2</v>
@@ -26060,7 +26187,7 @@
         <v>0</v>
       </c>
       <c r="AC91" s="2" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="AD91" s="2" t="s">
         <v>92</v>
@@ -26090,7 +26217,7 @@
         <v>0</v>
       </c>
       <c r="AM91" s="2" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="AN91" s="2">
         <v>0</v>
@@ -26108,7 +26235,7 @@
         <v>0</v>
       </c>
       <c r="AS91" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AT91" s="2" t="s">
         <v>44</v>
@@ -26129,7 +26256,7 @@
         <v>44</v>
       </c>
       <c r="AZ91" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="BA91" s="2">
         <v>0</v>
@@ -26162,7 +26289,7 @@
         <v>46</v>
       </c>
       <c r="BK91" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="BL91" s="2" t="s">
         <v>50</v>
@@ -26210,25 +26337,26 @@
       <c r="CA91" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB91" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC91" s="2">
+      <c r="CB91" s="2"/>
+      <c r="CC91" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD91" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>66</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E92" s="2">
         <v>2</v>
@@ -26249,7 +26377,7 @@
         <v>2</v>
       </c>
       <c r="K92" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="L92" s="2">
         <v>2</v>
@@ -26285,7 +26413,7 @@
         <v>2</v>
       </c>
       <c r="W92" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="X92" s="2" t="s">
         <v>50</v>
@@ -26303,7 +26431,7 @@
         <v>0</v>
       </c>
       <c r="AC92" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AD92" s="2" t="s">
         <v>92</v>
@@ -26345,16 +26473,16 @@
         <v>0</v>
       </c>
       <c r="AQ92" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="AR92" s="2">
         <v>0</v>
       </c>
       <c r="AS92" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="AT92" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="AU92" s="2">
         <v>0</v>
@@ -26366,13 +26494,13 @@
         <v>0</v>
       </c>
       <c r="AX92" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="AY92" s="2" t="s">
         <v>44</v>
       </c>
       <c r="AZ92" s="2" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="BA92" s="2">
         <v>0</v>
@@ -26405,7 +26533,7 @@
         <v>46</v>
       </c>
       <c r="BK92" s="2" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="BL92" s="2" t="s">
         <v>96</v>
@@ -26453,19 +26581,20 @@
       <c r="CA92" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB92" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC92" s="2">
+      <c r="CB92" s="2"/>
+      <c r="CC92" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD92" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>66</v>
@@ -26648,7 +26777,7 @@
         <v>46</v>
       </c>
       <c r="BK93" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="BL93" s="2" t="s">
         <v>50</v>
@@ -26696,19 +26825,20 @@
       <c r="CA93" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB93" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC93" s="2">
+      <c r="CB93" s="2"/>
+      <c r="CC93" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD93" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:81" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:82" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>66</v>
@@ -26729,22 +26859,22 @@
         <v>3</v>
       </c>
       <c r="I94" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="J94" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K94" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="M94" s="2" t="s">
         <v>46</v>
       </c>
       <c r="N94" s="2" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="O94" s="2" t="s">
         <v>46</v>
@@ -26876,7 +27006,7 @@
         <v>0</v>
       </c>
       <c r="BF94" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="BG94" s="2" t="s">
         <v>50</v>
@@ -26891,7 +27021,7 @@
         <v>46</v>
       </c>
       <c r="BK94" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="BL94" s="2" t="s">
         <v>50</v>
@@ -26916,16 +27046,16 @@
         <v>129</v>
       </c>
       <c r="BT94" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="BU94" s="2" t="s">
         <v>424</v>
       </c>
-      <c r="BU94" s="2" t="s">
+      <c r="BV94" s="2" t="s">
         <v>426</v>
       </c>
-      <c r="BV94" s="2" t="s">
-        <v>428</v>
-      </c>
       <c r="BW94" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="BX94" s="2">
         <v>0</v>
@@ -26939,10 +27069,11 @@
       <c r="CA94" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="CB94" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="CC94" s="2">
+      <c r="CB94" s="2"/>
+      <c r="CC94" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD94" s="2">
         <v>0</v>
       </c>
     </row>

--- a/bin/conf/buff.xlsx
+++ b/bin/conf/buff.xlsx
@@ -2095,7 +2095,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4091" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4186" uniqueCount="437">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3740,6 +3740,30 @@
   </si>
   <si>
     <t>33</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量手套</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敏捷便鞋</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4113,11 +4137,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CD94"/>
+  <dimension ref="A1:CD96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BH1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="CB1" sqref="CB1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AI101" sqref="AI101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -27077,6 +27101,494 @@
         <v>0</v>
       </c>
     </row>
+    <row r="95" spans="1:82" x14ac:dyDescent="0.15">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" t="s">
+        <v>431</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E95" s="2">
+        <v>2</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H95" s="2">
+        <v>3</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="K95" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="L95" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="M95" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N95" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="O95" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P95" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q95" s="2">
+        <v>2</v>
+      </c>
+      <c r="R95" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S95" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T95" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U95" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V95" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="W95" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="X95" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y95" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z95" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA95" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB95" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC95" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="AD95" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE95" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="AF95" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG95" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH95" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI95" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ95" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK95" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL95" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM95" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN95" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO95" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP95" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ95" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR95" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS95" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT95" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU95" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV95" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW95" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX95" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY95" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AZ95" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BA95" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB95" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC95" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD95" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE95" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF95" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG95" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BH95" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BI95" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BJ95" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BK95" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BL95" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BM95" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BN95" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO95" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP95" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ95" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BR95" s="2"/>
+      <c r="BS95" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BT95" s="2">
+        <v>4</v>
+      </c>
+      <c r="BU95" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV95" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW95" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BX95" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY95" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BZ95" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CA95" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="CB95" s="2"/>
+      <c r="CC95" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD95" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:82" x14ac:dyDescent="0.15">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" t="s">
+        <v>436</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="E96" s="2">
+        <v>2</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H96" s="2">
+        <v>3</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="M96" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="N96" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="O96" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="P96" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q96" s="2">
+        <v>2</v>
+      </c>
+      <c r="R96" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="S96" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="T96" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="U96" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="V96" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="W96" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="X96" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y96" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z96" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AA96" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="AB96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="AD96" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AE96" s="2" t="s">
+        <v>412</v>
+      </c>
+      <c r="AF96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG96" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="AH96" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="AI96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT96" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX96" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY96" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="AZ96" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BA96" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB96" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC96" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD96" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE96" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF96" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG96" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BH96" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BI96" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BJ96" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="BK96" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BL96" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BM96" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="BN96" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BO96" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BP96" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BQ96" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BR96" s="2"/>
+      <c r="BS96" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="BT96" s="2">
+        <v>4</v>
+      </c>
+      <c r="BU96" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV96" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW96" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BX96" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY96" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="BZ96" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CA96" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="CB96" s="2"/>
+      <c r="CC96" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="CD96" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/conf/buff.xlsx
+++ b/bin/conf/buff.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -2112,11 +2111,89 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
+//增加血量</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CF1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//增加蓝量</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CG1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//魔法伤害吸收量</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="CH1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
 // 特殊情况处理  0表示没有特殊情况 1:血魔的血怒buff死亡后加血 2:血魔焦渴 3:血魔大招 4:帕克大招 5幽鬼折射</t>
         </r>
       </text>
     </comment>
-    <comment ref="CF1" authorId="0" shapeId="0">
+    <comment ref="CI1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -2147,7 +2224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6227" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7932" uniqueCount="578">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4030,47 +4107,253 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>虚无宝石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽魂权杖属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幽魂权杖技能buf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怨灵系带</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空灵挂件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力量护腕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.06</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相位鞋(近战)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相位鞋(远程)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相位鞋主动(近战)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相位鞋主动(远程)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动力鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>空明杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚韧球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王者之戒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复头巾属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恢复头巾恢复效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄冥盾牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄冥盾牌群体护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇气勋章</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1000000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇气勋章加护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇气勋章减护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>勇气勋章减自己护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥数鞋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AddHP</t>
+  </si>
+  <si>
+    <t>AddMP</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>250</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战鼓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战鼓技能buf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>虚无宝石</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幽魂权杖属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>幽魂权杖技能buf</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>怨灵系带</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>空灵挂件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>力量护腕</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.06</t>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -4078,39 +4361,98 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>相位鞋(近战)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相位鞋(远程)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相位鞋主动(近战)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>相位鞋主动(远程)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.22</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0.10</t>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祭品(近战)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祭品(远程)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅肯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>梅肯(光环buf)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笛子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笛子(光环buf)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MagicHurtBlockAllValue</t>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笛子(技能buf)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>400</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4484,11 +4826,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CF131"/>
+  <dimension ref="A1:CI153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AD138" sqref="AD138"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L159" sqref="L159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4501,10 +4843,10 @@
     <col min="76" max="76" width="12" customWidth="1"/>
     <col min="77" max="77" width="12.75" customWidth="1"/>
     <col min="78" max="78" width="17.875" customWidth="1"/>
-    <col min="79" max="82" width="13.5" customWidth="1"/>
+    <col min="79" max="85" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:84" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:87" ht="85.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4752,13 +5094,22 @@
         <v>453</v>
       </c>
       <c r="CE1" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="CH1" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="CF1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="2" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -5002,13 +5353,22 @@
         <v>411</v>
       </c>
       <c r="CE2" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="CF2" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="CG2" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="CH2" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="CF2" s="2">
+      <c r="CI2" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -5252,13 +5612,22 @@
         <v>454</v>
       </c>
       <c r="CE3" s="2" t="s">
+        <v>540</v>
+      </c>
+      <c r="CF3" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="CG3" s="2" t="s">
+        <v>575</v>
+      </c>
+      <c r="CH3" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="CF3" s="2">
+      <c r="CI3" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -5504,11 +5873,20 @@
       <c r="CE4" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF4" s="2">
+      <c r="CF4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH4" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI4" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -5754,11 +6132,20 @@
       <c r="CE5" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF5" s="2">
+      <c r="CF5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH5" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI5" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -6004,11 +6391,20 @@
       <c r="CE6" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF6" s="2">
+      <c r="CF6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH6" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI6" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -6254,11 +6650,20 @@
       <c r="CE7" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF7" s="2">
+      <c r="CF7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH7" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI7" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -6504,11 +6909,20 @@
       <c r="CE8" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF8" s="2">
+      <c r="CF8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH8" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI8" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -6754,11 +7168,20 @@
       <c r="CE9" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF9" s="2">
+      <c r="CF9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH9" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI9" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -7004,11 +7427,20 @@
       <c r="CE10" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF10" s="2">
+      <c r="CF10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH10" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI10" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -7254,11 +7686,20 @@
       <c r="CE11" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF11" s="2">
+      <c r="CF11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH11" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI11" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -7504,11 +7945,20 @@
       <c r="CE12" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF12" s="2">
+      <c r="CF12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI12" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -7754,11 +8204,20 @@
       <c r="CE13" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF13" s="2">
+      <c r="CF13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH13" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI13" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8004,11 +8463,20 @@
       <c r="CE14" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF14" s="2">
+      <c r="CF14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH14" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI14" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8254,11 +8722,20 @@
       <c r="CE15" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF15" s="2">
+      <c r="CF15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH15" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI15" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A16">
         <v>15</v>
       </c>
@@ -8504,11 +8981,20 @@
       <c r="CE16" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF16" s="2">
+      <c r="CF16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH16" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI16" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A17">
         <v>16</v>
       </c>
@@ -8754,11 +9240,20 @@
       <c r="CE17" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF17" s="2">
+      <c r="CF17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI17" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A18">
         <v>17</v>
       </c>
@@ -9004,11 +9499,20 @@
       <c r="CE18" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF18" s="2">
+      <c r="CF18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI18" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A19">
         <v>18</v>
       </c>
@@ -9254,11 +9758,20 @@
       <c r="CE19" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF19" s="2">
+      <c r="CF19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH19" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI19" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A20">
         <v>19</v>
       </c>
@@ -9504,11 +10017,20 @@
       <c r="CE20" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF20" s="2">
+      <c r="CF20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI20" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A21">
         <v>20</v>
       </c>
@@ -9754,11 +10276,20 @@
       <c r="CE21" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF21" s="2">
+      <c r="CF21" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG21" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH21" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI21" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A22">
         <v>21</v>
       </c>
@@ -10004,11 +10535,20 @@
       <c r="CE22" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF22" s="2">
+      <c r="CF22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI22" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A23">
         <v>22</v>
       </c>
@@ -10254,11 +10794,20 @@
       <c r="CE23" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF23" s="2">
+      <c r="CF23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH23" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI23" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A24">
         <v>23</v>
       </c>
@@ -10504,11 +11053,20 @@
       <c r="CE24" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF24" s="2">
+      <c r="CF24" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG24" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH24" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI24" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A25">
         <v>24</v>
       </c>
@@ -10754,11 +11312,20 @@
       <c r="CE25" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF25" s="2">
+      <c r="CF25" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG25" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH25" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI25" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A26">
         <v>25</v>
       </c>
@@ -11004,11 +11571,20 @@
       <c r="CE26" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF26" s="2">
+      <c r="CF26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH26" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI26" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A27">
         <v>26</v>
       </c>
@@ -11255,10 +11831,19 @@
         <v>91</v>
       </c>
       <c r="CF27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH27" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI27" s="2" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="28" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A28">
         <v>27</v>
       </c>
@@ -11502,13 +12087,22 @@
         <v>91</v>
       </c>
       <c r="CE28" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF28" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG28" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH28" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="CF28" s="2" t="s">
+      <c r="CI28" s="2" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="29" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A29">
         <v>28</v>
       </c>
@@ -11754,11 +12348,20 @@
       <c r="CE29" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF29" s="2">
+      <c r="CF29" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG29" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH29" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI29" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A30">
         <v>29</v>
       </c>
@@ -12002,13 +12605,22 @@
         <v>91</v>
       </c>
       <c r="CE30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG30" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH30" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="CF30" s="2" t="s">
+      <c r="CI30" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="31" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A31">
         <v>30</v>
       </c>
@@ -12252,13 +12864,22 @@
         <v>91</v>
       </c>
       <c r="CE31" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF31" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG31" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH31" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="CF31" s="2" t="s">
+      <c r="CI31" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="32" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A32">
         <v>31</v>
       </c>
@@ -12502,13 +13123,22 @@
         <v>91</v>
       </c>
       <c r="CE32" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF32" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG32" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH32" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="CF32" s="2" t="s">
+      <c r="CI32" s="2" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="33" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A33">
         <v>32</v>
       </c>
@@ -12754,11 +13384,20 @@
       <c r="CE33" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF33" s="2">
+      <c r="CF33" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG33" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH33" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI33" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A34">
         <v>33</v>
       </c>
@@ -13004,11 +13643,20 @@
       <c r="CE34" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF34" s="2">
+      <c r="CF34" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG34" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH34" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI34" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A35">
         <v>34</v>
       </c>
@@ -13254,11 +13902,20 @@
       <c r="CE35" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF35" s="2">
+      <c r="CF35" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG35" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH35" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI35" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A36">
         <v>35</v>
       </c>
@@ -13504,11 +14161,20 @@
       <c r="CE36" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF36" s="2">
+      <c r="CF36" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG36" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH36" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI36" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A37">
         <v>36</v>
       </c>
@@ -13754,11 +14420,20 @@
       <c r="CE37" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF37" s="2">
+      <c r="CF37" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG37" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH37" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI37" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A38">
         <v>37</v>
       </c>
@@ -14004,11 +14679,20 @@
       <c r="CE38" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF38" s="2">
+      <c r="CF38" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG38" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH38" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI38" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A39">
         <v>38</v>
       </c>
@@ -14254,11 +14938,20 @@
       <c r="CE39" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF39" s="2">
+      <c r="CF39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI39" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A40">
         <v>39</v>
       </c>
@@ -14504,11 +15197,20 @@
       <c r="CE40" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF40" s="2">
+      <c r="CF40" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG40" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH40" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI40" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A41">
         <v>40</v>
       </c>
@@ -14754,11 +15456,20 @@
       <c r="CE41" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF41" s="2">
+      <c r="CF41" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG41" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH41" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI41" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A42">
         <v>41</v>
       </c>
@@ -15006,11 +15717,20 @@
       <c r="CE42" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF42" s="2">
+      <c r="CF42" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG42" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH42" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI42" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A43">
         <v>42</v>
       </c>
@@ -15256,11 +15976,20 @@
       <c r="CE43" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF43" s="2">
+      <c r="CF43" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG43" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH43" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI43" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A44">
         <v>43</v>
       </c>
@@ -15506,11 +16235,20 @@
       <c r="CE44" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF44" s="2">
+      <c r="CF44" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG44" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH44" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI44" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A45">
         <v>44</v>
       </c>
@@ -15756,11 +16494,20 @@
       <c r="CE45" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF45" s="2">
+      <c r="CF45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI45" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A46">
         <v>45</v>
       </c>
@@ -16006,11 +16753,20 @@
       <c r="CE46" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF46" s="2">
+      <c r="CF46" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG46" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH46" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI46" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A47">
         <v>46</v>
       </c>
@@ -16254,13 +17010,22 @@
         <v>91</v>
       </c>
       <c r="CE47" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF47" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG47" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH47" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="CF47" s="2">
+      <c r="CI47" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A48">
         <v>47</v>
       </c>
@@ -16506,11 +17271,20 @@
       <c r="CE48" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF48" s="2">
+      <c r="CF48" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG48" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH48" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI48" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A49">
         <v>48</v>
       </c>
@@ -16756,11 +17530,20 @@
       <c r="CE49" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF49" s="2">
+      <c r="CF49" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG49" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH49" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI49" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A50">
         <v>49</v>
       </c>
@@ -17004,13 +17787,22 @@
         <v>91</v>
       </c>
       <c r="CE50" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF50" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG50" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH50" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="CF50" s="2" t="s">
+      <c r="CI50" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="51" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A51">
         <v>50</v>
       </c>
@@ -17254,13 +18046,22 @@
         <v>91</v>
       </c>
       <c r="CE51" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF51" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG51" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH51" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="CF51" s="2" t="s">
+      <c r="CI51" s="2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="52" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A52">
         <v>51</v>
       </c>
@@ -17504,13 +18305,22 @@
         <v>91</v>
       </c>
       <c r="CE52" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF52" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG52" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH52" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="CF52" s="2" t="s">
+      <c r="CI52" s="2" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="53" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A53">
         <v>52</v>
       </c>
@@ -17756,11 +18566,20 @@
       <c r="CE53" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF53" s="2">
+      <c r="CF53" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG53" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH53" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI53" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A54">
         <v>53</v>
       </c>
@@ -18006,11 +18825,20 @@
       <c r="CE54" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF54" s="2">
+      <c r="CF54" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG54" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH54" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI54" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A55">
         <v>54</v>
       </c>
@@ -18256,11 +19084,20 @@
       <c r="CE55" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF55" s="2">
+      <c r="CF55" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG55" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH55" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI55" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A56">
         <v>55</v>
       </c>
@@ -18506,11 +19343,20 @@
       <c r="CE56" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF56" s="2">
+      <c r="CF56" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG56" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH56" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI56" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A57">
         <v>56</v>
       </c>
@@ -18756,11 +19602,20 @@
       <c r="CE57" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF57" s="2">
+      <c r="CF57" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG57" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH57" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI57" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A58">
         <v>57</v>
       </c>
@@ -19006,11 +19861,20 @@
       <c r="CE58" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF58" s="2">
+      <c r="CF58" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG58" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH58" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI58" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A59">
         <v>58</v>
       </c>
@@ -19258,11 +20122,20 @@
       <c r="CE59" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF59" s="2">
+      <c r="CF59" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG59" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH59" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI59" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A60">
         <v>59</v>
       </c>
@@ -19506,13 +20379,22 @@
         <v>91</v>
       </c>
       <c r="CE60" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF60" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG60" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH60" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="CF60" s="2" t="s">
+      <c r="CI60" s="2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="61" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A61">
         <v>60</v>
       </c>
@@ -19758,11 +20640,20 @@
       <c r="CE61" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF61" s="2">
+      <c r="CF61" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG61" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH61" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI61" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A62">
         <v>61</v>
       </c>
@@ -20008,11 +20899,20 @@
       <c r="CE62" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF62" s="2">
+      <c r="CF62" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG62" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH62" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI62" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A63">
         <v>62</v>
       </c>
@@ -20258,11 +21158,20 @@
       <c r="CE63" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF63" s="2">
+      <c r="CF63" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG63" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH63" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI63" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A64">
         <v>63</v>
       </c>
@@ -20506,13 +21415,22 @@
         <v>91</v>
       </c>
       <c r="CE64" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF64" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG64" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH64" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="CF64" s="2">
+      <c r="CI64" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A65">
         <v>64</v>
       </c>
@@ -20758,11 +21676,20 @@
       <c r="CE65" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF65" s="2">
+      <c r="CF65" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG65" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH65" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI65" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A66">
         <v>65</v>
       </c>
@@ -21008,11 +21935,20 @@
       <c r="CE66" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF66" s="2">
+      <c r="CF66" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG66" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH66" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI66" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A67">
         <v>66</v>
       </c>
@@ -21258,11 +22194,20 @@
       <c r="CE67" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF67" s="2">
+      <c r="CF67" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG67" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH67" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI67" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A68">
         <v>67</v>
       </c>
@@ -21508,11 +22453,20 @@
       <c r="CE68" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF68" s="2">
+      <c r="CF68" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG68" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH68" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI68" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A69">
         <v>68</v>
       </c>
@@ -21758,11 +22712,20 @@
       <c r="CE69" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF69" s="2">
+      <c r="CF69" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG69" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH69" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI69" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A70">
         <v>69</v>
       </c>
@@ -22008,11 +22971,20 @@
       <c r="CE70" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF70" s="2">
+      <c r="CF70" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG70" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH70" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI70" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A71">
         <v>70</v>
       </c>
@@ -22258,11 +23230,20 @@
       <c r="CE71" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF71" s="2">
+      <c r="CF71" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG71" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH71" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI71" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A72">
         <v>71</v>
       </c>
@@ -22508,11 +23489,20 @@
       <c r="CE72" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF72" s="2">
+      <c r="CF72" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG72" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH72" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI72" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A73">
         <v>72</v>
       </c>
@@ -22758,11 +23748,20 @@
       <c r="CE73" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF73" s="2">
+      <c r="CF73" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG73" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH73" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI73" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A74">
         <v>73</v>
       </c>
@@ -23008,11 +24007,20 @@
       <c r="CE74" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF74" s="2">
+      <c r="CF74" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG74" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH74" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI74" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A75">
         <v>74</v>
       </c>
@@ -23258,11 +24266,20 @@
       <c r="CE75" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF75" s="2">
+      <c r="CF75" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG75" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH75" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI75" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A76">
         <v>75</v>
       </c>
@@ -23508,11 +24525,20 @@
       <c r="CE76" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF76" s="2">
+      <c r="CF76" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG76" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH76" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI76" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A77">
         <v>76</v>
       </c>
@@ -23758,11 +24784,20 @@
       <c r="CE77" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF77" s="2">
+      <c r="CF77" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG77" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH77" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI77" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A78">
         <v>77</v>
       </c>
@@ -24008,11 +25043,20 @@
       <c r="CE78" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF78" s="2">
+      <c r="CF78" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG78" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH78" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI78" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A79">
         <v>78</v>
       </c>
@@ -24258,11 +25302,20 @@
       <c r="CE79" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF79" s="2">
+      <c r="CF79" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG79" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH79" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI79" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A80">
         <v>79</v>
       </c>
@@ -24508,11 +25561,20 @@
       <c r="CE80" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF80" s="2">
+      <c r="CF80" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG80" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH80" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI80" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A81">
         <v>80</v>
       </c>
@@ -24758,11 +25820,20 @@
       <c r="CE81" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF81" s="2">
+      <c r="CF81" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG81" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH81" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI81" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A82">
         <v>81</v>
       </c>
@@ -25008,11 +26079,20 @@
       <c r="CE82" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF82" s="2">
+      <c r="CF82" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG82" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH82" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI82" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A83">
         <v>82</v>
       </c>
@@ -25258,11 +26338,20 @@
       <c r="CE83" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF83" s="2">
+      <c r="CF83" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG83" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH83" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI83" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A84">
         <v>83</v>
       </c>
@@ -25508,11 +26597,20 @@
       <c r="CE84" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF84" s="2">
+      <c r="CF84" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG84" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH84" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI84" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A85">
         <v>84</v>
       </c>
@@ -25758,11 +26856,20 @@
       <c r="CE85" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF85" s="2">
+      <c r="CF85" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG85" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH85" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI85" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A86">
         <v>85</v>
       </c>
@@ -26008,11 +27115,20 @@
       <c r="CE86" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF86" s="2">
+      <c r="CF86" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG86" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH86" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI86" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A87">
         <v>86</v>
       </c>
@@ -26258,11 +27374,20 @@
       <c r="CE87" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF87" s="2">
+      <c r="CF87" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG87" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH87" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI87" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A88">
         <v>87</v>
       </c>
@@ -26508,11 +27633,20 @@
       <c r="CE88" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF88" s="2">
+      <c r="CF88" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG88" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH88" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI88" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A89">
         <v>88</v>
       </c>
@@ -26758,11 +27892,20 @@
       <c r="CE89" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF89" s="2">
+      <c r="CF89" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG89" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH89" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI89" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A90">
         <v>89</v>
       </c>
@@ -27008,11 +28151,20 @@
       <c r="CE90" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF90" s="2">
+      <c r="CF90" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG90" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH90" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI90" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A91">
         <v>90</v>
       </c>
@@ -27258,11 +28410,20 @@
       <c r="CE91" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF91" s="2">
+      <c r="CF91" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG91" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH91" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI91" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A92">
         <v>91</v>
       </c>
@@ -27508,11 +28669,20 @@
       <c r="CE92" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF92" s="2">
+      <c r="CF92" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG92" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH92" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI92" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A93">
         <v>92</v>
       </c>
@@ -27758,11 +28928,20 @@
       <c r="CE93" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF93" s="2">
+      <c r="CF93" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG93" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH93" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI93" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A94">
         <v>93</v>
       </c>
@@ -28008,11 +29187,20 @@
       <c r="CE94" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF94" s="2">
+      <c r="CF94" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG94" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH94" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI94" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A95">
         <v>94</v>
       </c>
@@ -28258,11 +29446,20 @@
       <c r="CE95" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF95" s="2">
+      <c r="CF95" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG95" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH95" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI95" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A96">
         <v>95</v>
       </c>
@@ -28508,11 +29705,20 @@
       <c r="CE96" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF96" s="2">
+      <c r="CF96" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG96" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH96" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI96" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A97">
         <v>96</v>
       </c>
@@ -28758,11 +29964,20 @@
       <c r="CE97" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF97" s="2">
+      <c r="CF97" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG97" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH97" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI97" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A98">
         <v>97</v>
       </c>
@@ -29008,11 +30223,20 @@
       <c r="CE98" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF98" s="2">
+      <c r="CF98" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG98" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH98" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI98" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A99">
         <v>98</v>
       </c>
@@ -29258,11 +30482,20 @@
       <c r="CE99" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF99" s="2">
+      <c r="CF99" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG99" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH99" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI99" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A100">
         <v>99</v>
       </c>
@@ -29508,11 +30741,20 @@
       <c r="CE100" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF100" s="2">
+      <c r="CF100" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG100" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH100" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI100" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A101">
         <v>100</v>
       </c>
@@ -29758,11 +31000,20 @@
       <c r="CE101" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF101" s="2">
+      <c r="CF101" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG101" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH101" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI101" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A102">
         <v>101</v>
       </c>
@@ -30008,11 +31259,20 @@
       <c r="CE102" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF102" s="2">
+      <c r="CF102" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG102" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH102" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI102" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A103">
         <v>102</v>
       </c>
@@ -30258,11 +31518,20 @@
       <c r="CE103" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF103" s="2">
+      <c r="CF103" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG103" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH103" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI103" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A104">
         <v>103</v>
       </c>
@@ -30508,11 +31777,20 @@
       <c r="CE104" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF104" s="2">
+      <c r="CF104" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG104" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH104" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI104" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A105">
         <v>104</v>
       </c>
@@ -30758,11 +32036,20 @@
       <c r="CE105" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF105" s="2">
+      <c r="CF105" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG105" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH105" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI105" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A106">
         <v>105</v>
       </c>
@@ -31008,11 +32295,20 @@
       <c r="CE106" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF106" s="2">
+      <c r="CF106" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG106" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH106" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI106" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A107">
         <v>106</v>
       </c>
@@ -31258,11 +32554,20 @@
       <c r="CE107" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF107" s="2">
+      <c r="CF107" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG107" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH107" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI107" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A108">
         <v>107</v>
       </c>
@@ -31508,11 +32813,20 @@
       <c r="CE108" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF108" s="2">
+      <c r="CF108" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG108" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH108" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI108" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A109">
         <v>108</v>
       </c>
@@ -31758,11 +33072,20 @@
       <c r="CE109" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF109" s="2">
+      <c r="CF109" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG109" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH109" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI109" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A110">
         <v>109</v>
       </c>
@@ -32008,11 +33331,20 @@
       <c r="CE110" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF110" s="2">
+      <c r="CF110" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG110" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH110" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI110" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A111">
         <v>110</v>
       </c>
@@ -32258,11 +33590,20 @@
       <c r="CE111" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF111" s="2">
+      <c r="CF111" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG111" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH111" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI111" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A112">
         <v>111</v>
       </c>
@@ -32508,11 +33849,20 @@
       <c r="CE112" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF112" s="2">
+      <c r="CF112" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG112" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH112" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI112" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A113">
         <v>112</v>
       </c>
@@ -32758,11 +34108,20 @@
       <c r="CE113" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF113" s="2">
+      <c r="CF113" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG113" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH113" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI113" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A114">
         <v>113</v>
       </c>
@@ -33008,11 +34367,20 @@
       <c r="CE114" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF114" s="2">
+      <c r="CF114" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG114" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH114" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI114" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A115">
         <v>114</v>
       </c>
@@ -33258,11 +34626,20 @@
       <c r="CE115" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF115" s="2">
+      <c r="CF115" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG115" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH115" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI115" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A116">
         <v>115</v>
       </c>
@@ -33508,11 +34885,20 @@
       <c r="CE116" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF116" s="2">
+      <c r="CF116" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG116" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH116" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI116" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A117">
         <v>116</v>
       </c>
@@ -33758,11 +35144,20 @@
       <c r="CE117" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF117" s="2">
+      <c r="CF117" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG117" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH117" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI117" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A118">
         <v>117</v>
       </c>
@@ -34008,11 +35403,20 @@
       <c r="CE118" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF118" s="2">
+      <c r="CF118" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG118" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH118" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI118" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A119">
         <v>118</v>
       </c>
@@ -34258,11 +35662,20 @@
       <c r="CE119" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF119" s="2">
+      <c r="CF119" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG119" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH119" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI119" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A120">
         <v>119</v>
       </c>
@@ -34508,11 +35921,20 @@
       <c r="CE120" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF120" s="2">
+      <c r="CF120" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG120" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH120" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI120" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A121">
         <v>120</v>
       </c>
@@ -34661,7 +36083,7 @@
         <v>0</v>
       </c>
       <c r="AX121" s="2" t="s">
-        <v>490</v>
+        <v>442</v>
       </c>
       <c r="AY121" s="2" t="s">
         <v>43</v>
@@ -34758,16 +36180,25 @@
       <c r="CE121" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF121" s="2">
+      <c r="CF121" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG121" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH121" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI121" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A122">
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>65</v>
@@ -34890,7 +36321,7 @@
         <v>0</v>
       </c>
       <c r="AQ122" s="2" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="AR122" s="2">
         <v>0</v>
@@ -35008,16 +36439,25 @@
       <c r="CE122" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF122" s="2">
+      <c r="CF122" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG122" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH122" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI122" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A123">
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>65</v>
@@ -35258,16 +36698,25 @@
       <c r="CE123" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF123" s="2">
+      <c r="CF123" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG123" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH123" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI123" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A124">
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>65</v>
@@ -35508,16 +36957,25 @@
       <c r="CE124" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF124" s="2">
+      <c r="CF124" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG124" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH124" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI124" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A125">
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>65</v>
@@ -35607,7 +37065,7 @@
         <v>434</v>
       </c>
       <c r="AF125" s="2" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="AG125" s="2" t="s">
         <v>442</v>
@@ -35758,16 +37216,25 @@
       <c r="CE125" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF125" s="2">
+      <c r="CF125" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG125" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH125" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI125" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A126">
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>65</v>
@@ -35884,7 +37351,7 @@
         <v>411</v>
       </c>
       <c r="AO126" s="2" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="AP126" s="2">
         <v>0</v>
@@ -36008,16 +37475,25 @@
       <c r="CE126" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF126" s="2">
+      <c r="CF126" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG126" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH126" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI126" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="127" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A127">
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>65</v>
@@ -36149,7 +37625,7 @@
         <v>0</v>
       </c>
       <c r="AT127" s="2" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="AU127" s="2">
         <v>0</v>
@@ -36258,16 +37734,25 @@
       <c r="CE127" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF127" s="2">
+      <c r="CF127" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG127" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH127" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI127" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="128" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A128">
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>65</v>
@@ -36372,7 +37857,7 @@
         <v>0</v>
       </c>
       <c r="AK128" s="2" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="AL128" s="2">
         <v>0</v>
@@ -36396,10 +37881,10 @@
         <v>0</v>
       </c>
       <c r="AS128" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AT128" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AU128" s="2">
         <v>0</v>
@@ -36508,16 +37993,25 @@
       <c r="CE128" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF128" s="2">
+      <c r="CF128" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG128" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH128" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI128" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="129" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>65</v>
@@ -36622,7 +38116,7 @@
         <v>0</v>
       </c>
       <c r="AK129" s="2" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AL129" s="2">
         <v>0</v>
@@ -36646,10 +38140,10 @@
         <v>0</v>
       </c>
       <c r="AS129" s="2" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="AT129" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AU129" s="2">
         <v>0</v>
@@ -36758,16 +38252,25 @@
       <c r="CE129" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF129" s="2">
+      <c r="CF129" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG129" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH129" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI129" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="130" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A130">
         <v>129</v>
       </c>
       <c r="B130" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>65</v>
@@ -36878,7 +38381,7 @@
         <v>0</v>
       </c>
       <c r="AM130" s="2" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AN130" s="2" t="s">
         <v>411</v>
@@ -36899,7 +38402,7 @@
         <v>411</v>
       </c>
       <c r="AT130" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AU130" s="2">
         <v>0</v>
@@ -37008,16 +38511,25 @@
       <c r="CE130" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF130" s="2">
+      <c r="CF130" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG130" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH130" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI130" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:84" x14ac:dyDescent="0.15">
+    <row r="131" spans="1:87" x14ac:dyDescent="0.15">
       <c r="A131">
         <v>130</v>
       </c>
       <c r="B131" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>65</v>
@@ -37128,7 +38640,7 @@
         <v>0</v>
       </c>
       <c r="AM131" s="2" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="AN131" s="2" t="s">
         <v>411</v>
@@ -37149,7 +38661,7 @@
         <v>411</v>
       </c>
       <c r="AT131" s="2" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="AU131" s="2">
         <v>0</v>
@@ -37258,7 +38770,5714 @@
       <c r="CE131" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="CF131" s="2">
+      <c r="CF131" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG131" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH131" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI131" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:87" x14ac:dyDescent="0.15">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>510</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E132" s="2">
+        <v>2</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H132" s="2">
+        <v>3</v>
+      </c>
+      <c r="I132" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="J132" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="K132" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="L132" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="M132" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N132" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="O132" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P132" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q132" s="2">
+        <v>2</v>
+      </c>
+      <c r="R132" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S132" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T132" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U132" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V132" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W132" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X132" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y132" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z132" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA132" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB132" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC132" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="AD132" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="AE132" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AF132" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AG132" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AH132" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI132" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="AJ132" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK132" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AL132" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM132" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="AN132" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO132" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP132" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ132" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="AR132" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS132" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT132" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU132" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV132" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW132" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX132" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AY132" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ132" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA132" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB132" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC132" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD132" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE132" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF132" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG132" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BH132" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI132" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ132" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BK132" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL132" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BM132" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN132" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO132" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP132" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ132" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR132" s="2"/>
+      <c r="BS132" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT132" s="2">
+        <v>4</v>
+      </c>
+      <c r="BU132" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV132" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW132" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BX132" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY132" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BZ132" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA132" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CB132" s="2"/>
+      <c r="CC132" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD132" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE132" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF132" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG132" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH132" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI132" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:87" x14ac:dyDescent="0.15">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>512</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E133" s="2">
+        <v>2</v>
+      </c>
+      <c r="F133" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G133" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H133" s="2">
+        <v>3</v>
+      </c>
+      <c r="I133" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="J133" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="K133" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="L133" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="M133" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N133" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="O133" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P133" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q133" s="2">
+        <v>2</v>
+      </c>
+      <c r="R133" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S133" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T133" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U133" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V133" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W133" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X133" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y133" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z133" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA133" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB133" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC133" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="AD133" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AE133" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AF133" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="AG133" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AH133" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI133" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="AJ133" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK133" s="2" t="s">
+        <v>513</v>
+      </c>
+      <c r="AL133" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM133" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AN133" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO133" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP133" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ133" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="AR133" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS133" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT133" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU133" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV133" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW133" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX133" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AY133" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ133" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA133" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB133" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC133" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD133" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE133" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF133" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG133" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BH133" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI133" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ133" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BK133" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL133" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BM133" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN133" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO133" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP133" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ133" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR133" s="2"/>
+      <c r="BS133" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT133" s="2">
+        <v>4</v>
+      </c>
+      <c r="BU133" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV133" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW133" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BX133" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY133" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BZ133" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA133" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CB133" s="2"/>
+      <c r="CC133" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD133" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE133" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF133" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG133" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH133" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI133" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:87" x14ac:dyDescent="0.15">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>515</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D134" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E134" s="2">
+        <v>2</v>
+      </c>
+      <c r="F134" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G134" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H134" s="2">
+        <v>3</v>
+      </c>
+      <c r="I134" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="J134" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="K134" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="L134" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="M134" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N134" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="O134" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P134" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q134" s="2">
+        <v>2</v>
+      </c>
+      <c r="R134" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S134" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T134" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U134" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V134" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W134" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X134" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y134" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z134" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA134" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB134" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC134" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="AD134" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE134" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AF134" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AG134" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AH134" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI134" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AJ134" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK134" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AL134" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM134" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AN134" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO134" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP134" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ134" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="AR134" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS134" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT134" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="AU134" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV134" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW134" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX134" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="AY134" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ134" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA134" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB134" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC134" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD134" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE134" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF134" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG134" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BH134" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI134" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ134" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BK134" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL134" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BM134" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN134" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO134" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP134" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ134" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR134" s="2"/>
+      <c r="BS134" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT134" s="2">
+        <v>4</v>
+      </c>
+      <c r="BU134" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV134" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW134" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BX134" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY134" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BZ134" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA134" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CB134" s="2"/>
+      <c r="CC134" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD134" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE134" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF134" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG134" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH134" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI134" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:87" x14ac:dyDescent="0.15">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>516</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D135" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="E135" s="2">
+        <v>2</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G135" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H135" s="2">
+        <v>3</v>
+      </c>
+      <c r="I135" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="J135" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="K135" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="L135" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="M135" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N135" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="O135" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P135" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q135" s="2">
+        <v>2</v>
+      </c>
+      <c r="R135" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S135" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T135" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U135" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V135" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W135" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X135" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y135" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z135" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA135" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB135" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC135" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="AD135" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE135" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AF135" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AG135" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AH135" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI135" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AJ135" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK135" s="2" t="s">
+        <v>519</v>
+      </c>
+      <c r="AL135" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM135" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AN135" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO135" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP135" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ135" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="AR135" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS135" s="2" t="s">
+        <v>518</v>
+      </c>
+      <c r="AT135" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="AU135" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV135" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW135" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX135" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="AY135" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ135" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA135" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB135" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC135" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD135" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE135" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF135" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG135" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BH135" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI135" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ135" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BK135" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL135" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BM135" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN135" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO135" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP135" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ135" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR135" s="2"/>
+      <c r="BS135" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT135" s="2">
+        <v>4</v>
+      </c>
+      <c r="BU135" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV135" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW135" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BX135" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY135" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BZ135" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA135" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CB135" s="2"/>
+      <c r="CC135" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD135" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE135" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF135" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG135" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH135" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI135" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:87" x14ac:dyDescent="0.15">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>522</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D136" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E136" s="2">
+        <v>2</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G136" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H136" s="2">
+        <v>3</v>
+      </c>
+      <c r="I136" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="J136" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="K136" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="L136" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="M136" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N136" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="O136" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P136" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q136" s="2">
+        <v>2</v>
+      </c>
+      <c r="R136" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S136" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T136" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U136" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V136" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W136" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X136" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y136" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z136" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA136" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB136" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC136" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="AD136" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE136" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="AF136" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="AG136" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="AH136" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI136" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AJ136" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK136" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AL136" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM136" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AN136" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO136" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP136" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ136" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AR136" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS136" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="AT136" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="AU136" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV136" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW136" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX136" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="AY136" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ136" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA136" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB136" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC136" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD136" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE136" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF136" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG136" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BH136" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI136" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ136" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BK136" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL136" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BM136" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN136" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO136" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP136" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ136" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR136" s="2"/>
+      <c r="BS136" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT136" s="2">
+        <v>4</v>
+      </c>
+      <c r="BU136" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV136" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW136" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BX136" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY136" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BZ136" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA136" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CB136" s="2"/>
+      <c r="CC136" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD136" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE136" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF136" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG136" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH136" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI136" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:87" x14ac:dyDescent="0.15">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" t="s">
+        <v>523</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E137" s="2">
+        <v>2</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G137" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H137" s="2">
+        <v>3</v>
+      </c>
+      <c r="I137" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="J137" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="K137" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="L137" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="M137" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N137" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="O137" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P137" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q137" s="2">
+        <v>2</v>
+      </c>
+      <c r="R137" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S137" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T137" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U137" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V137" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W137" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X137" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y137" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z137" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA137" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB137" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC137" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD137" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE137" s="2" t="s">
+        <v>524</v>
+      </c>
+      <c r="AF137" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AG137" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AH137" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI137" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AJ137" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK137" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AL137" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM137" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AN137" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO137" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP137" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ137" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AR137" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS137" s="2" t="s">
+        <v>521</v>
+      </c>
+      <c r="AT137" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="AU137" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV137" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW137" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX137" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="AY137" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ137" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA137" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB137" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC137" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD137" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE137" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF137" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG137" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BH137" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI137" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ137" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BK137" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL137" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BM137" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN137" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO137" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP137" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ137" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR137" s="2"/>
+      <c r="BS137" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT137" s="2">
+        <v>4</v>
+      </c>
+      <c r="BU137" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV137" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW137" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BX137" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY137" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BZ137" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA137" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CB137" s="2"/>
+      <c r="CC137" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD137" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE137" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF137" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG137" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH137" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI137" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:87" x14ac:dyDescent="0.15">
+      <c r="A138">
+        <v>137</v>
+      </c>
+      <c r="B138" t="s">
+        <v>525</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D138" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E138" s="2">
+        <v>2</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G138" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H138" s="2">
+        <v>3</v>
+      </c>
+      <c r="I138" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="J138" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="K138" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="L138" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="M138" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N138" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="O138" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P138" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q138" s="2">
+        <v>2</v>
+      </c>
+      <c r="R138" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S138" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T138" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U138" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V138" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W138" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X138" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y138" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z138" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA138" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB138" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC138" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="AD138" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE138" s="2" t="s">
+        <v>520</v>
+      </c>
+      <c r="AF138" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="AG138" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="AH138" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI138" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AJ138" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK138" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AL138" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM138" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AN138" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO138" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP138" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ138" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AR138" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS138" s="2" t="s">
+        <v>468</v>
+      </c>
+      <c r="AT138" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="AU138" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV138" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW138" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX138" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="AY138" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ138" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA138" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB138" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC138" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD138" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE138" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF138" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG138" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BH138" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI138" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ138" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BK138" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL138" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BM138" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN138" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO138" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP138" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ138" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR138" s="2"/>
+      <c r="BS138" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT138" s="2">
+        <v>4</v>
+      </c>
+      <c r="BU138" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV138" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW138" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BX138" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY138" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BZ138" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA138" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CB138" s="2"/>
+      <c r="CC138" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD138" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE138" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF138" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG138" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH138" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI138" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:87" x14ac:dyDescent="0.15">
+      <c r="A139">
+        <v>138</v>
+      </c>
+      <c r="B139" t="s">
+        <v>526</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E139" s="2">
+        <v>2</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G139" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H139" s="2">
+        <v>3</v>
+      </c>
+      <c r="I139" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="J139" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="K139" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="L139" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="M139" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N139" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="O139" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P139" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q139" s="2">
+        <v>2</v>
+      </c>
+      <c r="R139" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S139" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T139" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U139" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V139" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W139" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X139" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y139" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z139" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA139" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB139" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC139" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="AD139" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE139" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="AF139" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AG139" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AH139" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI139" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AJ139" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK139" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AL139" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM139" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AN139" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO139" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP139" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ139" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AR139" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS139" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="AT139" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="AU139" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV139" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW139" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX139" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="AY139" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ139" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA139" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB139" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC139" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD139" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE139" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF139" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG139" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BH139" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI139" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ139" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BK139" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL139" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BM139" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN139" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO139" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP139" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ139" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR139" s="2"/>
+      <c r="BS139" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT139" s="2">
+        <v>4</v>
+      </c>
+      <c r="BU139" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV139" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW139" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BX139" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY139" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BZ139" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA139" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CB139" s="2"/>
+      <c r="CC139" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD139" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE139" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF139" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG139" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH139" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI139" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:87" x14ac:dyDescent="0.15">
+      <c r="A140">
+        <v>139</v>
+      </c>
+      <c r="B140" t="s">
+        <v>528</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E140" s="2">
+        <v>2</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G140" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H140" s="2">
+        <v>3</v>
+      </c>
+      <c r="I140" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="J140" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="K140" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="L140" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="M140" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N140" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="O140" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P140" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q140" s="2">
+        <v>2</v>
+      </c>
+      <c r="R140" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S140" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T140" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U140" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V140" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W140" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X140" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y140" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z140" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA140" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB140" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC140" s="2" t="s">
+        <v>529</v>
+      </c>
+      <c r="AD140" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE140" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="AF140" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AG140" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AH140" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI140" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AJ140" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK140" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AL140" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM140" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AN140" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO140" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP140" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ140" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="AR140" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS140" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="AT140" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="AU140" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV140" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW140" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX140" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="AY140" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ140" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA140" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB140" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC140" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD140" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE140" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF140" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG140" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BH140" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI140" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ140" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BK140" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL140" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BM140" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN140" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO140" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP140" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ140" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR140" s="2"/>
+      <c r="BS140" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT140" s="2">
+        <v>4</v>
+      </c>
+      <c r="BU140" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV140" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW140" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BX140" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY140" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BZ140" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA140" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CB140" s="2"/>
+      <c r="CC140" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD140" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE140" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF140" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG140" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH140" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI140" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:87" x14ac:dyDescent="0.15">
+      <c r="A141">
+        <v>140</v>
+      </c>
+      <c r="B141" t="s">
+        <v>531</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E141" s="2">
+        <v>2</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G141" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H141" s="2">
+        <v>3</v>
+      </c>
+      <c r="I141" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="J141" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="K141" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="L141" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="M141" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N141" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="O141" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P141" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q141" s="2">
+        <v>2</v>
+      </c>
+      <c r="R141" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S141" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T141" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U141" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V141" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W141" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X141" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y141" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z141" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA141" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB141" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC141" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="AD141" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE141" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="AF141" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AG141" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AH141" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI141" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AJ141" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK141" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AL141" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM141" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AN141" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO141" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP141" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ141" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="AR141" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS141" s="2" t="s">
+        <v>530</v>
+      </c>
+      <c r="AT141" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="AU141" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV141" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW141" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX141" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="AY141" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ141" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA141" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB141" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC141" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD141" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE141" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF141" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG141" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BH141" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI141" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ141" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BK141" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL141" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BM141" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN141" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO141" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP141" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ141" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR141" s="2"/>
+      <c r="BS141" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT141" s="2">
+        <v>4</v>
+      </c>
+      <c r="BU141" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV141" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW141" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BX141" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY141" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BZ141" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA141" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CB141" s="2"/>
+      <c r="CC141" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD141" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE141" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF141" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG141" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH141" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI141" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:87" x14ac:dyDescent="0.15">
+      <c r="A142">
+        <v>141</v>
+      </c>
+      <c r="B142" t="s">
+        <v>533</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D142" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E142" s="2">
+        <v>2</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G142" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H142" s="2">
+        <v>3</v>
+      </c>
+      <c r="I142" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="J142" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="K142" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="L142" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="M142" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N142" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="O142" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P142" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q142" s="2">
+        <v>2</v>
+      </c>
+      <c r="R142" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S142" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T142" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U142" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V142" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W142" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X142" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y142" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z142" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA142" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB142" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC142" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="AD142" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE142" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="AF142" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AG142" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AH142" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI142" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AJ142" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK142" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AL142" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM142" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AN142" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO142" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP142" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ142" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="AR142" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS142" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="AT142" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="AU142" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV142" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW142" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX142" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="AY142" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ142" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA142" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB142" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC142" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD142" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE142" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF142" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG142" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BH142" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI142" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ142" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BK142" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL142" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BM142" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN142" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO142" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP142" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ142" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR142" s="2"/>
+      <c r="BS142" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT142" s="2">
+        <v>4</v>
+      </c>
+      <c r="BU142" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV142" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW142" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BX142" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY142" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BZ142" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA142" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CB142" s="2"/>
+      <c r="CC142" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD142" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE142" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF142" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG142" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH142" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI142" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:87" x14ac:dyDescent="0.15">
+      <c r="A143">
+        <v>142</v>
+      </c>
+      <c r="B143" t="s">
+        <v>535</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E143" s="2">
+        <v>2</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G143" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H143" s="2">
+        <v>3</v>
+      </c>
+      <c r="I143" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="J143" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="K143" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="L143" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="M143" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N143" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="O143" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P143" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q143" s="2">
+        <v>2</v>
+      </c>
+      <c r="R143" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S143" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T143" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U143" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V143" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W143" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X143" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y143" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z143" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA143" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB143" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC143" s="2" t="s">
+        <v>532</v>
+      </c>
+      <c r="AD143" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE143" s="2" t="s">
+        <v>527</v>
+      </c>
+      <c r="AF143" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AG143" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AH143" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI143" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AJ143" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK143" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AL143" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM143" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AN143" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO143" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP143" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ143" s="2" t="s">
+        <v>467</v>
+      </c>
+      <c r="AR143" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS143" s="2" t="s">
+        <v>534</v>
+      </c>
+      <c r="AT143" s="2" t="s">
+        <v>489</v>
+      </c>
+      <c r="AU143" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV143" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW143" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX143" s="2" t="s">
+        <v>517</v>
+      </c>
+      <c r="AY143" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ143" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA143" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB143" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC143" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD143" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE143" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF143" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG143" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BH143" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI143" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ143" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BK143" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL143" s="2" t="s">
+        <v>536</v>
+      </c>
+      <c r="BM143" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN143" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO143" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP143" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ143" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR143" s="2"/>
+      <c r="BS143" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT143" s="2">
+        <v>4</v>
+      </c>
+      <c r="BU143" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV143" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW143" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BX143" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY143" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BZ143" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA143" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CB143" s="2"/>
+      <c r="CC143" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD143" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE143" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF143" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG143" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH143" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI143" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:87" x14ac:dyDescent="0.15">
+      <c r="A144">
+        <v>143</v>
+      </c>
+      <c r="B144" t="s">
+        <v>537</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D144" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="E144" s="2">
+        <v>2</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G144" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H144" s="2">
+        <v>3</v>
+      </c>
+      <c r="I144" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="J144" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="K144" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="L144" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="M144" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N144" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="O144" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P144" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q144" s="2">
+        <v>2</v>
+      </c>
+      <c r="R144" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S144" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T144" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U144" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V144" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W144" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X144" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y144" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z144" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA144" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB144" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC144" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="AD144" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE144" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AF144" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AG144" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AH144" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI144" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ144" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK144" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AL144" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM144" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="AN144" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO144" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP144" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ144" s="2" t="s">
+        <v>481</v>
+      </c>
+      <c r="AR144" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS144" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT144" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU144" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV144" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW144" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX144" s="2" t="s">
+        <v>411</v>
+      </c>
+      <c r="AY144" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ144" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA144" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB144" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC144" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD144" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE144" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF144" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG144" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BH144" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI144" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ144" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BK144" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL144" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BM144" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN144" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO144" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP144" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ144" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR144" s="2"/>
+      <c r="BS144" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT144" s="2">
+        <v>4</v>
+      </c>
+      <c r="BU144" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV144" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW144" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BX144" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY144" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BZ144" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA144" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CB144" s="2"/>
+      <c r="CC144" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD144" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE144" s="2" t="s">
+        <v>542</v>
+      </c>
+      <c r="CF144" s="2" t="s">
+        <v>541</v>
+      </c>
+      <c r="CG144" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH144" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI144" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:87" x14ac:dyDescent="0.15">
+      <c r="A145">
+        <v>144</v>
+      </c>
+      <c r="B145" t="s">
+        <v>543</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="E145" s="2">
+        <v>2</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G145" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H145" s="2">
+        <v>3</v>
+      </c>
+      <c r="I145" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J145" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K145" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L145" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M145" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N145" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O145" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P145" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q145" s="2">
+        <v>2</v>
+      </c>
+      <c r="R145" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S145" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T145" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U145" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V145" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W145" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X145" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y145" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z145" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA145" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB145" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC145" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="AD145" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE145" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="AF145" s="2" t="s">
+        <v>545</v>
+      </c>
+      <c r="AG145" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="AH145" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI145" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ145" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK145" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL145" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM145" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN145" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="AO145" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP145" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ145" s="2" t="s">
+        <v>514</v>
+      </c>
+      <c r="AR145" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS145" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT145" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU145" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV145" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW145" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX145" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY145" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ145" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA145" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB145" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC145" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD145" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE145" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF145" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG145" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BH145" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI145" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ145" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BK145" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL145" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BM145" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN145" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO145" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP145" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ145" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR145" s="2"/>
+      <c r="BS145" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT145" s="2">
+        <v>4</v>
+      </c>
+      <c r="BU145" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV145" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW145" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BX145" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY145" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BZ145" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA145" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CB145" s="2"/>
+      <c r="CC145" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD145" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE145" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF145" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG145" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH145" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI145" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:87" x14ac:dyDescent="0.15">
+      <c r="A146">
+        <v>145</v>
+      </c>
+      <c r="B146" t="s">
+        <v>546</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D146" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="E146" s="2">
+        <v>2</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G146" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H146" s="2">
+        <v>3</v>
+      </c>
+      <c r="I146" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J146" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K146" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L146" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M146" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N146" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O146" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P146" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q146" s="2">
+        <v>2</v>
+      </c>
+      <c r="R146" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S146" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T146" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U146" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V146" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W146" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X146" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y146" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z146" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA146" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB146" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC146" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="AD146" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE146" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF146" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG146" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH146" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI146" s="2" t="s">
+        <v>548</v>
+      </c>
+      <c r="AJ146" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK146" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL146" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM146" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="AN146" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO146" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP146" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ146" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR146" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS146" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT146" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU146" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV146" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW146" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX146" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY146" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ146" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA146" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB146" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC146" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD146" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE146" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF146" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG146" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BH146" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI146" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ146" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BK146" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL146" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BM146" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN146" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO146" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP146" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ146" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR146" s="2"/>
+      <c r="BS146" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT146" s="2">
+        <v>4</v>
+      </c>
+      <c r="BU146" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV146" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW146" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BX146" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY146" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BZ146" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA146" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CB146" s="2"/>
+      <c r="CC146" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD146" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE146" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF146" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG146" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH146" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI146" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:87" x14ac:dyDescent="0.15">
+      <c r="A147">
+        <v>146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>558</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D147" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="E147" s="2">
+        <v>2</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G147" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="I147" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J147" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K147" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L147" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M147" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N147" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O147" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P147" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q147" s="2">
+        <v>2</v>
+      </c>
+      <c r="R147" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S147" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T147" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U147" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V147" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W147" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X147" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y147" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z147" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA147" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB147" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC147" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD147" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE147" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF147" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG147" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH147" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI147" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="AJ147" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="AK147" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL147" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM147" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="AN147" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO147" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP147" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ147" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="AR147" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS147" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="AT147" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU147" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV147" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW147" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX147" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY147" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ147" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA147" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB147" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC147" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD147" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE147" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF147" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG147" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BH147" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI147" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ147" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BK147" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL147" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BM147" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN147" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="BO147" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP147" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ147" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR147" s="2"/>
+      <c r="BS147" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT147" s="2">
+        <v>4</v>
+      </c>
+      <c r="BU147" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV147" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW147" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BX147" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY147" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BZ147" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA147" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CB147" s="2"/>
+      <c r="CC147" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD147" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE147" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF147" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG147" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH147" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI147" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:87" x14ac:dyDescent="0.15">
+      <c r="A148">
+        <v>147</v>
+      </c>
+      <c r="B148" t="s">
+        <v>559</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="E148" s="2">
+        <v>2</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G148" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="I148" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J148" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K148" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L148" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M148" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N148" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O148" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P148" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q148" s="2">
+        <v>2</v>
+      </c>
+      <c r="R148" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S148" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T148" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U148" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V148" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W148" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X148" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y148" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z148" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA148" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB148" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC148" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD148" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH148" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI148" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="AJ148" s="2" t="s">
+        <v>556</v>
+      </c>
+      <c r="AK148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL148" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM148" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="AN148" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO148" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP148" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ148" s="2" t="s">
+        <v>555</v>
+      </c>
+      <c r="AR148" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS148" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="AT148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU148" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV148" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW148" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY148" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ148" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA148" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB148" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC148" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD148" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE148" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF148" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG148" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BH148" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI148" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ148" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BK148" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL148" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BM148" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN148" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="BO148" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP148" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ148" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR148" s="2"/>
+      <c r="BS148" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT148" s="2">
+        <v>4</v>
+      </c>
+      <c r="BU148" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV148" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW148" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BX148" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY148" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BZ148" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA148" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CB148" s="2"/>
+      <c r="CC148" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD148" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE148" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF148" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG148" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH148" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI148" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:87" x14ac:dyDescent="0.15">
+      <c r="A149">
+        <v>148</v>
+      </c>
+      <c r="B149" t="s">
+        <v>563</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E149" s="2">
+        <v>2</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G149" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H149" s="2">
+        <v>3</v>
+      </c>
+      <c r="I149" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J149" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K149" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L149" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M149" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N149" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O149" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P149" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q149" s="2">
+        <v>2</v>
+      </c>
+      <c r="R149" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S149" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T149" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U149" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V149" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W149" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X149" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y149" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z149" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA149" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB149" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC149" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="AD149" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE149" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF149" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG149" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH149" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI149" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ149" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK149" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL149" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM149" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN149" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO149" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP149" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ149" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR149" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS149" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="AT149" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU149" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV149" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW149" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX149" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY149" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ149" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA149" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB149" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC149" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD149" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE149" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF149" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG149" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BH149" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI149" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ149" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BK149" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL149" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BM149" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN149" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO149" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP149" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ149" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR149" s="2"/>
+      <c r="BS149" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT149" s="2">
+        <v>4</v>
+      </c>
+      <c r="BU149" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV149" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW149" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BX149" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY149" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BZ149" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA149" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CB149" s="2"/>
+      <c r="CC149" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD149" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE149" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF149" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG149" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH149" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI149" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:87" x14ac:dyDescent="0.15">
+      <c r="A150">
+        <v>149</v>
+      </c>
+      <c r="B150" t="s">
+        <v>565</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E150" s="2">
+        <v>2</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G150" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H150" s="2">
+        <v>3</v>
+      </c>
+      <c r="I150" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J150" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K150" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L150" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M150" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N150" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O150" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P150" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q150" s="2">
+        <v>2</v>
+      </c>
+      <c r="R150" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S150" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T150" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U150" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V150" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W150" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X150" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y150" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z150" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA150" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB150" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC150" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="AD150" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE150" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="AF150" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG150" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH150" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI150" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ150" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK150" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL150" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM150" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN150" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO150" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP150" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ150" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR150" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS150" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="AT150" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU150" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV150" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW150" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX150" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="AY150" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ150" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA150" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB150" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC150" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD150" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE150" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF150" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG150" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BH150" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI150" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ150" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BK150" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL150" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BM150" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN150" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO150" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP150" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ150" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR150" s="2"/>
+      <c r="BS150" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT150" s="2">
+        <v>4</v>
+      </c>
+      <c r="BU150" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV150" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW150" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BX150" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY150" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BZ150" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA150" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CB150" s="2"/>
+      <c r="CC150" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD150" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE150" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF150" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG150" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH150" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI150" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:87" x14ac:dyDescent="0.15">
+      <c r="A151">
+        <v>150</v>
+      </c>
+      <c r="B151" t="s">
+        <v>569</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E151" s="2">
+        <v>2</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G151" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H151" s="2">
+        <v>3</v>
+      </c>
+      <c r="I151" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J151" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K151" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L151" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M151" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N151" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O151" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P151" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q151" s="2">
+        <v>2</v>
+      </c>
+      <c r="R151" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S151" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T151" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U151" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V151" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W151" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X151" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y151" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z151" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA151" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB151" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC151" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="AD151" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE151" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF151" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="AG151" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AH151" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI151" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ151" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK151" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL151" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM151" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN151" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO151" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP151" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ151" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR151" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS151" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="AT151" s="2" t="s">
+        <v>570</v>
+      </c>
+      <c r="AU151" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV151" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW151" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX151" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY151" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ151" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA151" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB151" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC151" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD151" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE151" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF151" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG151" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BH151" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI151" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ151" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BK151" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL151" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BM151" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN151" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO151" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP151" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ151" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR151" s="2"/>
+      <c r="BS151" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT151" s="2">
+        <v>4</v>
+      </c>
+      <c r="BU151" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV151" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW151" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BX151" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY151" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BZ151" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA151" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CB151" s="2"/>
+      <c r="CC151" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD151" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE151" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF151" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG151" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH151" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI151" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:87" x14ac:dyDescent="0.15">
+      <c r="A152">
+        <v>151</v>
+      </c>
+      <c r="B152" t="s">
+        <v>571</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E152" s="2">
+        <v>2</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G152" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H152" s="2">
+        <v>3</v>
+      </c>
+      <c r="I152" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J152" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K152" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L152" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M152" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N152" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O152" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P152" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q152" s="2">
+        <v>2</v>
+      </c>
+      <c r="R152" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S152" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T152" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U152" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V152" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W152" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X152" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y152" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z152" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA152" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB152" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC152" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="AD152" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE152" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AF152" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG152" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH152" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI152" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ152" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK152" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL152" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM152" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN152" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO152" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP152" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ152" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR152" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS152" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="AT152" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AU152" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV152" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW152" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX152" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY152" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ152" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA152" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB152" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC152" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD152" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE152" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF152" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG152" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BH152" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI152" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ152" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BK152" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL152" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BM152" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN152" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO152" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP152" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ152" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR152" s="2"/>
+      <c r="BS152" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT152" s="2">
+        <v>4</v>
+      </c>
+      <c r="BU152" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV152" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW152" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BX152" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY152" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BZ152" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA152" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CB152" s="2"/>
+      <c r="CC152" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD152" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE152" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF152" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG152" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH152" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI152" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:87" x14ac:dyDescent="0.15">
+      <c r="A153">
+        <v>152</v>
+      </c>
+      <c r="B153" t="s">
+        <v>576</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D153" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E153" s="2">
+        <v>2</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G153" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H153" s="2">
+        <v>3</v>
+      </c>
+      <c r="I153" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J153" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K153" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L153" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M153" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N153" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O153" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P153" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q153" s="2">
+        <v>2</v>
+      </c>
+      <c r="R153" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S153" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T153" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U153" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V153" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W153" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X153" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y153" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z153" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA153" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB153" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC153" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="AD153" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE153" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AF153" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG153" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH153" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI153" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ153" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK153" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL153" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM153" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN153" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO153" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP153" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ153" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR153" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS153" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="AT153" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="AU153" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV153" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW153" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX153" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY153" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ153" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA153" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB153" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC153" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD153" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE153" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF153" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG153" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BH153" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI153" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ153" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BK153" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL153" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BM153" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN153" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO153" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP153" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ153" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR153" s="2"/>
+      <c r="BS153" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT153" s="2">
+        <v>4</v>
+      </c>
+      <c r="BU153" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV153" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW153" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BX153" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY153" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BZ153" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA153" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CB153" s="2"/>
+      <c r="CC153" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD153" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE153" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF153" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG153" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="CH153" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI153" s="2">
         <v>0</v>
       </c>
     </row>

--- a/bin/conf/buff.xlsx
+++ b/bin/conf/buff.xlsx
@@ -2224,7 +2224,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7932" uniqueCount="578">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8755" uniqueCount="616">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4453,6 +4453,158 @@
   </si>
   <si>
     <t>400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原力法杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纷争面纱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纷争面纱(技能buf)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大根</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风杖无敌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风杖对敌人造成伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿托斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿托斯的致残</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A杖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>175</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>175</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫苑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫苑的沉默</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刷新球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊刀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>35</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>羊刀buf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-0.7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4826,11 +4978,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CI153"/>
+  <dimension ref="A1:CI168"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A118" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L159" sqref="L159"/>
+      <pane ySplit="1" topLeftCell="A134" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I173" sqref="I173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -41302,7 +41454,7 @@
         <v>45</v>
       </c>
       <c r="BK141" s="2" t="s">
-        <v>74</v>
+        <v>550</v>
       </c>
       <c r="BL141" s="2" t="s">
         <v>95</v>
@@ -41561,7 +41713,7 @@
         <v>45</v>
       </c>
       <c r="BK142" s="2" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
       <c r="BL142" s="2" t="s">
         <v>49</v>
@@ -44410,7 +44562,7 @@
         <v>45</v>
       </c>
       <c r="BK153" s="2" t="s">
-        <v>74</v>
+        <v>550</v>
       </c>
       <c r="BL153" s="2" t="s">
         <v>95</v>
@@ -44478,6 +44630,3891 @@
         <v>91</v>
       </c>
       <c r="CI153" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:87" x14ac:dyDescent="0.15">
+      <c r="A154">
+        <v>153</v>
+      </c>
+      <c r="B154" t="s">
+        <v>578</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E154" s="2">
+        <v>2</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G154" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H154" s="2">
+        <v>3</v>
+      </c>
+      <c r="I154" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J154" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K154" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L154" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M154" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N154" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O154" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P154" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q154" s="2">
+        <v>2</v>
+      </c>
+      <c r="R154" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S154" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T154" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U154" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V154" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W154" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X154" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y154" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z154" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA154" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB154" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC154" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="AD154" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE154" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF154" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG154" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH154" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI154" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ154" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK154" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL154" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM154" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN154" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO154" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP154" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ154" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR154" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS154" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT154" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU154" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV154" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW154" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX154" s="2" t="s">
+        <v>579</v>
+      </c>
+      <c r="AY154" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ154" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA154" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB154" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC154" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD154" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE154" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF154" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG154" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BH154" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI154" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ154" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BK154" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL154" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BM154" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN154" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO154" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP154" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ154" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR154" s="2"/>
+      <c r="BS154" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT154" s="2">
+        <v>4</v>
+      </c>
+      <c r="BU154" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV154" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW154" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BX154" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY154" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BZ154" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA154" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CB154" s="2"/>
+      <c r="CC154" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD154" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE154" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF154" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG154" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH154" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI154" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:87" x14ac:dyDescent="0.15">
+      <c r="A155">
+        <v>154</v>
+      </c>
+      <c r="B155" t="s">
+        <v>580</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E155" s="2">
+        <v>2</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G155" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H155" s="2">
+        <v>3</v>
+      </c>
+      <c r="I155" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J155" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K155" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L155" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M155" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N155" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O155" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P155" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q155" s="2">
+        <v>2</v>
+      </c>
+      <c r="R155" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S155" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T155" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U155" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V155" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W155" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X155" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y155" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z155" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA155" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB155" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC155" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="AD155" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE155" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="AF155" s="2" t="s">
+        <v>581</v>
+      </c>
+      <c r="AG155" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="AH155" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI155" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ155" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK155" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL155" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM155" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN155" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO155" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP155" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ155" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR155" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS155" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="AT155" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU155" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV155" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW155" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX155" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="AY155" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ155" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA155" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB155" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC155" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD155" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE155" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF155" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG155" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BH155" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI155" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ155" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BK155" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL155" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BM155" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN155" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO155" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP155" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ155" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR155" s="2"/>
+      <c r="BS155" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT155" s="2">
+        <v>4</v>
+      </c>
+      <c r="BU155" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV155" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW155" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BX155" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY155" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BZ155" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA155" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CB155" s="2"/>
+      <c r="CC155" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD155" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE155" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF155" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG155" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH155" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI155" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:87" x14ac:dyDescent="0.15">
+      <c r="A156">
+        <v>155</v>
+      </c>
+      <c r="B156" t="s">
+        <v>583</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D156" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E156" s="2">
+        <v>2</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G156" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H156" s="2">
+        <v>3</v>
+      </c>
+      <c r="I156" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J156" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K156" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L156" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M156" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N156" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O156" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P156" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q156" s="2">
+        <v>2</v>
+      </c>
+      <c r="R156" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S156" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T156" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U156" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V156" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W156" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X156" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y156" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z156" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA156" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB156" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC156" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="AD156" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE156" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF156" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG156" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH156" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI156" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ156" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK156" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL156" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM156" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN156" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO156" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP156" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ156" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR156" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS156" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AT156" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="AU156" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV156" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW156" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX156" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY156" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ156" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA156" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB156" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC156" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD156" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE156" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF156" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG156" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BH156" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI156" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ156" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BK156" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="BL156" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BM156" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN156" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO156" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP156" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ156" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR156" s="2"/>
+      <c r="BS156" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT156" s="2">
+        <v>4</v>
+      </c>
+      <c r="BU156" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV156" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW156" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BX156" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY156" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BZ156" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA156" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CB156" s="2"/>
+      <c r="CC156" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD156" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE156" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF156" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG156" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH156" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI156" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:87" x14ac:dyDescent="0.15">
+      <c r="A157">
+        <v>156</v>
+      </c>
+      <c r="B157" t="s">
+        <v>585</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D157" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E157" s="2">
+        <v>2</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G157" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H157" s="2">
+        <v>3</v>
+      </c>
+      <c r="I157" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J157" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K157" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L157" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M157" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N157" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O157" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P157" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q157" s="2">
+        <v>2</v>
+      </c>
+      <c r="R157" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S157" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T157" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U157" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V157" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W157" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X157" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y157" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z157" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA157" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB157" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC157" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="AD157" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE157" s="2" t="s">
+        <v>586</v>
+      </c>
+      <c r="AF157" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="AG157" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH157" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI157" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ157" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK157" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL157" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM157" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN157" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO157" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP157" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ157" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR157" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS157" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT157" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU157" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV157" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW157" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX157" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY157" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ157" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA157" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB157" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC157" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD157" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE157" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF157" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG157" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BH157" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI157" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ157" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BK157" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL157" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BM157" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN157" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO157" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP157" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ157" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR157" s="2"/>
+      <c r="BS157" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT157" s="2">
+        <v>4</v>
+      </c>
+      <c r="BU157" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV157" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW157" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BX157" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY157" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BZ157" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA157" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CB157" s="2"/>
+      <c r="CC157" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD157" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE157" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF157" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG157" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH157" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI157" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:87" x14ac:dyDescent="0.15">
+      <c r="A158">
+        <v>157</v>
+      </c>
+      <c r="B158" t="s">
+        <v>588</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D158" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E158" s="2">
+        <v>2</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G158" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H158" s="2">
+        <v>3</v>
+      </c>
+      <c r="I158" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J158" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K158" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L158" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M158" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N158" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O158" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P158" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q158" s="2">
+        <v>2</v>
+      </c>
+      <c r="R158" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S158" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T158" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U158" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V158" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W158" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X158" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y158" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z158" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA158" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB158" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC158" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="AD158" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE158" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF158" s="2" t="s">
+        <v>589</v>
+      </c>
+      <c r="AG158" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH158" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI158" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ158" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK158" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL158" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM158" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="AN158" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="AO158" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP158" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ158" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AR158" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS158" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT158" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU158" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV158" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW158" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX158" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY158" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ158" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA158" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB158" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC158" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD158" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE158" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF158" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG158" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BH158" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI158" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ158" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BK158" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL158" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BM158" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN158" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO158" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP158" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ158" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR158" s="2"/>
+      <c r="BS158" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT158" s="2">
+        <v>4</v>
+      </c>
+      <c r="BU158" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV158" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW158" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BX158" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY158" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BZ158" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA158" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CB158" s="2"/>
+      <c r="CC158" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD158" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE158" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF158" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG158" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH158" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI158" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:87" x14ac:dyDescent="0.15">
+      <c r="A159">
+        <v>158</v>
+      </c>
+      <c r="B159" t="s">
+        <v>594</v>
+      </c>
+      <c r="C159" s="2">
+        <v>4</v>
+      </c>
+      <c r="D159" s="2">
+        <v>1</v>
+      </c>
+      <c r="E159" s="2">
+        <v>2</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G159" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H159" s="2">
+        <v>3</v>
+      </c>
+      <c r="I159" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J159" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K159" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="L159" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="M159" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N159" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="O159" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P159" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q159" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="R159" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S159" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T159" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U159" s="2" t="s">
+        <v>551</v>
+      </c>
+      <c r="V159" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="W159" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="X159" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y159" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z159" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA159" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB159" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC159" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="AD159" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE159" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF159" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG159" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH159" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI159" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ159" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK159" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL159">
+        <v>0</v>
+      </c>
+      <c r="AM159" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN159" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO159" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP159" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ159" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR159" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS159" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT159" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU159" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV159" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW159" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX159" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY159" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ159" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA159" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB159" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC159" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD159" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE159" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF159" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BG159" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BH159" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI159" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ159" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BK159" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="BL159" s="2" t="s">
+        <v>593</v>
+      </c>
+      <c r="BM159" s="2">
+        <v>2</v>
+      </c>
+      <c r="BN159" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO159" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP159" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ159" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR159" s="2"/>
+      <c r="BS159" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT159" s="2">
+        <v>4</v>
+      </c>
+      <c r="BU159" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV159" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW159" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BX159" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY159" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BZ159" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA159" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CB159" s="2"/>
+      <c r="CC159" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD159" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE159" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF159" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG159" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH159" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI159" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:87" x14ac:dyDescent="0.15">
+      <c r="A160">
+        <v>159</v>
+      </c>
+      <c r="B160" t="s">
+        <v>595</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="D160" s="2">
+        <v>1</v>
+      </c>
+      <c r="E160" s="2">
+        <v>2</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G160" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H160" s="2">
+        <v>3</v>
+      </c>
+      <c r="I160" s="2">
+        <v>2</v>
+      </c>
+      <c r="J160" s="2">
+        <v>2</v>
+      </c>
+      <c r="K160" s="2">
+        <v>2</v>
+      </c>
+      <c r="L160" s="2">
+        <v>2</v>
+      </c>
+      <c r="M160" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N160" s="2">
+        <v>2</v>
+      </c>
+      <c r="O160" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P160" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q160" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="R160" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S160" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T160" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U160" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V160" s="2">
+        <v>2</v>
+      </c>
+      <c r="W160" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X160" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y160" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z160" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA160" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB160" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC160" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD160" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE160" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF160" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG160" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH160" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI160" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AJ160" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK160" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL160" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM160" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN160" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO160" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP160" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ160" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR160" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS160" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT160" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU160" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV160" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW160" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX160" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY160" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ160" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA160" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB160" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC160" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD160" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE160" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF160" s="2" t="s">
+        <v>598</v>
+      </c>
+      <c r="BG160" s="2">
+        <v>2</v>
+      </c>
+      <c r="BH160" s="2">
+        <v>2</v>
+      </c>
+      <c r="BI160" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ160" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="BK160" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="BL160" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BM160" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BN160" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO160" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP160" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ160" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR160" s="2"/>
+      <c r="BS160" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT160" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BU160" s="2" t="s">
+        <v>597</v>
+      </c>
+      <c r="BV160" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="BW160" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BX160" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY160" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BZ160" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA160" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CB160" s="2"/>
+      <c r="CC160" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD160" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE160" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF160" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG160" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH160" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI160" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:87" x14ac:dyDescent="0.15">
+      <c r="A161">
+        <v>160</v>
+      </c>
+      <c r="B161" t="s">
+        <v>599</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D161" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E161" s="2">
+        <v>2</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G161" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H161" s="2">
+        <v>3</v>
+      </c>
+      <c r="I161" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J161" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K161" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L161" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M161" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N161" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O161" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P161" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q161" s="2">
+        <v>2</v>
+      </c>
+      <c r="R161" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S161" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T161" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U161" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V161" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W161" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X161" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y161" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z161" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA161" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB161" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC161" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="AD161" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE161" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF161" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AG161" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH161" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI161" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ161" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK161" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL161" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM161" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN161" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO161" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP161" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ161" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR161" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS161" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT161" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU161" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV161" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW161" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX161" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY161" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ161" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA161" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB161" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC161" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD161" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE161" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF161" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG161" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BH161" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI161" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ161" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BK161" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL161" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BM161" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN161" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO161" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP161" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ161" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR161" s="2"/>
+      <c r="BS161" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT161" s="2">
+        <v>4</v>
+      </c>
+      <c r="BU161" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV161" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW161" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BX161" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY161" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BZ161" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA161" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CB161" s="2"/>
+      <c r="CC161" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD161" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE161" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF161" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG161" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH161" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI161" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:87" x14ac:dyDescent="0.15">
+      <c r="A162">
+        <v>161</v>
+      </c>
+      <c r="B162" t="s">
+        <v>600</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D162" s="2">
+        <v>1</v>
+      </c>
+      <c r="E162" s="2">
+        <v>2</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G162" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H162" s="2">
+        <v>3</v>
+      </c>
+      <c r="I162" s="2">
+        <v>1</v>
+      </c>
+      <c r="J162" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K162" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L162" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M162" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N162" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O162" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P162" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q162" s="2">
+        <v>2</v>
+      </c>
+      <c r="R162" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S162" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T162" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U162" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V162" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="W162" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="X162" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y162" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z162" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA162" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB162" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC162" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AD162" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE162" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF162" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG162" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH162" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI162" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ162" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK162" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL162" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM162" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN162" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO162" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP162" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ162" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR162" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS162" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT162" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU162" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV162" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW162" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX162" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY162" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ162" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA162" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB162" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC162" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD162" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE162" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF162" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG162" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BH162" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI162" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ162" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BK162" s="2" t="s">
+        <v>602</v>
+      </c>
+      <c r="BL162" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="BM162" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="BN162" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO162" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP162" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ162" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR162" s="2"/>
+      <c r="BS162" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT162" s="2">
+        <v>4</v>
+      </c>
+      <c r="BU162" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV162" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW162" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BX162" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY162" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BZ162" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA162" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CB162" s="2"/>
+      <c r="CC162" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD162" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE162" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF162" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG162" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH162" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI162" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:87" x14ac:dyDescent="0.15">
+      <c r="A163">
+        <v>162</v>
+      </c>
+      <c r="B163" t="s">
+        <v>603</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E163" s="2">
+        <v>2</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G163" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H163" s="2">
+        <v>3</v>
+      </c>
+      <c r="I163" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J163" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K163" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L163" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M163" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N163" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O163" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P163" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q163" s="2">
+        <v>2</v>
+      </c>
+      <c r="R163" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S163" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T163" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U163" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V163" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W163" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X163" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y163" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z163" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA163" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB163" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC163" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="AD163" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE163" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF163" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AG163" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH163" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI163" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ163" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK163" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL163" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM163" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN163" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO163" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP163" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ163" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR163" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS163" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT163" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU163" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV163" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW163" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX163" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY163" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ163" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA163" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB163" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC163" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD163" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE163" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF163" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG163" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BH163" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI163" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ163" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BK163" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL163" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BM163" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN163" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO163" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP163" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ163" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR163" s="2"/>
+      <c r="BS163" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT163" s="2">
+        <v>4</v>
+      </c>
+      <c r="BU163" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV163" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW163" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BX163" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY163" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BZ163" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA163" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CB163" s="2"/>
+      <c r="CC163" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD163" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE163" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="CF163" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="CG163" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH163" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI163" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:87" x14ac:dyDescent="0.15">
+      <c r="A164">
+        <v>163</v>
+      </c>
+      <c r="B164" t="s">
+        <v>606</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D164" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E164" s="2">
+        <v>2</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G164" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H164" s="2">
+        <v>3</v>
+      </c>
+      <c r="I164" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J164" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K164" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L164" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M164" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N164" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O164" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P164" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q164" s="2">
+        <v>2</v>
+      </c>
+      <c r="R164" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S164" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T164" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U164" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V164" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W164" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X164" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y164" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z164" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA164" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB164" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC164" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="AD164" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE164" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF164" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG164" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH164" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI164" s="2" t="s">
+        <v>607</v>
+      </c>
+      <c r="AJ164" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK164" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="AL164" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM164" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN164" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO164" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP164" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ164" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="AR164" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS164" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT164" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU164" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV164" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW164" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX164" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY164" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ164" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA164" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB164" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC164" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD164" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE164" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF164" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG164" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BH164" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI164" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ164" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BK164" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL164" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BM164" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN164" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO164" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP164" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ164" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR164" s="2"/>
+      <c r="BS164" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT164" s="2">
+        <v>4</v>
+      </c>
+      <c r="BU164" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV164" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW164" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BX164" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY164" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BZ164" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA164" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CB164" s="2"/>
+      <c r="CC164" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD164" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE164" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF164" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG164" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH164" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI164" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:87" x14ac:dyDescent="0.15">
+      <c r="A165">
+        <v>164</v>
+      </c>
+      <c r="B165" t="s">
+        <v>609</v>
+      </c>
+      <c r="C165" s="2">
+        <v>4</v>
+      </c>
+      <c r="D165" s="2">
+        <v>1</v>
+      </c>
+      <c r="E165" s="2">
+        <v>2</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G165" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H165" s="2">
+        <v>3</v>
+      </c>
+      <c r="I165" s="2">
+        <v>2</v>
+      </c>
+      <c r="J165" s="2">
+        <v>2</v>
+      </c>
+      <c r="K165" s="2">
+        <v>2</v>
+      </c>
+      <c r="L165" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M165" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N165" s="2">
+        <v>2</v>
+      </c>
+      <c r="O165" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P165" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q165" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R165" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S165" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T165" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U165" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V165" s="2">
+        <v>2</v>
+      </c>
+      <c r="W165" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X165" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y165" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z165" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA165" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB165" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC165" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD165" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE165" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF165" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG165" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH165" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI165" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ165" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK165" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL165" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM165" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN165" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO165" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP165" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ165" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR165" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS165" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT165" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU165" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV165" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW165" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX165" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY165" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ165" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA165" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB165" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC165" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD165" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE165" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF165" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BG165" s="2">
+        <v>2</v>
+      </c>
+      <c r="BH165" s="2">
+        <v>2</v>
+      </c>
+      <c r="BI165" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ165" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BK165" s="2">
+        <v>1</v>
+      </c>
+      <c r="BL165" s="2">
+        <v>2</v>
+      </c>
+      <c r="BM165" s="2">
+        <v>2</v>
+      </c>
+      <c r="BN165" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO165" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP165" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="BQ165" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR165" s="2"/>
+      <c r="BS165" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT165" s="2">
+        <v>4</v>
+      </c>
+      <c r="BU165" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV165" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW165" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BX165" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY165" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BZ165" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA165" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CB165" s="2"/>
+      <c r="CC165" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD165" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE165" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF165" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG165" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH165" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI165" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:87" x14ac:dyDescent="0.15">
+      <c r="A166">
+        <v>165</v>
+      </c>
+      <c r="B166" t="s">
+        <v>611</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D166" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E166" s="2">
+        <v>2</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G166" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H166" s="2">
+        <v>3</v>
+      </c>
+      <c r="I166" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J166" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K166" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L166" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M166" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N166" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O166" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P166" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q166" s="2">
+        <v>2</v>
+      </c>
+      <c r="R166" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S166" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T166" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U166" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V166" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W166" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X166" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y166" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z166" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA166" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB166" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC166" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="AD166" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE166" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF166" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG166" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH166" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI166" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ166" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK166" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL166" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM166" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN166" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO166" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP166" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ166" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="AR166" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS166" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT166" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU166" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV166" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW166" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX166" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="AY166" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ166" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA166" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB166" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC166" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD166" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE166" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF166" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG166" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BH166" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI166" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ166" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BK166" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL166" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BM166" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN166" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO166" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP166" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ166" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR166" s="2"/>
+      <c r="BS166" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT166" s="2">
+        <v>4</v>
+      </c>
+      <c r="BU166" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV166" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW166" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BX166" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY166" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BZ166" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA166" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CB166" s="2"/>
+      <c r="CC166" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD166" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE166" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF166" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG166" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH166" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI166" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:87" x14ac:dyDescent="0.15">
+      <c r="A167">
+        <v>166</v>
+      </c>
+      <c r="B167" t="s">
+        <v>612</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E167" s="2">
+        <v>2</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G167" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H167" s="2">
+        <v>3</v>
+      </c>
+      <c r="I167" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J167" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K167" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L167" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M167" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N167" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O167" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P167" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q167" s="2">
+        <v>2</v>
+      </c>
+      <c r="R167" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S167" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T167" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U167" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V167" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W167" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X167" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y167" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z167" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA167" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB167" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC167" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="AD167" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE167" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AF167" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="AG167" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH167" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI167" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ167" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK167" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL167" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM167" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN167" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO167" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP167" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ167" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="AR167" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS167" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT167" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU167" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV167" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW167" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX167" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY167" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ167" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA167" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB167" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC167" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD167" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE167" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF167" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG167" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BH167" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI167" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ167" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BK167" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL167" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BM167" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN167" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO167" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP167" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ167" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR167" s="2"/>
+      <c r="BS167" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT167" s="2">
+        <v>4</v>
+      </c>
+      <c r="BU167" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV167" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW167" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BX167" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY167" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BZ167" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA167" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CB167" s="2"/>
+      <c r="CC167" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD167" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE167" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF167" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG167" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH167" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI167" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:87" x14ac:dyDescent="0.15">
+      <c r="A168">
+        <v>167</v>
+      </c>
+      <c r="B168" t="s">
+        <v>614</v>
+      </c>
+      <c r="C168" s="2">
+        <v>4</v>
+      </c>
+      <c r="D168" s="2">
+        <v>1</v>
+      </c>
+      <c r="E168" s="2">
+        <v>2</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G168" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H168" s="2">
+        <v>3</v>
+      </c>
+      <c r="I168" s="2">
+        <v>2</v>
+      </c>
+      <c r="J168" s="2">
+        <v>2</v>
+      </c>
+      <c r="K168" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="L168" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M168" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N168" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="O168" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P168" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q168" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R168" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S168" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T168" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U168" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V168" s="2">
+        <v>2</v>
+      </c>
+      <c r="W168" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X168" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y168" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z168" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA168" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB168" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC168" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="AD168" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE168" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF168" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG168" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH168" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI168" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ168" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK168" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL168" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM168" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="AN168" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO168" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP168" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ168" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR168" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS168" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT168" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU168" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV168" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW168" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX168" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY168" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ168" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA168" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB168" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC168" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD168" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE168" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF168" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BG168" s="2">
+        <v>2</v>
+      </c>
+      <c r="BH168" s="2">
+        <v>2</v>
+      </c>
+      <c r="BI168" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ168" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BK168" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="BL168" s="2">
+        <v>2</v>
+      </c>
+      <c r="BM168" s="2">
+        <v>2</v>
+      </c>
+      <c r="BN168" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO168" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP168" s="2" t="s">
+        <v>553</v>
+      </c>
+      <c r="BQ168" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR168" s="2"/>
+      <c r="BS168" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT168" s="2">
+        <v>4</v>
+      </c>
+      <c r="BU168" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV168" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW168" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BX168" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY168" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BZ168" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA168" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CB168" s="2"/>
+      <c r="CC168" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD168" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE168" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF168" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG168" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH168" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI168" s="2">
         <v>0</v>
       </c>
     </row>

--- a/bin/conf/buff.xlsx
+++ b/bin/conf/buff.xlsx
@@ -2250,7 +2250,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10631" uniqueCount="685">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11041" uniqueCount="710">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -4906,6 +4906,106 @@
   </si>
   <si>
     <t>-0.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血晶石</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>475</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>425</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>林肯法球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强袭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强袭(敌方光环buf)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>-5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强袭(我方光环buf)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>45</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙心的回血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5279,11 +5379,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CJ198"/>
+  <dimension ref="A1:CJ205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L216" sqref="L216"/>
+      <pane ySplit="1" topLeftCell="A188" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J222" sqref="J222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -57183,6 +57283,1840 @@
         <v>0</v>
       </c>
     </row>
+    <row r="199" spans="1:88" x14ac:dyDescent="0.15">
+      <c r="A199">
+        <v>198</v>
+      </c>
+      <c r="B199" t="s">
+        <v>685</v>
+      </c>
+      <c r="C199" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D199" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E199" s="2">
+        <v>2</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G199" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H199" s="2">
+        <v>3</v>
+      </c>
+      <c r="I199" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J199" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K199" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L199" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M199" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N199" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O199" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P199" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q199" s="2">
+        <v>2</v>
+      </c>
+      <c r="R199" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S199" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T199" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U199" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V199" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W199" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X199" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y199" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z199" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA199" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB199" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC199" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="AD199" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE199" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF199" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG199" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH199" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI199" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ199" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK199" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL199" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM199" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN199" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO199" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP199" s="2" t="s">
+        <v>687</v>
+      </c>
+      <c r="AQ199" s="2" t="s">
+        <v>686</v>
+      </c>
+      <c r="AR199" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS199" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT199" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU199" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV199" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW199" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX199" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="AY199" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ199" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA199" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB199" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC199" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD199" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE199" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF199" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG199" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BH199" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI199" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ199" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BK199" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL199" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BM199" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN199" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO199" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP199" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ199" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR199" s="2"/>
+      <c r="BS199" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT199" s="2">
+        <v>4</v>
+      </c>
+      <c r="BU199" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV199" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW199" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BX199" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY199" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BZ199" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA199" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CB199" s="2"/>
+      <c r="CC199" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD199" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE199" s="2" t="s">
+        <v>688</v>
+      </c>
+      <c r="CF199" s="2" t="s">
+        <v>689</v>
+      </c>
+      <c r="CG199" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH199" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI199" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CJ199" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:88" x14ac:dyDescent="0.15">
+      <c r="A200">
+        <v>199</v>
+      </c>
+      <c r="B200" t="s">
+        <v>690</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D200" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E200" s="2">
+        <v>2</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G200" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H200" s="2">
+        <v>3</v>
+      </c>
+      <c r="I200" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J200" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K200" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L200" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M200" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N200" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O200" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P200" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q200" s="2">
+        <v>2</v>
+      </c>
+      <c r="R200" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S200" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T200" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U200" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V200" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W200" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X200" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y200" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z200" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA200" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB200" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC200" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="AD200" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE200" s="2" t="s">
+        <v>587</v>
+      </c>
+      <c r="AF200" s="2" t="s">
+        <v>691</v>
+      </c>
+      <c r="AG200" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="AH200" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI200" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ200" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK200" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL200" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM200" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN200" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO200" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP200" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ200" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="AR200" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS200" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT200" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU200" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV200" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW200" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX200" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="AY200" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ200" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA200" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB200" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC200" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD200" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE200" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF200" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG200" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BH200" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI200" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ200" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BK200" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL200" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BM200" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN200" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO200" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP200" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ200" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR200" s="2"/>
+      <c r="BS200" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT200" s="2">
+        <v>4</v>
+      </c>
+      <c r="BU200" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV200" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW200" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BX200" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY200" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BZ200" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA200" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CB200" s="2"/>
+      <c r="CC200" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD200" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE200" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF200" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG200" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH200" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI200" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CJ200" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:88" x14ac:dyDescent="0.15">
+      <c r="A201">
+        <v>200</v>
+      </c>
+      <c r="B201" t="s">
+        <v>695</v>
+      </c>
+      <c r="C201" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D201" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E201" s="2">
+        <v>2</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G201" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H201" s="2">
+        <v>3</v>
+      </c>
+      <c r="I201" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J201" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K201" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L201" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M201" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N201" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O201" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P201" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q201" s="2">
+        <v>2</v>
+      </c>
+      <c r="R201" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S201" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T201" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U201" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V201" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W201" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X201" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y201" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z201" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA201" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB201" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC201" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="AD201" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE201" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF201" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG201" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH201" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI201" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="AJ201" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK201" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL201" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM201" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN201" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO201" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP201" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ201" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR201" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS201" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="AT201" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU201" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV201" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW201" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX201" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY201" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ201" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA201" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB201" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC201" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD201" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE201" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF201" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG201" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BH201" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI201" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ201" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BK201" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL201" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BM201" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN201" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO201" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP201" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ201" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR201" s="2"/>
+      <c r="BS201" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT201" s="2">
+        <v>4</v>
+      </c>
+      <c r="BU201" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV201" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW201" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BX201" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY201" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BZ201" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA201" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CB201" s="2"/>
+      <c r="CC201" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD201" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE201" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF201" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG201" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH201" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI201" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CJ201" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:88" x14ac:dyDescent="0.15">
+      <c r="A202">
+        <v>201</v>
+      </c>
+      <c r="B202" t="s">
+        <v>697</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D202" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E202" s="2">
+        <v>2</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G202" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H202" s="2">
+        <v>3</v>
+      </c>
+      <c r="I202" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J202" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K202" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L202" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M202" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N202" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O202" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P202" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q202" s="2">
+        <v>2</v>
+      </c>
+      <c r="R202" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S202" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T202" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U202" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V202" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W202" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X202" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y202" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z202" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA202" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB202" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC202" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="AD202" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE202" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AF202" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG202" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH202" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI202" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="AJ202" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK202" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL202" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM202" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN202" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO202" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP202" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ202" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR202" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS202" s="2" t="s">
+        <v>699</v>
+      </c>
+      <c r="AT202" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="AU202" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV202" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW202" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX202" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY202" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ202" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA202" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB202" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC202" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD202" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE202" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF202" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG202" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BH202" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI202" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ202" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BK202" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL202" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BM202" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="BN202" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO202" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP202" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ202" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR202" s="2"/>
+      <c r="BS202" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT202" s="2">
+        <v>4</v>
+      </c>
+      <c r="BU202" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV202" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW202" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BX202" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY202" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BZ202" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA202" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CB202" s="2"/>
+      <c r="CC202" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD202" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE202" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF202" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG202" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH202" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI202" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CJ202" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:88" x14ac:dyDescent="0.15">
+      <c r="A203">
+        <v>202</v>
+      </c>
+      <c r="B203" t="s">
+        <v>701</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D203" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E203" s="2">
+        <v>2</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G203" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H203" s="2">
+        <v>3</v>
+      </c>
+      <c r="I203" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J203" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K203" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L203" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M203" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N203" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O203" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P203" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q203" s="2">
+        <v>2</v>
+      </c>
+      <c r="R203" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S203" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T203" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U203" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V203" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W203" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X203" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y203" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z203" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA203" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB203" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC203" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="AD203" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE203" s="2" t="s">
+        <v>573</v>
+      </c>
+      <c r="AF203" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG203" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH203" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI203" s="2" t="s">
+        <v>703</v>
+      </c>
+      <c r="AJ203" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK203" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL203" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM203" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN203" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO203" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP203" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ203" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR203" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS203" s="2" t="s">
+        <v>702</v>
+      </c>
+      <c r="AT203" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="AU203" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV203" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW203" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX203" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY203" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ203" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA203" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB203" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC203" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD203" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE203" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF203" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG203" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BH203" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI203" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ203" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BK203" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL203" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="BM203" s="2" t="s">
+        <v>700</v>
+      </c>
+      <c r="BN203" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO203" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP203" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ203" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR203" s="2"/>
+      <c r="BS203" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT203" s="2">
+        <v>4</v>
+      </c>
+      <c r="BU203" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV203" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW203" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BX203" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY203" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BZ203" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA203" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CB203" s="2"/>
+      <c r="CC203" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD203" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE203" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF203" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG203" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH203" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI203" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CJ203" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:88" x14ac:dyDescent="0.15">
+      <c r="A204">
+        <v>203</v>
+      </c>
+      <c r="B204" t="s">
+        <v>704</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D204" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E204" s="2">
+        <v>2</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G204" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H204" s="2">
+        <v>3</v>
+      </c>
+      <c r="I204" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J204" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K204" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L204" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M204" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N204" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O204" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P204" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q204" s="2">
+        <v>2</v>
+      </c>
+      <c r="R204" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S204" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T204" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U204" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V204" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W204" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X204" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y204" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z204" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA204" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB204" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC204" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="AD204" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE204" s="2" t="s">
+        <v>705</v>
+      </c>
+      <c r="AF204" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AG204" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AH204" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI204" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ204" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK204" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AL204" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM204" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN204" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO204" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP204" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ204" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AR204" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS204" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT204" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU204" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV204" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW204" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX204" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY204" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ204" s="2" t="s">
+        <v>706</v>
+      </c>
+      <c r="BA204" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB204" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC204" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD204" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE204" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF204" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG204" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BH204" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI204" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ204" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BK204" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="BL204" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BM204" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="BN204" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO204" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP204" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ204" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR204" s="2"/>
+      <c r="BS204" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT204" s="2">
+        <v>4</v>
+      </c>
+      <c r="BU204" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV204" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW204" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BX204" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY204" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BZ204" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA204" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CB204" s="2"/>
+      <c r="CC204" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD204" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE204" s="2" t="s">
+        <v>577</v>
+      </c>
+      <c r="CF204" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG204" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH204" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI204" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CJ204" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:88" x14ac:dyDescent="0.15">
+      <c r="A205">
+        <v>204</v>
+      </c>
+      <c r="B205" t="s">
+        <v>707</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D205" s="2">
+        <v>1</v>
+      </c>
+      <c r="E205" s="2">
+        <v>2</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="G205" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H205" s="2">
+        <v>3</v>
+      </c>
+      <c r="I205" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="J205" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K205" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="L205" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="M205" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="N205" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="O205" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="P205" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q205" s="2">
+        <v>2</v>
+      </c>
+      <c r="R205" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="S205" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="T205" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="U205" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="V205" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="W205" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="X205" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="Y205" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="Z205" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AA205" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="AB205" s="2">
+        <v>0</v>
+      </c>
+      <c r="AC205" s="2" t="s">
+        <v>708</v>
+      </c>
+      <c r="AD205" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE205" s="2">
+        <v>0</v>
+      </c>
+      <c r="AF205" s="2">
+        <v>0</v>
+      </c>
+      <c r="AG205" s="2">
+        <v>0</v>
+      </c>
+      <c r="AH205" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="AI205" s="2">
+        <v>0</v>
+      </c>
+      <c r="AJ205" s="2">
+        <v>0</v>
+      </c>
+      <c r="AK205" s="2">
+        <v>0</v>
+      </c>
+      <c r="AL205" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM205" s="2">
+        <v>0</v>
+      </c>
+      <c r="AN205" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO205" s="2">
+        <v>0</v>
+      </c>
+      <c r="AP205" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ205" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR205" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS205" s="2">
+        <v>0</v>
+      </c>
+      <c r="AT205" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AU205" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV205" s="2">
+        <v>0</v>
+      </c>
+      <c r="AW205" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX205" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY205" s="2" t="s">
+        <v>709</v>
+      </c>
+      <c r="AZ205" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BA205" s="2">
+        <v>0</v>
+      </c>
+      <c r="BB205" s="2">
+        <v>0</v>
+      </c>
+      <c r="BC205" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD205" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE205" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF205" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG205" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="BH205" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BI205" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BJ205" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BK205" s="2" t="s">
+        <v>637</v>
+      </c>
+      <c r="BL205" s="2">
+        <v>1</v>
+      </c>
+      <c r="BM205" s="2">
+        <v>1</v>
+      </c>
+      <c r="BN205" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BO205" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BP205" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BQ205" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BR205" s="2"/>
+      <c r="BS205" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="BT205" s="2">
+        <v>4</v>
+      </c>
+      <c r="BU205" s="2">
+        <v>1</v>
+      </c>
+      <c r="BV205" s="2">
+        <v>0</v>
+      </c>
+      <c r="BW205" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BX205" s="2">
+        <v>0</v>
+      </c>
+      <c r="BY205" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BZ205" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CA205" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="CB205" s="2"/>
+      <c r="CC205" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CD205" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CE205" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CF205" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CG205" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CH205" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CI205" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="CJ205" s="2">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bin/conf/buff.xlsx
+++ b/bin/conf/buff.xlsx
@@ -2302,7 +2302,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13364" uniqueCount="787">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13364" uniqueCount="786">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5203,10 +5203,6 @@
   </si>
   <si>
     <t>0.16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>30</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -5737,9 +5733,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CL236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AJ15" sqref="AJ15"/>
+    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="AQ204" sqref="AQ204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5781,7 +5777,7 @@
         <v>719</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>454</v>
@@ -9085,7 +9081,7 @@
         <v>91</v>
       </c>
       <c r="AK13" s="2" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="AL13" s="2">
         <v>0</v>
@@ -9618,7 +9614,7 @@
         <v>0</v>
       </c>
       <c r="AJ15" s="2" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AK15" s="2" t="s">
         <v>107</v>
@@ -10675,7 +10671,7 @@
         <v>0</v>
       </c>
       <c r="AE19" s="2" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="AF19" s="2" t="s">
         <v>91</v>
@@ -20081,7 +20077,7 @@
         <v>0</v>
       </c>
       <c r="AM54" s="2" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="AN54" s="2">
         <v>0</v>
@@ -29304,7 +29300,7 @@
         <v>1</v>
       </c>
       <c r="BX88" s="2" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="BY88" s="2" t="s">
         <v>91</v>
@@ -64312,7 +64308,7 @@
         <v>709</v>
       </c>
       <c r="AP219" s="2" t="s">
-        <v>747</v>
+        <v>608</v>
       </c>
       <c r="AQ219" s="2">
         <v>0</v>
@@ -64460,7 +64456,7 @@
         <v>219</v>
       </c>
       <c r="B220" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>65</v>
@@ -64556,10 +64552,10 @@
         <v>78</v>
       </c>
       <c r="AH220" s="2" t="s">
+        <v>748</v>
+      </c>
+      <c r="AI220" s="2" t="s">
         <v>749</v>
-      </c>
-      <c r="AI220" s="2" t="s">
-        <v>750</v>
       </c>
       <c r="AJ220" s="2" t="s">
         <v>91</v>
@@ -64705,7 +64701,7 @@
         <v>91</v>
       </c>
       <c r="CG220" s="2" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="CH220" s="2" t="s">
         <v>643</v>
@@ -64728,7 +64724,7 @@
         <v>220</v>
       </c>
       <c r="B221" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>65</v>
@@ -64833,94 +64829,94 @@
         <v>91</v>
       </c>
       <c r="AK221" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="AL221" s="2">
+        <v>0</v>
+      </c>
+      <c r="AM221" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN221" s="2">
+        <v>0</v>
+      </c>
+      <c r="AO221" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="AP221" s="2">
+        <v>0</v>
+      </c>
+      <c r="AQ221" s="2">
+        <v>0</v>
+      </c>
+      <c r="AR221" s="2">
+        <v>0</v>
+      </c>
+      <c r="AS221" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT221" s="2">
+        <v>0</v>
+      </c>
+      <c r="AU221" s="2">
+        <v>0</v>
+      </c>
+      <c r="AV221" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW221" s="2">
+        <v>0</v>
+      </c>
+      <c r="AX221" s="2">
+        <v>0</v>
+      </c>
+      <c r="AY221" s="2">
+        <v>0</v>
+      </c>
+      <c r="AZ221" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BA221" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="BB221" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="BC221" s="2">
+        <v>0</v>
+      </c>
+      <c r="BD221" s="2">
+        <v>0</v>
+      </c>
+      <c r="BE221" s="2">
+        <v>0</v>
+      </c>
+      <c r="BF221" s="2">
+        <v>0</v>
+      </c>
+      <c r="BG221" s="2">
+        <v>0</v>
+      </c>
+      <c r="BH221" s="2">
+        <v>0</v>
+      </c>
+      <c r="BI221" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BJ221" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BK221" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BL221" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="BM221" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="BN221" s="2" t="s">
         <v>755</v>
-      </c>
-      <c r="AL221" s="2">
-        <v>0</v>
-      </c>
-      <c r="AM221" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AN221" s="2">
-        <v>0</v>
-      </c>
-      <c r="AO221" s="2" t="s">
-        <v>757</v>
-      </c>
-      <c r="AP221" s="2">
-        <v>0</v>
-      </c>
-      <c r="AQ221" s="2">
-        <v>0</v>
-      </c>
-      <c r="AR221" s="2">
-        <v>0</v>
-      </c>
-      <c r="AS221" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT221" s="2">
-        <v>0</v>
-      </c>
-      <c r="AU221" s="2">
-        <v>0</v>
-      </c>
-      <c r="AV221" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="AW221" s="2">
-        <v>0</v>
-      </c>
-      <c r="AX221" s="2">
-        <v>0</v>
-      </c>
-      <c r="AY221" s="2">
-        <v>0</v>
-      </c>
-      <c r="AZ221" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="BA221" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="BB221" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="BC221" s="2">
-        <v>0</v>
-      </c>
-      <c r="BD221" s="2">
-        <v>0</v>
-      </c>
-      <c r="BE221" s="2">
-        <v>0</v>
-      </c>
-      <c r="BF221" s="2">
-        <v>0</v>
-      </c>
-      <c r="BG221" s="2">
-        <v>0</v>
-      </c>
-      <c r="BH221" s="2">
-        <v>0</v>
-      </c>
-      <c r="BI221" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="BJ221" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="BK221" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="BL221" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="BM221" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="BN221" s="2" t="s">
-        <v>756</v>
       </c>
       <c r="BO221" s="2" t="s">
         <v>49</v>
@@ -64996,7 +64992,7 @@
         <v>221</v>
       </c>
       <c r="B222" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>65</v>
@@ -65020,7 +65016,7 @@
         <v>91</v>
       </c>
       <c r="J222" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="K222" s="2" t="s">
         <v>49</v>
@@ -65113,7 +65109,7 @@
         <v>0</v>
       </c>
       <c r="AO222" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AP222" s="2">
         <v>0</v>
@@ -65264,7 +65260,7 @@
         <v>222</v>
       </c>
       <c r="B223" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>65</v>
@@ -65405,7 +65401,7 @@
         <v>43</v>
       </c>
       <c r="AW223" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AX223" s="2">
         <v>0</v>
@@ -65532,13 +65528,13 @@
         <v>223</v>
       </c>
       <c r="B224" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>65</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="E224" s="2">
         <v>2</v>
@@ -65643,7 +65639,7 @@
         <v>0</v>
       </c>
       <c r="AM224" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="AN224" s="2">
         <v>0</v>
@@ -65800,7 +65796,7 @@
         <v>224</v>
       </c>
       <c r="B225" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>65</v>
@@ -65911,7 +65907,7 @@
         <v>0</v>
       </c>
       <c r="AM225" s="2" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="AN225" s="2">
         <v>0</v>
@@ -66068,7 +66064,7 @@
         <v>225</v>
       </c>
       <c r="B226" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>65</v>
@@ -66179,7 +66175,7 @@
         <v>0</v>
       </c>
       <c r="AM226" s="2" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="AN226" s="2">
         <v>0</v>
@@ -66336,7 +66332,7 @@
         <v>226</v>
       </c>
       <c r="B227" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>554</v>
@@ -66447,7 +66443,7 @@
         <v>0</v>
       </c>
       <c r="AM227" s="2" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AN227" s="2">
         <v>0</v>
@@ -66604,7 +66600,7 @@
         <v>227</v>
       </c>
       <c r="B228" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>554</v>
@@ -66715,7 +66711,7 @@
         <v>0</v>
       </c>
       <c r="AM228" s="2" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="AN228" s="2">
         <v>0</v>
@@ -66872,7 +66868,7 @@
         <v>228</v>
       </c>
       <c r="B229" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>554</v>
@@ -67140,7 +67136,7 @@
         <v>229</v>
       </c>
       <c r="B230" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>554</v>
@@ -67408,7 +67404,7 @@
         <v>230</v>
       </c>
       <c r="B231" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>554</v>
@@ -67513,7 +67509,7 @@
         <v>91</v>
       </c>
       <c r="AK231" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="AL231" s="2">
         <v>0</v>
@@ -67676,7 +67672,7 @@
         <v>231</v>
       </c>
       <c r="B232" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>554</v>
@@ -67944,7 +67940,7 @@
         <v>232</v>
       </c>
       <c r="B233" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>554</v>
@@ -68212,7 +68208,7 @@
         <v>233</v>
       </c>
       <c r="B234" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>554</v>
@@ -68480,7 +68476,7 @@
         <v>234</v>
       </c>
       <c r="B235" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>554</v>
@@ -68748,7 +68744,7 @@
         <v>235</v>
       </c>
       <c r="B236" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>554</v>

--- a/bin/conf/buff.xlsx
+++ b/bin/conf/buff.xlsx
@@ -5733,9 +5733,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CL236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="W1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A182" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AQ204" sqref="AQ204"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A200" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L241" sqref="L241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/bin/conf/buff.xlsx
+++ b/bin/conf/buff.xlsx
@@ -67,7 +67,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//叠加类型 1:只更新最大时间 2:完美叠加(小鱼的偷属性)3:替换之前的</t>
+//叠加类型 1:只更新最大时间 2:完美叠加(小鱼的偷属性)3:替换之前的 4:添加时叠加 发生作用时不叠加(方便添加和删除 鞋类)</t>
         </r>
       </text>
     </comment>
@@ -2302,7 +2302,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13364" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13364" uniqueCount="791">
   <si>
     <t>TypeID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -5373,6 +5373,10 @@
   </si>
   <si>
     <t>2,3,4,5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5748,9 +5752,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CL236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AE47" sqref="A47:AE47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A89" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E119" sqref="E119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -37141,7 +37145,7 @@
         <v>65</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>407</v>
+        <v>68</v>
       </c>
       <c r="E118" s="2">
         <v>2</v>
@@ -39932,7 +39936,7 @@
         <v>0</v>
       </c>
       <c r="AO128" s="2" t="s">
-        <v>477</v>
+        <v>47</v>
       </c>
       <c r="AP128" s="2" t="s">
         <v>405</v>
@@ -40200,7 +40204,7 @@
         <v>0</v>
       </c>
       <c r="AO129" s="2" t="s">
-        <v>477</v>
+        <v>47</v>
       </c>
       <c r="AP129" s="2" t="s">
         <v>405</v>
@@ -41004,7 +41008,7 @@
         <v>0</v>
       </c>
       <c r="AO132" s="2" t="s">
-        <v>477</v>
+        <v>47</v>
       </c>
       <c r="AP132" s="2">
         <v>0</v>
@@ -44220,7 +44224,7 @@
         <v>0</v>
       </c>
       <c r="AO144" s="2" t="s">
-        <v>477</v>
+        <v>790</v>
       </c>
       <c r="AP144" s="2">
         <v>0</v>

--- a/bin/conf/buff.xlsx
+++ b/bin/conf/buff.xlsx
@@ -5785,9 +5785,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CM236"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10:T10"/>
+    <sheetView tabSelected="1" topLeftCell="BH1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A68" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BX86" sqref="BX86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -29068,7 +29068,7 @@
         <v>127</v>
       </c>
       <c r="BW86" s="2" t="s">
-        <v>367</v>
+        <v>153</v>
       </c>
       <c r="BX86" s="2">
         <v>1</v>
@@ -69770,7 +69770,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>